--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED30B3D-D662-4D4E-8CCB-8D60A23814E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A2E8B-70E7-4ECE-9C6D-8841D5DBE135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="3990" windowWidth="19740" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3360" windowWidth="19740" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="834">
   <si>
     <t>presetSelection</t>
   </si>
@@ -2493,6 +2493,42 @@
   <si>
     <t>船員 {0} がボタン
 残っている</t>
+  </si>
+  <si>
+    <t>Disable Admin Table</t>
+  </si>
+  <si>
+    <t>Disable Vitals Panel</t>
+  </si>
+  <si>
+    <t>Disable Vents</t>
+  </si>
+  <si>
+    <t>disableAdmin</t>
+  </si>
+  <si>
+    <t>disableVitals</t>
+  </si>
+  <si>
+    <t>disableCameras</t>
+  </si>
+  <si>
+    <t>disableVents</t>
+  </si>
+  <si>
+    <t>アドミンの使用禁止</t>
+  </si>
+  <si>
+    <t>心電図の使用禁止</t>
+  </si>
+  <si>
+    <t>ベントの使用禁止</t>
+  </si>
+  <si>
+    <t>Disable Security Devices</t>
+  </si>
+  <si>
+    <t>カメラ・ドアログの使用禁止</t>
   </si>
 </sst>
 </file>
@@ -2813,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q396"/>
+  <dimension ref="A1:Q401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="M196" sqref="M196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,290 +4578,290 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>825</v>
       </c>
       <c r="B191" t="s">
-        <v>688</v>
+        <v>822</v>
       </c>
       <c r="M191" t="s">
-        <v>300</v>
+        <v>829</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>827</v>
       </c>
       <c r="B192" t="s">
-        <v>689</v>
+        <v>832</v>
       </c>
       <c r="M192" t="s">
-        <v>301</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>826</v>
+      </c>
+      <c r="B193" t="s">
+        <v>823</v>
+      </c>
+      <c r="M193" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>302</v>
+        <v>828</v>
       </c>
       <c r="B194" t="s">
-        <v>690</v>
+        <v>824</v>
       </c>
       <c r="M194" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>303</v>
-      </c>
-      <c r="B195" t="s">
-        <v>691</v>
-      </c>
-      <c r="M195" t="s">
-        <v>305</v>
+        <v>831</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B196" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="M196" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>307</v>
-      </c>
-      <c r="B198" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>299</v>
+      </c>
+      <c r="B197" t="s">
+        <v>689</v>
+      </c>
+      <c r="M197" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>302</v>
+      </c>
+      <c r="B199" t="s">
+        <v>690</v>
+      </c>
+      <c r="M199" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="M200" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B201" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M201" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>312</v>
-      </c>
-      <c r="B202" t="s">
-        <v>693</v>
-      </c>
-      <c r="M202" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>313</v>
-      </c>
-      <c r="B204" t="s">
-        <v>625</v>
-      </c>
-      <c r="M204" t="s">
-        <v>233</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>307</v>
+      </c>
+      <c r="B203" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="M205" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M206" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>317</v>
-      </c>
-      <c r="B208" t="s">
-        <v>626</v>
-      </c>
-      <c r="M208" t="s">
-        <v>234</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>312</v>
+      </c>
+      <c r="B207" t="s">
+        <v>693</v>
+      </c>
+      <c r="M207" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B209" t="s">
-        <v>695</v>
+        <v>625</v>
       </c>
       <c r="M209" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B210" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="M210" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>321</v>
-      </c>
-      <c r="B212" t="s">
-        <v>627</v>
-      </c>
-      <c r="M212" t="s">
-        <v>235</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>316</v>
+      </c>
+      <c r="B211" t="s">
+        <v>694</v>
+      </c>
+      <c r="M211" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>696</v>
+        <v>626</v>
       </c>
       <c r="M213" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B214" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="M214" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>326</v>
-      </c>
-      <c r="B216" t="s">
-        <v>630</v>
-      </c>
-      <c r="M216" t="s">
-        <v>238</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>320</v>
+      </c>
+      <c r="B215" t="s">
+        <v>743</v>
+      </c>
+      <c r="M215" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B217" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="M217" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B218" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M218" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>330</v>
-      </c>
-      <c r="B220" t="s">
-        <v>698</v>
-      </c>
-      <c r="M220" t="s">
-        <v>331</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>324</v>
+      </c>
+      <c r="B219" t="s">
+        <v>744</v>
+      </c>
+      <c r="M219" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B221" t="s">
-        <v>699</v>
+        <v>630</v>
       </c>
       <c r="M221" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B222" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M222" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>335</v>
-      </c>
-      <c r="B224" t="s">
-        <v>700</v>
-      </c>
-      <c r="M224" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>329</v>
+      </c>
+      <c r="B223" t="s">
+        <v>697</v>
+      </c>
+      <c r="M223" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B225" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M225" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B226" t="s">
         <v>699</v>
@@ -4834,900 +4870,900 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>340</v>
-      </c>
-      <c r="B228" t="s">
-        <v>702</v>
-      </c>
-      <c r="M228" t="s">
-        <v>341</v>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>334</v>
+      </c>
+      <c r="B227" t="s">
+        <v>699</v>
+      </c>
+      <c r="M227" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B229" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M229" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B230" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
       <c r="M230" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>346</v>
-      </c>
-      <c r="B232" t="s">
-        <v>569</v>
-      </c>
-      <c r="M232" t="s">
-        <v>178</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>339</v>
+      </c>
+      <c r="B231" t="s">
+        <v>699</v>
+      </c>
+      <c r="M231" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M233" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B234" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="M234" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>351</v>
-      </c>
-      <c r="B236" t="s">
-        <v>572</v>
-      </c>
-      <c r="M236" t="s">
-        <v>181</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>344</v>
+      </c>
+      <c r="B235" t="s">
+        <v>745</v>
+      </c>
+      <c r="M235" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>569</v>
       </c>
       <c r="M237" t="s">
-        <v>353</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B238" t="s">
-        <v>747</v>
+        <v>704</v>
       </c>
       <c r="M238" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>355</v>
-      </c>
-      <c r="B240" t="s">
-        <v>575</v>
-      </c>
-      <c r="M240" t="s">
-        <v>184</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>349</v>
+      </c>
+      <c r="B239" t="s">
+        <v>746</v>
+      </c>
+      <c r="M239" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B241" t="s">
-        <v>706</v>
+        <v>572</v>
       </c>
       <c r="M241" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B242" t="s">
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="M242" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>359</v>
-      </c>
-      <c r="B244" t="s">
-        <v>579</v>
-      </c>
-      <c r="M244" t="s">
-        <v>188</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>354</v>
+      </c>
+      <c r="B243" t="s">
+        <v>747</v>
+      </c>
+      <c r="M243" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B245" t="s">
-        <v>707</v>
+        <v>575</v>
       </c>
       <c r="M245" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B246" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="M246" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>363</v>
-      </c>
-      <c r="B248" t="s">
-        <v>582</v>
-      </c>
-      <c r="M248" t="s">
-        <v>191</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>358</v>
+      </c>
+      <c r="B247" t="s">
+        <v>748</v>
+      </c>
+      <c r="M247" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B249" t="s">
-        <v>708</v>
+        <v>579</v>
       </c>
       <c r="M249" t="s">
-        <v>365</v>
+        <v>188</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B250" t="s">
-        <v>750</v>
+        <v>707</v>
       </c>
       <c r="M250" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>368</v>
-      </c>
-      <c r="B252" t="s">
-        <v>586</v>
-      </c>
-      <c r="M252" t="s">
-        <v>195</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>362</v>
+      </c>
+      <c r="B251" t="s">
+        <v>749</v>
+      </c>
+      <c r="M251" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B253" t="s">
-        <v>709</v>
+        <v>582</v>
       </c>
       <c r="M253" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="M254" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>372</v>
-      </c>
-      <c r="B256" t="s">
-        <v>588</v>
-      </c>
-      <c r="M256" t="s">
-        <v>196</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>366</v>
+      </c>
+      <c r="B255" t="s">
+        <v>750</v>
+      </c>
+      <c r="M255" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B257" t="s">
-        <v>710</v>
+        <v>586</v>
       </c>
       <c r="M257" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B258" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="M258" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>376</v>
-      </c>
-      <c r="B260" t="s">
-        <v>591</v>
-      </c>
-      <c r="M260" t="s">
-        <v>199</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>371</v>
+      </c>
+      <c r="B259" t="s">
+        <v>751</v>
+      </c>
+      <c r="M259" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B261" t="s">
-        <v>711</v>
+        <v>588</v>
       </c>
       <c r="M261" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B262" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M262" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>380</v>
-      </c>
-      <c r="B264" t="s">
-        <v>635</v>
-      </c>
-      <c r="M264" t="s">
-        <v>243</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>375</v>
+      </c>
+      <c r="B263" t="s">
+        <v>752</v>
+      </c>
+      <c r="M263" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>712</v>
+        <v>591</v>
       </c>
       <c r="M265" t="s">
-        <v>382</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B266" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="M266" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>385</v>
-      </c>
-      <c r="B268" t="s">
-        <v>640</v>
-      </c>
-      <c r="M268" t="s">
-        <v>249</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>379</v>
+      </c>
+      <c r="B267" t="s">
+        <v>711</v>
+      </c>
+      <c r="M267" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B269" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="M269" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B270" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="M270" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>390</v>
-      </c>
-      <c r="B272" t="s">
-        <v>644</v>
-      </c>
-      <c r="M272" t="s">
-        <v>253</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>383</v>
+      </c>
+      <c r="B271" t="s">
+        <v>753</v>
+      </c>
+      <c r="M271" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="M273" t="s">
-        <v>392</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B274" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="M274" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>395</v>
-      </c>
-      <c r="B276" t="s">
-        <v>623</v>
-      </c>
-      <c r="M276" t="s">
-        <v>231</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>388</v>
+      </c>
+      <c r="B275" t="s">
+        <v>754</v>
+      </c>
+      <c r="M275" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B277" t="s">
-        <v>715</v>
+        <v>644</v>
       </c>
       <c r="M277" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B278" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M278" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>399</v>
-      </c>
-      <c r="B280" t="s">
-        <v>647</v>
-      </c>
-      <c r="M280" t="s">
-        <v>257</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>393</v>
+      </c>
+      <c r="B279" t="s">
+        <v>755</v>
+      </c>
+      <c r="M279" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B281" t="s">
-        <v>716</v>
+        <v>623</v>
       </c>
       <c r="M281" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B282" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="M282" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>404</v>
-      </c>
-      <c r="B284" t="s">
-        <v>650</v>
-      </c>
-      <c r="M284" t="s">
-        <v>260</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>398</v>
+      </c>
+      <c r="B283" t="s">
+        <v>715</v>
+      </c>
+      <c r="M283" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B285" t="s">
-        <v>717</v>
+        <v>647</v>
       </c>
       <c r="M285" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B286" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M286" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>408</v>
-      </c>
-      <c r="B288" t="s">
-        <v>655</v>
-      </c>
-      <c r="M288" t="s">
-        <v>264</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>402</v>
+      </c>
+      <c r="B287" t="s">
+        <v>756</v>
+      </c>
+      <c r="M287" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B289" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
       <c r="M289" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B290" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="M290" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>413</v>
-      </c>
-      <c r="B292" t="s">
-        <v>719</v>
-      </c>
-      <c r="M292" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>407</v>
+      </c>
+      <c r="B291" t="s">
+        <v>717</v>
+      </c>
+      <c r="M291" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B293" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
       <c r="M293" t="s">
-        <v>416</v>
+        <v>264</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B294" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M294" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>419</v>
-      </c>
-      <c r="B296" t="s">
-        <v>722</v>
-      </c>
-      <c r="M296" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>411</v>
+      </c>
+      <c r="B295" t="s">
+        <v>757</v>
+      </c>
+      <c r="M295" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B297" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M297" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B298" t="s">
+        <v>720</v>
+      </c>
+      <c r="M298" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>417</v>
+      </c>
+      <c r="B299" t="s">
         <v>721</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M299" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>423</v>
-      </c>
-      <c r="B300" t="s">
-        <v>659</v>
-      </c>
-      <c r="M300" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B301" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M301" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B302" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
       <c r="M302" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>428</v>
-      </c>
-      <c r="B304" t="s">
-        <v>661</v>
-      </c>
-      <c r="M304" t="s">
-        <v>271</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>422</v>
+      </c>
+      <c r="B303" t="s">
+        <v>721</v>
+      </c>
+      <c r="M303" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B305" t="s">
-        <v>724</v>
+        <v>659</v>
       </c>
       <c r="M305" t="s">
-        <v>430</v>
+        <v>268</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B306" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="M306" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>433</v>
-      </c>
-      <c r="B308" t="s">
-        <v>612</v>
-      </c>
-      <c r="M308" t="s">
-        <v>220</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>426</v>
+      </c>
+      <c r="B307" t="s">
+        <v>758</v>
+      </c>
+      <c r="M307" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B309" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
       <c r="M309" t="s">
-        <v>435</v>
+        <v>271</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B310" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="M310" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="B311" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M311" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B313" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
       <c r="M313" t="s">
-        <v>438</v>
+        <v>220</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B314" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M314" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B315" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="M315" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>442</v>
-      </c>
-      <c r="B317" t="s">
-        <v>665</v>
-      </c>
-      <c r="M317" t="s">
-        <v>275</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>492</v>
+      </c>
+      <c r="B316" t="s">
+        <v>762</v>
+      </c>
+      <c r="M316" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M318" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B319" t="s">
-        <v>761</v>
+        <v>727</v>
       </c>
       <c r="M319" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>447</v>
-      </c>
-      <c r="B321" t="s">
-        <v>670</v>
-      </c>
-      <c r="M321" t="s">
-        <v>448</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>441</v>
+      </c>
+      <c r="B320" t="s">
+        <v>727</v>
+      </c>
+      <c r="M320" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B322" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
       <c r="M322" t="s">
-        <v>450</v>
+        <v>275</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B323" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M323" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>453</v>
-      </c>
-      <c r="B325" t="s">
-        <v>609</v>
-      </c>
-      <c r="M325" t="s">
-        <v>217</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>445</v>
+      </c>
+      <c r="B324" t="s">
+        <v>761</v>
+      </c>
+      <c r="M324" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B326" t="s">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="M326" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M327" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>457</v>
-      </c>
-      <c r="B329" t="s">
-        <v>731</v>
-      </c>
-      <c r="M329" t="s">
-        <v>458</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>451</v>
+      </c>
+      <c r="B328" t="s">
+        <v>729</v>
+      </c>
+      <c r="M328" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B330" t="s">
-        <v>732</v>
+        <v>609</v>
       </c>
       <c r="M330" t="s">
-        <v>460</v>
+        <v>217</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B331" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M331" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>462</v>
-      </c>
-      <c r="B333" t="s">
-        <v>733</v>
-      </c>
-      <c r="M333" t="s">
-        <v>463</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>456</v>
+      </c>
+      <c r="B332" t="s">
+        <v>730</v>
+      </c>
+      <c r="M332" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B334" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M334" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B335" t="s">
         <v>732</v>
@@ -5736,508 +5772,552 @@
         <v>460</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>466</v>
-      </c>
-      <c r="B337" t="s">
-        <v>675</v>
-      </c>
-      <c r="M337" t="s">
-        <v>285</v>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>461</v>
+      </c>
+      <c r="B336" t="s">
+        <v>732</v>
+      </c>
+      <c r="M336" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B338" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M338" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B339" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M339" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>470</v>
-      </c>
-      <c r="B341" t="s">
-        <v>678</v>
-      </c>
-      <c r="M341" t="s">
-        <v>288</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>465</v>
+      </c>
+      <c r="B340" t="s">
+        <v>732</v>
+      </c>
+      <c r="M340" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B342" t="s">
-        <v>735</v>
+        <v>675</v>
       </c>
       <c r="M342" t="s">
-        <v>472</v>
+        <v>285</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B343" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M343" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>475</v>
-      </c>
-      <c r="B345" t="s">
-        <v>737</v>
-      </c>
-      <c r="M345" t="s">
-        <v>476</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>469</v>
+      </c>
+      <c r="B344" t="s">
+        <v>734</v>
+      </c>
+      <c r="M344" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B346" t="s">
-        <v>738</v>
+        <v>678</v>
       </c>
       <c r="M346" t="s">
-        <v>478</v>
+        <v>288</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B347" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M347" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>480</v>
-      </c>
-      <c r="B349" t="s">
-        <v>739</v>
-      </c>
-      <c r="M349" t="s">
-        <v>808</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>473</v>
+      </c>
+      <c r="B348" t="s">
+        <v>736</v>
+      </c>
+      <c r="M348" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B350" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M350" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B351" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M351" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>484</v>
-      </c>
-      <c r="B353" t="s">
-        <v>741</v>
-      </c>
-      <c r="M353" t="s">
-        <v>207</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>479</v>
+      </c>
+      <c r="B352" t="s">
+        <v>738</v>
+      </c>
+      <c r="M352" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B354" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="M354" t="s">
-        <v>486</v>
+        <v>808</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B355" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M355" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>488</v>
-      </c>
-      <c r="B357" t="s">
-        <v>169</v>
-      </c>
-      <c r="M357" t="s">
-        <v>169</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>483</v>
+      </c>
+      <c r="B356" t="s">
+        <v>740</v>
+      </c>
+      <c r="M356" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B358" t="s">
-        <v>490</v>
+        <v>741</v>
+      </c>
+      <c r="M358" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B359" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>494</v>
-      </c>
-      <c r="B361" t="s">
-        <v>496</v>
-      </c>
-      <c r="M361" t="s">
-        <v>496</v>
+        <v>742</v>
+      </c>
+      <c r="M359" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>487</v>
+      </c>
+      <c r="B360" t="s">
+        <v>742</v>
+      </c>
+      <c r="M360" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B362" t="s">
-        <v>497</v>
+        <v>169</v>
       </c>
       <c r="M362" t="s">
-        <v>497</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>489</v>
+      </c>
+      <c r="B363" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B364" t="s">
-        <v>763</v>
-      </c>
-      <c r="M364" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>504</v>
-      </c>
-      <c r="B365" t="s">
-        <v>764</v>
-      </c>
-      <c r="M365" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B366" t="s">
-        <v>765</v>
+        <v>496</v>
       </c>
       <c r="M366" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B367" t="s">
-        <v>766</v>
+        <v>497</v>
       </c>
       <c r="M367" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>507</v>
-      </c>
-      <c r="B368" t="s">
-        <v>767</v>
-      </c>
-      <c r="M368" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>503</v>
+      </c>
+      <c r="B369" t="s">
+        <v>763</v>
+      </c>
+      <c r="M369" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B370" t="s">
-        <v>508</v>
+        <v>764</v>
+      </c>
+      <c r="M370" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B371" t="s">
-        <v>547</v>
+        <v>765</v>
       </c>
       <c r="M371" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B372" t="s">
-        <v>548</v>
+        <v>766</v>
       </c>
       <c r="M372" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B373" t="s">
-        <v>549</v>
+        <v>767</v>
       </c>
       <c r="M373" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>518</v>
-      </c>
-      <c r="B374" t="s">
-        <v>550</v>
-      </c>
-      <c r="M374" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B375" t="s">
-        <v>551</v>
-      </c>
-      <c r="M375" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B376" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M376" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B377" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M377" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B378" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="M378" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B379" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="M379" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B380" t="s">
-        <v>528</v>
+        <v>551</v>
+      </c>
+      <c r="M380" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>520</v>
+      </c>
+      <c r="B381" t="s">
+        <v>552</v>
+      </c>
+      <c r="M381" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B382" t="s">
-        <v>768</v>
+        <v>553</v>
       </c>
       <c r="M382" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B383" t="s">
-        <v>769</v>
+        <v>527</v>
       </c>
       <c r="M383" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B384" t="s">
-        <v>770</v>
+        <v>526</v>
       </c>
       <c r="M384" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B385" t="s">
-        <v>771</v>
-      </c>
-      <c r="M385" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B387" t="s">
-        <v>809</v>
+        <v>768</v>
       </c>
       <c r="M387" t="s">
-        <v>811</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>534</v>
+      </c>
+      <c r="B388" t="s">
+        <v>769</v>
+      </c>
+      <c r="M388" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>772</v>
+        <v>535</v>
       </c>
       <c r="B389" t="s">
-        <v>538</v>
+        <v>770</v>
       </c>
       <c r="M389" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>536</v>
+      </c>
+      <c r="B390" t="s">
+        <v>771</v>
+      </c>
+      <c r="M390" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>537</v>
+      </c>
+      <c r="B392" t="s">
+        <v>809</v>
+      </c>
+      <c r="M392" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>772</v>
+      </c>
+      <c r="B394" t="s">
+        <v>538</v>
+      </c>
+      <c r="M394" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>773</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B395" t="s">
         <v>539</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M395" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>774</v>
-      </c>
-      <c r="B391" t="s">
-        <v>540</v>
-      </c>
-      <c r="M391" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>544</v>
-      </c>
-      <c r="B393" t="s">
-        <v>813</v>
-      </c>
-      <c r="M393" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>814</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="M395" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>774</v>
+      </c>
+      <c r="B396" t="s">
+        <v>540</v>
+      </c>
+      <c r="M396" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>544</v>
+      </c>
+      <c r="B398" t="s">
+        <v>813</v>
+      </c>
+      <c r="M398" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>814</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="M400" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
         <v>815</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B401" t="s">
         <v>818</v>
       </c>
-      <c r="M396" t="s">
+      <c r="M401" t="s">
         <v>819</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A2E8B-70E7-4ECE-9C6D-8841D5DBE135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06575350-B50C-4DD6-87BB-84418EE1ACD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3360" windowWidth="19740" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5160" windowWidth="18615" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="839">
   <si>
     <t>presetSelection</t>
   </si>
@@ -2463,9 +2463,6 @@
     <t>♥ {0} と恋人になりました ♥</t>
   </si>
   <si>
-    <t>残弾: {0}</t>
-  </si>
-  <si>
     <t>Shots: {0}</t>
   </si>
   <si>
@@ -2484,17 +2481,6 @@
     <t>{0} and the ship has {1}</t>
   </si>
   <si>
-    <t>{0}個　とクルー全体が　{1}個</t>
-  </si>
-  <si>
-    <t>CREWMEMBER {0} HAS
-EMERGENCY MEETINGS LEFT</t>
-  </si>
-  <si>
-    <t>船員 {0} がボタン
-残っている</t>
-  </si>
-  <si>
     <t>Disable Admin Table</t>
   </si>
   <si>
@@ -2529,6 +2515,33 @@
   </si>
   <si>
     <t>カメラ・ドアログの使用禁止</t>
+  </si>
+  <si>
+    <t>{0}回　とクルー全体が　{1}回</t>
+  </si>
+  <si>
+    <t>残り {0}発</t>
+  </si>
+  <si>
+    <t>CREWMEMBER {0} HAS\n\n\nEMERGENCY MEETINGS LEFT</t>
+  </si>
+  <si>
+    <t>船員 {0} が残り\n\n\n緊急招集できる</t>
+  </si>
+  <si>
+    <t>切断</t>
+  </si>
+  <si>
+    <t>ゲームマスターだ</t>
+  </si>
+  <si>
+    <t>buttonBlocked</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>使用禁止</t>
   </si>
 </sst>
 </file>
@@ -2566,9 +2579,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2849,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q401"/>
+  <dimension ref="A1:Q403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="M196" sqref="M196"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,7 +3938,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M119" t="s">
         <v>245</v>
@@ -4262,7 +4273,7 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M155" t="s">
         <v>269</v>
@@ -4578,46 +4589,46 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>821</v>
+      </c>
+      <c r="B191" t="s">
+        <v>818</v>
+      </c>
+      <c r="M191" t="s">
         <v>825</v>
-      </c>
-      <c r="B191" t="s">
-        <v>822</v>
-      </c>
-      <c r="M191" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B192" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M192" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>822</v>
+      </c>
+      <c r="B193" t="s">
+        <v>819</v>
+      </c>
+      <c r="M193" t="s">
         <v>826</v>
-      </c>
-      <c r="B193" t="s">
-        <v>823</v>
-      </c>
-      <c r="M193" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B194" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M194" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -5999,6 +6010,9 @@
       <c r="B363" t="s">
         <v>490</v>
       </c>
+      <c r="M363" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
@@ -6007,6 +6021,9 @@
       <c r="B364" t="s">
         <v>490</v>
       </c>
+      <c r="M364" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -6199,6 +6216,9 @@
       <c r="B385" t="s">
         <v>528</v>
       </c>
+      <c r="M385" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -6293,32 +6313,53 @@
         <v>544</v>
       </c>
       <c r="B398" t="s">
+        <v>812</v>
+      </c>
+      <c r="M398" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>813</v>
       </c>
-      <c r="M398" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>814</v>
-      </c>
       <c r="B400" s="1" t="s">
-        <v>820</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
       <c r="M400" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B401" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M401" t="s">
-        <v>819</v>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>836</v>
+      </c>
+      <c r="B403" t="s">
+        <v>837</v>
+      </c>
+      <c r="M403" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06575350-B50C-4DD6-87BB-84418EE1ACD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7785C2-72D3-44D1-9FBA-F8359922D56A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="5160" windowWidth="18615" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="3885" windowWidth="26145" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="849">
   <si>
     <t>presetSelection</t>
   </si>
@@ -651,33 +651,15 @@
     <t>ラバーズ</t>
   </si>
   <si>
-    <t>ラバーズがインポスターになる確率</t>
-  </si>
-  <si>
-    <t>ラバーズが同時に死ぬ</t>
-  </si>
-  <si>
-    <t>ラバーズは他の役職と重複する</t>
-  </si>
-  <si>
     <t>ゲッサー</t>
   </si>
   <si>
-    <t>ゲッサーがインポスターになる確率</t>
-  </si>
-  <si>
     <t>撃てる回数</t>
   </si>
   <si>
     <t>ジェスター</t>
   </si>
   <si>
-    <t>ジェスターが会議ボタンを押せる</t>
-  </si>
-  <si>
-    <t>ジェスターがサボタージュできる</t>
-  </si>
-  <si>
     <t>アーソニスト</t>
   </si>
   <si>
@@ -690,21 +672,6 @@
     <t>ジャッカル</t>
   </si>
   <si>
-    <t>ジャッカル・サイドキックのキルクール</t>
-  </si>
-  <si>
-    <t>サイドキックを指名するクールダウン</t>
-  </si>
-  <si>
-    <t>ジャッカルがベントに入れる</t>
-  </si>
-  <si>
-    <t>ジャッカルがサイドキックを指名できる</t>
-  </si>
-  <si>
-    <t>ジャッカル死亡時、サイドキックがジャッカルに昇格する</t>
-  </si>
-  <si>
     <t>サイドキックがキルできる</t>
   </si>
   <si>
@@ -714,12 +681,6 @@
     <t>昇格したサイドキックがサイドキックを指名できる</t>
   </si>
   <si>
-    <t>ジャッカルがインポスターをサイドキックに指名できる</t>
-  </si>
-  <si>
-    <t>ジャッカル・サイドキックがインポスターと同じ視野</t>
-  </si>
-  <si>
     <t>シフター</t>
   </si>
   <si>
@@ -735,12 +696,6 @@
     <t>シェリフ</t>
   </si>
   <si>
-    <t>シェリフのキルクール</t>
-  </si>
-  <si>
-    <t>シェリフがその他陣営もキルできる</t>
-  </si>
-  <si>
     <t>ライター</t>
   </si>
   <si>
@@ -768,12 +723,6 @@
     <t>足跡が残る時間</t>
   </si>
   <si>
-    <t>ディテクティブ死体発見時、犯人の名前がわかる時間</t>
-  </si>
-  <si>
-    <t>ディテクティブ死体発見時、犯人の色調がわかる時間</t>
-  </si>
-  <si>
     <t>タイムマスター</t>
   </si>
   <si>
@@ -801,9 +750,6 @@
     <t>スワッパー</t>
   </si>
   <si>
-    <t>スワッパーが会議ボタンを押せる</t>
-  </si>
-  <si>
     <t>スワッパーがスワップ対象外</t>
   </si>
   <si>
@@ -828,9 +774,6 @@
     <t>ハッキング時間</t>
   </si>
   <si>
-    <t>ハッカーが表示された人の色調を見える</t>
-  </si>
-  <si>
     <t>トラッカー</t>
   </si>
   <si>
@@ -861,12 +804,6 @@
     <t>インポスターが誰でも殺せる</t>
   </si>
   <si>
-    <t>スパイがベントに入れる</t>
-  </si>
-  <si>
-    <t>スパイがインポスターと同じ視野</t>
-  </si>
-  <si>
     <t>セキュリティガード</t>
   </si>
   <si>
@@ -897,21 +834,6 @@
     <t>シェリフがマッドメイトを殺せる</t>
   </si>
   <si>
-    <t>マッドメイトがベントに入れる</t>
-  </si>
-  <si>
-    <t>マッドメイトがインポスターと同じ視野</t>
-  </si>
-  <si>
-    <t>マッドメイトがサボタージュできる</t>
-  </si>
-  <si>
-    <t>マッドメイトがコミュサボを直せる</t>
-  </si>
-  <si>
-    <t>会議ボタンを押せる回数（メイヤー対象外）</t>
-  </si>
-  <si>
     <t>会議中、スキップ禁止</t>
   </si>
   <si>
@@ -972,9 +894,6 @@
     <t>mayorIntroDesc</t>
   </si>
   <si>
-    <t>投票権が二つある</t>
-  </si>
-  <si>
     <t>mayorShortDesc</t>
   </si>
   <si>
@@ -2370,12 +2289,6 @@
     <t>ゲーム開始時に死亡する</t>
   </si>
   <si>
-    <t>ラバーズのタスクがカウントされる</t>
-  </si>
-  <si>
-    <t>ラバーズはクルーと一緒に勝利できる</t>
-  </si>
-  <si>
     <t>Lovers Can Win With Crew</t>
   </si>
   <si>
@@ -2430,9 +2343,6 @@
     <t>seerMode</t>
   </si>
   <si>
-    <t>シーアモード</t>
-  </si>
-  <si>
     <t>Seer Mode</t>
   </si>
   <si>
@@ -2542,6 +2452,126 @@
   </si>
   <si>
     <t>使用禁止</t>
+  </si>
+  <si>
+    <t>medicReport</t>
+  </si>
+  <si>
+    <t>Body Report: Killed {0}s ago!</t>
+  </si>
+  <si>
+    <t>detectiveReportName</t>
+  </si>
+  <si>
+    <t>detectiveReportColor</t>
+  </si>
+  <si>
+    <t>detectiveReportNone</t>
+  </si>
+  <si>
+    <t>detectiveColorLight</t>
+  </si>
+  <si>
+    <t>detectiveColorDark</t>
+  </si>
+  <si>
+    <t>Body Report: The killer appears to be {0}!</t>
+  </si>
+  <si>
+    <t>Body Report: The killer appears to be a {0} color!</t>
+  </si>
+  <si>
+    <t>Body Report: The corpse is too old to gain information from!</t>
+  </si>
+  <si>
+    <t>darker</t>
+  </si>
+  <si>
+    <t>検査の結果、犯人は{0}色みたい！</t>
+  </si>
+  <si>
+    <t>淡い</t>
+  </si>
+  <si>
+    <t>濃い</t>
+  </si>
+  <si>
+    <t>検査の結果、犯人の名前は「{0}」みたい！</t>
+  </si>
+  <si>
+    <t>検査の結果、死体が冷えてて何もわからなかった！</t>
+  </si>
+  <si>
+    <t>検査の結果、{0}秒前に殺されたみたい！</t>
+  </si>
+  <si>
+    <t>インポスターになる確率</t>
+  </si>
+  <si>
+    <t>他の役職と重複する</t>
+  </si>
+  <si>
+    <t>クルーと一緒に勝利できる</t>
+  </si>
+  <si>
+    <t>タスクがカウントされる</t>
+  </si>
+  <si>
+    <t>サボタージュできる</t>
+  </si>
+  <si>
+    <t>緊急会議ボタンを押せる</t>
+  </si>
+  <si>
+    <t>ベントに入れる</t>
+  </si>
+  <si>
+    <t>サイドキックを指名できる</t>
+  </si>
+  <si>
+    <t>死亡時、サイドキックが昇格する</t>
+  </si>
+  <si>
+    <t>インポスターをサイドキックに指名できる</t>
+  </si>
+  <si>
+    <t>インポスターと同じ視野</t>
+  </si>
+  <si>
+    <t>キルクール</t>
+  </si>
+  <si>
+    <t>その他陣営もキルできる</t>
+  </si>
+  <si>
+    <t>死体発見時、犯人の名前がわかる時間</t>
+  </si>
+  <si>
+    <t>死体発見時、犯人の色調がわかる時間</t>
+  </si>
+  <si>
+    <t>モード</t>
+  </si>
+  <si>
+    <t>表示された人の色調が見える</t>
+  </si>
+  <si>
+    <t>コミュサボを直せる</t>
+  </si>
+  <si>
+    <t>緊急会議回数（メイヤー対象外）</t>
+  </si>
+  <si>
+    <t>指名クールダウン</t>
+  </si>
+  <si>
+    <t>２人同時に死ぬ</t>
+  </si>
+  <si>
+    <t>誰よりも発言力を持ってる</t>
+  </si>
+  <si>
+    <t>Tabキーで次のページへ……</t>
   </si>
 </sst>
 </file>
@@ -2860,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q403"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="M204" sqref="M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2956,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="M2" t="s">
         <v>160</v>
@@ -2937,7 +2967,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="M3" t="s">
         <v>161</v>
@@ -2948,7 +2978,7 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="M4" t="s">
         <v>162</v>
@@ -2959,7 +2989,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="M5" t="s">
         <v>163</v>
@@ -2970,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="M6" t="s">
         <v>164</v>
@@ -2981,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="M7" t="s">
         <v>159</v>
@@ -2992,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="M8" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3003,10 +3033,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="M9" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3014,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="M10" t="s">
         <v>165</v>
@@ -3025,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -3036,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="M12" t="s">
         <v>167</v>
@@ -3047,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="M13" t="s">
         <v>168</v>
@@ -3072,7 +3102,7 @@
         <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3083,7 +3113,7 @@
         <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>776</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3094,7 +3124,7 @@
         <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3105,7 +3135,7 @@
         <v>173</v>
       </c>
       <c r="M19" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3116,7 +3146,7 @@
         <v>174</v>
       </c>
       <c r="M20" t="s">
-        <v>779</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3127,7 +3157,7 @@
         <v>175</v>
       </c>
       <c r="M21" t="s">
-        <v>780</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3135,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="M24" t="s">
         <v>176</v>
@@ -3146,7 +3176,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="M25" t="s">
         <v>177</v>
@@ -3157,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="M27" t="s">
         <v>178</v>
@@ -3168,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="M28" t="s">
         <v>179</v>
@@ -3179,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="M29" t="s">
         <v>180</v>
@@ -3190,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="M31" t="s">
         <v>181</v>
@@ -3201,7 +3231,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="M32" t="s">
         <v>182</v>
@@ -3212,7 +3242,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="M33" t="s">
         <v>183</v>
@@ -3223,7 +3253,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="M35" t="s">
         <v>184</v>
@@ -3234,7 +3264,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="M36" t="s">
         <v>185</v>
@@ -3245,7 +3275,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="M37" t="s">
         <v>186</v>
@@ -3256,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="M38" t="s">
         <v>187</v>
@@ -3267,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="M40" t="s">
         <v>188</v>
@@ -3278,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="M41" t="s">
         <v>189</v>
@@ -3289,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="M42" t="s">
         <v>190</v>
@@ -3300,7 +3330,7 @@
         <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="M44" t="s">
         <v>191</v>
@@ -3311,7 +3341,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="M45" t="s">
         <v>192</v>
@@ -3322,7 +3352,7 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="M46" t="s">
         <v>193</v>
@@ -3333,7 +3363,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="M47" t="s">
         <v>194</v>
@@ -3344,7 +3374,7 @@
         <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="M49" t="s">
         <v>195</v>
@@ -3355,7 +3385,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="M50" t="s">
         <v>177</v>
@@ -3366,7 +3396,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="M52" t="s">
         <v>196</v>
@@ -3377,7 +3407,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="M53" t="s">
         <v>197</v>
@@ -3388,7 +3418,7 @@
         <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="M54" t="s">
         <v>198</v>
@@ -3399,7 +3429,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="M56" t="s">
         <v>199</v>
@@ -3410,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="M57" t="s">
         <v>200</v>
@@ -3421,7 +3451,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="M58" t="s">
         <v>201</v>
@@ -3432,7 +3462,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="M59" t="s">
         <v>202</v>
@@ -3443,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="M60" t="s">
         <v>203</v>
@@ -3454,7 +3484,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="M61" t="s">
         <v>204</v>
@@ -3465,7 +3495,7 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="M64" t="s">
         <v>205</v>
@@ -3476,7 +3506,7 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="M65" t="s">
         <v>206</v>
@@ -3487,7 +3517,7 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="M67" t="s">
         <v>207</v>
@@ -3498,10 +3528,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="M68" t="s">
-        <v>208</v>
+        <v>826</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3509,10 +3539,10 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="M69" t="s">
-        <v>209</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3520,10 +3550,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="M70" t="s">
-        <v>210</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3531,10 +3561,10 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
       <c r="M71" t="s">
-        <v>782</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,10 +3572,10 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>784</v>
+        <v>755</v>
       </c>
       <c r="M72" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3553,10 +3583,10 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="M74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,10 +3594,10 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="M75" t="s">
-        <v>212</v>
+        <v>826</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3575,10 +3605,10 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="M76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,10 +3616,10 @@
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="M78" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3597,10 +3627,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="M79" t="s">
-        <v>215</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3608,10 +3638,10 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="M80" t="s">
-        <v>216</v>
+        <v>830</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3619,10 +3649,10 @@
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="M82" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3630,10 +3660,10 @@
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="M83" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,10 +3671,10 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="M84" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3652,10 +3682,10 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="M86" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3663,10 +3693,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="M87" t="s">
-        <v>221</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3674,10 +3704,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="M88" t="s">
-        <v>222</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3685,10 +3715,10 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="M89" t="s">
-        <v>223</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3696,10 +3726,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="M90" t="s">
-        <v>224</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3707,10 +3737,10 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="M91" t="s">
-        <v>225</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3718,10 +3748,10 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3729,10 +3759,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,10 +3770,10 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="M94" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -3751,10 +3781,10 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="M95" t="s">
-        <v>229</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,10 +3792,10 @@
         <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="M96" t="s">
-        <v>230</v>
+        <v>836</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -3773,10 +3803,10 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="M98" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -3784,10 +3814,10 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="M99" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -3795,10 +3825,10 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="M101" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -3806,10 +3836,10 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="M103" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -3817,10 +3847,10 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="M105" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -3828,10 +3858,10 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="M106" t="s">
-        <v>236</v>
+        <v>837</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -3839,10 +3869,10 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="M107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -3850,10 +3880,10 @@
         <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="M108" t="s">
-        <v>237</v>
+        <v>838</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -3861,10 +3891,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="M111" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -3872,10 +3902,10 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="M112" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,10 +3913,10 @@
         <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="M113" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -3894,10 +3924,10 @@
         <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="M114" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -3905,10 +3935,10 @@
         <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="M115" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -3916,10 +3946,10 @@
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="M117" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -3927,10 +3957,10 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="M118" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -3938,10 +3968,10 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="M119" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -3949,10 +3979,10 @@
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -3960,10 +3990,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="M121" t="s">
-        <v>247</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -3971,10 +4001,10 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="M122" t="s">
-        <v>248</v>
+        <v>840</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -3982,10 +4012,10 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="M124" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -3993,10 +4023,10 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="M125" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -4004,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="M126" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -4015,10 +4045,10 @@
         <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="M127" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -4026,54 +4056,54 @@
         <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="M129" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="B130" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="M130" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>785</v>
+        <v>756</v>
       </c>
       <c r="B131" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="M131" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="B132" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="M132" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="B133" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="M133" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -4081,10 +4111,10 @@
         <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="M134" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,10 +4122,10 @@
         <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="M135" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4103,10 +4133,10 @@
         <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="M137" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -4114,10 +4144,10 @@
         <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="M138" t="s">
-        <v>258</v>
+        <v>831</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -4125,10 +4155,10 @@
         <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="M139" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -4136,54 +4166,54 @@
         <v>85</v>
       </c>
       <c r="B141" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="M141" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="B142" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="M142" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="B143" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="M143" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="B144" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="M144" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="B145" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="M145" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4191,10 +4221,10 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="M146" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -4202,15 +4232,15 @@
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="M147" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -4218,10 +4248,10 @@
         <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="M149" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -4229,10 +4259,10 @@
         <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="M150" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -4240,10 +4270,10 @@
         <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="M151" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -4251,10 +4281,10 @@
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="M152" t="s">
-        <v>267</v>
+        <v>842</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -4262,10 +4292,10 @@
         <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="M154" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -4273,10 +4303,10 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="M155" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -4284,10 +4314,10 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="M156" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -4295,10 +4325,10 @@
         <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="M158" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -4306,10 +4336,10 @@
         <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="M159" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -4317,10 +4347,10 @@
         <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="M160" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -4328,10 +4358,10 @@
         <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="M161" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -4339,10 +4369,10 @@
         <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="M163" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -4350,10 +4380,10 @@
         <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="M164" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -4361,10 +4391,10 @@
         <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="M165" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -4372,10 +4402,10 @@
         <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="M166" t="s">
-        <v>278</v>
+        <v>832</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -4383,10 +4413,10 @@
         <v>103</v>
       </c>
       <c r="B167" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="M167" t="s">
-        <v>279</v>
+        <v>836</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -4394,10 +4424,10 @@
         <v>113</v>
       </c>
       <c r="B169" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="M169" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -4405,10 +4435,10 @@
         <v>114</v>
       </c>
       <c r="B170" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="M170" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,10 +4446,10 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="M171" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -4427,10 +4457,10 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="M172" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -4438,10 +4468,10 @@
         <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="M173" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -4449,10 +4479,10 @@
         <v>118</v>
       </c>
       <c r="B175" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="M175" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -4460,10 +4490,10 @@
         <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="M176" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -4471,10 +4501,10 @@
         <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="M177" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -4482,10 +4512,10 @@
         <v>121</v>
       </c>
       <c r="B179" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="M179" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -4493,10 +4523,10 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="M180" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -4504,10 +4534,10 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="M181" t="s">
-        <v>290</v>
+        <v>832</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -4515,10 +4545,10 @@
         <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="M182" t="s">
-        <v>291</v>
+        <v>836</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -4526,10 +4556,10 @@
         <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="M183" t="s">
-        <v>292</v>
+        <v>830</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -4537,10 +4567,10 @@
         <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="M184" t="s">
-        <v>293</v>
+        <v>843</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -4548,10 +4578,10 @@
         <v>134</v>
       </c>
       <c r="B186" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="M186" t="s">
-        <v>294</v>
+        <v>844</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -4559,10 +4589,10 @@
         <v>135</v>
       </c>
       <c r="B187" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="M187" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,10 +4600,10 @@
         <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="M188" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -4581,389 +4611,392 @@
         <v>137</v>
       </c>
       <c r="B189" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="M189" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="B191" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="M191" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
       <c r="B192" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="M192" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="B193" t="s">
-        <v>819</v>
+        <v>789</v>
       </c>
       <c r="M193" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
       <c r="B194" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="M194" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="M196" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="M197" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="M199" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="M200" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="M201" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>308</v>
+        <v>282</v>
+      </c>
+      <c r="M203" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="M205" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="M206" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="M207" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="M209" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="M210" t="s">
-        <v>315</v>
+        <v>847</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="M211" t="s">
-        <v>315</v>
+        <v>847</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="M213" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B214" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
       <c r="M214" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="M215" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B217" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="M217" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B218" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="M218" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="M219" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="M221" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="M222" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="M223" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B225" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="M225" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B226" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="M226" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B227" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="M227" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B229" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="M229" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B230" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="M230" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B231" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="M231" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B233" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="M233" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B234" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="M234" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B235" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="M235" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B237" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="M237" t="s">
         <v>178</v>
@@ -4971,32 +5004,32 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B238" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="M238" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B239" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="M239" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B241" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="M241" t="s">
         <v>181</v>
@@ -5004,32 +5037,32 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B242" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="M242" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="M243" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="M245" t="s">
         <v>184</v>
@@ -5037,32 +5070,32 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="M246" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="M247" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B249" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="M249" t="s">
         <v>188</v>
@@ -5070,32 +5103,32 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B250" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="M250" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="M251" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B253" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="M253" t="s">
         <v>191</v>
@@ -5103,32 +5136,32 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B254" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="M254" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="M255" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="M257" t="s">
         <v>195</v>
@@ -5136,32 +5169,32 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B258" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="M258" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B259" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="M259" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B261" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="M261" t="s">
         <v>196</v>
@@ -5169,32 +5202,32 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B262" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
       <c r="M262" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B263" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="M263" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B265" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="M265" t="s">
         <v>199</v>
@@ -5202,769 +5235,769 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B266" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="M266" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B267" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="M267" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B269" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="M269" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B270" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="M270" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B271" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="M271" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B273" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="M273" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B274" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="M274" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B275" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="M275" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B277" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="M277" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B278" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="M278" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B279" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="M279" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B281" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="M281" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B282" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="M282" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B283" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="M283" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="M285" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="M286" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B287" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
       <c r="M287" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B289" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="M289" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B290" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="M290" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B291" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="M291" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B293" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="M293" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B294" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="M294" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B295" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="M295" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="B297" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="M297" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B298" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="M298" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B299" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="M299" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="B301" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="M301" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="B302" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="M302" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B303" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="M303" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B305" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="M305" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B306" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="M306" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B307" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="M307" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="B309" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="M309" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="B310" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="M310" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B311" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="M311" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B313" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="M313" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B314" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="M314" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B315" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="M315" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="B316" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="M316" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B318" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="M318" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B319" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="M319" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B320" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="M320" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B322" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="M322" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B323" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="M323" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B324" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="M324" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B326" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="M326" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="B327" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="M327" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B328" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="M328" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="B330" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="M330" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B331" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="M331" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="B332" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="M332" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B334" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="M334" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B335" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="M335" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="B336" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="M336" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B338" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="M338" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B339" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="M339" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B340" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="M340" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B342" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="M342" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B343" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="M343" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B344" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="M344" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B346" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="M346" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B347" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="M347" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B348" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="M348" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B350" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="M350" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B351" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="M351" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B352" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="M352" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B354" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="M354" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B355" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="M355" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B356" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="M356" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B358" t="s">
-        <v>741</v>
+        <v>714</v>
       </c>
       <c r="M358" t="s">
         <v>207</v>
@@ -5972,29 +6005,29 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B359" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="M359" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B360" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="M360" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="B362" t="s">
         <v>169</v>
@@ -6005,326 +6038,326 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B363" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="M363" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="B364" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="M364" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B366" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="M366" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B367" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M367" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="B369" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="M369" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="B370" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
       <c r="M370" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="B371" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="M371" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="B372" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="M372" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B373" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="M373" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="B375" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="B376" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="M376" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B377" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="M377" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="B378" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="M378" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="B379" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="M379" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="B380" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="M380" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="B381" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="M381" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B382" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="M382" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="B383" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="M383" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="B384" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="M384" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="B385" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="M385" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="B387" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="M387" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="B388" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="M388" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="B389" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="M389" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="B390" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="M390" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="B392" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="M392" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="B394" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="M394" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="B395" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="M395" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>774</v>
+        <v>747</v>
       </c>
       <c r="B396" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="M396" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B398" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="M398" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -6337,29 +6370,95 @@
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
       <c r="M400" s="1" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="B401" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="M401" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="B403" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="M403" t="s">
-        <v>838</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>809</v>
+      </c>
+      <c r="B405" t="s">
+        <v>810</v>
+      </c>
+      <c r="M405" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>811</v>
+      </c>
+      <c r="B406" t="s">
+        <v>816</v>
+      </c>
+      <c r="M406" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>812</v>
+      </c>
+      <c r="B407" t="s">
+        <v>817</v>
+      </c>
+      <c r="M407" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>813</v>
+      </c>
+      <c r="B408" t="s">
+        <v>818</v>
+      </c>
+      <c r="M408" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s">
+        <v>299</v>
+      </c>
+      <c r="M409" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>815</v>
+      </c>
+      <c r="B410" t="s">
+        <v>819</v>
+      </c>
+      <c r="M410" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7785C2-72D3-44D1-9FBA-F8359922D56A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAFF464-CAA1-44A9-96E5-B6F7EC4800C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="3885" windowWidth="26145" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2460" windowWidth="22230" windowHeight="11955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Text" sheetId="1" r:id="rId1"/>
+    <sheet name="Images" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="919">
   <si>
     <t>presetSelection</t>
   </si>
@@ -537,24 +538,6 @@
     <t>GM</t>
   </si>
   <si>
-    <t>GM is always the host</t>
-  </si>
-  <si>
-    <t>GM has tasks</t>
-  </si>
-  <si>
-    <t>GM can warp to other players</t>
-  </si>
-  <si>
-    <t>GM can kill/revive players</t>
-  </si>
-  <si>
-    <t>Hide settings from other players</t>
-  </si>
-  <si>
-    <t>GM dies at start of game</t>
-  </si>
-  <si>
     <t>マフィア</t>
   </si>
   <si>
@@ -582,9 +565,6 @@
     <t>ヴァンパイア</t>
   </si>
   <si>
-    <t>キル時差</t>
-  </si>
-  <si>
     <t>噛むクールダウン</t>
   </si>
   <si>
@@ -744,9 +724,6 @@
     <t>攻撃されたら対象者にも知らせる</t>
   </si>
   <si>
-    <t>シールドを張った次の会議から発動します</t>
-  </si>
-  <si>
     <t>スワッパー</t>
   </si>
   <si>
@@ -813,12 +790,6 @@
     <t>ネジ所持数</t>
   </si>
   <si>
-    <t>カメラ設置に使用されるネジ数</t>
-  </si>
-  <si>
-    <t>ベント封鎖に使用されるネジ数</t>
-  </si>
-  <si>
     <t>ベイト</t>
   </si>
   <si>
@@ -834,9 +805,6 @@
     <t>シェリフがマッドメイトを殺せる</t>
   </si>
   <si>
-    <t>会議中、スキップ禁止</t>
-  </si>
-  <si>
     <t>自投票禁止</t>
   </si>
   <si>
@@ -1530,9 +1498,6 @@
     <t>Alive</t>
   </si>
   <si>
-    <t>Disconnected</t>
-  </si>
-  <si>
     <t>TheOtherRolesが正常に導入されていない</t>
   </si>
   <si>
@@ -1608,9 +1573,6 @@
     <t>Players and roles at the end of the game:</t>
   </si>
   <si>
-    <t>最終役職一覧:</t>
-  </si>
-  <si>
     <t>Preset 1</t>
   </si>
   <si>
@@ -1656,69 +1618,30 @@
     <t>Morphling</t>
   </si>
   <si>
-    <t>Morphling Cooldown</t>
-  </si>
-  <si>
     <t>Morph Duration</t>
   </si>
   <si>
     <t>Camouflager</t>
   </si>
   <si>
-    <t>Camouflager Cooldown</t>
-  </si>
-  <si>
     <t>Camo Duration</t>
   </si>
   <si>
     <t>Vampire</t>
   </si>
   <si>
-    <t>Vampire Kill Delay</t>
-  </si>
-  <si>
-    <t>Vampire Cooldown</t>
-  </si>
-  <si>
-    <t>Vampire Can Kill Near Garlics</t>
-  </si>
-  <si>
     <t>Eraser</t>
   </si>
   <si>
-    <t>Eraser Cooldown</t>
-  </si>
-  <si>
-    <t>Eraser Can Erase Anyone</t>
-  </si>
-  <si>
     <t>Trickster</t>
   </si>
   <si>
-    <t>Trickster Box Cooldown</t>
-  </si>
-  <si>
-    <t>Trickster Lights Out Cooldown</t>
-  </si>
-  <si>
-    <t>Trickster Lights Out Duration</t>
-  </si>
-  <si>
     <t>Cleaner</t>
   </si>
   <si>
-    <t>Cleaner Cooldown</t>
-  </si>
-  <si>
     <t>Warlock</t>
   </si>
   <si>
-    <t>Warlock Cooldown</t>
-  </si>
-  <si>
-    <t>Warlock Root Time</t>
-  </si>
-  <si>
     <t>Bounty Hunter</t>
   </si>
   <si>
@@ -1746,57 +1669,21 @@
     <t>Lovers</t>
   </si>
   <si>
-    <t>Chance That One Lover Is Impostor</t>
-  </si>
-  <si>
     <t>Both Lovers Die</t>
   </si>
   <si>
-    <t>Lovers Can Have Another Role</t>
-  </si>
-  <si>
     <t>Guesser</t>
   </si>
   <si>
-    <t>Chance That The Guesser Is An Impostor</t>
-  </si>
-  <si>
-    <t>Guesser Number Of Shots</t>
-  </si>
-  <si>
     <t>Jester</t>
   </si>
   <si>
-    <t>Jester can call emergency meeting</t>
-  </si>
-  <si>
-    <t>Jester can sabotage</t>
-  </si>
-  <si>
     <t>Arsonist</t>
   </si>
   <si>
-    <t>Arsonist Cooldown</t>
-  </si>
-  <si>
-    <t>Arsonist Douse Duration</t>
-  </si>
-  <si>
     <t>Jackal</t>
   </si>
   <si>
-    <t>Jackal/Sidekick Kill Cooldown</t>
-  </si>
-  <si>
-    <t>Jackal Create Sidekick Cooldown</t>
-  </si>
-  <si>
-    <t>Jackal Can Use Vents</t>
-  </si>
-  <si>
-    <t>Jackal Can Create A Sidekick</t>
-  </si>
-  <si>
     <t>Sidekick Gets Promoted To Jackal On Jackal Death</t>
   </si>
   <si>
@@ -1809,18 +1696,9 @@
     <t>Jackals Promoted From Sidekick Can Create A Sidekick</t>
   </si>
   <si>
-    <t>Jackals Can Make An Impostor To His Sidekick</t>
-  </si>
-  <si>
-    <t>Jackal And Sidekick Have Impostor Vision</t>
-  </si>
-  <si>
     <t>Shifter</t>
   </si>
   <si>
-    <t>Shifter Shifts Modifiers</t>
-  </si>
-  <si>
     <t>Mayor</t>
   </si>
   <si>
@@ -1830,27 +1708,9 @@
     <t>Sheriff</t>
   </si>
   <si>
-    <t>Sheriff Cooldown</t>
-  </si>
-  <si>
-    <t>Sheriff Can Kill Neutrals</t>
-  </si>
-  <si>
     <t>Lighter</t>
   </si>
   <si>
-    <t>Lighter Mode Vision On Lights On</t>
-  </si>
-  <si>
-    <t>Lighter Mode Vision On Lights Off</t>
-  </si>
-  <si>
-    <t>Lighter Cooldown</t>
-  </si>
-  <si>
-    <t>Lighter Duration</t>
-  </si>
-  <si>
     <t>Detective</t>
   </si>
   <si>
@@ -1869,15 +1729,9 @@
     <t>Time Master</t>
   </si>
   <si>
-    <t>Time Master Cooldown</t>
-  </si>
-  <si>
     <t>Rewind Time</t>
   </si>
   <si>
-    <t>Time Master Shield Duration</t>
-  </si>
-  <si>
     <t>Medic</t>
   </si>
   <si>
@@ -1890,45 +1744,21 @@
     <t>Swapper</t>
   </si>
   <si>
-    <t>Swapper can call emergency meeting</t>
-  </si>
-  <si>
-    <t>Swapper can only swap others</t>
-  </si>
-  <si>
     <t>Seer</t>
   </si>
   <si>
     <t>Show Souls</t>
   </si>
   <si>
-    <t>Seer Limit Soul Duration</t>
-  </si>
-  <si>
-    <t>Seer Soul Duration</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t>Hacker</t>
   </si>
   <si>
-    <t>Hacker Cooldown</t>
-  </si>
-  <si>
-    <t>Hacker Duration</t>
-  </si>
-  <si>
-    <t>Hacker Only Sees Color Type</t>
-  </si>
-  <si>
     <t>Tracker</t>
   </si>
   <si>
-    <t>Tracker Reset Target After Meeting</t>
-  </si>
-  <si>
     <t>Snitch</t>
   </si>
   <si>
@@ -1944,33 +1774,12 @@
     <t>Spy</t>
   </si>
   <si>
-    <t>Spy Can Die To Sheriff</t>
-  </si>
-  <si>
     <t>Impostors Can Kill Anyone If There Is A Spy</t>
   </si>
   <si>
-    <t>Spy Can Enter Vents</t>
-  </si>
-  <si>
-    <t>Spy Has Impostor Vision</t>
-  </si>
-  <si>
     <t>Security Guard</t>
   </si>
   <si>
-    <t>Security Guard Cooldown</t>
-  </si>
-  <si>
-    <t>Security Guard Number Of Screws</t>
-  </si>
-  <si>
-    <t>Number Of Screws Per Cam</t>
-  </si>
-  <si>
-    <t>Number Of Screws Per Vent</t>
-  </si>
-  <si>
     <t>Bait</t>
   </si>
   <si>
@@ -1983,24 +1792,6 @@
     <t>Madmate</t>
   </si>
   <si>
-    <t>Madmate Can Die To Sheriff</t>
-  </si>
-  <si>
-    <t>Madmate Can Enter Vents</t>
-  </si>
-  <si>
-    <t>Madmate Has Impostor Vision</t>
-  </si>
-  <si>
-    <t>Madmate Can Sabotage</t>
-  </si>
-  <si>
-    <t>Madmate Can Fix Comm</t>
-  </si>
-  <si>
-    <t>Number Of Meetings (excluding Mayor meeting)</t>
-  </si>
-  <si>
     <t>Block Skipping In Emergency Meetings</t>
   </si>
   <si>
@@ -2289,12 +2080,6 @@
     <t>ゲーム開始時に死亡する</t>
   </si>
   <si>
-    <t>Lovers Can Win With Crew</t>
-  </si>
-  <si>
-    <t>Lovers Tasks Are Counted</t>
-  </si>
-  <si>
     <t>medicShowShieldedMedic</t>
   </si>
   <si>
@@ -2343,12 +2128,6 @@
     <t>seerMode</t>
   </si>
   <si>
-    <t>Seer Mode</t>
-  </si>
-  <si>
-    <t>Show Shielded Player</t>
-  </si>
-  <si>
     <t>シールドが見える人</t>
   </si>
   <si>
@@ -2367,9 +2146,6 @@
     <t>♥ You are in love with {0} ♥</t>
   </si>
   <si>
-    <t>Sheriff Number Of Shots</t>
-  </si>
-  <si>
     <t>♥ {0} と恋人になりました ♥</t>
   </si>
   <si>
@@ -2385,9 +2161,6 @@
     <t>Footprint Interval</t>
   </si>
   <si>
-    <t>Tracker Update Interval</t>
-  </si>
-  <si>
     <t>{0} and the ship has {1}</t>
   </si>
   <si>
@@ -2559,19 +2332,465 @@
     <t>コミュサボを直せる</t>
   </si>
   <si>
-    <t>緊急会議回数（メイヤー対象外）</t>
+    <t>２人同時に死ぬ</t>
+  </si>
+  <si>
+    <t>Tabキーで次のページへ…</t>
+  </si>
+  <si>
+    <t>合計緊急会議回数（メイヤー対象外）</t>
+  </si>
+  <si>
+    <t>投票スキップ禁止</t>
+  </si>
+  <si>
+    <t>自分の票が倍の力を持っている</t>
   </si>
   <si>
     <t>指名クールダウン</t>
   </si>
   <si>
-    <t>２人同時に死ぬ</t>
-  </si>
-  <si>
-    <t>誰よりも発言力を持ってる</t>
-  </si>
-  <si>
-    <t>Tabキーで次のページへ……</t>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Always The Host</t>
+  </si>
+  <si>
+    <t>Has Tasks</t>
+  </si>
+  <si>
+    <t>Can Warp To Other Players</t>
+  </si>
+  <si>
+    <t>Can Kill/Revive Players</t>
+  </si>
+  <si>
+    <t>Hide Settings From Other Players</t>
+  </si>
+  <si>
+    <t>Dies At Start Of Game</t>
+  </si>
+  <si>
+    <t>Kill Delay</t>
+  </si>
+  <si>
+    <t>Can Kill Near Garlic</t>
+  </si>
+  <si>
+    <t>Can Erase Anyone</t>
+  </si>
+  <si>
+    <t>Lights Out Cooldown</t>
+  </si>
+  <si>
+    <t>Lights Out Duration</t>
+  </si>
+  <si>
+    <t>Root Time</t>
+  </si>
+  <si>
+    <t>Chance One Lover Is Impostor</t>
+  </si>
+  <si>
+    <t>Can Have Another Role</t>
+  </si>
+  <si>
+    <t>Can Win With Crew</t>
+  </si>
+  <si>
+    <t>Tasks Are Counted</t>
+  </si>
+  <si>
+    <t>Chance The Guesser Is An Impostor</t>
+  </si>
+  <si>
+    <t>Number Of Shots</t>
+  </si>
+  <si>
+    <t>Can Call Emergency Meetings</t>
+  </si>
+  <si>
+    <t>Can Sabotage</t>
+  </si>
+  <si>
+    <t>Douse Cooldown</t>
+  </si>
+  <si>
+    <t>Douse Duration</t>
+  </si>
+  <si>
+    <t>Kill Cooldown</t>
+  </si>
+  <si>
+    <t>Create Sidekick Cooldown</t>
+  </si>
+  <si>
+    <t>Can Use Vents</t>
+  </si>
+  <si>
+    <t>Can Create A Sidekick</t>
+  </si>
+  <si>
+    <t>Can Make An Impostor To His Sidekick</t>
+  </si>
+  <si>
+    <t>Shifts Modifiers</t>
+  </si>
+  <si>
+    <t>Can Kill Neutrals</t>
+  </si>
+  <si>
+    <t>Vision On, Lights On</t>
+  </si>
+  <si>
+    <t>Vision On, Lights Off</t>
+  </si>
+  <si>
+    <t>Can Only Swap Others</t>
+  </si>
+  <si>
+    <t>Limit Soul Duration</t>
+  </si>
+  <si>
+    <t>Soul Duration</t>
+  </si>
+  <si>
+    <t>Only Sees Color Type</t>
+  </si>
+  <si>
+    <t>Update Interval</t>
+  </si>
+  <si>
+    <t>Reset Target After Meeting</t>
+  </si>
+  <si>
+    <t>Can Die To Sheriff</t>
+  </si>
+  <si>
+    <t>Can Enter Vents</t>
+  </si>
+  <si>
+    <t>Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>Number Of Meetings (excluding Mayor Meeting)</t>
+  </si>
+  <si>
+    <t>Morph Cooldown</t>
+  </si>
+  <si>
+    <t>Camo Cooldown</t>
+  </si>
+  <si>
+    <t>Erase Cooldown</t>
+  </si>
+  <si>
+    <t>Place Box Cooldown</t>
+  </si>
+  <si>
+    <t>Clean Cooldown</t>
+  </si>
+  <si>
+    <t>Curse Cooldown</t>
+  </si>
+  <si>
+    <t>Light Cooldown</t>
+  </si>
+  <si>
+    <t>Light Duration</t>
+  </si>
+  <si>
+    <t>Shield Cooldown</t>
+  </si>
+  <si>
+    <t>Shield Duration</t>
+  </si>
+  <si>
+    <t>Hack Cooldown</t>
+  </si>
+  <si>
+    <t>Hack Duration</t>
+  </si>
+  <si>
+    <t>Total Screws</t>
+  </si>
+  <si>
+    <t>Screws Per Cam</t>
+  </si>
+  <si>
+    <t>Screws Per Vent</t>
+  </si>
+  <si>
+    <t>Can Fix Comms</t>
+  </si>
+  <si>
+    <t>Can See Shield</t>
+  </si>
+  <si>
+    <t>最終結果:</t>
+  </si>
+  <si>
+    <t>DC'd</t>
+  </si>
+  <si>
+    <t>crewWin</t>
+  </si>
+  <si>
+    <t>impostorWin</t>
+  </si>
+  <si>
+    <t>Crewmates Win</t>
+  </si>
+  <si>
+    <t>Impostors Win</t>
+  </si>
+  <si>
+    <t>クルー勝利</t>
+  </si>
+  <si>
+    <t>インポスター勝利</t>
+  </si>
+  <si>
+    <t>キル遅延</t>
+  </si>
+  <si>
+    <t>unitSeconds</t>
+  </si>
+  <si>
+    <t>{0}s</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>{0}秒</t>
+  </si>
+  <si>
+    <t>unitShots</t>
+  </si>
+  <si>
+    <t>{0}x</t>
+  </si>
+  <si>
+    <t>{0}発</t>
+  </si>
+  <si>
+    <t>unitScrews</t>
+  </si>
+  <si>
+    <t>{0}本</t>
+  </si>
+  <si>
+    <t>unitMultiplier</t>
+  </si>
+  <si>
+    <t>カメラ設置に要するネジ数</t>
+  </si>
+  <si>
+    <t>ベント封鎖に要するネジ数</t>
+  </si>
+  <si>
+    <t>次の会議からシールドが有効</t>
+  </si>
+  <si>
+    <t>creditsMain</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;,
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization/Japanese Translation by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>creditsFull</t>
+  </si>
+  <si>
+    <t>creditsVersion</t>
+  </si>
+  <si>
+    <t>GMエディション v{0}</t>
+  </si>
+  <si>
+    <t>GM Edition v{0}</t>
+  </si>
+  <si>
+    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;, Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization/Japanese Translation by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Banner.png</t>
+  </si>
+  <si>
+    <t>CamoButton.png</t>
+  </si>
+  <si>
+    <t>CleanButton.png</t>
+  </si>
+  <si>
+    <t>CloseVentButton.png</t>
+  </si>
+  <si>
+    <t>CurseButton.png</t>
+  </si>
+  <si>
+    <t>CurseKillButton.png</t>
+  </si>
+  <si>
+    <t>DouseButton.png</t>
+  </si>
+  <si>
+    <t>EraserButton.png</t>
+  </si>
+  <si>
+    <t>GarlicButton.png</t>
+  </si>
+  <si>
+    <t>HackerButton.png</t>
+  </si>
+  <si>
+    <t>IgniteButton.png</t>
+  </si>
+  <si>
+    <t>LighterButton.png</t>
+  </si>
+  <si>
+    <t>LightsOutButton.png</t>
+  </si>
+  <si>
+    <t>MorphButton.png</t>
+  </si>
+  <si>
+    <t>PlaceCameraButton.png</t>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxButton.png</t>
+  </si>
+  <si>
+    <t>RepairButton.png</t>
+  </si>
+  <si>
+    <t>RewindButton.png</t>
+  </si>
+  <si>
+    <t>SampleButton.png</t>
+  </si>
+  <si>
+    <t>SeerButton.png</t>
+  </si>
+  <si>
+    <t>ShieldButton.png</t>
+  </si>
+  <si>
+    <t>ShiftButton.png</t>
+  </si>
+  <si>
+    <t>SidekickButton.png</t>
+  </si>
+  <si>
+    <t>TimeShieldButton.png</t>
+  </si>
+  <si>
+    <t>TrackerButton.png</t>
+  </si>
+  <si>
+    <t>TricksterVentButton.png</t>
+  </si>
+  <si>
+    <t>VampireButton.png</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>CamoButton</t>
+  </si>
+  <si>
+    <t>CleanButton</t>
+  </si>
+  <si>
+    <t>CloseVentButton</t>
+  </si>
+  <si>
+    <t>CurseButton</t>
+  </si>
+  <si>
+    <t>CurseKillButton</t>
+  </si>
+  <si>
+    <t>DouseButton</t>
+  </si>
+  <si>
+    <t>EraserButton</t>
+  </si>
+  <si>
+    <t>GarlicButton</t>
+  </si>
+  <si>
+    <t>HackerButton</t>
+  </si>
+  <si>
+    <t>IgniteButton</t>
+  </si>
+  <si>
+    <t>LighterButton</t>
+  </si>
+  <si>
+    <t>LightsOutButton</t>
+  </si>
+  <si>
+    <t>MorphButton</t>
+  </si>
+  <si>
+    <t>PlaceCameraButton</t>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxButton</t>
+  </si>
+  <si>
+    <t>RepairButton</t>
+  </si>
+  <si>
+    <t>RewindButton</t>
+  </si>
+  <si>
+    <t>SampleButton</t>
+  </si>
+  <si>
+    <t>SeerButton</t>
+  </si>
+  <si>
+    <t>ShieldButton</t>
+  </si>
+  <si>
+    <t>ShiftButton</t>
+  </si>
+  <si>
+    <t>SidekickButton</t>
+  </si>
+  <si>
+    <t>TimeShieldButton</t>
+  </si>
+  <si>
+    <t>TrackerButton</t>
+  </si>
+  <si>
+    <t>TricksterVentButton</t>
+  </si>
+  <si>
+    <t>VampireButton</t>
   </si>
 </sst>
 </file>
@@ -2607,9 +2826,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2890,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q410"/>
+  <dimension ref="A1:Q421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="M204" sqref="M204"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,7 +3177,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="M2" t="s">
         <v>160</v>
@@ -2967,7 +3188,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="M3" t="s">
         <v>161</v>
@@ -2978,7 +3199,7 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="M4" t="s">
         <v>162</v>
@@ -2989,7 +3210,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="M5" t="s">
         <v>163</v>
@@ -3000,7 +3221,7 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="M6" t="s">
         <v>164</v>
@@ -3011,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="M7" t="s">
         <v>159</v>
@@ -3022,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="M8" t="s">
-        <v>775</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3033,10 +3254,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="M9" t="s">
-        <v>776</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3044,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="M10" t="s">
         <v>165</v>
@@ -3055,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -3066,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="M12" t="s">
         <v>167</v>
@@ -3077,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="M13" t="s">
         <v>168</v>
@@ -3099,10 +3320,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>776</v>
       </c>
       <c r="M16" t="s">
-        <v>748</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3110,10 +3331,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>777</v>
       </c>
       <c r="M17" t="s">
-        <v>749</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3121,10 +3342,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>778</v>
       </c>
       <c r="M18" t="s">
-        <v>750</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,10 +3353,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>779</v>
       </c>
       <c r="M19" t="s">
-        <v>751</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3143,10 +3364,10 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>780</v>
       </c>
       <c r="M20" t="s">
-        <v>752</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3154,10 +3375,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>781</v>
       </c>
       <c r="M21" t="s">
-        <v>753</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3165,10 +3386,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3176,10 +3397,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="M25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3187,10 +3408,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="M27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3198,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>543</v>
+        <v>817</v>
       </c>
       <c r="M28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3209,10 +3430,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3220,10 +3441,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3231,10 +3452,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>546</v>
+        <v>818</v>
       </c>
       <c r="M32" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3242,10 +3463,10 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="M33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3253,10 +3474,10 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3264,10 +3485,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>549</v>
+        <v>782</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3275,10 +3496,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>550</v>
+        <v>798</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3286,10 +3507,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>551</v>
+        <v>783</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3297,10 +3518,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3308,10 +3529,10 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>819</v>
       </c>
       <c r="M41" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3319,10 +3540,10 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>554</v>
+        <v>784</v>
       </c>
       <c r="M42" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3330,10 +3551,10 @@
         <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3341,10 +3562,10 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>820</v>
       </c>
       <c r="M45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,10 +3573,10 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>785</v>
       </c>
       <c r="M46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3363,10 +3584,10 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>786</v>
       </c>
       <c r="M47" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3374,10 +3595,10 @@
         <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="M49" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3385,10 +3606,10 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>560</v>
+        <v>821</v>
       </c>
       <c r="M50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3396,10 +3617,10 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="M52" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3407,10 +3628,10 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>562</v>
+        <v>822</v>
       </c>
       <c r="M53" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,10 +3639,10 @@
         <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>563</v>
+        <v>787</v>
       </c>
       <c r="M54" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,10 +3650,10 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M56" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3440,10 +3661,10 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="M57" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3451,10 +3672,10 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="M58" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3462,10 +3683,10 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="M59" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,10 +3694,10 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="M60" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3484,10 +3705,10 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="M61" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3495,10 +3716,10 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="M64" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3506,10 +3727,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="M65" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3517,10 +3738,10 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="M67" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3528,10 +3749,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>788</v>
       </c>
       <c r="M68" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3539,10 +3760,10 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="M69" t="s">
-        <v>846</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3550,10 +3771,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>575</v>
+        <v>789</v>
       </c>
       <c r="M70" t="s">
-        <v>827</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3561,10 +3782,10 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="M71" t="s">
-        <v>828</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="M72" t="s">
-        <v>829</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3583,10 +3804,10 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="M74" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3594,10 +3815,10 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>577</v>
+        <v>792</v>
       </c>
       <c r="M75" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3605,10 +3826,10 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>578</v>
+        <v>793</v>
       </c>
       <c r="M76" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3616,10 +3837,10 @@
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="M78" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3627,10 +3848,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>580</v>
+        <v>794</v>
       </c>
       <c r="M79" t="s">
-        <v>831</v>
+        <v>755</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3638,10 +3859,10 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>581</v>
+        <v>795</v>
       </c>
       <c r="M80" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3649,10 +3870,10 @@
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="M82" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3660,10 +3881,10 @@
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>796</v>
       </c>
       <c r="M83" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3671,10 +3892,10 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>584</v>
+        <v>797</v>
       </c>
       <c r="M84" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,10 +3903,10 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="M86" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3693,10 +3914,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>586</v>
+        <v>798</v>
       </c>
       <c r="M87" t="s">
-        <v>837</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3704,10 +3925,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>587</v>
+        <v>799</v>
       </c>
       <c r="M88" t="s">
-        <v>845</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3715,10 +3936,10 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>588</v>
+        <v>800</v>
       </c>
       <c r="M89" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3726,10 +3947,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>589</v>
+        <v>801</v>
       </c>
       <c r="M90" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,10 +3958,10 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="M91" t="s">
-        <v>834</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3748,10 +3969,10 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="M92" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3759,10 +3980,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -3770,10 +3991,10 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="M94" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -3781,10 +4002,10 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>594</v>
+        <v>802</v>
       </c>
       <c r="M95" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -3792,10 +4013,10 @@
         <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>595</v>
+        <v>815</v>
       </c>
       <c r="M96" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -3803,10 +4024,10 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="M98" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -3814,10 +4035,10 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>597</v>
+        <v>803</v>
       </c>
       <c r="M99" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -3825,10 +4046,10 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="M101" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -3836,10 +4057,10 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="M103" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -3847,10 +4068,10 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="M105" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -3858,10 +4079,10 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>601</v>
+        <v>798</v>
       </c>
       <c r="M106" t="s">
-        <v>837</v>
+        <v>761</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -3869,10 +4090,10 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="M107" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -3880,10 +4101,10 @@
         <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>602</v>
+        <v>804</v>
       </c>
       <c r="M108" t="s">
-        <v>838</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -3891,10 +4112,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="M111" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -3902,10 +4123,10 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>604</v>
+        <v>805</v>
       </c>
       <c r="M112" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -3913,10 +4134,10 @@
         <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>605</v>
+        <v>806</v>
       </c>
       <c r="M113" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -3924,10 +4145,10 @@
         <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>606</v>
+        <v>823</v>
       </c>
       <c r="M114" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -3935,10 +4156,10 @@
         <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>607</v>
+        <v>824</v>
       </c>
       <c r="M115" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -3946,10 +4167,10 @@
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="M117" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -3957,10 +4178,10 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="M118" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -3968,10 +4189,10 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>785</v>
+        <v>710</v>
       </c>
       <c r="M119" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -3979,10 +4200,10 @@
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="M120" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -3990,10 +4211,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="M121" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -4001,10 +4222,10 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="M122" t="s">
-        <v>840</v>
+        <v>764</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -4012,10 +4233,10 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="M124" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -4023,10 +4244,10 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>614</v>
+        <v>825</v>
       </c>
       <c r="M125" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -4034,10 +4255,10 @@
         <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="M126" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -4045,10 +4266,10 @@
         <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>616</v>
+        <v>826</v>
       </c>
       <c r="M127" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -4056,54 +4277,54 @@
         <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M129" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
       <c r="B130" t="s">
-        <v>773</v>
+        <v>833</v>
       </c>
       <c r="M130" t="s">
-        <v>774</v>
+        <v>700</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>756</v>
+        <v>684</v>
       </c>
       <c r="B131" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M131" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>759</v>
+        <v>687</v>
       </c>
       <c r="B132" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
       <c r="M132" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>760</v>
+        <v>688</v>
       </c>
       <c r="B133" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
       <c r="M133" t="s">
-        <v>758</v>
+        <v>686</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -4111,10 +4332,10 @@
         <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="M134" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -4122,10 +4343,10 @@
         <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="M135" t="s">
-        <v>239</v>
+        <v>855</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,10 +4354,10 @@
         <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="M137" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -4144,10 +4365,10 @@
         <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>621</v>
+        <v>794</v>
       </c>
       <c r="M138" t="s">
-        <v>831</v>
+        <v>755</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -4155,10 +4376,10 @@
         <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>622</v>
+        <v>807</v>
       </c>
       <c r="M139" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -4166,54 +4387,54 @@
         <v>85</v>
       </c>
       <c r="B141" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="M141" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>771</v>
+        <v>699</v>
       </c>
       <c r="B142" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="M142" t="s">
-        <v>841</v>
+        <v>765</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>761</v>
+        <v>689</v>
       </c>
       <c r="B143" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="M143" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>762</v>
+        <v>690</v>
       </c>
       <c r="B144" t="s">
-        <v>766</v>
+        <v>694</v>
       </c>
       <c r="M144" t="s">
-        <v>765</v>
+        <v>693</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>763</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s">
-        <v>767</v>
+        <v>695</v>
       </c>
       <c r="M145" t="s">
-        <v>764</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4221,10 +4442,10 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>625</v>
+        <v>808</v>
       </c>
       <c r="M146" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -4232,15 +4453,15 @@
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>626</v>
+        <v>809</v>
       </c>
       <c r="M147" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -4248,10 +4469,10 @@
         <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="M149" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -4259,10 +4480,10 @@
         <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>629</v>
+        <v>827</v>
       </c>
       <c r="M150" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -4270,10 +4491,10 @@
         <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>630</v>
+        <v>828</v>
       </c>
       <c r="M151" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -4281,10 +4502,10 @@
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>631</v>
+        <v>810</v>
       </c>
       <c r="M152" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -4292,10 +4513,10 @@
         <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="M154" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -4303,10 +4524,10 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
       <c r="M155" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -4314,10 +4535,10 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>633</v>
+        <v>812</v>
       </c>
       <c r="M156" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -4325,10 +4546,10 @@
         <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="M158" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,10 +4557,10 @@
         <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="M159" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -4347,10 +4568,10 @@
         <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="M160" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -4358,10 +4579,10 @@
         <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>637</v>
+        <v>580</v>
       </c>
       <c r="M161" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -4369,10 +4590,10 @@
         <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="M163" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,10 +4601,10 @@
         <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>639</v>
+        <v>813</v>
       </c>
       <c r="M164" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -4391,10 +4612,10 @@
         <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>640</v>
+        <v>582</v>
       </c>
       <c r="M165" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -4402,10 +4623,10 @@
         <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>641</v>
+        <v>814</v>
       </c>
       <c r="M166" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -4413,10 +4634,10 @@
         <v>103</v>
       </c>
       <c r="B167" t="s">
-        <v>642</v>
+        <v>815</v>
       </c>
       <c r="M167" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -4424,10 +4645,10 @@
         <v>113</v>
       </c>
       <c r="B169" t="s">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="M169" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -4435,10 +4656,10 @@
         <v>114</v>
       </c>
       <c r="B170" t="s">
-        <v>644</v>
+        <v>774</v>
       </c>
       <c r="M170" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -4446,10 +4667,10 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>645</v>
+        <v>829</v>
       </c>
       <c r="M171" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -4457,10 +4678,10 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>646</v>
+        <v>830</v>
       </c>
       <c r="M172" t="s">
-        <v>262</v>
+        <v>853</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -4468,10 +4689,10 @@
         <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>647</v>
+        <v>831</v>
       </c>
       <c r="M173" t="s">
-        <v>263</v>
+        <v>854</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -4479,10 +4700,10 @@
         <v>118</v>
       </c>
       <c r="B175" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="M175" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -4490,10 +4711,10 @@
         <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="M176" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -4501,10 +4722,10 @@
         <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="M177" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -4512,10 +4733,10 @@
         <v>121</v>
       </c>
       <c r="B179" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="M179" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -4523,10 +4744,10 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>652</v>
+        <v>813</v>
       </c>
       <c r="M180" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -4534,10 +4755,10 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>653</v>
+        <v>814</v>
       </c>
       <c r="M181" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -4545,10 +4766,10 @@
         <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>654</v>
+        <v>815</v>
       </c>
       <c r="M182" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -4556,10 +4777,10 @@
         <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>655</v>
+        <v>795</v>
       </c>
       <c r="M183" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -4567,10 +4788,10 @@
         <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>656</v>
+        <v>832</v>
       </c>
       <c r="M184" t="s">
-        <v>843</v>
+        <v>767</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -4578,10 +4799,10 @@
         <v>134</v>
       </c>
       <c r="B186" t="s">
-        <v>657</v>
+        <v>816</v>
       </c>
       <c r="M186" t="s">
-        <v>844</v>
+        <v>770</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -4589,10 +4810,10 @@
         <v>135</v>
       </c>
       <c r="B187" t="s">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="M187" t="s">
-        <v>269</v>
+        <v>771</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -4600,10 +4821,10 @@
         <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="M188" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -4611,1423 +4832,1423 @@
         <v>137</v>
       </c>
       <c r="B189" t="s">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="M189" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>791</v>
+        <v>715</v>
       </c>
       <c r="B191" t="s">
-        <v>788</v>
+        <v>712</v>
       </c>
       <c r="M191" t="s">
-        <v>795</v>
+        <v>719</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>793</v>
+        <v>717</v>
       </c>
       <c r="B192" t="s">
-        <v>798</v>
+        <v>722</v>
       </c>
       <c r="M192" t="s">
-        <v>799</v>
+        <v>723</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>792</v>
+        <v>716</v>
       </c>
       <c r="B193" t="s">
-        <v>789</v>
+        <v>713</v>
       </c>
       <c r="M193" t="s">
-        <v>796</v>
+        <v>720</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>794</v>
+        <v>718</v>
       </c>
       <c r="B194" t="s">
-        <v>790</v>
+        <v>714</v>
       </c>
       <c r="M194" t="s">
-        <v>797</v>
+        <v>721</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B196" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="M196" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B197" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
       <c r="M197" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B199" t="s">
-        <v>663</v>
+        <v>593</v>
       </c>
       <c r="M199" t="s">
-        <v>777</v>
+        <v>703</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B200" t="s">
-        <v>664</v>
+        <v>594</v>
       </c>
       <c r="M200" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="M201" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M203" t="s">
-        <v>848</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="M205" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B206" t="s">
-        <v>666</v>
+        <v>596</v>
       </c>
       <c r="M206" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B207" t="s">
-        <v>666</v>
+        <v>596</v>
       </c>
       <c r="M207" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B209" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="M209" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B210" t="s">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="M210" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B211" t="s">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="M211" t="s">
-        <v>847</v>
+        <v>772</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B213" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="M213" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
-        <v>668</v>
+        <v>598</v>
       </c>
       <c r="M214" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B215" t="s">
-        <v>716</v>
+        <v>646</v>
       </c>
       <c r="M215" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B217" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="M217" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B218" t="s">
-        <v>669</v>
+        <v>599</v>
       </c>
       <c r="M218" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>717</v>
+        <v>647</v>
       </c>
       <c r="M219" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B221" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="M221" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B222" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="M222" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B223" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="M223" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B225" t="s">
-        <v>671</v>
+        <v>601</v>
       </c>
       <c r="M225" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B226" t="s">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="M226" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B227" t="s">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="M227" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B229" t="s">
-        <v>673</v>
+        <v>603</v>
       </c>
       <c r="M229" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B230" t="s">
-        <v>674</v>
+        <v>604</v>
       </c>
       <c r="M230" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B231" t="s">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="M231" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B233" t="s">
-        <v>675</v>
+        <v>605</v>
       </c>
       <c r="M233" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B234" t="s">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="M234" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B235" t="s">
-        <v>718</v>
+        <v>648</v>
       </c>
       <c r="M235" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B237" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="M237" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B238" t="s">
-        <v>677</v>
+        <v>607</v>
       </c>
       <c r="M238" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B239" t="s">
-        <v>719</v>
+        <v>649</v>
       </c>
       <c r="M239" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B241" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M241" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B242" t="s">
-        <v>678</v>
+        <v>608</v>
       </c>
       <c r="M242" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B243" t="s">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="M243" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B245" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="M245" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B246" t="s">
-        <v>679</v>
+        <v>609</v>
       </c>
       <c r="M246" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B247" t="s">
-        <v>721</v>
+        <v>651</v>
       </c>
       <c r="M247" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B249" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="M249" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B250" t="s">
-        <v>680</v>
+        <v>610</v>
       </c>
       <c r="M250" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B251" t="s">
-        <v>722</v>
+        <v>652</v>
       </c>
       <c r="M251" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B253" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M253" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B254" t="s">
-        <v>681</v>
+        <v>611</v>
       </c>
       <c r="M254" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B255" t="s">
-        <v>723</v>
+        <v>653</v>
       </c>
       <c r="M255" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B257" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="M257" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B258" t="s">
-        <v>682</v>
+        <v>612</v>
       </c>
       <c r="M258" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B259" t="s">
-        <v>724</v>
+        <v>654</v>
       </c>
       <c r="M259" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B261" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="M261" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B262" t="s">
-        <v>683</v>
+        <v>613</v>
       </c>
       <c r="M262" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B263" t="s">
-        <v>725</v>
+        <v>655</v>
       </c>
       <c r="M263" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B265" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M265" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B266" t="s">
-        <v>684</v>
+        <v>614</v>
       </c>
       <c r="M266" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B267" t="s">
-        <v>684</v>
+        <v>614</v>
       </c>
       <c r="M267" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B269" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="M269" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B270" t="s">
-        <v>685</v>
+        <v>615</v>
       </c>
       <c r="M270" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B271" t="s">
-        <v>726</v>
+        <v>656</v>
       </c>
       <c r="M271" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B273" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="M273" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B274" t="s">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="M274" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B275" t="s">
-        <v>727</v>
+        <v>657</v>
       </c>
       <c r="M275" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B277" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M277" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B278" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="M278" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B279" t="s">
-        <v>728</v>
+        <v>658</v>
       </c>
       <c r="M279" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B281" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="M281" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B282" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="M282" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B283" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="M283" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B285" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="M285" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B286" t="s">
-        <v>689</v>
+        <v>619</v>
       </c>
       <c r="M286" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B287" t="s">
-        <v>729</v>
+        <v>659</v>
       </c>
       <c r="M287" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B289" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="M289" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B290" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="M290" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B291" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="M291" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B293" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="M293" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B294" t="s">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="M294" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B295" t="s">
-        <v>730</v>
+        <v>660</v>
       </c>
       <c r="M295" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B297" t="s">
-        <v>692</v>
+        <v>622</v>
       </c>
       <c r="M297" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B298" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="M298" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B299" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
       <c r="M299" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B301" t="s">
-        <v>695</v>
+        <v>625</v>
       </c>
       <c r="M301" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B302" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="M302" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B303" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
       <c r="M303" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B305" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="M305" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B306" t="s">
-        <v>696</v>
+        <v>626</v>
       </c>
       <c r="M306" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B307" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="M307" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B309" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="M309" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B310" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="M310" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B311" t="s">
-        <v>732</v>
+        <v>662</v>
       </c>
       <c r="M311" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B313" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="M313" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B314" t="s">
-        <v>698</v>
+        <v>628</v>
       </c>
       <c r="M314" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B315" t="s">
-        <v>733</v>
+        <v>663</v>
       </c>
       <c r="M315" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B316" t="s">
-        <v>735</v>
+        <v>665</v>
       </c>
       <c r="M316" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B318" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="M318" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B319" t="s">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="M319" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="M320" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B322" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="M322" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B323" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="M323" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B324" t="s">
-        <v>734</v>
+        <v>664</v>
       </c>
       <c r="M324" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B326" t="s">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="M326" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B327" t="s">
-        <v>702</v>
+        <v>632</v>
       </c>
       <c r="M327" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B328" t="s">
-        <v>702</v>
+        <v>632</v>
       </c>
       <c r="M328" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B330" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="M330" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B331" t="s">
-        <v>703</v>
+        <v>633</v>
       </c>
       <c r="M331" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B332" t="s">
-        <v>703</v>
+        <v>633</v>
       </c>
       <c r="M332" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="M334" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B335" t="s">
-        <v>705</v>
+        <v>635</v>
       </c>
       <c r="M335" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>705</v>
+        <v>635</v>
       </c>
       <c r="M336" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B338" t="s">
-        <v>706</v>
+        <v>636</v>
       </c>
       <c r="M338" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>705</v>
+        <v>635</v>
       </c>
       <c r="M339" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>705</v>
+        <v>635</v>
       </c>
       <c r="M340" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B342" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="M342" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B343" t="s">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="M343" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="M344" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B346" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="M346" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B347" t="s">
-        <v>708</v>
+        <v>638</v>
       </c>
       <c r="M347" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>709</v>
+        <v>639</v>
       </c>
       <c r="M348" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="M350" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B351" t="s">
-        <v>711</v>
+        <v>641</v>
       </c>
       <c r="M351" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B352" t="s">
-        <v>711</v>
+        <v>641</v>
       </c>
       <c r="M352" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B354" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="M354" t="s">
-        <v>778</v>
+        <v>704</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B355" t="s">
-        <v>713</v>
+        <v>643</v>
       </c>
       <c r="M355" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B356" t="s">
-        <v>713</v>
+        <v>643</v>
       </c>
       <c r="M356" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B358" t="s">
-        <v>714</v>
+        <v>644</v>
       </c>
       <c r="M358" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B359" t="s">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="M359" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B360" t="s">
-        <v>715</v>
+        <v>645</v>
       </c>
       <c r="M360" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B362" t="s">
         <v>169</v>
@@ -6038,427 +6259,830 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B363" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M363" t="s">
-        <v>805</v>
+        <v>729</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B364" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M364" t="s">
-        <v>805</v>
+        <v>729</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B366" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M366" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B367" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="M367" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B369" t="s">
-        <v>736</v>
+        <v>666</v>
       </c>
       <c r="M369" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B370" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="M370" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B371" t="s">
-        <v>738</v>
+        <v>668</v>
       </c>
       <c r="M371" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B372" t="s">
-        <v>739</v>
+        <v>669</v>
       </c>
       <c r="M372" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B373" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="M373" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B375" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>494</v>
+        <v>836</v>
       </c>
       <c r="B376" t="s">
-        <v>520</v>
+        <v>838</v>
       </c>
       <c r="M376" t="s">
-        <v>482</v>
+        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>489</v>
+        <v>837</v>
       </c>
       <c r="B377" t="s">
-        <v>521</v>
+        <v>839</v>
       </c>
       <c r="M377" t="s">
-        <v>483</v>
+        <v>841</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B378" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="M378" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B379" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M379" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B380" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M380" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B381" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="M381" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B382" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M382" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B383" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="M383" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B384" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="M384" t="s">
-        <v>519</v>
+        <v>834</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B385" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="M385" t="s">
-        <v>804</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>486</v>
+      </c>
+      <c r="B386" t="s">
+        <v>488</v>
+      </c>
+      <c r="M386" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B387" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="M387" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>507</v>
-      </c>
-      <c r="B388" t="s">
-        <v>742</v>
-      </c>
-      <c r="M388" t="s">
-        <v>503</v>
+        <v>728</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B389" t="s">
-        <v>743</v>
+        <v>671</v>
       </c>
       <c r="M389" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B390" t="s">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="M390" t="s">
-        <v>505</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>496</v>
+      </c>
+      <c r="B391" t="s">
+        <v>673</v>
+      </c>
+      <c r="M391" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B392" t="s">
-        <v>779</v>
+        <v>674</v>
       </c>
       <c r="M392" t="s">
-        <v>781</v>
+        <v>493</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>745</v>
+        <v>498</v>
       </c>
       <c r="B394" t="s">
-        <v>511</v>
+        <v>705</v>
       </c>
       <c r="M394" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>746</v>
-      </c>
-      <c r="B395" t="s">
-        <v>512</v>
-      </c>
-      <c r="M395" t="s">
-        <v>514</v>
+        <v>706</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>747</v>
+        <v>675</v>
       </c>
       <c r="B396" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="M396" t="s">
-        <v>516</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>676</v>
+      </c>
+      <c r="B397" t="s">
+        <v>500</v>
+      </c>
+      <c r="M397" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>517</v>
+        <v>677</v>
       </c>
       <c r="B398" t="s">
-        <v>782</v>
+        <v>501</v>
       </c>
       <c r="M398" t="s">
-        <v>801</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>783</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
-      <c r="M400" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>784</v>
-      </c>
-      <c r="B401" t="s">
-        <v>787</v>
-      </c>
-      <c r="M401" t="s">
-        <v>800</v>
+        <v>505</v>
+      </c>
+      <c r="B400" t="s">
+        <v>707</v>
+      </c>
+      <c r="M400" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>708</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>806</v>
+        <v>709</v>
       </c>
       <c r="B403" t="s">
-        <v>807</v>
+        <v>711</v>
       </c>
       <c r="M403" t="s">
-        <v>808</v>
+        <v>724</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>809</v>
+        <v>730</v>
       </c>
       <c r="B405" t="s">
-        <v>810</v>
+        <v>731</v>
       </c>
       <c r="M405" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>811</v>
-      </c>
-      <c r="B406" t="s">
-        <v>816</v>
-      </c>
-      <c r="M406" t="s">
-        <v>823</v>
+        <v>732</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="B407" t="s">
-        <v>817</v>
+        <v>734</v>
       </c>
       <c r="M407" t="s">
-        <v>820</v>
+        <v>749</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>813</v>
+        <v>735</v>
       </c>
       <c r="B408" t="s">
-        <v>818</v>
+        <v>740</v>
       </c>
       <c r="M408" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
       <c r="B409" t="s">
-        <v>299</v>
+        <v>741</v>
       </c>
       <c r="M409" t="s">
-        <v>821</v>
+        <v>744</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>815</v>
+        <v>737</v>
       </c>
       <c r="B410" t="s">
-        <v>819</v>
+        <v>742</v>
       </c>
       <c r="M410" t="s">
-        <v>822</v>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>738</v>
+      </c>
+      <c r="B411" t="s">
+        <v>288</v>
+      </c>
+      <c r="M411" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>739</v>
+      </c>
+      <c r="B412" t="s">
+        <v>743</v>
+      </c>
+      <c r="M412" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>843</v>
+      </c>
+      <c r="B414" t="s">
+        <v>844</v>
+      </c>
+      <c r="M414" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>847</v>
+      </c>
+      <c r="B415" t="s">
+        <v>845</v>
+      </c>
+      <c r="M415" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>850</v>
+      </c>
+      <c r="B416" t="s">
+        <v>845</v>
+      </c>
+      <c r="M416" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>852</v>
+      </c>
+      <c r="B417" t="s">
+        <v>848</v>
+      </c>
+      <c r="M417" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>856</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="3"/>
+      <c r="H419" s="3"/>
+      <c r="I419" s="3"/>
+      <c r="J419" s="3"/>
+      <c r="K419" s="3"/>
+      <c r="L419" s="3"/>
+      <c r="M419" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>859</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+      <c r="I420" s="3"/>
+      <c r="J420" s="3"/>
+      <c r="K420" s="3"/>
+      <c r="L420" s="3"/>
+      <c r="M420" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>860</v>
+      </c>
+      <c r="B421" t="s">
+        <v>862</v>
+      </c>
+      <c r="M421" t="s">
+        <v>861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>897</v>
+      </c>
+      <c r="B7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>900</v>
+      </c>
+      <c r="B10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>902</v>
+      </c>
+      <c r="B12" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>904</v>
+      </c>
+      <c r="B14" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>906</v>
+      </c>
+      <c r="B16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>907</v>
+      </c>
+      <c r="B17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>908</v>
+      </c>
+      <c r="B18" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>910</v>
+      </c>
+      <c r="B20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>912</v>
+      </c>
+      <c r="B22" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>913</v>
+      </c>
+      <c r="B23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>914</v>
+      </c>
+      <c r="B24" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>915</v>
+      </c>
+      <c r="B25" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>916</v>
+      </c>
+      <c r="B26" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>917</v>
+      </c>
+      <c r="B27" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>918</v>
+      </c>
+      <c r="B28" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAFF464-CAA1-44A9-96E5-B6F7EC4800C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340989ED-69F9-4B03-A302-209686D1F513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2460" windowWidth="22230" windowHeight="11955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="4230" windowWidth="22230" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="951">
   <si>
     <t>presetSelection</t>
   </si>
@@ -1447,9 +1447,6 @@
     <t>アーソニスト勝利</t>
   </si>
   <si>
-    <t>ラバーズ＆クルー勝利</t>
-  </si>
-  <si>
     <t>ラバーズ勝利</t>
   </si>
   <si>
@@ -1465,9 +1462,6 @@
     <t>arsonistWin</t>
   </si>
   <si>
-    <t>loversTeamWin</t>
-  </si>
-  <si>
     <t>loversWin</t>
   </si>
   <si>
@@ -1558,9 +1552,6 @@
     <t>Arsonist Wins</t>
   </si>
   <si>
-    <t>Lovers And Crewmates Win</t>
-  </si>
-  <si>
     <t>Lovers Win</t>
   </si>
   <si>
@@ -2021,9 +2012,6 @@
   </si>
   <si>
     <t>Confuse the Impostors</t>
-  </si>
-  <si>
-    <t>Kill everyone  and recruit a Sidekick</t>
   </si>
   <si>
     <t>Streamer Mode</t>
@@ -2791,6 +2779,114 @@
   </si>
   <si>
     <t>VampireButton</t>
+  </si>
+  <si>
+    <t>opportunist</t>
+  </si>
+  <si>
+    <t>oppIntroDesc</t>
+  </si>
+  <si>
+    <t>oppShortDesc</t>
+  </si>
+  <si>
+    <t>とにかく生き残りましょう</t>
+  </si>
+  <si>
+    <t>オポチュニスト</t>
+  </si>
+  <si>
+    <t>Opportunist</t>
+  </si>
+  <si>
+    <t>Do whatever it takes to survive</t>
+  </si>
+  <si>
+    <t>opportunistSpawnRate</t>
+  </si>
+  <si>
+    <t>crewWinExtra</t>
+  </si>
+  <si>
+    <t>impostorWinExtra</t>
+  </si>
+  <si>
+    <t>jesterWinExtra</t>
+  </si>
+  <si>
+    <t>arsonistWinExtra</t>
+  </si>
+  <si>
+    <t>loversWinExtra</t>
+  </si>
+  <si>
+    <t>jackalWinExtra</t>
+  </si>
+  <si>
+    <t>miniDiedExtra</t>
+  </si>
+  <si>
+    <t>Crewmates {0} Win</t>
+  </si>
+  <si>
+    <t>Impostors {0} Win</t>
+  </si>
+  <si>
+    <t>Jester {0} Win</t>
+  </si>
+  <si>
+    <t>Arsonist {0} Win</t>
+  </si>
+  <si>
+    <t>Lovers {0} Win</t>
+  </si>
+  <si>
+    <t>Team Jackal {0} Win</t>
+  </si>
+  <si>
+    <t>Mini Died {0} Win</t>
+  </si>
+  <si>
+    <t>クルー{0}勝利</t>
+  </si>
+  <si>
+    <t>インポスター{0}勝利</t>
+  </si>
+  <si>
+    <t>ジェスター{0}勝利</t>
+  </si>
+  <si>
+    <t>アーソニスト{0}勝利</t>
+  </si>
+  <si>
+    <t>ラバーズ{0}勝利</t>
+  </si>
+  <si>
+    <t>ジャッカル{0}勝利</t>
+  </si>
+  <si>
+    <t>ミニが殺された{0}勝利</t>
+  </si>
+  <si>
+    <t>opportunistExtra</t>
+  </si>
+  <si>
+    <t>&amp; Opportunist</t>
+  </si>
+  <si>
+    <t>＆オポチュニスト</t>
+  </si>
+  <si>
+    <t>&amp; Lovers</t>
+  </si>
+  <si>
+    <t>＆ラバーズ</t>
+  </si>
+  <si>
+    <t>loversExtra</t>
+  </si>
+  <si>
+    <t>Kill everyone and recruit a Sidekick</t>
   </si>
 </sst>
 </file>
@@ -3111,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q421"/>
+  <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3273,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M2" t="s">
         <v>160</v>
@@ -3188,7 +3284,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M3" t="s">
         <v>161</v>
@@ -3199,7 +3295,7 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M4" t="s">
         <v>162</v>
@@ -3210,7 +3306,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M5" t="s">
         <v>163</v>
@@ -3221,7 +3317,7 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M6" t="s">
         <v>164</v>
@@ -3232,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M7" t="s">
         <v>159</v>
@@ -3243,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M8" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3254,10 +3350,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M9" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3265,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M10" t="s">
         <v>165</v>
@@ -3276,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -3287,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M12" t="s">
         <v>167</v>
@@ -3298,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M13" t="s">
         <v>168</v>
@@ -3320,10 +3416,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,10 +3427,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M17" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3342,10 +3438,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M18" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3353,10 +3449,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3364,10 +3460,10 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M20" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3375,10 +3471,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M21" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3386,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M24" t="s">
         <v>170</v>
@@ -3397,7 +3493,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M25" t="s">
         <v>171</v>
@@ -3408,7 +3504,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
@@ -3419,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
@@ -3430,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M29" t="s">
         <v>174</v>
@@ -3441,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M31" t="s">
         <v>175</v>
@@ -3452,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="M32" t="s">
         <v>176</v>
@@ -3463,7 +3559,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M33" t="s">
         <v>177</v>
@@ -3474,7 +3570,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M35" t="s">
         <v>178</v>
@@ -3485,10 +3581,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="M36" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3496,7 +3592,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M37" t="s">
         <v>179</v>
@@ -3507,7 +3603,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M38" t="s">
         <v>180</v>
@@ -3518,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M40" t="s">
         <v>181</v>
@@ -3529,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="M41" t="s">
         <v>182</v>
@@ -3540,7 +3636,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="M42" t="s">
         <v>183</v>
@@ -3551,7 +3647,7 @@
         <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M44" t="s">
         <v>184</v>
@@ -3562,7 +3658,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="M45" t="s">
         <v>185</v>
@@ -3573,7 +3669,7 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M46" t="s">
         <v>186</v>
@@ -3584,7 +3680,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M47" t="s">
         <v>187</v>
@@ -3595,7 +3691,7 @@
         <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M49" t="s">
         <v>188</v>
@@ -3606,7 +3702,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="M50" t="s">
         <v>171</v>
@@ -3617,7 +3713,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M52" t="s">
         <v>189</v>
@@ -3628,7 +3724,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M53" t="s">
         <v>190</v>
@@ -3639,7 +3735,7 @@
         <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="M54" t="s">
         <v>191</v>
@@ -3650,7 +3746,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M56" t="s">
         <v>192</v>
@@ -3661,7 +3757,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M57" t="s">
         <v>193</v>
@@ -3672,7 +3768,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M58" t="s">
         <v>194</v>
@@ -3683,7 +3779,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M59" t="s">
         <v>195</v>
@@ -3694,7 +3790,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M60" t="s">
         <v>196</v>
@@ -3705,7 +3801,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M61" t="s">
         <v>197</v>
@@ -3716,7 +3812,7 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M64" t="s">
         <v>198</v>
@@ -3727,7 +3823,7 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M65" t="s">
         <v>199</v>
@@ -3738,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M67" t="s">
         <v>200</v>
@@ -3749,10 +3845,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M68" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3760,10 +3856,10 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3771,10 +3867,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="M70" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,10 +3878,10 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M71" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,10 +3889,10 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M72" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3804,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M74" t="s">
         <v>201</v>
@@ -3815,10 +3911,10 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M75" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3826,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M76" t="s">
         <v>202</v>
@@ -3837,7 +3933,7 @@
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M78" t="s">
         <v>203</v>
@@ -3848,10 +3944,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M79" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,10 +3955,10 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M80" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,7 +3966,7 @@
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M82" t="s">
         <v>204</v>
@@ -3881,7 +3977,7 @@
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M83" t="s">
         <v>205</v>
@@ -3892,7 +3988,7 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M84" t="s">
         <v>206</v>
@@ -3903,7 +3999,7 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M86" t="s">
         <v>207</v>
@@ -3914,10 +4010,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M87" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3925,10 +4021,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="M88" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3936,10 +4032,10 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M89" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3947,10 +4043,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="M90" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3958,10 +4054,10 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,7 +4065,7 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s">
         <v>208</v>
@@ -3980,7 +4076,7 @@
         <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M93" t="s">
         <v>209</v>
@@ -3991,7 +4087,7 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s">
         <v>210</v>
@@ -4002,10 +4098,10 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="M95" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4013,10 +4109,10 @@
         <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="M96" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4024,7 +4120,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s">
         <v>211</v>
@@ -4035,7 +4131,7 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="M99" t="s">
         <v>212</v>
@@ -4046,7 +4142,7 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M101" t="s">
         <v>213</v>
@@ -4057,7 +4153,7 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M103" t="s">
         <v>214</v>
@@ -4068,7 +4164,7 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M105" t="s">
         <v>215</v>
@@ -4079,10 +4175,10 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M106" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4090,7 +4186,7 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M107" t="s">
         <v>202</v>
@@ -4101,10 +4197,10 @@
         <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M108" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4112,7 +4208,7 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M111" t="s">
         <v>216</v>
@@ -4123,7 +4219,7 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M112" t="s">
         <v>217</v>
@@ -4134,7 +4230,7 @@
         <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M113" t="s">
         <v>218</v>
@@ -4145,7 +4241,7 @@
         <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="M114" t="s">
         <v>219</v>
@@ -4156,7 +4252,7 @@
         <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M115" t="s">
         <v>220</v>
@@ -4167,7 +4263,7 @@
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M117" t="s">
         <v>221</v>
@@ -4178,7 +4274,7 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M118" t="s">
         <v>222</v>
@@ -4189,7 +4285,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M119" t="s">
         <v>223</v>
@@ -4200,7 +4296,7 @@
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M120" t="s">
         <v>224</v>
@@ -4211,10 +4307,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M121" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -4222,10 +4318,10 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M122" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -4233,7 +4329,7 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M124" t="s">
         <v>225</v>
@@ -4244,7 +4340,7 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M125" t="s">
         <v>226</v>
@@ -4255,7 +4351,7 @@
         <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M126" t="s">
         <v>227</v>
@@ -4266,7 +4362,7 @@
         <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M127" t="s">
         <v>228</v>
@@ -4277,7 +4373,7 @@
         <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M129" t="s">
         <v>229</v>
@@ -4285,21 +4381,21 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B130" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="M130" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B131" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M131" t="s">
         <v>230</v>
@@ -4307,24 +4403,24 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B132" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="M132" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B133" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="M133" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -4332,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M134" t="s">
         <v>231</v>
@@ -4343,10 +4439,10 @@
         <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M135" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4354,7 +4450,7 @@
         <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M137" t="s">
         <v>232</v>
@@ -4365,10 +4461,10 @@
         <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M138" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -4376,7 +4472,7 @@
         <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M139" t="s">
         <v>233</v>
@@ -4387,7 +4483,7 @@
         <v>85</v>
       </c>
       <c r="B141" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M141" t="s">
         <v>234</v>
@@ -4395,21 +4491,21 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B142" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M142" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M143" t="s">
         <v>235</v>
@@ -4417,24 +4513,24 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>686</v>
+      </c>
+      <c r="B144" t="s">
         <v>690</v>
       </c>
-      <c r="B144" t="s">
-        <v>694</v>
-      </c>
       <c r="M144" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>687</v>
+      </c>
+      <c r="B145" t="s">
         <v>691</v>
       </c>
-      <c r="B145" t="s">
-        <v>695</v>
-      </c>
       <c r="M145" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4442,7 +4538,7 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M146" t="s">
         <v>236</v>
@@ -4453,7 +4549,7 @@
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M147" t="s">
         <v>237</v>
@@ -4461,7 +4557,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -4469,7 +4565,7 @@
         <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M149" t="s">
         <v>238</v>
@@ -4480,7 +4576,7 @@
         <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="M150" t="s">
         <v>239</v>
@@ -4491,7 +4587,7 @@
         <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="M151" t="s">
         <v>240</v>
@@ -4502,10 +4598,10 @@
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M152" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -4513,7 +4609,7 @@
         <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M154" t="s">
         <v>241</v>
@@ -4524,7 +4620,7 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="M155" t="s">
         <v>242</v>
@@ -4535,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="M156" t="s">
         <v>243</v>
@@ -4546,7 +4642,7 @@
         <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M158" t="s">
         <v>244</v>
@@ -4557,7 +4653,7 @@
         <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M159" t="s">
         <v>245</v>
@@ -4568,7 +4664,7 @@
         <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M160" t="s">
         <v>246</v>
@@ -4579,7 +4675,7 @@
         <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M161" t="s">
         <v>247</v>
@@ -4590,7 +4686,7 @@
         <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M163" t="s">
         <v>248</v>
@@ -4601,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="M164" t="s">
         <v>249</v>
@@ -4612,7 +4708,7 @@
         <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M165" t="s">
         <v>250</v>
@@ -4623,10 +4719,10 @@
         <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M166" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -4634,10 +4730,10 @@
         <v>103</v>
       </c>
       <c r="B167" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="M167" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -4645,7 +4741,7 @@
         <v>113</v>
       </c>
       <c r="B169" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M169" t="s">
         <v>251</v>
@@ -4656,7 +4752,7 @@
         <v>114</v>
       </c>
       <c r="B170" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M170" t="s">
         <v>252</v>
@@ -4667,7 +4763,7 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="M171" t="s">
         <v>253</v>
@@ -4678,10 +4774,10 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="M172" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -4689,10 +4785,10 @@
         <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M173" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -4700,7 +4796,7 @@
         <v>118</v>
       </c>
       <c r="B175" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M175" t="s">
         <v>254</v>
@@ -4711,7 +4807,7 @@
         <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M176" t="s">
         <v>255</v>
@@ -4722,7 +4818,7 @@
         <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M177" t="s">
         <v>256</v>
@@ -4733,7 +4829,7 @@
         <v>121</v>
       </c>
       <c r="B179" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M179" t="s">
         <v>257</v>
@@ -4744,7 +4840,7 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="M180" t="s">
         <v>258</v>
@@ -4755,10 +4851,10 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M181" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,10 +4862,10 @@
         <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="M182" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -4777,10 +4873,10 @@
         <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M183" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -4788,2017 +4884,2149 @@
         <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M184" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>922</v>
       </c>
       <c r="B186" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="M186" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>135</v>
-      </c>
-      <c r="B187" t="s">
-        <v>588</v>
-      </c>
-      <c r="M187" t="s">
-        <v>771</v>
+        <v>919</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B188" t="s">
-        <v>589</v>
+        <v>812</v>
       </c>
       <c r="M188" t="s">
-        <v>259</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B189" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M189" t="s">
-        <v>260</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" t="s">
+        <v>586</v>
+      </c>
+      <c r="M190" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>715</v>
+        <v>137</v>
       </c>
       <c r="B191" t="s">
-        <v>712</v>
+        <v>587</v>
       </c>
       <c r="M191" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>717</v>
-      </c>
-      <c r="B192" t="s">
-        <v>722</v>
-      </c>
-      <c r="M192" t="s">
-        <v>723</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B193" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M193" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>713</v>
+      </c>
+      <c r="B194" t="s">
         <v>718</v>
       </c>
-      <c r="B194" t="s">
-        <v>714</v>
-      </c>
       <c r="M194" t="s">
-        <v>721</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>712</v>
+      </c>
+      <c r="B195" t="s">
+        <v>709</v>
+      </c>
+      <c r="M195" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>714</v>
+      </c>
+      <c r="B196" t="s">
+        <v>710</v>
+      </c>
+      <c r="M196" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>261</v>
       </c>
-      <c r="B196" t="s">
-        <v>591</v>
-      </c>
-      <c r="M196" t="s">
+      <c r="B198" t="s">
+        <v>588</v>
+      </c>
+      <c r="M198" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>262</v>
-      </c>
-      <c r="B197" t="s">
-        <v>592</v>
-      </c>
-      <c r="M197" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B199" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M199" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>266</v>
-      </c>
-      <c r="B200" t="s">
-        <v>594</v>
-      </c>
-      <c r="M200" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B201" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M201" t="s">
-        <v>269</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>266</v>
+      </c>
+      <c r="B202" t="s">
+        <v>591</v>
+      </c>
+      <c r="M202" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B203" t="s">
-        <v>271</v>
+        <v>592</v>
       </c>
       <c r="M203" t="s">
-        <v>769</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B205" t="s">
-        <v>549</v>
+        <v>271</v>
       </c>
       <c r="M205" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>273</v>
-      </c>
-      <c r="B206" t="s">
-        <v>596</v>
-      </c>
-      <c r="M206" t="s">
-        <v>274</v>
+        <v>765</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="M207" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>273</v>
+      </c>
+      <c r="B208" t="s">
+        <v>593</v>
+      </c>
+      <c r="M208" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B209" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="M209" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>277</v>
-      </c>
-      <c r="B210" t="s">
-        <v>597</v>
-      </c>
-      <c r="M210" t="s">
-        <v>772</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B211" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="M211" t="s">
-        <v>772</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>277</v>
+      </c>
+      <c r="B212" t="s">
+        <v>594</v>
+      </c>
+      <c r="M212" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="M213" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>280</v>
-      </c>
-      <c r="B214" t="s">
-        <v>598</v>
-      </c>
-      <c r="M214" t="s">
-        <v>281</v>
+        <v>768</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B215" t="s">
-        <v>646</v>
+        <v>555</v>
       </c>
       <c r="M215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>280</v>
+      </c>
+      <c r="B216" t="s">
+        <v>595</v>
+      </c>
+      <c r="M216" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B217" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="M217" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>284</v>
-      </c>
-      <c r="B218" t="s">
-        <v>599</v>
-      </c>
-      <c r="M218" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B219" t="s">
-        <v>647</v>
+        <v>556</v>
       </c>
       <c r="M219" t="s">
-        <v>287</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>284</v>
+      </c>
+      <c r="B220" t="s">
+        <v>596</v>
+      </c>
+      <c r="M220" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="M221" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>289</v>
-      </c>
-      <c r="B222" t="s">
-        <v>600</v>
-      </c>
-      <c r="M222" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B223" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="M223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>289</v>
+      </c>
+      <c r="B224" t="s">
+        <v>597</v>
+      </c>
+      <c r="M224" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B225" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M225" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>294</v>
-      </c>
-      <c r="B226" t="s">
-        <v>602</v>
-      </c>
-      <c r="M226" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B227" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M227" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>294</v>
+      </c>
+      <c r="B228" t="s">
+        <v>599</v>
+      </c>
+      <c r="M228" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B229" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M229" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>299</v>
-      </c>
-      <c r="B230" t="s">
-        <v>604</v>
-      </c>
-      <c r="M230" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B231" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M231" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>299</v>
+      </c>
+      <c r="B232" t="s">
+        <v>601</v>
+      </c>
+      <c r="M232" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B233" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M233" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>304</v>
-      </c>
-      <c r="B234" t="s">
-        <v>606</v>
-      </c>
-      <c r="M234" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="M235" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>304</v>
+      </c>
+      <c r="B236" t="s">
+        <v>603</v>
+      </c>
+      <c r="M236" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
+        <v>645</v>
       </c>
       <c r="M237" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>309</v>
-      </c>
-      <c r="B238" t="s">
-        <v>607</v>
-      </c>
-      <c r="M238" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B239" t="s">
-        <v>649</v>
+        <v>526</v>
       </c>
       <c r="M239" t="s">
-        <v>312</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>309</v>
+      </c>
+      <c r="B240" t="s">
+        <v>604</v>
+      </c>
+      <c r="M240" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B241" t="s">
-        <v>531</v>
+        <v>646</v>
       </c>
       <c r="M241" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>314</v>
-      </c>
-      <c r="B242" t="s">
-        <v>608</v>
-      </c>
-      <c r="M242" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B243" t="s">
-        <v>650</v>
+        <v>528</v>
       </c>
       <c r="M243" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" t="s">
+        <v>605</v>
+      </c>
+      <c r="M244" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B245" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="M245" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>318</v>
-      </c>
-      <c r="B246" t="s">
-        <v>609</v>
-      </c>
-      <c r="M246" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
-        <v>651</v>
+        <v>530</v>
       </c>
       <c r="M247" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>318</v>
+      </c>
+      <c r="B248" t="s">
+        <v>606</v>
+      </c>
+      <c r="M248" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B249" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="M249" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>322</v>
-      </c>
-      <c r="B250" t="s">
-        <v>610</v>
-      </c>
-      <c r="M250" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B251" t="s">
-        <v>652</v>
+        <v>531</v>
       </c>
       <c r="M251" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>322</v>
+      </c>
+      <c r="B252" t="s">
+        <v>607</v>
+      </c>
+      <c r="M252" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B253" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="M253" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>326</v>
-      </c>
-      <c r="B254" t="s">
-        <v>611</v>
-      </c>
-      <c r="M254" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B255" t="s">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="M255" t="s">
-        <v>329</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>326</v>
+      </c>
+      <c r="B256" t="s">
+        <v>608</v>
+      </c>
+      <c r="M256" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B257" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="M257" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>331</v>
-      </c>
-      <c r="B258" t="s">
-        <v>612</v>
-      </c>
-      <c r="M258" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B259" t="s">
-        <v>654</v>
+        <v>533</v>
       </c>
       <c r="M259" t="s">
-        <v>307</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>331</v>
+      </c>
+      <c r="B260" t="s">
+        <v>609</v>
+      </c>
+      <c r="M260" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B261" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="M261" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>335</v>
-      </c>
-      <c r="B262" t="s">
-        <v>613</v>
-      </c>
-      <c r="M262" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B263" t="s">
-        <v>655</v>
+        <v>534</v>
       </c>
       <c r="M263" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>335</v>
+      </c>
+      <c r="B264" t="s">
+        <v>610</v>
+      </c>
+      <c r="M264" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B265" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="M265" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>339</v>
-      </c>
-      <c r="B266" t="s">
-        <v>614</v>
-      </c>
-      <c r="M266" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B267" t="s">
-        <v>614</v>
+        <v>535</v>
       </c>
       <c r="M267" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>339</v>
+      </c>
+      <c r="B268" t="s">
+        <v>611</v>
+      </c>
+      <c r="M268" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B269" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="M269" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>343</v>
-      </c>
-      <c r="B270" t="s">
-        <v>615</v>
-      </c>
-      <c r="M270" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B271" t="s">
-        <v>656</v>
+        <v>558</v>
       </c>
       <c r="M271" t="s">
-        <v>346</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>343</v>
+      </c>
+      <c r="B272" t="s">
+        <v>612</v>
+      </c>
+      <c r="M272" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B273" t="s">
-        <v>566</v>
+        <v>653</v>
       </c>
       <c r="M273" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>348</v>
-      </c>
-      <c r="B274" t="s">
-        <v>616</v>
-      </c>
-      <c r="M274" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B275" t="s">
-        <v>657</v>
+        <v>563</v>
       </c>
       <c r="M275" t="s">
-        <v>351</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>348</v>
+      </c>
+      <c r="B276" t="s">
+        <v>613</v>
+      </c>
+      <c r="M276" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B277" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
       <c r="M277" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>353</v>
-      </c>
-      <c r="B278" t="s">
-        <v>617</v>
-      </c>
-      <c r="M278" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B279" t="s">
-        <v>658</v>
+        <v>565</v>
       </c>
       <c r="M279" t="s">
-        <v>356</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>353</v>
+      </c>
+      <c r="B280" t="s">
+        <v>614</v>
+      </c>
+      <c r="M280" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B281" t="s">
-        <v>556</v>
+        <v>655</v>
       </c>
       <c r="M281" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>358</v>
-      </c>
-      <c r="B282" t="s">
-        <v>618</v>
-      </c>
-      <c r="M282" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B283" t="s">
-        <v>618</v>
+        <v>553</v>
       </c>
       <c r="M283" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>358</v>
+      </c>
+      <c r="B284" t="s">
+        <v>615</v>
+      </c>
+      <c r="M284" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B285" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="M285" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>362</v>
-      </c>
-      <c r="B286" t="s">
-        <v>619</v>
-      </c>
-      <c r="M286" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B287" t="s">
-        <v>659</v>
+        <v>568</v>
       </c>
       <c r="M287" t="s">
-        <v>365</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" t="s">
+        <v>616</v>
+      </c>
+      <c r="M288" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B289" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="M289" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>367</v>
-      </c>
-      <c r="B290" t="s">
-        <v>620</v>
-      </c>
-      <c r="M290" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B291" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="M291" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>367</v>
+      </c>
+      <c r="B292" t="s">
+        <v>617</v>
+      </c>
+      <c r="M292" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B293" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="M293" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>371</v>
-      </c>
-      <c r="B294" t="s">
-        <v>621</v>
-      </c>
-      <c r="M294" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B295" t="s">
-        <v>660</v>
+        <v>572</v>
       </c>
       <c r="M295" t="s">
-        <v>374</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>371</v>
+      </c>
+      <c r="B296" t="s">
+        <v>618</v>
+      </c>
+      <c r="M296" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B297" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="M297" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>377</v>
-      </c>
-      <c r="B298" t="s">
-        <v>623</v>
-      </c>
-      <c r="M298" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B299" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M299" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>377</v>
+      </c>
+      <c r="B300" t="s">
+        <v>620</v>
+      </c>
+      <c r="M300" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B301" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M301" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>383</v>
-      </c>
-      <c r="B302" t="s">
-        <v>623</v>
-      </c>
-      <c r="M302" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B303" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M303" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>383</v>
+      </c>
+      <c r="B304" t="s">
+        <v>620</v>
+      </c>
+      <c r="M304" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B305" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="M305" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>386</v>
-      </c>
-      <c r="B306" t="s">
-        <v>626</v>
-      </c>
-      <c r="M306" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B307" t="s">
-        <v>661</v>
+        <v>573</v>
       </c>
       <c r="M307" t="s">
-        <v>389</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>386</v>
+      </c>
+      <c r="B308" t="s">
+        <v>623</v>
+      </c>
+      <c r="M308" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B309" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="M309" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>391</v>
-      </c>
-      <c r="B310" t="s">
-        <v>627</v>
-      </c>
-      <c r="M310" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B311" t="s">
-        <v>662</v>
+        <v>574</v>
       </c>
       <c r="M311" t="s">
-        <v>394</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>391</v>
+      </c>
+      <c r="B312" t="s">
+        <v>624</v>
+      </c>
+      <c r="M312" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B313" t="s">
-        <v>551</v>
+        <v>659</v>
       </c>
       <c r="M313" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>396</v>
-      </c>
-      <c r="B314" t="s">
-        <v>628</v>
-      </c>
-      <c r="M314" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B315" t="s">
-        <v>663</v>
+        <v>548</v>
       </c>
       <c r="M315" t="s">
-        <v>397</v>
+        <v>207</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="B316" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="M316" t="s">
-        <v>455</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>398</v>
+      </c>
+      <c r="B317" t="s">
+        <v>660</v>
+      </c>
+      <c r="M317" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="B318" t="s">
-        <v>629</v>
+        <v>950</v>
       </c>
       <c r="M318" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>401</v>
-      </c>
-      <c r="B319" t="s">
-        <v>630</v>
-      </c>
-      <c r="M319" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B320" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M320" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>401</v>
+      </c>
+      <c r="B321" t="s">
+        <v>627</v>
+      </c>
+      <c r="M321" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B322" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="M322" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>405</v>
-      </c>
-      <c r="B323" t="s">
-        <v>631</v>
-      </c>
-      <c r="M323" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B324" t="s">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="M324" t="s">
-        <v>408</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>405</v>
+      </c>
+      <c r="B325" t="s">
+        <v>628</v>
+      </c>
+      <c r="M325" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B326" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="M326" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>411</v>
-      </c>
-      <c r="B327" t="s">
-        <v>632</v>
-      </c>
-      <c r="M327" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B328" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="M328" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>411</v>
+      </c>
+      <c r="B329" t="s">
+        <v>629</v>
+      </c>
+      <c r="M329" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B330" t="s">
-        <v>550</v>
+        <v>629</v>
       </c>
       <c r="M330" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>416</v>
-      </c>
-      <c r="B331" t="s">
-        <v>633</v>
-      </c>
-      <c r="M331" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B332" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="M332" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>416</v>
+      </c>
+      <c r="B333" t="s">
+        <v>630</v>
+      </c>
+      <c r="M333" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B334" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M334" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>421</v>
-      </c>
-      <c r="B335" t="s">
-        <v>635</v>
-      </c>
-      <c r="M335" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B336" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M336" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>421</v>
+      </c>
+      <c r="B337" t="s">
+        <v>632</v>
+      </c>
+      <c r="M337" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B338" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M338" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>426</v>
-      </c>
-      <c r="B339" t="s">
-        <v>635</v>
-      </c>
-      <c r="M339" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B340" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M340" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>426</v>
+      </c>
+      <c r="B341" t="s">
+        <v>632</v>
+      </c>
+      <c r="M341" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B342" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="M342" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>429</v>
-      </c>
-      <c r="B343" t="s">
-        <v>637</v>
-      </c>
-      <c r="M343" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B344" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="M344" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>429</v>
+      </c>
+      <c r="B345" t="s">
+        <v>634</v>
+      </c>
+      <c r="M345" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B346" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
       <c r="M346" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>433</v>
-      </c>
-      <c r="B347" t="s">
-        <v>638</v>
-      </c>
-      <c r="M347" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B348" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="M348" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>433</v>
+      </c>
+      <c r="B349" t="s">
+        <v>635</v>
+      </c>
+      <c r="M349" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B350" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M350" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>439</v>
-      </c>
-      <c r="B351" t="s">
-        <v>641</v>
-      </c>
-      <c r="M351" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B352" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M352" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>439</v>
+      </c>
+      <c r="B353" t="s">
+        <v>638</v>
+      </c>
+      <c r="M353" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M354" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>443</v>
-      </c>
-      <c r="B355" t="s">
-        <v>643</v>
-      </c>
-      <c r="M355" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B356" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M356" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>443</v>
+      </c>
+      <c r="B357" t="s">
+        <v>640</v>
+      </c>
+      <c r="M357" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M358" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>447</v>
-      </c>
-      <c r="B359" t="s">
-        <v>645</v>
-      </c>
-      <c r="M359" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B360" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="M360" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>447</v>
+      </c>
+      <c r="B361" t="s">
+        <v>642</v>
+      </c>
+      <c r="M361" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B362" t="s">
-        <v>169</v>
+        <v>642</v>
       </c>
       <c r="M362" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>451</v>
-      </c>
-      <c r="B363" t="s">
-        <v>452</v>
-      </c>
-      <c r="M363" t="s">
-        <v>729</v>
+        <v>448</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B364" t="s">
+        <v>169</v>
+      </c>
+      <c r="M364" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>451</v>
+      </c>
+      <c r="B365" t="s">
         <v>452</v>
       </c>
-      <c r="M364" t="s">
-        <v>729</v>
+      <c r="M365" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>453</v>
+      </c>
+      <c r="B366" t="s">
+        <v>452</v>
+      </c>
+      <c r="M366" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>456</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B368" t="s">
         <v>458</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M368" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>457</v>
-      </c>
-      <c r="B367" t="s">
-        <v>459</v>
-      </c>
-      <c r="M367" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B369" t="s">
-        <v>666</v>
+        <v>459</v>
       </c>
       <c r="M369" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>466</v>
-      </c>
-      <c r="B370" t="s">
-        <v>667</v>
-      </c>
-      <c r="M370" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>467</v>
+        <v>915</v>
       </c>
       <c r="B371" t="s">
-        <v>668</v>
+        <v>920</v>
       </c>
       <c r="M371" t="s">
-        <v>462</v>
+        <v>919</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>468</v>
+        <v>916</v>
       </c>
       <c r="B372" t="s">
-        <v>669</v>
+        <v>921</v>
       </c>
       <c r="M372" t="s">
-        <v>463</v>
+        <v>918</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>469</v>
+        <v>917</v>
       </c>
       <c r="B373" t="s">
-        <v>670</v>
+        <v>921</v>
       </c>
       <c r="M373" t="s">
-        <v>464</v>
+        <v>918</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B375" t="s">
-        <v>470</v>
+        <v>662</v>
+      </c>
+      <c r="M375" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>836</v>
+        <v>466</v>
       </c>
       <c r="B376" t="s">
-        <v>838</v>
+        <v>663</v>
       </c>
       <c r="M376" t="s">
-        <v>840</v>
+        <v>461</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>837</v>
+        <v>467</v>
       </c>
       <c r="B377" t="s">
-        <v>839</v>
+        <v>664</v>
       </c>
       <c r="M377" t="s">
-        <v>841</v>
+        <v>462</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B378" t="s">
-        <v>508</v>
+        <v>665</v>
       </c>
       <c r="M378" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B379" t="s">
-        <v>509</v>
+        <v>666</v>
       </c>
       <c r="M379" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>479</v>
-      </c>
-      <c r="B380" t="s">
-        <v>510</v>
-      </c>
-      <c r="M380" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B381" t="s">
-        <v>511</v>
-      </c>
-      <c r="M381" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>481</v>
+        <v>832</v>
       </c>
       <c r="B382" t="s">
-        <v>512</v>
+        <v>834</v>
       </c>
       <c r="M382" t="s">
-        <v>475</v>
+        <v>836</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>482</v>
+        <v>833</v>
       </c>
       <c r="B383" t="s">
-        <v>513</v>
+        <v>835</v>
       </c>
       <c r="M383" t="s">
-        <v>476</v>
+        <v>837</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B384" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M384" t="s">
-        <v>834</v>
+        <v>471</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B385" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="M385" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B386" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="M386" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B387" t="s">
-        <v>835</v>
+        <v>509</v>
       </c>
       <c r="M387" t="s">
-        <v>728</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>480</v>
+      </c>
+      <c r="B388" t="s">
+        <v>510</v>
+      </c>
+      <c r="M388" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>494</v>
+        <v>923</v>
       </c>
       <c r="B389" t="s">
-        <v>671</v>
+        <v>930</v>
       </c>
       <c r="M389" t="s">
-        <v>490</v>
+        <v>937</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>495</v>
+        <v>924</v>
       </c>
       <c r="B390" t="s">
-        <v>672</v>
+        <v>931</v>
       </c>
       <c r="M390" t="s">
-        <v>491</v>
+        <v>938</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>496</v>
+        <v>925</v>
       </c>
       <c r="B391" t="s">
-        <v>673</v>
+        <v>932</v>
       </c>
       <c r="M391" t="s">
-        <v>492</v>
+        <v>939</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>497</v>
+        <v>926</v>
       </c>
       <c r="B392" t="s">
-        <v>674</v>
+        <v>933</v>
       </c>
       <c r="M392" t="s">
-        <v>493</v>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>927</v>
+      </c>
+      <c r="B393" t="s">
+        <v>934</v>
+      </c>
+      <c r="M393" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>498</v>
+        <v>928</v>
       </c>
       <c r="B394" t="s">
-        <v>705</v>
+        <v>935</v>
       </c>
       <c r="M394" t="s">
-        <v>706</v>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>929</v>
+      </c>
+      <c r="B395" t="s">
+        <v>936</v>
+      </c>
+      <c r="M395" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>675</v>
+        <v>944</v>
       </c>
       <c r="B396" t="s">
-        <v>499</v>
+        <v>945</v>
       </c>
       <c r="M396" t="s">
-        <v>503</v>
+        <v>946</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>676</v>
+        <v>949</v>
       </c>
       <c r="B397" t="s">
-        <v>500</v>
+        <v>947</v>
       </c>
       <c r="M397" t="s">
-        <v>502</v>
+        <v>948</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>677</v>
+        <v>482</v>
       </c>
       <c r="B398" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="M398" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>483</v>
+      </c>
+      <c r="B399" t="s">
+        <v>487</v>
+      </c>
+      <c r="M399" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>484</v>
+      </c>
+      <c r="B400" t="s">
+        <v>486</v>
+      </c>
+      <c r="M400" t="s">
         <v>505</v>
       </c>
-      <c r="B400" t="s">
-        <v>707</v>
-      </c>
-      <c r="M400" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>708</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
-      <c r="M402" s="1" t="s">
-        <v>727</v>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>485</v>
+      </c>
+      <c r="B401" t="s">
+        <v>831</v>
+      </c>
+      <c r="M401" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>709</v>
+        <v>492</v>
       </c>
       <c r="B403" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="M403" t="s">
-        <v>724</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>493</v>
+      </c>
+      <c r="B404" t="s">
+        <v>668</v>
+      </c>
+      <c r="M404" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>730</v>
+        <v>494</v>
       </c>
       <c r="B405" t="s">
-        <v>731</v>
+        <v>669</v>
       </c>
       <c r="M405" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>733</v>
-      </c>
-      <c r="B407" t="s">
-        <v>734</v>
-      </c>
-      <c r="M407" t="s">
-        <v>749</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>495</v>
+      </c>
+      <c r="B406" t="s">
+        <v>670</v>
+      </c>
+      <c r="M406" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>735</v>
+        <v>496</v>
       </c>
       <c r="B408" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
       <c r="M408" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>736</v>
-      </c>
-      <c r="B409" t="s">
-        <v>741</v>
-      </c>
-      <c r="M409" t="s">
-        <v>744</v>
+        <v>702</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>737</v>
+        <v>671</v>
       </c>
       <c r="B410" t="s">
-        <v>742</v>
+        <v>497</v>
       </c>
       <c r="M410" t="s">
-        <v>748</v>
+        <v>501</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>738</v>
+        <v>672</v>
       </c>
       <c r="B411" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="M411" t="s">
-        <v>745</v>
+        <v>500</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>739</v>
+        <v>673</v>
       </c>
       <c r="B412" t="s">
-        <v>743</v>
+        <v>499</v>
       </c>
       <c r="M412" t="s">
-        <v>746</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>843</v>
+        <v>503</v>
       </c>
       <c r="B414" t="s">
-        <v>844</v>
+        <v>703</v>
       </c>
       <c r="M414" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>847</v>
-      </c>
-      <c r="B415" t="s">
-        <v>845</v>
-      </c>
-      <c r="M415" t="s">
-        <v>849</v>
+        <v>721</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>850</v>
-      </c>
-      <c r="B416" t="s">
-        <v>845</v>
-      </c>
-      <c r="M416" t="s">
-        <v>851</v>
+        <v>704</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>852</v>
+        <v>705</v>
       </c>
       <c r="B417" t="s">
-        <v>848</v>
+        <v>707</v>
       </c>
       <c r="M417" t="s">
-        <v>848</v>
+        <v>720</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>856</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-      <c r="J419" s="3"/>
-      <c r="K419" s="3"/>
-      <c r="L419" s="3"/>
-      <c r="M419" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>859</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-      <c r="J420" s="3"/>
-      <c r="K420" s="3"/>
-      <c r="L420" s="3"/>
-      <c r="M420" s="2" t="s">
-        <v>858</v>
+        <v>726</v>
+      </c>
+      <c r="B419" t="s">
+        <v>727</v>
+      </c>
+      <c r="M419" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>729</v>
+      </c>
+      <c r="B421" t="s">
+        <v>730</v>
+      </c>
+      <c r="M421" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>731</v>
+      </c>
+      <c r="B422" t="s">
+        <v>736</v>
+      </c>
+      <c r="M422" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>732</v>
+      </c>
+      <c r="B423" t="s">
+        <v>737</v>
+      </c>
+      <c r="M423" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>733</v>
+      </c>
+      <c r="B424" t="s">
+        <v>738</v>
+      </c>
+      <c r="M424" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>734</v>
+      </c>
+      <c r="B425" t="s">
+        <v>288</v>
+      </c>
+      <c r="M425" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>735</v>
+      </c>
+      <c r="B426" t="s">
+        <v>739</v>
+      </c>
+      <c r="M426" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>839</v>
+      </c>
+      <c r="B428" t="s">
+        <v>840</v>
+      </c>
+      <c r="M428" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>843</v>
+      </c>
+      <c r="B429" t="s">
+        <v>841</v>
+      </c>
+      <c r="M429" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>846</v>
+      </c>
+      <c r="B430" t="s">
+        <v>841</v>
+      </c>
+      <c r="M430" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>848</v>
+      </c>
+      <c r="B431" t="s">
+        <v>844</v>
+      </c>
+      <c r="M431" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>852</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
+      <c r="K433" s="3"/>
+      <c r="L433" s="3"/>
+      <c r="M433" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B421" t="s">
-        <v>862</v>
-      </c>
-      <c r="M421" t="s">
-        <v>861</v>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>855</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+      <c r="K434" s="3"/>
+      <c r="L434" s="3"/>
+      <c r="M434" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>856</v>
+      </c>
+      <c r="B435" t="s">
+        <v>858</v>
+      </c>
+      <c r="M435" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6871,218 +7099,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B8" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B9" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B12" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B13" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B14" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B15" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B16" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B17" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B18" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B19" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B20" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B21" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B22" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B23" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B24" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B25" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B27" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B28" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340989ED-69F9-4B03-A302-209686D1F513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91D86A6-14AA-46C7-BE4D-A55F1AD571AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="4230" windowWidth="22230" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2056,15 +2056,6 @@
     <t>タスクがある</t>
   </si>
   <si>
-    <t>多プレイヤーにワープできる</t>
-  </si>
-  <si>
-    <t>多プレイヤーを殺害・蘇生できる</t>
-  </si>
-  <si>
-    <t>多プレイヤーに設定を隠せる</t>
-  </si>
-  <si>
     <t>ゲーム開始時に死亡する</t>
   </si>
   <si>
@@ -2887,6 +2878,15 @@
   </si>
   <si>
     <t>Kill everyone and recruit a Sidekick</t>
+  </si>
+  <si>
+    <t>他プレイヤーにワープできる</t>
+  </si>
+  <si>
+    <t>他プレイヤーを殺害・蘇生できる</t>
+  </si>
+  <si>
+    <t>他プレイヤーに設定を隠せる</t>
   </si>
 </sst>
 </file>
@@ -3209,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B318" sqref="B318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,7 +3342,7 @@
         <v>518</v>
       </c>
       <c r="M8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>519</v>
       </c>
       <c r="M9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3416,7 +3416,7 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="M16" t="s">
         <v>674</v>
@@ -3427,7 +3427,7 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M17" t="s">
         <v>675</v>
@@ -3438,10 +3438,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M18" t="s">
-        <v>676</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3449,10 +3449,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="M19" t="s">
-        <v>677</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3460,10 +3460,10 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M20" t="s">
-        <v>678</v>
+        <v>950</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3471,10 +3471,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
@@ -3548,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="M32" t="s">
         <v>176</v>
@@ -3581,10 +3581,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M36" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M37" t="s">
         <v>179</v>
@@ -3603,7 +3603,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="M38" t="s">
         <v>180</v>
@@ -3625,7 +3625,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="M41" t="s">
         <v>182</v>
@@ -3636,7 +3636,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M42" t="s">
         <v>183</v>
@@ -3658,7 +3658,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M45" t="s">
         <v>185</v>
@@ -3669,7 +3669,7 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="M46" t="s">
         <v>186</v>
@@ -3680,7 +3680,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M47" t="s">
         <v>187</v>
@@ -3702,7 +3702,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="M50" t="s">
         <v>171</v>
@@ -3724,7 +3724,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M53" t="s">
         <v>190</v>
@@ -3735,7 +3735,7 @@
         <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M54" t="s">
         <v>191</v>
@@ -3845,10 +3845,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="M68" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>544</v>
       </c>
       <c r="M69" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,10 +3867,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M70" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3878,10 +3878,10 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M71" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3889,10 +3889,10 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="M72" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3911,10 +3911,10 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M75" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M76" t="s">
         <v>202</v>
@@ -3944,10 +3944,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="M79" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3955,10 +3955,10 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="M80" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="M83" t="s">
         <v>205</v>
@@ -3988,7 +3988,7 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="M84" t="s">
         <v>206</v>
@@ -4010,10 +4010,10 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M87" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4021,10 +4021,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M88" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4032,10 +4032,10 @@
         <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="M89" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4043,10 +4043,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="M90" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,7 +4057,7 @@
         <v>549</v>
       </c>
       <c r="M91" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4098,10 +4098,10 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="M95" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4109,10 +4109,10 @@
         <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M96" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M99" t="s">
         <v>212</v>
@@ -4175,10 +4175,10 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M106" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M107" t="s">
         <v>202</v>
@@ -4197,10 +4197,10 @@
         <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="M108" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="M112" t="s">
         <v>217</v>
@@ -4230,7 +4230,7 @@
         <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="M113" t="s">
         <v>218</v>
@@ -4241,7 +4241,7 @@
         <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="M114" t="s">
         <v>219</v>
@@ -4252,7 +4252,7 @@
         <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M115" t="s">
         <v>220</v>
@@ -4285,7 +4285,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M119" t="s">
         <v>223</v>
@@ -4310,7 +4310,7 @@
         <v>561</v>
       </c>
       <c r="M121" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>562</v>
       </c>
       <c r="M122" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M125" t="s">
         <v>226</v>
@@ -4362,7 +4362,7 @@
         <v>78</v>
       </c>
       <c r="B127" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="M127" t="s">
         <v>228</v>
@@ -4381,18 +4381,18 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B130" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="M130" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B131" t="s">
         <v>565</v>
@@ -4403,24 +4403,24 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B132" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="M132" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B133" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M133" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>567</v>
       </c>
       <c r="M135" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4461,10 +4461,10 @@
         <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="M138" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="M139" t="s">
         <v>233</v>
@@ -4491,18 +4491,18 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B142" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="M142" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B143" t="s">
         <v>570</v>
@@ -4513,24 +4513,24 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>683</v>
+      </c>
+      <c r="B144" t="s">
+        <v>687</v>
+      </c>
+      <c r="M144" t="s">
         <v>686</v>
-      </c>
-      <c r="B144" t="s">
-        <v>690</v>
-      </c>
-      <c r="M144" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B145" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M145" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M146" t="s">
         <v>236</v>
@@ -4549,7 +4549,7 @@
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="M147" t="s">
         <v>237</v>
@@ -4576,7 +4576,7 @@
         <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M150" t="s">
         <v>239</v>
@@ -4587,7 +4587,7 @@
         <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M151" t="s">
         <v>240</v>
@@ -4598,10 +4598,10 @@
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="M152" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -4620,7 +4620,7 @@
         <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M155" t="s">
         <v>242</v>
@@ -4631,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="M156" t="s">
         <v>243</v>
@@ -4697,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="M164" t="s">
         <v>249</v>
@@ -4719,10 +4719,10 @@
         <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M166" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -4730,10 +4730,10 @@
         <v>103</v>
       </c>
       <c r="B167" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M167" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>114</v>
       </c>
       <c r="B170" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M170" t="s">
         <v>252</v>
@@ -4763,7 +4763,7 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M171" t="s">
         <v>253</v>
@@ -4774,10 +4774,10 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="M172" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -4785,10 +4785,10 @@
         <v>117</v>
       </c>
       <c r="B173" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="M173" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="M180" t="s">
         <v>258</v>
@@ -4851,10 +4851,10 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M181" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -4862,10 +4862,10 @@
         <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M182" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -4873,10 +4873,10 @@
         <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="M183" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -4884,21 +4884,21 @@
         <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="M184" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B186" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="M186" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -4906,10 +4906,10 @@
         <v>134</v>
       </c>
       <c r="B188" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="M188" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -4920,7 +4920,7 @@
         <v>585</v>
       </c>
       <c r="M189" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -4947,46 +4947,46 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B193" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M193" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B194" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M194" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M195" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>711</v>
+      </c>
+      <c r="B196" t="s">
+        <v>707</v>
+      </c>
+      <c r="M196" t="s">
         <v>714</v>
-      </c>
-      <c r="B196" t="s">
-        <v>710</v>
-      </c>
-      <c r="M196" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -5019,7 +5019,7 @@
         <v>590</v>
       </c>
       <c r="M201" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>271</v>
       </c>
       <c r="M205" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>594</v>
       </c>
       <c r="M212" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>594</v>
       </c>
       <c r="M213" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
         <v>454</v>
       </c>
       <c r="B318" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="M318" t="s">
         <v>455</v>
@@ -6295,7 +6295,7 @@
         <v>639</v>
       </c>
       <c r="M356" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -6372,7 +6372,7 @@
         <v>452</v>
       </c>
       <c r="M365" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
         <v>452</v>
       </c>
       <c r="M366" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -6410,35 +6410,35 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B371" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="M371" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B372" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="M372" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B373" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="M373" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -6506,24 +6506,24 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B382" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="M382" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B383" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="M383" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -6583,101 +6583,101 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B389" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="M389" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B390" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M390" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B391" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="M391" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B392" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="M392" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B393" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M393" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B394" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="M394" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B395" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M395" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B396" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="M396" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B397" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="M397" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>511</v>
       </c>
       <c r="M398" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -6718,10 +6718,10 @@
         <v>485</v>
       </c>
       <c r="B401" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="M401" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -6773,10 +6773,10 @@
         <v>496</v>
       </c>
       <c r="B408" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M408" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -6817,18 +6817,18 @@
         <v>503</v>
       </c>
       <c r="B414" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M414" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -6841,147 +6841,147 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
       <c r="M416" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B417" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M417" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B419" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M419" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B421" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M421" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B422" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="M422" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B423" t="s">
+        <v>734</v>
+      </c>
+      <c r="M423" t="s">
         <v>737</v>
-      </c>
-      <c r="M423" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B424" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M424" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B425" t="s">
         <v>288</v>
       </c>
       <c r="M425" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B426" t="s">
+        <v>736</v>
+      </c>
+      <c r="M426" t="s">
         <v>739</v>
-      </c>
-      <c r="M426" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>836</v>
+      </c>
+      <c r="B428" t="s">
+        <v>837</v>
+      </c>
+      <c r="M428" t="s">
         <v>839</v>
-      </c>
-      <c r="B428" t="s">
-        <v>840</v>
-      </c>
-      <c r="M428" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B429" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="M429" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B430" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="M430" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B431" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M431" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -6994,15 +6994,15 @@
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
       <c r="M433" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -7015,18 +7015,18 @@
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
       <c r="M434" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B435" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="M435" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -7038,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7099,218 +7099,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B8" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B12" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B13" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B14" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B15" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B16" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B17" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B19" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B20" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B21" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B22" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B23" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B24" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B25" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B26" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B27" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B28" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91D86A6-14AA-46C7-BE4D-A55F1AD571AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A10CD-7AB6-43DD-9C2C-C43C89281ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4230" windowWidth="22230" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="6255" windowWidth="22230" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="984">
   <si>
     <t>presetSelection</t>
   </si>
@@ -2143,12 +2143,6 @@
     <t>{0} and the ship has {1}</t>
   </si>
   <si>
-    <t>Disable Admin Table</t>
-  </si>
-  <si>
-    <t>Disable Vitals Panel</t>
-  </si>
-  <si>
     <t>Disable Vents</t>
   </si>
   <si>
@@ -2164,21 +2158,9 @@
     <t>disableVents</t>
   </si>
   <si>
-    <t>アドミンの使用禁止</t>
-  </si>
-  <si>
-    <t>心電図の使用禁止</t>
-  </si>
-  <si>
     <t>ベントの使用禁止</t>
   </si>
   <si>
-    <t>Disable Security Devices</t>
-  </si>
-  <si>
-    <t>カメラ・ドアログの使用禁止</t>
-  </si>
-  <si>
     <t>{0}回　とクルー全体が　{1}回</t>
   </si>
   <si>
@@ -2266,9 +2248,6 @@
     <t>クルーと一緒に勝利できる</t>
   </si>
   <si>
-    <t>タスクがカウントされる</t>
-  </si>
-  <si>
     <t>サボタージュできる</t>
   </si>
   <si>
@@ -2380,9 +2359,6 @@
     <t>Can Win With Crew</t>
   </si>
   <si>
-    <t>Tasks Are Counted</t>
-  </si>
-  <si>
     <t>Chance The Guesser Is An Impostor</t>
   </si>
   <si>
@@ -2576,12 +2552,6 @@
   </si>
   <si>
     <t>creditsMain</t>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;,
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
-Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
-Customization/Japanese Translation by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
     <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、
@@ -2602,10 +2572,6 @@
     <t>GM Edition v{0}</t>
   </si>
   <si>
-    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;, Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
-Customization/Japanese Translation by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
 デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
   </si>
@@ -2887,6 +2853,139 @@
   </si>
   <si>
     <t>他プレイヤーに設定を隠せる</t>
+  </si>
+  <si>
+    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;, Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;,
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>roleSummaryExiled</t>
+  </si>
+  <si>
+    <t>Exiled</t>
+  </si>
+  <si>
+    <t>追放</t>
+  </si>
+  <si>
+    <t>roleSummaryTorched</t>
+  </si>
+  <si>
+    <t>Torched</t>
+  </si>
+  <si>
+    <t>焼殺</t>
+  </si>
+  <si>
+    <t>roleSummarySuicide</t>
+  </si>
+  <si>
+    <t>Suicide</t>
+  </si>
+  <si>
+    <t>自殺</t>
+  </si>
+  <si>
+    <t>loversSeparateTeam</t>
+  </si>
+  <si>
+    <t>Lovers Are A Separate Team</t>
+  </si>
+  <si>
+    <t>単独陣営扱い</t>
+  </si>
+  <si>
+    <t>生存時、タスクがカウントされる</t>
+  </si>
+  <si>
+    <t>Tasks Are Counted While Alive</t>
+  </si>
+  <si>
+    <t>sheriffMisfireKillsTarget</t>
+  </si>
+  <si>
+    <t>Misfire Kills Target</t>
+  </si>
+  <si>
+    <t>誤爆時、ターゲットも死ぬ</t>
+  </si>
+  <si>
+    <t>unitMinutes</t>
+  </si>
+  <si>
+    <t>{0}m</t>
+  </si>
+  <si>
+    <t>{0}分</t>
+  </si>
+  <si>
+    <t>restrictDevices</t>
+  </si>
+  <si>
+    <t>restrictPerTurn</t>
+  </si>
+  <si>
+    <t>restrictPerGame</t>
+  </si>
+  <si>
+    <t>Restrict Special Devices</t>
+  </si>
+  <si>
+    <t>Time Per Round</t>
+  </si>
+  <si>
+    <t>Time Per Game</t>
+  </si>
+  <si>
+    <t>ターンごと</t>
+  </si>
+  <si>
+    <t>試合ごと</t>
+  </si>
+  <si>
+    <t>特殊装置の制限</t>
+  </si>
+  <si>
+    <t>Restrict Admin Table</t>
+  </si>
+  <si>
+    <t>Restrict Security Devices</t>
+  </si>
+  <si>
+    <t>Restrict Vitals Panel</t>
+  </si>
+  <si>
+    <t>アドミンの制限時間</t>
+  </si>
+  <si>
+    <t>カメラ・ドアログの制限時間</t>
+  </si>
+  <si>
+    <t>心電図の制限時間</t>
+  </si>
+  <si>
+    <t>restrictOutOfTime</t>
+  </si>
+  <si>
+    <t>Out Of Time</t>
+  </si>
+  <si>
+    <t>時間切れ</t>
+  </si>
+  <si>
+    <t>timeRemaining</t>
+  </si>
+  <si>
+    <t>Remaining: {0}</t>
+  </si>
+  <si>
+    <t>残り {0}</t>
   </si>
 </sst>
 </file>
@@ -3207,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="M203" sqref="M203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,7 +3515,7 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="M16" t="s">
         <v>674</v>
@@ -3427,7 +3526,7 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="M17" t="s">
         <v>675</v>
@@ -3438,10 +3537,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="M18" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3449,10 +3548,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="M19" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3460,10 +3559,10 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="M20" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3471,7 +3570,7 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="M21" t="s">
         <v>676</v>
@@ -3515,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
@@ -3548,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M32" t="s">
         <v>176</v>
@@ -3581,10 +3680,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="M36" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,7 +3691,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="M37" t="s">
         <v>179</v>
@@ -3603,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="M38" t="s">
         <v>180</v>
@@ -3625,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="M41" t="s">
         <v>182</v>
@@ -3636,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="M42" t="s">
         <v>183</v>
@@ -3658,7 +3757,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="M45" t="s">
         <v>185</v>
@@ -3669,7 +3768,7 @@
         <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="M46" t="s">
         <v>186</v>
@@ -3680,7 +3779,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="M47" t="s">
         <v>187</v>
@@ -3702,7 +3801,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="M50" t="s">
         <v>171</v>
@@ -3724,7 +3823,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="M53" t="s">
         <v>190</v>
@@ -3735,7 +3834,7 @@
         <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="M54" t="s">
         <v>191</v>
@@ -3845,10 +3944,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="M68" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,7 +3958,7 @@
         <v>544</v>
       </c>
       <c r="M69" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,10 +3966,10 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="M70" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3878,3155 +3977,3276 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="M71" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>952</v>
+      </c>
+      <c r="B72" t="s">
+        <v>953</v>
+      </c>
+      <c r="M72" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>29</v>
       </c>
-      <c r="B72" t="s">
-        <v>784</v>
-      </c>
-      <c r="M72" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" t="s">
-        <v>545</v>
-      </c>
-      <c r="M74" t="s">
-        <v>201</v>
+      <c r="B73" t="s">
+        <v>956</v>
+      </c>
+      <c r="M73" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>785</v>
+        <v>545</v>
       </c>
       <c r="M75" t="s">
-        <v>743</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>777</v>
+      </c>
+      <c r="M76" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>32</v>
       </c>
-      <c r="B76" t="s">
-        <v>786</v>
-      </c>
-      <c r="M76" t="s">
+      <c r="B77" t="s">
+        <v>778</v>
+      </c>
+      <c r="M77" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" t="s">
-        <v>546</v>
-      </c>
-      <c r="M78" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>787</v>
+        <v>546</v>
       </c>
       <c r="M79" t="s">
-        <v>748</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>779</v>
+      </c>
+      <c r="M80" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>35</v>
       </c>
-      <c r="B80" t="s">
-        <v>788</v>
-      </c>
-      <c r="M80" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" t="s">
-        <v>547</v>
-      </c>
-      <c r="M82" t="s">
-        <v>204</v>
+      <c r="B81" t="s">
+        <v>780</v>
+      </c>
+      <c r="M81" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>789</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>781</v>
+      </c>
+      <c r="M84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="B84" t="s">
-        <v>790</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="B85" t="s">
+        <v>782</v>
+      </c>
+      <c r="M85" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" t="s">
-        <v>548</v>
-      </c>
-      <c r="M86" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>791</v>
+        <v>548</v>
       </c>
       <c r="M87" t="s">
-        <v>754</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="M88" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="M89" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="M90" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>549</v>
+        <v>786</v>
       </c>
       <c r="M91" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s">
-        <v>208</v>
+        <v>744</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>795</v>
+        <v>552</v>
       </c>
       <c r="M95" t="s">
-        <v>752</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>787</v>
+      </c>
+      <c r="M96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>49</v>
       </c>
-      <c r="B96" t="s">
-        <v>808</v>
-      </c>
-      <c r="M96" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" t="s">
-        <v>553</v>
-      </c>
-      <c r="M98" t="s">
-        <v>211</v>
+      <c r="B97" t="s">
+        <v>800</v>
+      </c>
+      <c r="M97" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>553</v>
+      </c>
+      <c r="M99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>57</v>
       </c>
-      <c r="B99" t="s">
-        <v>796</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="B100" t="s">
+        <v>788</v>
+      </c>
+      <c r="M100" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>58</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>554</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M102" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>59</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>555</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M104" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" t="s">
-        <v>556</v>
-      </c>
-      <c r="M105" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>791</v>
+        <v>556</v>
       </c>
       <c r="M106" t="s">
-        <v>754</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M107" t="s">
-        <v>202</v>
+        <v>747</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>778</v>
+      </c>
+      <c r="M108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>63</v>
       </c>
-      <c r="B108" t="s">
-        <v>797</v>
-      </c>
-      <c r="M108" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>64</v>
-      </c>
-      <c r="B111" t="s">
-        <v>557</v>
-      </c>
-      <c r="M111" t="s">
-        <v>216</v>
+      <c r="B109" t="s">
+        <v>789</v>
+      </c>
+      <c r="M109" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>957</v>
+      </c>
+      <c r="B110" t="s">
+        <v>958</v>
+      </c>
+      <c r="M110" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>798</v>
+        <v>557</v>
       </c>
       <c r="M112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="M113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="M114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" t="s">
+        <v>808</v>
+      </c>
+      <c r="M115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>68</v>
       </c>
-      <c r="B115" t="s">
-        <v>817</v>
-      </c>
-      <c r="M115" t="s">
+      <c r="B116" t="s">
+        <v>809</v>
+      </c>
+      <c r="M116" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>69</v>
-      </c>
-      <c r="B117" t="s">
-        <v>558</v>
-      </c>
-      <c r="M117" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>703</v>
+        <v>559</v>
       </c>
       <c r="M119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>560</v>
+        <v>703</v>
       </c>
       <c r="M120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M121" t="s">
-        <v>756</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>561</v>
+      </c>
+      <c r="M122" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>74</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>562</v>
       </c>
-      <c r="M122" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" t="s">
-        <v>563</v>
-      </c>
-      <c r="M124" t="s">
-        <v>225</v>
+      <c r="M123" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>818</v>
+        <v>563</v>
       </c>
       <c r="M125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B126" t="s">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="M126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
+        <v>564</v>
+      </c>
+      <c r="M127" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B127" t="s">
-        <v>819</v>
-      </c>
-      <c r="M127" t="s">
+      <c r="B128" t="s">
+        <v>811</v>
+      </c>
+      <c r="M128" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" t="s">
-        <v>565</v>
-      </c>
-      <c r="M129" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>691</v>
+        <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>826</v>
+        <v>565</v>
       </c>
       <c r="M130" t="s">
-        <v>693</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="B131" t="s">
-        <v>565</v>
+        <v>818</v>
       </c>
       <c r="M131" t="s">
-        <v>230</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B132" t="s">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="M132" t="s">
-        <v>678</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B133" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M133" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>80</v>
+        <v>681</v>
       </c>
       <c r="B134" t="s">
-        <v>566</v>
+        <v>689</v>
       </c>
       <c r="M134" t="s">
-        <v>231</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" t="s">
+        <v>566</v>
+      </c>
+      <c r="M135" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>81</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>567</v>
       </c>
-      <c r="M135" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>82</v>
-      </c>
-      <c r="B137" t="s">
-        <v>568</v>
-      </c>
-      <c r="M137" t="s">
-        <v>232</v>
+      <c r="M136" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138" t="s">
-        <v>787</v>
+        <v>568</v>
       </c>
       <c r="M138" t="s">
-        <v>748</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" t="s">
+        <v>779</v>
+      </c>
+      <c r="M139" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>84</v>
       </c>
-      <c r="B139" t="s">
-        <v>800</v>
-      </c>
-      <c r="M139" t="s">
+      <c r="B140" t="s">
+        <v>792</v>
+      </c>
+      <c r="M140" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>85</v>
-      </c>
-      <c r="B141" t="s">
-        <v>569</v>
-      </c>
-      <c r="M141" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>692</v>
+        <v>85</v>
       </c>
       <c r="B142" t="s">
-        <v>768</v>
+        <v>569</v>
       </c>
       <c r="M142" t="s">
-        <v>758</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B143" t="s">
-        <v>570</v>
+        <v>761</v>
       </c>
       <c r="M143" t="s">
-        <v>235</v>
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B144" t="s">
-        <v>687</v>
+        <v>570</v>
       </c>
       <c r="M144" t="s">
-        <v>686</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B145" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M145" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>684</v>
       </c>
       <c r="B146" t="s">
-        <v>801</v>
+        <v>688</v>
       </c>
       <c r="M146" t="s">
-        <v>236</v>
+        <v>685</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>87</v>
+      </c>
+      <c r="B147" t="s">
+        <v>793</v>
+      </c>
+      <c r="M147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>86</v>
       </c>
-      <c r="B147" t="s">
-        <v>802</v>
-      </c>
-      <c r="M147" t="s">
+      <c r="B148" t="s">
+        <v>794</v>
+      </c>
+      <c r="M148" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>88</v>
-      </c>
-      <c r="B149" t="s">
-        <v>572</v>
-      </c>
-      <c r="M149" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B150" t="s">
-        <v>820</v>
+        <v>572</v>
       </c>
       <c r="M150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B151" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="M151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>90</v>
+      </c>
+      <c r="B152" t="s">
+        <v>813</v>
+      </c>
+      <c r="M152" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>91</v>
       </c>
-      <c r="B152" t="s">
-        <v>803</v>
-      </c>
-      <c r="M152" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>92</v>
-      </c>
-      <c r="B154" t="s">
-        <v>573</v>
-      </c>
-      <c r="M154" t="s">
-        <v>241</v>
+      <c r="B153" t="s">
+        <v>795</v>
+      </c>
+      <c r="M153" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B155" t="s">
-        <v>804</v>
+        <v>573</v>
       </c>
       <c r="M155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" t="s">
+        <v>796</v>
+      </c>
+      <c r="M156" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>94</v>
       </c>
-      <c r="B156" t="s">
-        <v>805</v>
-      </c>
-      <c r="M156" t="s">
+      <c r="B157" t="s">
+        <v>797</v>
+      </c>
+      <c r="M157" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>95</v>
-      </c>
-      <c r="B158" t="s">
-        <v>574</v>
-      </c>
-      <c r="M158" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B159" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B160" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" t="s">
+        <v>576</v>
+      </c>
+      <c r="M161" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>98</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>577</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M162" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>99</v>
-      </c>
-      <c r="B163" t="s">
-        <v>578</v>
-      </c>
-      <c r="M163" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>806</v>
+        <v>578</v>
       </c>
       <c r="M164" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B165" t="s">
-        <v>579</v>
+        <v>798</v>
       </c>
       <c r="M165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B166" t="s">
-        <v>807</v>
+        <v>579</v>
       </c>
       <c r="M166" t="s">
-        <v>749</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" t="s">
+        <v>799</v>
+      </c>
+      <c r="M167" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>103</v>
       </c>
-      <c r="B167" t="s">
-        <v>808</v>
-      </c>
-      <c r="M167" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>113</v>
-      </c>
-      <c r="B169" t="s">
-        <v>580</v>
-      </c>
-      <c r="M169" t="s">
-        <v>251</v>
+      <c r="B168" t="s">
+        <v>800</v>
+      </c>
+      <c r="M168" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B170" t="s">
-        <v>767</v>
+        <v>580</v>
       </c>
       <c r="M170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B171" t="s">
-        <v>822</v>
+        <v>760</v>
       </c>
       <c r="M171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B172" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="M172" t="s">
-        <v>846</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>116</v>
+      </c>
+      <c r="B173" t="s">
+        <v>815</v>
+      </c>
+      <c r="M173" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>117</v>
       </c>
-      <c r="B173" t="s">
-        <v>824</v>
-      </c>
-      <c r="M173" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>118</v>
-      </c>
-      <c r="B175" t="s">
-        <v>581</v>
-      </c>
-      <c r="M175" t="s">
-        <v>254</v>
+      <c r="B174" t="s">
+        <v>816</v>
+      </c>
+      <c r="M174" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B176" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M176" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" t="s">
+        <v>582</v>
+      </c>
+      <c r="M177" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>120</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>583</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M178" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>121</v>
-      </c>
-      <c r="B179" t="s">
-        <v>584</v>
-      </c>
-      <c r="M179" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B180" t="s">
-        <v>806</v>
+        <v>584</v>
       </c>
       <c r="M180" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B181" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="M181" t="s">
-        <v>749</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="M182" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B183" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="M183" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>125</v>
+      </c>
+      <c r="B184" t="s">
+        <v>780</v>
+      </c>
+      <c r="M184" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>126</v>
       </c>
-      <c r="B184" t="s">
-        <v>825</v>
-      </c>
-      <c r="M184" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>919</v>
-      </c>
-      <c r="B186" t="s">
-        <v>917</v>
-      </c>
-      <c r="M186" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>134</v>
-      </c>
-      <c r="B188" t="s">
-        <v>809</v>
-      </c>
-      <c r="M188" t="s">
-        <v>763</v>
+      <c r="B185" t="s">
+        <v>817</v>
+      </c>
+      <c r="M185" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>909</v>
+      </c>
+      <c r="B187" t="s">
+        <v>907</v>
+      </c>
+      <c r="M187" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B189" t="s">
-        <v>585</v>
+        <v>801</v>
       </c>
       <c r="M189" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B190" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M190" t="s">
-        <v>259</v>
+        <v>757</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>136</v>
+      </c>
+      <c r="B191" t="s">
+        <v>586</v>
+      </c>
+      <c r="M191" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>137</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>587</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M192" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>708</v>
-      </c>
-      <c r="B193" t="s">
-        <v>705</v>
-      </c>
-      <c r="M193" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>710</v>
+        <v>963</v>
       </c>
       <c r="B194" t="s">
-        <v>715</v>
+        <v>966</v>
       </c>
       <c r="M194" t="s">
-        <v>716</v>
+        <v>971</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>709</v>
+        <v>964</v>
       </c>
       <c r="B195" t="s">
-        <v>706</v>
+        <v>967</v>
       </c>
       <c r="M195" t="s">
-        <v>713</v>
+        <v>969</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>711</v>
+        <v>965</v>
       </c>
       <c r="B196" t="s">
-        <v>707</v>
+        <v>968</v>
       </c>
       <c r="M196" t="s">
-        <v>714</v>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>706</v>
+      </c>
+      <c r="B197" t="s">
+        <v>972</v>
+      </c>
+      <c r="M197" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>708</v>
       </c>
       <c r="B198" t="s">
-        <v>588</v>
+        <v>973</v>
       </c>
       <c r="M198" t="s">
-        <v>263</v>
+        <v>976</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>262</v>
+        <v>707</v>
       </c>
       <c r="B199" t="s">
-        <v>589</v>
+        <v>974</v>
       </c>
       <c r="M199" t="s">
-        <v>264</v>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>709</v>
+      </c>
+      <c r="B200" t="s">
+        <v>705</v>
+      </c>
+      <c r="M200" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>265</v>
+        <v>978</v>
       </c>
       <c r="B201" t="s">
-        <v>590</v>
+        <v>979</v>
       </c>
       <c r="M201" t="s">
-        <v>696</v>
+        <v>980</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>981</v>
       </c>
       <c r="B202" t="s">
-        <v>591</v>
+        <v>982</v>
       </c>
       <c r="M202" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>267</v>
-      </c>
-      <c r="B203" t="s">
-        <v>592</v>
-      </c>
-      <c r="M203" t="s">
-        <v>269</v>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>261</v>
+      </c>
+      <c r="B204" t="s">
+        <v>588</v>
+      </c>
+      <c r="M204" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>589</v>
       </c>
       <c r="M205" t="s">
-        <v>762</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B207" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="M207" t="s">
-        <v>203</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M208" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M209" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>554</v>
+        <v>271</v>
       </c>
       <c r="M211" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>277</v>
-      </c>
-      <c r="B212" t="s">
-        <v>594</v>
-      </c>
-      <c r="M212" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="M213" t="s">
-        <v>765</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>273</v>
+      </c>
+      <c r="B214" t="s">
+        <v>593</v>
+      </c>
+      <c r="M214" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="M215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>280</v>
-      </c>
-      <c r="B216" t="s">
-        <v>595</v>
-      </c>
-      <c r="M216" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B217" t="s">
-        <v>643</v>
+        <v>554</v>
       </c>
       <c r="M217" t="s">
-        <v>281</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>277</v>
+      </c>
+      <c r="B218" t="s">
+        <v>594</v>
+      </c>
+      <c r="M218" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B219" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="M219" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>284</v>
-      </c>
-      <c r="B220" t="s">
-        <v>596</v>
-      </c>
-      <c r="M220" t="s">
-        <v>285</v>
+        <v>758</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B221" t="s">
-        <v>644</v>
+        <v>555</v>
       </c>
       <c r="M221" t="s">
-        <v>287</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" t="s">
+        <v>595</v>
+      </c>
+      <c r="M222" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B223" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="M223" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>289</v>
-      </c>
-      <c r="B224" t="s">
-        <v>597</v>
-      </c>
-      <c r="M224" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B225" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="M225" t="s">
-        <v>290</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226" t="s">
+        <v>596</v>
+      </c>
+      <c r="M226" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="M227" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>294</v>
-      </c>
-      <c r="B228" t="s">
-        <v>599</v>
-      </c>
-      <c r="M228" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B229" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="M229" t="s">
-        <v>295</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>289</v>
+      </c>
+      <c r="B230" t="s">
+        <v>597</v>
+      </c>
+      <c r="M230" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B231" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M231" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>299</v>
-      </c>
-      <c r="B232" t="s">
-        <v>601</v>
-      </c>
-      <c r="M232" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B233" t="s">
+        <v>598</v>
+      </c>
+      <c r="M233" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>294</v>
+      </c>
+      <c r="B234" t="s">
         <v>599</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M234" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B235" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M235" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>304</v>
-      </c>
-      <c r="B236" t="s">
-        <v>603</v>
-      </c>
-      <c r="M236" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B237" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="M237" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>299</v>
+      </c>
+      <c r="B238" t="s">
+        <v>601</v>
+      </c>
+      <c r="M238" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B239" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="M239" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>309</v>
-      </c>
-      <c r="B240" t="s">
-        <v>604</v>
-      </c>
-      <c r="M240" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B241" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="M241" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>304</v>
+      </c>
+      <c r="B242" t="s">
+        <v>603</v>
+      </c>
+      <c r="M242" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B243" t="s">
-        <v>528</v>
+        <v>645</v>
       </c>
       <c r="M243" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>314</v>
-      </c>
-      <c r="B244" t="s">
-        <v>605</v>
-      </c>
-      <c r="M244" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B245" t="s">
-        <v>647</v>
+        <v>526</v>
       </c>
       <c r="M245" t="s">
-        <v>315</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>309</v>
+      </c>
+      <c r="B246" t="s">
+        <v>604</v>
+      </c>
+      <c r="M246" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B247" t="s">
-        <v>530</v>
+        <v>646</v>
       </c>
       <c r="M247" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>318</v>
-      </c>
-      <c r="B248" t="s">
-        <v>606</v>
-      </c>
-      <c r="M248" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B249" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="M249" t="s">
-        <v>319</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>314</v>
+      </c>
+      <c r="B250" t="s">
+        <v>605</v>
+      </c>
+      <c r="M250" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B251" t="s">
-        <v>531</v>
+        <v>647</v>
       </c>
       <c r="M251" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>322</v>
-      </c>
-      <c r="B252" t="s">
-        <v>607</v>
-      </c>
-      <c r="M252" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B253" t="s">
-        <v>649</v>
+        <v>530</v>
       </c>
       <c r="M253" t="s">
-        <v>323</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>318</v>
+      </c>
+      <c r="B254" t="s">
+        <v>606</v>
+      </c>
+      <c r="M254" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B255" t="s">
-        <v>532</v>
+        <v>648</v>
       </c>
       <c r="M255" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>326</v>
-      </c>
-      <c r="B256" t="s">
-        <v>608</v>
-      </c>
-      <c r="M256" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B257" t="s">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="M257" t="s">
-        <v>329</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>322</v>
+      </c>
+      <c r="B258" t="s">
+        <v>607</v>
+      </c>
+      <c r="M258" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B259" t="s">
-        <v>533</v>
+        <v>649</v>
       </c>
       <c r="M259" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>331</v>
-      </c>
-      <c r="B260" t="s">
-        <v>609</v>
-      </c>
-      <c r="M260" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B261" t="s">
-        <v>651</v>
+        <v>532</v>
       </c>
       <c r="M261" t="s">
-        <v>307</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>326</v>
+      </c>
+      <c r="B262" t="s">
+        <v>608</v>
+      </c>
+      <c r="M262" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B263" t="s">
-        <v>534</v>
+        <v>650</v>
       </c>
       <c r="M263" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>335</v>
-      </c>
-      <c r="B264" t="s">
-        <v>610</v>
-      </c>
-      <c r="M264" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B265" t="s">
-        <v>652</v>
+        <v>533</v>
       </c>
       <c r="M265" t="s">
-        <v>336</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>331</v>
+      </c>
+      <c r="B266" t="s">
+        <v>609</v>
+      </c>
+      <c r="M266" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="M267" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>339</v>
-      </c>
-      <c r="B268" t="s">
-        <v>611</v>
-      </c>
-      <c r="M268" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B269" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="M269" t="s">
-        <v>340</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>335</v>
+      </c>
+      <c r="B270" t="s">
+        <v>610</v>
+      </c>
+      <c r="M270" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B271" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="M271" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>343</v>
-      </c>
-      <c r="B272" t="s">
-        <v>612</v>
-      </c>
-      <c r="M272" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B273" t="s">
-        <v>653</v>
+        <v>535</v>
       </c>
       <c r="M273" t="s">
-        <v>346</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>339</v>
+      </c>
+      <c r="B274" t="s">
+        <v>611</v>
+      </c>
+      <c r="M274" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B275" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="M275" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>348</v>
-      </c>
-      <c r="B276" t="s">
-        <v>613</v>
-      </c>
-      <c r="M276" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B277" t="s">
-        <v>654</v>
+        <v>558</v>
       </c>
       <c r="M277" t="s">
-        <v>351</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>343</v>
+      </c>
+      <c r="B278" t="s">
+        <v>612</v>
+      </c>
+      <c r="M278" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B279" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="M279" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>353</v>
-      </c>
-      <c r="B280" t="s">
-        <v>614</v>
-      </c>
-      <c r="M280" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B281" t="s">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="M281" t="s">
-        <v>356</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>348</v>
+      </c>
+      <c r="B282" t="s">
+        <v>613</v>
+      </c>
+      <c r="M282" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B283" t="s">
-        <v>553</v>
+        <v>654</v>
       </c>
       <c r="M283" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>358</v>
-      </c>
-      <c r="B284" t="s">
-        <v>615</v>
-      </c>
-      <c r="M284" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B285" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="M285" t="s">
-        <v>359</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>353</v>
+      </c>
+      <c r="B286" t="s">
+        <v>614</v>
+      </c>
+      <c r="M286" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B287" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="M287" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>362</v>
-      </c>
-      <c r="B288" t="s">
-        <v>616</v>
-      </c>
-      <c r="M288" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B289" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="M289" t="s">
-        <v>365</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>358</v>
+      </c>
+      <c r="B290" t="s">
+        <v>615</v>
+      </c>
+      <c r="M290" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B291" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="M291" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>367</v>
-      </c>
-      <c r="B292" t="s">
-        <v>617</v>
-      </c>
-      <c r="M292" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B293" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M293" t="s">
-        <v>368</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>362</v>
+      </c>
+      <c r="B294" t="s">
+        <v>616</v>
+      </c>
+      <c r="M294" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B295" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="M295" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>371</v>
-      </c>
-      <c r="B296" t="s">
-        <v>618</v>
-      </c>
-      <c r="M296" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B297" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="M297" t="s">
-        <v>374</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>367</v>
+      </c>
+      <c r="B298" t="s">
+        <v>617</v>
+      </c>
+      <c r="M298" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B299" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M299" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>377</v>
-      </c>
-      <c r="B300" t="s">
-        <v>620</v>
-      </c>
-      <c r="M300" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B301" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="M301" t="s">
-        <v>380</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>371</v>
+      </c>
+      <c r="B302" t="s">
+        <v>618</v>
+      </c>
+      <c r="M302" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B303" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="M303" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>383</v>
-      </c>
-      <c r="B304" t="s">
-        <v>620</v>
-      </c>
-      <c r="M304" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B305" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M305" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>377</v>
+      </c>
+      <c r="B306" t="s">
+        <v>620</v>
+      </c>
+      <c r="M306" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B307" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="M307" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>386</v>
-      </c>
-      <c r="B308" t="s">
-        <v>623</v>
-      </c>
-      <c r="M308" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B309" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="M309" t="s">
-        <v>389</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>383</v>
+      </c>
+      <c r="B310" t="s">
+        <v>620</v>
+      </c>
+      <c r="M310" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B311" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="M311" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>391</v>
-      </c>
-      <c r="B312" t="s">
-        <v>624</v>
-      </c>
-      <c r="M312" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B313" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="M313" t="s">
-        <v>394</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>386</v>
+      </c>
+      <c r="B314" t="s">
+        <v>623</v>
+      </c>
+      <c r="M314" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B315" t="s">
-        <v>548</v>
+        <v>658</v>
       </c>
       <c r="M315" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>396</v>
-      </c>
-      <c r="B316" t="s">
-        <v>625</v>
-      </c>
-      <c r="M316" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B317" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="M317" t="s">
-        <v>397</v>
+        <v>244</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="B318" t="s">
-        <v>947</v>
+        <v>624</v>
       </c>
       <c r="M318" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>399</v>
-      </c>
-      <c r="B320" t="s">
-        <v>626</v>
-      </c>
-      <c r="M320" t="s">
-        <v>400</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>393</v>
+      </c>
+      <c r="B319" t="s">
+        <v>659</v>
+      </c>
+      <c r="M319" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B321" t="s">
-        <v>627</v>
+        <v>548</v>
       </c>
       <c r="M321" t="s">
-        <v>402</v>
+        <v>207</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B322" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M322" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>398</v>
+      </c>
+      <c r="B323" t="s">
+        <v>660</v>
+      </c>
+      <c r="M323" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="B324" t="s">
-        <v>578</v>
+        <v>937</v>
       </c>
       <c r="M324" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>405</v>
-      </c>
-      <c r="B325" t="s">
-        <v>628</v>
-      </c>
-      <c r="M325" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B326" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="M326" t="s">
-        <v>408</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>401</v>
+      </c>
+      <c r="B327" t="s">
+        <v>627</v>
+      </c>
+      <c r="M327" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B328" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="M328" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>411</v>
-      </c>
-      <c r="B329" t="s">
-        <v>629</v>
-      </c>
-      <c r="M329" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B330" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="M330" t="s">
-        <v>414</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>405</v>
+      </c>
+      <c r="B331" t="s">
+        <v>628</v>
+      </c>
+      <c r="M331" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B332" t="s">
-        <v>547</v>
+        <v>661</v>
       </c>
       <c r="M332" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>416</v>
-      </c>
-      <c r="B333" t="s">
-        <v>630</v>
-      </c>
-      <c r="M333" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B334" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="M334" t="s">
-        <v>417</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>411</v>
+      </c>
+      <c r="B335" t="s">
+        <v>629</v>
+      </c>
+      <c r="M335" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B336" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M336" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>421</v>
-      </c>
-      <c r="B337" t="s">
-        <v>632</v>
-      </c>
-      <c r="M337" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B338" t="s">
-        <v>632</v>
+        <v>547</v>
       </c>
       <c r="M338" t="s">
-        <v>422</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>416</v>
+      </c>
+      <c r="B339" t="s">
+        <v>630</v>
+      </c>
+      <c r="M339" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B340" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M340" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>426</v>
-      </c>
-      <c r="B341" t="s">
-        <v>632</v>
-      </c>
-      <c r="M341" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B342" t="s">
+        <v>631</v>
+      </c>
+      <c r="M342" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>421</v>
+      </c>
+      <c r="B343" t="s">
         <v>632</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M343" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B344" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="M344" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>429</v>
-      </c>
-      <c r="B345" t="s">
-        <v>634</v>
-      </c>
-      <c r="M345" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B346" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M346" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>426</v>
+      </c>
+      <c r="B347" t="s">
+        <v>632</v>
+      </c>
+      <c r="M347" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B348" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="M348" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>433</v>
-      </c>
-      <c r="B349" t="s">
-        <v>635</v>
-      </c>
-      <c r="M349" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B350" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="M350" t="s">
-        <v>436</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>429</v>
+      </c>
+      <c r="B351" t="s">
+        <v>634</v>
+      </c>
+      <c r="M351" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B352" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M352" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>439</v>
-      </c>
-      <c r="B353" t="s">
-        <v>638</v>
-      </c>
-      <c r="M353" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B354" t="s">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="M354" t="s">
-        <v>440</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>433</v>
+      </c>
+      <c r="B355" t="s">
+        <v>635</v>
+      </c>
+      <c r="M355" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B356" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M356" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>443</v>
-      </c>
-      <c r="B357" t="s">
-        <v>640</v>
-      </c>
-      <c r="M357" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B358" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M358" t="s">
-        <v>444</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>439</v>
+      </c>
+      <c r="B359" t="s">
+        <v>638</v>
+      </c>
+      <c r="M359" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B360" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M360" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>447</v>
-      </c>
-      <c r="B361" t="s">
-        <v>642</v>
-      </c>
-      <c r="M361" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B362" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M362" t="s">
-        <v>448</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>443</v>
+      </c>
+      <c r="B363" t="s">
+        <v>640</v>
+      </c>
+      <c r="M363" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B364" t="s">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="M364" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>451</v>
-      </c>
-      <c r="B365" t="s">
-        <v>452</v>
-      </c>
-      <c r="M365" t="s">
-        <v>722</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B366" t="s">
-        <v>452</v>
+        <v>641</v>
       </c>
       <c r="M366" t="s">
-        <v>722</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>447</v>
+      </c>
+      <c r="B367" t="s">
+        <v>642</v>
+      </c>
+      <c r="M367" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B368" t="s">
-        <v>458</v>
+        <v>642</v>
       </c>
       <c r="M368" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>457</v>
-      </c>
-      <c r="B369" t="s">
-        <v>459</v>
-      </c>
-      <c r="M369" t="s">
-        <v>459</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>450</v>
+      </c>
+      <c r="B370" t="s">
+        <v>169</v>
+      </c>
+      <c r="M370" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>912</v>
+        <v>451</v>
       </c>
       <c r="B371" t="s">
-        <v>917</v>
+        <v>452</v>
       </c>
       <c r="M371" t="s">
-        <v>916</v>
+        <v>716</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>913</v>
+        <v>453</v>
       </c>
       <c r="B372" t="s">
-        <v>918</v>
+        <v>452</v>
       </c>
       <c r="M372" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>914</v>
-      </c>
-      <c r="B373" t="s">
-        <v>918</v>
-      </c>
-      <c r="M373" t="s">
-        <v>915</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>456</v>
+      </c>
+      <c r="B374" t="s">
+        <v>458</v>
+      </c>
+      <c r="M374" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B375" t="s">
-        <v>662</v>
+        <v>459</v>
       </c>
       <c r="M375" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>466</v>
-      </c>
-      <c r="B376" t="s">
-        <v>663</v>
-      </c>
-      <c r="M376" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>467</v>
+        <v>902</v>
       </c>
       <c r="B377" t="s">
-        <v>664</v>
+        <v>907</v>
       </c>
       <c r="M377" t="s">
-        <v>462</v>
+        <v>906</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>468</v>
+        <v>903</v>
       </c>
       <c r="B378" t="s">
-        <v>665</v>
+        <v>908</v>
       </c>
       <c r="M378" t="s">
-        <v>463</v>
+        <v>905</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>469</v>
+        <v>904</v>
       </c>
       <c r="B379" t="s">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="M379" t="s">
-        <v>464</v>
+        <v>905</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B381" t="s">
-        <v>470</v>
+        <v>662</v>
+      </c>
+      <c r="M381" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>829</v>
+        <v>466</v>
       </c>
       <c r="B382" t="s">
-        <v>831</v>
+        <v>663</v>
       </c>
       <c r="M382" t="s">
-        <v>833</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>830</v>
+        <v>467</v>
       </c>
       <c r="B383" t="s">
-        <v>832</v>
+        <v>664</v>
       </c>
       <c r="M383" t="s">
-        <v>834</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B384" t="s">
-        <v>506</v>
+        <v>665</v>
       </c>
       <c r="M384" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B385" t="s">
-        <v>507</v>
+        <v>666</v>
       </c>
       <c r="M385" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>478</v>
-      </c>
-      <c r="B386" t="s">
-        <v>508</v>
-      </c>
-      <c r="M386" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B387" t="s">
-        <v>509</v>
-      </c>
-      <c r="M387" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>480</v>
+        <v>821</v>
       </c>
       <c r="B388" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
       <c r="M388" t="s">
-        <v>475</v>
+        <v>825</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>920</v>
+        <v>822</v>
       </c>
       <c r="B389" t="s">
-        <v>927</v>
+        <v>824</v>
       </c>
       <c r="M389" t="s">
-        <v>934</v>
+        <v>826</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>921</v>
+        <v>481</v>
       </c>
       <c r="B390" t="s">
-        <v>928</v>
+        <v>506</v>
       </c>
       <c r="M390" t="s">
-        <v>935</v>
+        <v>471</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>922</v>
+        <v>477</v>
       </c>
       <c r="B391" t="s">
-        <v>929</v>
+        <v>507</v>
       </c>
       <c r="M391" t="s">
-        <v>936</v>
+        <v>472</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>923</v>
+        <v>478</v>
       </c>
       <c r="B392" t="s">
-        <v>930</v>
+        <v>508</v>
       </c>
       <c r="M392" t="s">
-        <v>937</v>
+        <v>473</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>924</v>
+        <v>479</v>
       </c>
       <c r="B393" t="s">
-        <v>931</v>
+        <v>509</v>
       </c>
       <c r="M393" t="s">
-        <v>938</v>
+        <v>474</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>925</v>
+        <v>480</v>
       </c>
       <c r="B394" t="s">
-        <v>932</v>
+        <v>510</v>
       </c>
       <c r="M394" t="s">
-        <v>939</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="B395" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="M395" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>941</v>
+        <v>911</v>
       </c>
       <c r="B396" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="M396" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="B397" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
       <c r="M397" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>482</v>
+        <v>913</v>
       </c>
       <c r="B398" t="s">
-        <v>511</v>
+        <v>920</v>
       </c>
       <c r="M398" t="s">
-        <v>827</v>
+        <v>927</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>483</v>
+        <v>914</v>
       </c>
       <c r="B399" t="s">
-        <v>487</v>
+        <v>921</v>
       </c>
       <c r="M399" t="s">
-        <v>504</v>
+        <v>928</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>484</v>
+        <v>915</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>922</v>
       </c>
       <c r="M400" t="s">
-        <v>505</v>
+        <v>929</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>485</v>
+        <v>916</v>
       </c>
       <c r="B401" t="s">
-        <v>828</v>
+        <v>923</v>
       </c>
       <c r="M401" t="s">
-        <v>721</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>931</v>
+      </c>
+      <c r="B402" t="s">
+        <v>932</v>
+      </c>
+      <c r="M402" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>492</v>
+        <v>936</v>
       </c>
       <c r="B403" t="s">
-        <v>667</v>
+        <v>934</v>
       </c>
       <c r="M403" t="s">
-        <v>488</v>
+        <v>935</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B404" t="s">
-        <v>668</v>
+        <v>511</v>
       </c>
       <c r="M404" t="s">
-        <v>489</v>
+        <v>819</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B405" t="s">
-        <v>669</v>
+        <v>487</v>
       </c>
       <c r="M405" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B406" t="s">
-        <v>670</v>
+        <v>486</v>
       </c>
       <c r="M406" t="s">
-        <v>491</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>943</v>
+      </c>
+      <c r="B407" t="s">
+        <v>944</v>
+      </c>
+      <c r="M407" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>496</v>
+        <v>946</v>
       </c>
       <c r="B408" t="s">
-        <v>698</v>
+        <v>947</v>
       </c>
       <c r="M408" t="s">
-        <v>699</v>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>949</v>
+      </c>
+      <c r="B409" t="s">
+        <v>950</v>
+      </c>
+      <c r="M409" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>671</v>
+        <v>485</v>
       </c>
       <c r="B410" t="s">
-        <v>497</v>
+        <v>820</v>
       </c>
       <c r="M410" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>672</v>
-      </c>
-      <c r="B411" t="s">
-        <v>498</v>
-      </c>
-      <c r="M411" t="s">
-        <v>500</v>
+        <v>715</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>673</v>
+        <v>492</v>
       </c>
       <c r="B412" t="s">
-        <v>499</v>
+        <v>667</v>
       </c>
       <c r="M412" t="s">
-        <v>502</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>493</v>
+      </c>
+      <c r="B413" t="s">
+        <v>668</v>
+      </c>
+      <c r="M413" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B414" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="M414" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>701</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1" t="s">
-        <v>720</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>495</v>
+      </c>
+      <c r="B415" t="s">
+        <v>670</v>
+      </c>
+      <c r="M415" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>702</v>
+        <v>496</v>
       </c>
       <c r="B417" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="M417" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="B419" t="s">
-        <v>724</v>
+        <v>497</v>
       </c>
       <c r="M419" t="s">
-        <v>725</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>672</v>
+      </c>
+      <c r="B420" t="s">
+        <v>498</v>
+      </c>
+      <c r="M420" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>726</v>
+        <v>673</v>
       </c>
       <c r="B421" t="s">
-        <v>727</v>
+        <v>499</v>
       </c>
       <c r="M421" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>728</v>
-      </c>
-      <c r="B422" t="s">
-        <v>733</v>
-      </c>
-      <c r="M422" t="s">
-        <v>740</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>729</v>
+        <v>503</v>
       </c>
       <c r="B423" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="M423" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>730</v>
-      </c>
-      <c r="B424" t="s">
-        <v>735</v>
-      </c>
-      <c r="M424" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>731</v>
-      </c>
-      <c r="B425" t="s">
-        <v>288</v>
-      </c>
-      <c r="M425" t="s">
-        <v>738</v>
+        <v>701</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
+      <c r="G425" s="1"/>
+      <c r="H425" s="1"/>
+      <c r="I425" s="1"/>
+      <c r="J425" s="1"/>
+      <c r="K425" s="1"/>
+      <c r="L425" s="1"/>
+      <c r="M425" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="B426" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="M426" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>836</v>
+        <v>717</v>
       </c>
       <c r="B428" t="s">
-        <v>837</v>
+        <v>718</v>
       </c>
       <c r="M428" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>840</v>
-      </c>
-      <c r="B429" t="s">
-        <v>838</v>
-      </c>
-      <c r="M429" t="s">
-        <v>842</v>
+        <v>719</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>843</v>
+        <v>720</v>
       </c>
       <c r="B430" t="s">
-        <v>838</v>
+        <v>721</v>
       </c>
       <c r="M430" t="s">
-        <v>844</v>
+        <v>736</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>845</v>
+        <v>722</v>
       </c>
       <c r="B431" t="s">
-        <v>841</v>
+        <v>727</v>
       </c>
       <c r="M431" t="s">
-        <v>841</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>723</v>
+      </c>
+      <c r="B432" t="s">
+        <v>728</v>
+      </c>
+      <c r="M432" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>849</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C433" s="3"/>
-      <c r="D433" s="3"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-      <c r="J433" s="3"/>
-      <c r="K433" s="3"/>
-      <c r="L433" s="3"/>
-      <c r="M433" s="2" t="s">
-        <v>857</v>
+        <v>724</v>
+      </c>
+      <c r="B433" t="s">
+        <v>729</v>
+      </c>
+      <c r="M433" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>852</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-      <c r="J434" s="3"/>
-      <c r="K434" s="3"/>
-      <c r="L434" s="3"/>
-      <c r="M434" s="2" t="s">
-        <v>851</v>
+        <v>725</v>
+      </c>
+      <c r="B434" t="s">
+        <v>288</v>
+      </c>
+      <c r="M434" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>853</v>
+        <v>726</v>
       </c>
       <c r="B435" t="s">
-        <v>855</v>
+        <v>730</v>
       </c>
       <c r="M435" t="s">
-        <v>854</v>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>828</v>
+      </c>
+      <c r="B437" t="s">
+        <v>829</v>
+      </c>
+      <c r="M437" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>960</v>
+      </c>
+      <c r="B438" t="s">
+        <v>961</v>
+      </c>
+      <c r="M438" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>832</v>
+      </c>
+      <c r="B439" t="s">
+        <v>830</v>
+      </c>
+      <c r="M439" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>835</v>
+      </c>
+      <c r="B440" t="s">
+        <v>830</v>
+      </c>
+      <c r="M440" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>837</v>
+      </c>
+      <c r="B441" t="s">
+        <v>833</v>
+      </c>
+      <c r="M441" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>841</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+      <c r="I443" s="3"/>
+      <c r="J443" s="3"/>
+      <c r="K443" s="3"/>
+      <c r="L443" s="3"/>
+      <c r="M443" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>843</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="3"/>
+      <c r="L444" s="3"/>
+      <c r="M444" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>844</v>
+      </c>
+      <c r="B445" t="s">
+        <v>846</v>
+      </c>
+      <c r="M445" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -7099,218 +7319,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B3" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B4" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B5" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B6" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B7" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B9" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B11" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B12" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B13" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B14" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B15" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B16" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B17" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B18" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B19" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B20" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B21" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B22" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B23" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B24" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B25" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B26" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B27" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B28" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A10CD-7AB6-43DD-9C2C-C43C89281ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234D29A-BC98-41A3-B1F6-7FAAFA11AFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="6255" windowWidth="22230" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="6630" windowWidth="21870" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
-    <sheet name="Images" sheetId="2" r:id="rId2"/>
+    <sheet name="Role Descriptions" sheetId="3" r:id="rId2"/>
+    <sheet name="Images" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1074">
   <si>
     <t>presetSelection</t>
   </si>
@@ -907,9 +908,6 @@
     <t>godfather</t>
   </si>
   <si>
-    <t>ゴッドファザー</t>
-  </si>
-  <si>
     <t>godfatherIntroDesc</t>
   </si>
   <si>
@@ -2282,9 +2280,6 @@
   </si>
   <si>
     <t>モード</t>
-  </si>
-  <si>
-    <t>表示された人の色調が見える</t>
   </si>
   <si>
     <t>コミュサボを直せる</t>
@@ -2943,12 +2938,6 @@
     <t>Time Per Game</t>
   </si>
   <si>
-    <t>ターンごと</t>
-  </si>
-  <si>
-    <t>試合ごと</t>
-  </si>
-  <si>
     <t>特殊装置の制限</t>
   </si>
   <si>
@@ -2986,6 +2975,359 @@
   </si>
   <si>
     <t>残り {0}</t>
+  </si>
+  <si>
+    <t>ターン毎</t>
+  </si>
+  <si>
+    <t>試合毎</t>
+  </si>
+  <si>
+    <t>jesterFullDesc</t>
+  </si>
+  <si>
+    <t>mayorFullDesc</t>
+  </si>
+  <si>
+    <t>engineerFullDesc</t>
+  </si>
+  <si>
+    <t>sheriffFullDesc</t>
+  </si>
+  <si>
+    <t>lighterFullDesc</t>
+  </si>
+  <si>
+    <t>godfatherFullDesc</t>
+  </si>
+  <si>
+    <t>mafiosoFullDesc</t>
+  </si>
+  <si>
+    <t>janitorFullDesc</t>
+  </si>
+  <si>
+    <t>morphlingFullDesc</t>
+  </si>
+  <si>
+    <t>camouflagerFullDesc</t>
+  </si>
+  <si>
+    <t>vampireFullDesc</t>
+  </si>
+  <si>
+    <t>eraserFullDesc</t>
+  </si>
+  <si>
+    <t>tricksterFullDesc</t>
+  </si>
+  <si>
+    <t>cleanerFullDesc</t>
+  </si>
+  <si>
+    <t>warlockFullDesc</t>
+  </si>
+  <si>
+    <t>bountyHunterFullDesc</t>
+  </si>
+  <si>
+    <t>detectiveFullDesc</t>
+  </si>
+  <si>
+    <t>timeMasterFullDesc</t>
+  </si>
+  <si>
+    <t>medicFullDesc</t>
+  </si>
+  <si>
+    <t>shifterFullDesc</t>
+  </si>
+  <si>
+    <t>swapperFullDesc</t>
+  </si>
+  <si>
+    <t>seerFullDesc</t>
+  </si>
+  <si>
+    <t>hackerFullDesc</t>
+  </si>
+  <si>
+    <t>niceMiniFullDesc</t>
+  </si>
+  <si>
+    <t>evilMiniFullDesc</t>
+  </si>
+  <si>
+    <t>trackerFullDesc</t>
+  </si>
+  <si>
+    <t>snitchFullDesc</t>
+  </si>
+  <si>
+    <t>jackalFullDesc</t>
+  </si>
+  <si>
+    <t>sidekickFullDesc</t>
+  </si>
+  <si>
+    <t>spyFullDesc</t>
+  </si>
+  <si>
+    <t>securityGuardFullDesc</t>
+  </si>
+  <si>
+    <t>arsonistFullDesc</t>
+  </si>
+  <si>
+    <t>goodGuesserFullDesc</t>
+  </si>
+  <si>
+    <t>badGuesserFullDesc</t>
+  </si>
+  <si>
+    <t>baitFullDesc</t>
+  </si>
+  <si>
+    <t>madmateFullDesc</t>
+  </si>
+  <si>
+    <t>impostorFullDesc</t>
+  </si>
+  <si>
+    <t>crewmateFullDesc</t>
+  </si>
+  <si>
+    <t>loverFullDesc</t>
+  </si>
+  <si>
+    <t>gmFullDesc</t>
+  </si>
+  <si>
+    <t>oppFullDesc</t>
+  </si>
+  <si>
+    <t>・入れた人の投票数が2票になる</t>
+  </si>
+  <si>
+    <t>・能力を使うと一定時間視界が広くなる</t>
+  </si>
+  <si>
+    <t>・サンプルを取ると一定時間その人に変身できる</t>
+  </si>
+  <si>
+    <t>・能力を使うと一定時間全員が同じ見た目になり、名前も見えなくなる</t>
+  </si>
+  <si>
+    <t>・キルされる前に能力を使いキルされると時間を数秒間戻せる</t>
+  </si>
+  <si>
+    <t>・自分含め投票を入れ替えることができる</t>
+  </si>
+  <si>
+    <t>・誰かに発信機のようなものをつけ、位置情報がわかる</t>
+  </si>
+  <si>
+    <t>・標的をキルするとキルクールがすごく短くなる_x000D_
+・標的以外をキルするとキルクールがすごく長くなる</t>
+  </si>
+  <si>
+    <t>・ベントを塞ぐことができる_x000D_
+・新しいカメラを設置することができる</t>
+  </si>
+  <si>
+    <t>・会議中に誰かの役職を選んで当てられればキルできる_x000D_
+・失敗すれば自分が会議中に死んでしまう</t>
+  </si>
+  <si>
+    <t>・ゲームに影響を与えない神視点の存在</t>
+  </si>
+  <si>
+    <t>ゴッドファーザー</t>
+  </si>
+  <si>
+    <t>・人狼でいう『てるてる』_x000D_
+・なにも能力を持たない_x000D_
+・自身が吊られたときに勝利する</t>
+  </si>
+  <si>
+    <t>・タスク完了時に&lt;color=#ff1919ff&gt;人外&lt;/color&gt;が誰なのかわかる</t>
+  </si>
+  <si>
+    <t>・通常の&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;をキルすることができる_x000D_
+・&lt;color=#8cffffff&gt;クルー&lt;/color&gt;をキルしたら&lt;color=#f8cd46ff&gt;シェリフ&lt;/color&gt;自身が死んでしまう</t>
+  </si>
+  <si>
+    <t>・通常の&lt;color=#8cffffff&gt;クルー&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>色調のみ見える</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;のトップ_x000D_
+・必ず&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;、&lt;color=#ff1919ff&gt;マフィオソ&lt;/color&gt;、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;の３人組として出現_x000D_
+・通常&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;と全く同じ性能の役職</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の一員_x000D_
+・必ず&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;、&lt;color=#ff1919ff&gt;マフィオソ&lt;/color&gt;、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;の３人組として出現_x000D_
+・キルもサボタージュも出来ない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営だが、代わりに死体を消せる役職_x000D_
+・キルできないため、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;だけ生き残った場合は&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の敗北となる</t>
+  </si>
+  <si>
+    <t>・ニンニクのない場所だとすれ違ったタイミングで遠距離でキル出来る_x000D_
+・ニンニクある場所だと通常キルしかできない</t>
+  </si>
+  <si>
+    <t>・３つだけ&lt;color=#ff1919ff&gt;トリックスター&lt;/color&gt;専用のベントを設置できる_x000D_
+・ベントは３つ置いた後の次の会議後に視認でき、使用できる_x000D_
+・その専用ベントを置いた後に強制停電を起こせる_x000D_
+・&lt;color=#ff1919ff&gt;トリックスター&lt;/color&gt;の停電は誰にも直せない</t>
+  </si>
+  <si>
+    <t>・死体を消せる&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;_x000D_
+・キルすることも可能だが&lt;color=#ff1919ff&gt;クリーナー&lt;/color&gt;の能力とキルクールは同期している</t>
+  </si>
+  <si>
+    <t>・探偵_x000D_
+・プレイヤーの足跡が見える_x000D_
+・一定時間内に死体を発見すると、犯人についての情報が得られる_x000D_
+・会議に入ったら、チャットで表示される</t>
+  </si>
+  <si>
+    <t>・誰か1人にシールドを貼れる_x000D_
+・シールドを貼られたプレイヤーはキルされたら、その人の画面が赤く点灯する_x000D_
+・&lt;color=#7efbc2ff&gt;メディック&lt;/color&gt;が死ぬとシールドも壊れる</t>
+  </si>
+  <si>
+    <t>・誰か1人の役職を奪える。_x000D_
+・奪った役職は会議後に反映される_x000D_
+・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;の役職を奪うとシフター自身が会議後に死亡する</t>
+  </si>
+  <si>
+    <t>・誰かが死んだ瞬間に画面全体が青く光る_x000D_
+・誰かが死んだ日の会議後に死体位置に行くと幽霊が見える</t>
+  </si>
+  <si>
+    <t>・能力を使うと、アドミンとバイタルでの情報がさらに多く手に入る_x000D_
+・アドミンでは一定時間色まで見えるようになる_x000D_
+・バイタルでは死んでからの秒数がわかる</t>
+  </si>
+  <si>
+    <t>・見た目が小さい&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;or&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;_x000D_
+・67%の確率で&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;陣営になる_x000D_
+・33%の確率で&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営になる_x000D_
+・18歳になるまではキルされない_x000D_
+・18歳に成長しきるまでに追放されたら即座に敗北してしまうので注意</t>
+  </si>
+  <si>
+    <t>・見た目が小さい&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;or&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;_x000D_
+・67%の確率で&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;陣営になる_x000D_
+・33%の確率で&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営になる_x000D_
+・18歳に成長しきるまではキルクールがデフォルト設定の2/3となる_x000D_
+・18歳に成長しきるまでに追放されても敗北にはならない_x000D_
+・&lt;color=#f8cd46ff&gt;シェリフ&lt;/color&gt;には成長しきるまでキルされない</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;、&lt;color=#8cffffff&gt;クルー&lt;/color&gt;、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;全員を殺すことができる_x000D_
+・&lt;color=#00b4ebff&gt;サイドキック&lt;/color&gt;を作り出すことができる</t>
+  </si>
+  <si>
+    <t>・&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;に加担する&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;陣営_x000D_
+・&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;がいなくなったときに&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;に昇格する</t>
+  </si>
+  <si>
+    <t>・&lt;color=#8cffffff&gt;クルー&lt;/color&gt;陣営だが&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;からは赤文字に見え、味方に見える_x000D_
+・&lt;color=#ff1919ff&gt;スパイ&lt;/color&gt;からは誰が&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;かわからない</t>
+  </si>
+  <si>
+    <t>・全プレイヤーにガソリンを塗ることができる_x000D_
+・全プレイヤーにガソリンを塗ることができたとき放火すると勝利する_x000D_
+・死んだプレイヤーはカウントされない</t>
+  </si>
+  <si>
+    <t>・誰かがベントを使うと、そのベントが黄色く光る_x000D_
+・&lt;color=#ff1919ff&gt;人外&lt;/color&gt;がベイトをキルするとキルした人が一定時間後に自動的にレポートする</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;に加担するキルできない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営_x000D_
+・停電が直せない</t>
+  </si>
+  <si>
+    <t>・ベントに入ることができる_x000D_
+・&lt;color=#204d42ff&gt;エンジニア&lt;/color&gt;がベントに入っているとき、&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営からはベントが_x000D_
+　青く光って見える_x000D_
+・妨害を１回のみ一瞬で直せる能力を持つ</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の一員_x000D_
+・必ず&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;、&lt;color=#ff1919ff&gt;マフィオソ&lt;/color&gt;、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;の３人組として出現_x000D_
+・&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;が追放orキルされた時に&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;へと昇格する役職_x000D_
+・&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;が生きている場合はキルとサボタージュが出来ない_x000D_
+　&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営</t>
+  </si>
+  <si>
+    <t>・誰か1人に呪いをかけることができる_x000D_
+・呪われたプレイヤーの近くに誰かが近づくとキルボタンが点灯し、_x000D_
+　それを行うとその人が死んでしまう_x000D_
+・呪いで殺害した場合、&lt;color=#ff1919ff&gt;ウォーロック&lt;/color&gt;は一定時間動けない_x000D_
+・呪いは会議後にリセットされる</t>
+  </si>
+  <si>
+    <t>・最後まで生き残れば勝利_x000D_
+・キルor追放されずに&lt;color=#8cffffff&gt;クルー&lt;/color&gt;または&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;または&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;が勝利した際に_x000D_
+　追加勝利となる</t>
+  </si>
+  <si>
+    <t>・全てのプレイヤーの役職を消せる役職
+・能力発動時、会議終了直前に能力を使った相手の役職が削除されます
+・能力を使う度に&lt;color=#ff1919ff&gt;イレイサー&lt;/color&gt;のクールダウンが10秒ずつ伸びる
+・&lt;color=#ff1919ff&gt;イレイサー&lt;/color&gt;及び能力を使った相手が追放orキルされた場合でも能力を使用していれば
+　会議終了直前には発動されます
+・&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;を削除すると、相方の&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;も削除されます
+・&lt;color=#00b4ebff&gt;サイドキック&lt;/color&gt;を与えた&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;の能力を削除した場合は&lt;color=#00b4ebff&gt;サイドキック&lt;/color&gt;が
+　&lt;color=#00b4ebff&gt;ジャッカル&lt;/color&gt;へと昇格する
+・&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;に能力を使用したそのターンに&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;が追放された場合はパートナーの方は
+　元&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;として生存する
+・&lt;color=#ec62a5ff&gt;ジェスター&lt;/color&gt;（てるてる）へ能力を使用したターンに&lt;color=#ec62a5ff&gt;ジェスター&lt;/color&gt;が吊られても
+　&lt;color=#ec62a5ff&gt;ジェスター&lt;/color&gt;の勝利にはならない（会議終了直前のため）</t>
+  </si>
+  <si>
+    <t>・全プレイヤーの中から２人&lt;color=#e839b9ff&gt;恋人&lt;/color&gt;に選ばれる
+・&lt;color=#8cffffff&gt;クルー&lt;/color&gt;、&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;どれでも選ばれる
+・&lt;color=#e839b9ff&gt;ラバーズ&lt;/color&gt;は２人とも最後まで生き残れば勝ち
+・単独陣営扱いがオフの場合、&lt;color=#e839b9ff&gt;ラバーズ&lt;/color&gt;もしくは元の陣営と勝つことがでる
+・オンの場合、&lt;color=#e839b9ff&gt;ラバーズ&lt;/color&gt;２人の生存のみが勝利条件となる
+　ただひとつだけ、&lt;color=#8cffffff&gt;クルー&lt;/color&gt;のタスク勝利が優先され単独陣営&lt;color=#e839b9ff&gt;ラバーズ&lt;/color&gt;の敗北となる</t>
+  </si>
+  <si>
+    <t>camouflagerRandomColors</t>
+  </si>
+  <si>
+    <t>Random Colors</t>
+  </si>
+  <si>
+    <t>色がランダム</t>
+  </si>
+  <si>
+    <t>roleSummaryMisfire</t>
+  </si>
+  <si>
+    <t>Misfire</t>
+  </si>
+  <si>
+    <t>誤爆</t>
+  </si>
+  <si>
+    <t>guesserOnlyAvailableRoles</t>
+  </si>
+  <si>
+    <t>Only Show Enabled Roles</t>
+  </si>
+  <si>
+    <t>出現可能な役職のみ表示</t>
   </si>
 </sst>
 </file>
@@ -3021,11 +3363,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3306,10 +3651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3717,7 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M2" t="s">
         <v>160</v>
@@ -3383,7 +3728,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M3" t="s">
         <v>161</v>
@@ -3394,7 +3739,7 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M4" t="s">
         <v>162</v>
@@ -3405,7 +3750,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M5" t="s">
         <v>163</v>
@@ -3416,7 +3761,7 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M6" t="s">
         <v>164</v>
@@ -3427,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M7" t="s">
         <v>159</v>
@@ -3438,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3449,10 +3794,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3460,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M10" t="s">
         <v>165</v>
@@ -3471,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -3482,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M12" t="s">
         <v>167</v>
@@ -3493,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M13" t="s">
         <v>168</v>
@@ -3515,10 +3860,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3526,10 +3871,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3537,10 +3882,10 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3548,10 +3893,10 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,10 +3904,10 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3570,10 +3915,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3581,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M24" t="s">
         <v>170</v>
@@ -3592,7 +3937,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M25" t="s">
         <v>171</v>
@@ -3603,7 +3948,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M27" t="s">
         <v>172</v>
@@ -3614,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
@@ -3625,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M29" t="s">
         <v>174</v>
@@ -3636,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M31" t="s">
         <v>175</v>
@@ -3647,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M32" t="s">
         <v>176</v>
@@ -3658,3595 +4003,3628 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>530</v>
-      </c>
-      <c r="M35" t="s">
-        <v>178</v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>768</v>
+        <v>529</v>
       </c>
       <c r="M36" t="s">
-        <v>827</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="M37" t="s">
-        <v>179</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="M38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B38" t="s">
-        <v>769</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="B39" t="s">
+        <v>767</v>
+      </c>
+      <c r="M39" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>531</v>
-      </c>
-      <c r="M40" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>804</v>
+        <v>530</v>
       </c>
       <c r="M41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>802</v>
+      </c>
+      <c r="M42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B42" t="s">
-        <v>770</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="B43" t="s">
+        <v>768</v>
+      </c>
+      <c r="M43" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>532</v>
-      </c>
-      <c r="M44" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>805</v>
+        <v>531</v>
       </c>
       <c r="M45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="M46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>769</v>
+      </c>
+      <c r="M47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>107</v>
       </c>
-      <c r="B47" t="s">
-        <v>772</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="B48" t="s">
+        <v>770</v>
+      </c>
+      <c r="M48" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>533</v>
-      </c>
-      <c r="M49" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>532</v>
+      </c>
+      <c r="M50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
-        <v>806</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="B51" t="s">
+        <v>804</v>
+      </c>
+      <c r="M51" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>534</v>
-      </c>
-      <c r="M52" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>807</v>
+        <v>533</v>
       </c>
       <c r="M53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>805</v>
+      </c>
+      <c r="M54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>112</v>
       </c>
-      <c r="B54" t="s">
-        <v>773</v>
-      </c>
-      <c r="M54" t="s">
+      <c r="B55" t="s">
+        <v>771</v>
+      </c>
+      <c r="M55" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>535</v>
-      </c>
-      <c r="M56" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>538</v>
+      </c>
+      <c r="M61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="B62" t="s">
+        <v>539</v>
+      </c>
+      <c r="M62" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>541</v>
-      </c>
-      <c r="M64" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>23</v>
       </c>
-      <c r="B65" t="s">
-        <v>542</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="B66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
-        <v>543</v>
-      </c>
-      <c r="M67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>774</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s">
-        <v>737</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>544</v>
+        <v>772</v>
       </c>
       <c r="M69" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>775</v>
+        <v>543</v>
       </c>
       <c r="M70" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M71" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>952</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>953</v>
+        <v>774</v>
       </c>
       <c r="M72" t="s">
-        <v>954</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>950</v>
+      </c>
+      <c r="B73" t="s">
+        <v>951</v>
+      </c>
+      <c r="M73" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>29</v>
       </c>
-      <c r="B73" t="s">
-        <v>956</v>
-      </c>
-      <c r="M73" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" t="s">
-        <v>545</v>
-      </c>
-      <c r="M75" t="s">
-        <v>201</v>
+      <c r="B74" t="s">
+        <v>954</v>
+      </c>
+      <c r="M74" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>777</v>
+        <v>544</v>
       </c>
       <c r="M76" t="s">
-        <v>737</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>775</v>
+      </c>
+      <c r="M77" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B77" t="s">
-        <v>778</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="B78" t="s">
+        <v>776</v>
+      </c>
+      <c r="M78" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>1071</v>
       </c>
       <c r="B79" t="s">
-        <v>546</v>
+        <v>1072</v>
       </c>
       <c r="M79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" t="s">
-        <v>779</v>
-      </c>
-      <c r="M80" t="s">
-        <v>741</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>780</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>777</v>
+      </c>
+      <c r="M82" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>547</v>
+        <v>778</v>
       </c>
       <c r="M83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" t="s">
-        <v>781</v>
-      </c>
-      <c r="M84" t="s">
-        <v>205</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>782</v>
+        <v>546</v>
       </c>
       <c r="M85" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>779</v>
+      </c>
+      <c r="M86" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>548</v>
+        <v>780</v>
       </c>
       <c r="M87" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" t="s">
-        <v>783</v>
-      </c>
-      <c r="M88" t="s">
-        <v>747</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>784</v>
+        <v>547</v>
       </c>
       <c r="M89" t="s">
-        <v>759</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M90" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M91" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>549</v>
+        <v>783</v>
       </c>
       <c r="M92" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>550</v>
+        <v>784</v>
       </c>
       <c r="M93" t="s">
-        <v>208</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M94" t="s">
-        <v>209</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>787</v>
+        <v>550</v>
       </c>
       <c r="M96" t="s">
-        <v>745</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>800</v>
+        <v>551</v>
       </c>
       <c r="M97" t="s">
-        <v>746</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>785</v>
+      </c>
+      <c r="M98" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>798</v>
+      </c>
+      <c r="M99" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>56</v>
       </c>
-      <c r="B99" t="s">
-        <v>553</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="B101" t="s">
+        <v>552</v>
+      </c>
+      <c r="M101" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" t="s">
-        <v>788</v>
-      </c>
-      <c r="M100" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>554</v>
+        <v>786</v>
       </c>
       <c r="M102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M106" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>61</v>
-      </c>
-      <c r="B107" t="s">
-        <v>783</v>
-      </c>
-      <c r="M107" t="s">
-        <v>747</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>778</v>
+        <v>555</v>
       </c>
       <c r="M108" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="M109" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>957</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>958</v>
+        <v>776</v>
       </c>
       <c r="M110" t="s">
-        <v>959</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>787</v>
+      </c>
+      <c r="M111" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>955</v>
       </c>
       <c r="B112" t="s">
-        <v>557</v>
+        <v>956</v>
       </c>
       <c r="M112" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" t="s">
-        <v>790</v>
-      </c>
-      <c r="M113" t="s">
-        <v>217</v>
+        <v>957</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>791</v>
+        <v>556</v>
       </c>
       <c r="M114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="M115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="M116" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" t="s">
+        <v>806</v>
+      </c>
+      <c r="M117" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>558</v>
+        <v>807</v>
       </c>
       <c r="M118" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" t="s">
-        <v>559</v>
-      </c>
-      <c r="M119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>703</v>
+        <v>557</v>
       </c>
       <c r="M120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M121" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>561</v>
+        <v>702</v>
       </c>
       <c r="M122" t="s">
-        <v>749</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M123" t="s">
-        <v>750</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" t="s">
+        <v>560</v>
+      </c>
+      <c r="M124" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" t="s">
-        <v>810</v>
-      </c>
-      <c r="M126" t="s">
-        <v>226</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M128" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" t="s">
+        <v>563</v>
+      </c>
+      <c r="M129" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" t="s">
-        <v>565</v>
+        <v>809</v>
       </c>
       <c r="M130" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>691</v>
-      </c>
-      <c r="B131" t="s">
-        <v>818</v>
-      </c>
-      <c r="M131" t="s">
-        <v>693</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>677</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B133" t="s">
-        <v>690</v>
+        <v>816</v>
       </c>
       <c r="M133" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B134" t="s">
-        <v>689</v>
+        <v>564</v>
       </c>
       <c r="M134" t="s">
-        <v>679</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>679</v>
       </c>
       <c r="B135" t="s">
-        <v>566</v>
+        <v>689</v>
       </c>
       <c r="M135" t="s">
-        <v>231</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>81</v>
+        <v>680</v>
       </c>
       <c r="B136" t="s">
-        <v>567</v>
+        <v>688</v>
       </c>
       <c r="M136" t="s">
-        <v>840</v>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" t="s">
+        <v>565</v>
+      </c>
+      <c r="M137" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M138" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" t="s">
-        <v>779</v>
-      </c>
-      <c r="M139" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B140" t="s">
-        <v>792</v>
+        <v>567</v>
       </c>
       <c r="M140" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>777</v>
+      </c>
+      <c r="M141" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B142" t="s">
-        <v>569</v>
+        <v>790</v>
       </c>
       <c r="M142" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>692</v>
-      </c>
-      <c r="B143" t="s">
-        <v>761</v>
-      </c>
-      <c r="M143" t="s">
-        <v>751</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="B144" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M144" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s">
-        <v>687</v>
+        <v>759</v>
       </c>
       <c r="M145" t="s">
-        <v>686</v>
+        <v>750</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B146" t="s">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="M146" t="s">
-        <v>685</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>87</v>
+        <v>682</v>
       </c>
       <c r="B147" t="s">
-        <v>793</v>
+        <v>686</v>
       </c>
       <c r="M147" t="s">
-        <v>236</v>
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="B148" t="s">
-        <v>794</v>
+        <v>687</v>
       </c>
       <c r="M148" t="s">
-        <v>237</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>87</v>
+      </c>
       <c r="B149" t="s">
-        <v>571</v>
+        <v>791</v>
+      </c>
+      <c r="M149" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>572</v>
+        <v>792</v>
       </c>
       <c r="M150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>89</v>
-      </c>
       <c r="B151" t="s">
-        <v>812</v>
-      </c>
-      <c r="M151" t="s">
-        <v>239</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B152" t="s">
-        <v>813</v>
+        <v>571</v>
       </c>
       <c r="M152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B153" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="M153" t="s">
-        <v>752</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>90</v>
+      </c>
+      <c r="B154" t="s">
+        <v>811</v>
+      </c>
+      <c r="M154" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B155" t="s">
-        <v>573</v>
+        <v>793</v>
       </c>
       <c r="M155" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>93</v>
-      </c>
-      <c r="B156" t="s">
-        <v>796</v>
-      </c>
-      <c r="M156" t="s">
-        <v>242</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B157" t="s">
-        <v>797</v>
+        <v>572</v>
       </c>
       <c r="M157" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" t="s">
+        <v>794</v>
+      </c>
+      <c r="M158" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>574</v>
+        <v>795</v>
       </c>
       <c r="M159" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>96</v>
-      </c>
-      <c r="B160" t="s">
-        <v>575</v>
-      </c>
-      <c r="M160" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B161" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M161" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B162" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M162" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>575</v>
+      </c>
+      <c r="M163" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B164" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M164" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>100</v>
-      </c>
-      <c r="B165" t="s">
-        <v>798</v>
-      </c>
-      <c r="M165" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B167" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M167" t="s">
-        <v>742</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B168" t="s">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="M168" t="s">
-        <v>746</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" t="s">
+        <v>797</v>
+      </c>
+      <c r="M169" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="M170" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>114</v>
-      </c>
-      <c r="B171" t="s">
-        <v>760</v>
-      </c>
-      <c r="M171" t="s">
-        <v>252</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>814</v>
+        <v>579</v>
       </c>
       <c r="M172" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B173" t="s">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="M173" t="s">
-        <v>838</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="M174" t="s">
-        <v>839</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" t="s">
+        <v>813</v>
+      </c>
+      <c r="M175" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B176" t="s">
-        <v>581</v>
+        <v>814</v>
       </c>
       <c r="M176" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>119</v>
-      </c>
-      <c r="B177" t="s">
-        <v>582</v>
-      </c>
-      <c r="M177" t="s">
-        <v>255</v>
+        <v>837</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M178" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>119</v>
+      </c>
+      <c r="B179" t="s">
+        <v>581</v>
+      </c>
+      <c r="M179" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M180" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>122</v>
-      </c>
-      <c r="B181" t="s">
-        <v>798</v>
-      </c>
-      <c r="M181" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B182" t="s">
-        <v>799</v>
+        <v>583</v>
       </c>
       <c r="M182" t="s">
-        <v>742</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M183" t="s">
-        <v>746</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B184" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="M184" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B185" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="M185" t="s">
-        <v>753</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186" t="s">
+        <v>778</v>
+      </c>
+      <c r="M186" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>909</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>907</v>
+        <v>815</v>
       </c>
       <c r="M187" t="s">
-        <v>906</v>
+        <v>751</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>134</v>
+        <v>907</v>
       </c>
       <c r="B189" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="M189" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>135</v>
-      </c>
-      <c r="B190" t="s">
-        <v>585</v>
-      </c>
-      <c r="M190" t="s">
-        <v>757</v>
+        <v>904</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B191" t="s">
-        <v>586</v>
+        <v>799</v>
       </c>
       <c r="M191" t="s">
-        <v>259</v>
+        <v>754</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B192" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M192" t="s">
-        <v>260</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>136</v>
+      </c>
+      <c r="B193" t="s">
+        <v>585</v>
+      </c>
+      <c r="M193" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>963</v>
+        <v>137</v>
       </c>
       <c r="B194" t="s">
-        <v>966</v>
+        <v>586</v>
       </c>
       <c r="M194" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>964</v>
-      </c>
-      <c r="B195" t="s">
-        <v>967</v>
-      </c>
-      <c r="M195" t="s">
-        <v>969</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B196" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M196" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>706</v>
+        <v>962</v>
       </c>
       <c r="B197" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="M197" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>708</v>
+        <v>963</v>
       </c>
       <c r="B198" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="M198" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B199" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="M199" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B200" t="s">
-        <v>705</v>
+        <v>969</v>
       </c>
       <c r="M200" t="s">
-        <v>710</v>
+        <v>972</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>978</v>
+        <v>706</v>
       </c>
       <c r="B201" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="M201" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>981</v>
+        <v>708</v>
       </c>
       <c r="B202" t="s">
-        <v>982</v>
+        <v>704</v>
       </c>
       <c r="M202" t="s">
-        <v>983</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>974</v>
+      </c>
+      <c r="B203" t="s">
+        <v>975</v>
+      </c>
+      <c r="M203" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>977</v>
+      </c>
+      <c r="B204" t="s">
+        <v>978</v>
+      </c>
+      <c r="M204" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>261</v>
       </c>
-      <c r="B204" t="s">
-        <v>588</v>
-      </c>
-      <c r="M204" t="s">
+      <c r="B206" t="s">
+        <v>587</v>
+      </c>
+      <c r="M206" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>262</v>
-      </c>
-      <c r="B205" t="s">
-        <v>589</v>
-      </c>
-      <c r="M205" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B207" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M207" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>266</v>
-      </c>
-      <c r="B208" t="s">
-        <v>591</v>
-      </c>
-      <c r="M208" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B209" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M209" t="s">
-        <v>269</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>266</v>
+      </c>
+      <c r="B210" t="s">
+        <v>590</v>
+      </c>
+      <c r="M210" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B211" t="s">
-        <v>271</v>
+        <v>591</v>
       </c>
       <c r="M211" t="s">
-        <v>755</v>
+        <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B213" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="M213" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>273</v>
-      </c>
-      <c r="B214" t="s">
-        <v>593</v>
-      </c>
-      <c r="M214" t="s">
-        <v>274</v>
+        <v>753</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="M215" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>273</v>
+      </c>
+      <c r="B216" t="s">
+        <v>592</v>
+      </c>
+      <c r="M216" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B217" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="M217" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>277</v>
-      </c>
-      <c r="B218" t="s">
-        <v>594</v>
-      </c>
-      <c r="M218" t="s">
-        <v>758</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B219" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="M219" t="s">
-        <v>758</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>277</v>
+      </c>
+      <c r="B220" t="s">
+        <v>593</v>
+      </c>
+      <c r="M220" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B221" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="M221" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>280</v>
-      </c>
-      <c r="B222" t="s">
-        <v>595</v>
-      </c>
-      <c r="M222" t="s">
-        <v>281</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B223" t="s">
-        <v>643</v>
+        <v>554</v>
       </c>
       <c r="M223" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>280</v>
+      </c>
+      <c r="B224" t="s">
+        <v>594</v>
+      </c>
+      <c r="M224" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B225" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="M225" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>284</v>
-      </c>
-      <c r="B226" t="s">
-        <v>596</v>
-      </c>
-      <c r="M226" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B227" t="s">
-        <v>644</v>
+        <v>555</v>
       </c>
       <c r="M227" t="s">
-        <v>287</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>284</v>
+      </c>
+      <c r="B228" t="s">
+        <v>595</v>
+      </c>
+      <c r="M228" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="M229" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>289</v>
-      </c>
-      <c r="B230" t="s">
-        <v>597</v>
-      </c>
-      <c r="M230" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B231" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="M231" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>289</v>
+      </c>
+      <c r="B232" t="s">
+        <v>596</v>
+      </c>
+      <c r="M232" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B233" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M233" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>294</v>
-      </c>
-      <c r="B234" t="s">
-        <v>599</v>
-      </c>
-      <c r="M234" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B235" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M235" t="s">
-        <v>295</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>293</v>
+      </c>
+      <c r="B236" t="s">
+        <v>598</v>
+      </c>
+      <c r="M236" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B237" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M237" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>299</v>
-      </c>
-      <c r="B238" t="s">
-        <v>601</v>
-      </c>
-      <c r="M238" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B239" t="s">
         <v>599</v>
       </c>
       <c r="M239" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>298</v>
+      </c>
+      <c r="B240" t="s">
+        <v>600</v>
+      </c>
+      <c r="M240" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B241" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M241" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>304</v>
-      </c>
-      <c r="B242" t="s">
-        <v>603</v>
-      </c>
-      <c r="M242" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B243" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="M243" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>303</v>
+      </c>
+      <c r="B244" t="s">
+        <v>602</v>
+      </c>
+      <c r="M244" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B245" t="s">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="M245" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>309</v>
-      </c>
-      <c r="B246" t="s">
-        <v>604</v>
-      </c>
-      <c r="M246" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
+        <v>525</v>
       </c>
       <c r="M247" t="s">
-        <v>312</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>308</v>
+      </c>
+      <c r="B248" t="s">
+        <v>603</v>
+      </c>
+      <c r="M248" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B249" t="s">
-        <v>528</v>
+        <v>645</v>
       </c>
       <c r="M249" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>314</v>
-      </c>
-      <c r="B250" t="s">
-        <v>605</v>
-      </c>
-      <c r="M250" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B251" t="s">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="M251" t="s">
-        <v>315</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>313</v>
+      </c>
+      <c r="B252" t="s">
+        <v>604</v>
+      </c>
+      <c r="M252" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B253" t="s">
-        <v>530</v>
+        <v>646</v>
       </c>
       <c r="M253" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>318</v>
-      </c>
-      <c r="B254" t="s">
-        <v>606</v>
-      </c>
-      <c r="M254" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B255" t="s">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="M255" t="s">
-        <v>319</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>317</v>
+      </c>
+      <c r="B256" t="s">
+        <v>605</v>
+      </c>
+      <c r="M256" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B257" t="s">
-        <v>531</v>
+        <v>647</v>
       </c>
       <c r="M257" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>322</v>
-      </c>
-      <c r="B258" t="s">
-        <v>607</v>
-      </c>
-      <c r="M258" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B259" t="s">
-        <v>649</v>
+        <v>530</v>
       </c>
       <c r="M259" t="s">
-        <v>323</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>321</v>
+      </c>
+      <c r="B260" t="s">
+        <v>606</v>
+      </c>
+      <c r="M260" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B261" t="s">
-        <v>532</v>
+        <v>648</v>
       </c>
       <c r="M261" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>326</v>
-      </c>
-      <c r="B262" t="s">
-        <v>608</v>
-      </c>
-      <c r="M262" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B263" t="s">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="M263" t="s">
-        <v>329</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>325</v>
+      </c>
+      <c r="B264" t="s">
+        <v>607</v>
+      </c>
+      <c r="M264" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B265" t="s">
-        <v>533</v>
+        <v>649</v>
       </c>
       <c r="M265" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>331</v>
-      </c>
-      <c r="B266" t="s">
-        <v>609</v>
-      </c>
-      <c r="M266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B267" t="s">
-        <v>651</v>
+        <v>532</v>
       </c>
       <c r="M267" t="s">
-        <v>307</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>330</v>
+      </c>
+      <c r="B268" t="s">
+        <v>608</v>
+      </c>
+      <c r="M268" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B269" t="s">
-        <v>534</v>
+        <v>650</v>
       </c>
       <c r="M269" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>335</v>
-      </c>
-      <c r="B270" t="s">
-        <v>610</v>
-      </c>
-      <c r="M270" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B271" t="s">
-        <v>652</v>
+        <v>533</v>
       </c>
       <c r="M271" t="s">
-        <v>336</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>334</v>
+      </c>
+      <c r="B272" t="s">
+        <v>609</v>
+      </c>
+      <c r="M272" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B273" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="M273" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>339</v>
-      </c>
-      <c r="B274" t="s">
-        <v>611</v>
-      </c>
-      <c r="M274" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B275" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="M275" t="s">
-        <v>340</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>338</v>
+      </c>
+      <c r="B276" t="s">
+        <v>610</v>
+      </c>
+      <c r="M276" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B277" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="M277" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>343</v>
-      </c>
-      <c r="B278" t="s">
-        <v>612</v>
-      </c>
-      <c r="M278" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B279" t="s">
-        <v>653</v>
+        <v>557</v>
       </c>
       <c r="M279" t="s">
-        <v>346</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>342</v>
+      </c>
+      <c r="B280" t="s">
+        <v>611</v>
+      </c>
+      <c r="M280" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
       <c r="M281" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>348</v>
-      </c>
-      <c r="B282" t="s">
-        <v>613</v>
-      </c>
-      <c r="M282" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B283" t="s">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="M283" t="s">
-        <v>351</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>347</v>
+      </c>
+      <c r="B284" t="s">
+        <v>612</v>
+      </c>
+      <c r="M284" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="M285" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>353</v>
-      </c>
-      <c r="B286" t="s">
-        <v>614</v>
-      </c>
-      <c r="M286" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B287" t="s">
-        <v>655</v>
+        <v>564</v>
       </c>
       <c r="M287" t="s">
-        <v>356</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>352</v>
+      </c>
+      <c r="B288" t="s">
+        <v>613</v>
+      </c>
+      <c r="M288" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B289" t="s">
-        <v>553</v>
+        <v>654</v>
       </c>
       <c r="M289" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>358</v>
-      </c>
-      <c r="B290" t="s">
-        <v>615</v>
-      </c>
-      <c r="M290" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B291" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="M291" t="s">
-        <v>359</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>357</v>
+      </c>
+      <c r="B292" t="s">
+        <v>614</v>
+      </c>
+      <c r="M292" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B293" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="M293" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>362</v>
-      </c>
-      <c r="B294" t="s">
-        <v>616</v>
-      </c>
-      <c r="M294" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B295" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
       <c r="M295" t="s">
-        <v>365</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>361</v>
+      </c>
+      <c r="B296" t="s">
+        <v>615</v>
+      </c>
+      <c r="M296" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B297" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="M297" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>367</v>
-      </c>
-      <c r="B298" t="s">
-        <v>617</v>
-      </c>
-      <c r="M298" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B299" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M299" t="s">
-        <v>368</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>366</v>
+      </c>
+      <c r="B300" t="s">
+        <v>616</v>
+      </c>
+      <c r="M300" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B301" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="M301" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>371</v>
-      </c>
-      <c r="B302" t="s">
-        <v>618</v>
-      </c>
-      <c r="M302" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B303" t="s">
-        <v>657</v>
+        <v>571</v>
       </c>
       <c r="M303" t="s">
-        <v>374</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>370</v>
+      </c>
+      <c r="B304" t="s">
+        <v>617</v>
+      </c>
+      <c r="M304" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B305" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="M305" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>377</v>
-      </c>
-      <c r="B306" t="s">
-        <v>620</v>
-      </c>
-      <c r="M306" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B307" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M307" t="s">
-        <v>380</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>376</v>
+      </c>
+      <c r="B308" t="s">
+        <v>619</v>
+      </c>
+      <c r="M308" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B309" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M309" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>383</v>
-      </c>
-      <c r="B310" t="s">
-        <v>620</v>
-      </c>
-      <c r="M310" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B311" t="s">
         <v>621</v>
       </c>
       <c r="M311" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>382</v>
+      </c>
+      <c r="B312" t="s">
+        <v>619</v>
+      </c>
+      <c r="M312" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B313" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="M313" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>386</v>
-      </c>
-      <c r="B314" t="s">
-        <v>623</v>
-      </c>
-      <c r="M314" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B315" t="s">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="M315" t="s">
-        <v>389</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>385</v>
+      </c>
+      <c r="B316" t="s">
+        <v>622</v>
+      </c>
+      <c r="M316" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B317" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="M317" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>391</v>
-      </c>
-      <c r="B318" t="s">
-        <v>624</v>
-      </c>
-      <c r="M318" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B319" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="M319" t="s">
-        <v>394</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>390</v>
+      </c>
+      <c r="B320" t="s">
+        <v>623</v>
+      </c>
+      <c r="M320" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B321" t="s">
-        <v>548</v>
+        <v>658</v>
       </c>
       <c r="M321" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>396</v>
-      </c>
-      <c r="B322" t="s">
-        <v>625</v>
-      </c>
-      <c r="M322" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B323" t="s">
-        <v>660</v>
+        <v>547</v>
       </c>
       <c r="M323" t="s">
-        <v>397</v>
+        <v>207</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="B324" t="s">
-        <v>937</v>
+        <v>624</v>
       </c>
       <c r="M324" t="s">
-        <v>455</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>397</v>
+      </c>
+      <c r="B325" t="s">
+        <v>659</v>
+      </c>
+      <c r="M325" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="B326" t="s">
-        <v>626</v>
+        <v>935</v>
       </c>
       <c r="M326" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>401</v>
-      </c>
-      <c r="B327" t="s">
-        <v>627</v>
-      </c>
-      <c r="M327" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B328" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M328" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>400</v>
+      </c>
+      <c r="B329" t="s">
+        <v>626</v>
+      </c>
+      <c r="M329" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B330" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="M330" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>405</v>
-      </c>
-      <c r="B331" t="s">
-        <v>628</v>
-      </c>
-      <c r="M331" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>661</v>
+        <v>577</v>
       </c>
       <c r="M332" t="s">
-        <v>408</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>404</v>
+      </c>
+      <c r="B333" t="s">
+        <v>627</v>
+      </c>
+      <c r="M333" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B334" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="M334" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>411</v>
-      </c>
-      <c r="B335" t="s">
-        <v>629</v>
-      </c>
-      <c r="M335" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B336" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="M336" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>410</v>
+      </c>
+      <c r="B337" t="s">
+        <v>628</v>
+      </c>
+      <c r="M337" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B338" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="M338" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>416</v>
-      </c>
-      <c r="B339" t="s">
-        <v>630</v>
-      </c>
-      <c r="M339" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B340" t="s">
-        <v>630</v>
+        <v>546</v>
       </c>
       <c r="M340" t="s">
-        <v>417</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>415</v>
+      </c>
+      <c r="B341" t="s">
+        <v>629</v>
+      </c>
+      <c r="M341" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B342" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M342" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>421</v>
-      </c>
-      <c r="B343" t="s">
-        <v>632</v>
-      </c>
-      <c r="M343" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B344" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M344" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>420</v>
+      </c>
+      <c r="B345" t="s">
+        <v>631</v>
+      </c>
+      <c r="M345" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B346" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M346" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>426</v>
-      </c>
-      <c r="B347" t="s">
-        <v>632</v>
-      </c>
-      <c r="M347" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B348" t="s">
         <v>632</v>
       </c>
       <c r="M348" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>425</v>
+      </c>
+      <c r="B349" t="s">
+        <v>631</v>
+      </c>
+      <c r="M349" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B350" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="M350" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>429</v>
-      </c>
-      <c r="B351" t="s">
-        <v>634</v>
-      </c>
-      <c r="M351" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B352" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="M352" t="s">
-        <v>430</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>428</v>
+      </c>
+      <c r="B353" t="s">
+        <v>633</v>
+      </c>
+      <c r="M353" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B354" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="M354" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>433</v>
-      </c>
-      <c r="B355" t="s">
-        <v>635</v>
-      </c>
-      <c r="M355" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B356" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="M356" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>432</v>
+      </c>
+      <c r="B357" t="s">
+        <v>634</v>
+      </c>
+      <c r="M357" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B358" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M358" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>439</v>
-      </c>
-      <c r="B359" t="s">
-        <v>638</v>
-      </c>
-      <c r="M359" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B360" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M360" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>438</v>
+      </c>
+      <c r="B361" t="s">
+        <v>637</v>
+      </c>
+      <c r="M361" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B362" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M362" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>443</v>
-      </c>
-      <c r="B363" t="s">
-        <v>640</v>
-      </c>
-      <c r="M363" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B364" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M364" t="s">
-        <v>444</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>442</v>
+      </c>
+      <c r="B365" t="s">
+        <v>639</v>
+      </c>
+      <c r="M365" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B366" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M366" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>447</v>
-      </c>
-      <c r="B367" t="s">
-        <v>642</v>
-      </c>
-      <c r="M367" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B368" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M368" t="s">
-        <v>448</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>446</v>
+      </c>
+      <c r="B369" t="s">
+        <v>641</v>
+      </c>
+      <c r="M369" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B370" t="s">
-        <v>169</v>
+        <v>641</v>
       </c>
       <c r="M370" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>451</v>
-      </c>
-      <c r="B371" t="s">
-        <v>452</v>
-      </c>
-      <c r="M371" t="s">
-        <v>716</v>
+        <v>447</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B372" t="s">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="M372" t="s">
-        <v>716</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>450</v>
+      </c>
+      <c r="B373" t="s">
+        <v>451</v>
+      </c>
+      <c r="M373" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B374" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M374" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>455</v>
+      </c>
+      <c r="B376" t="s">
         <v>457</v>
       </c>
-      <c r="B375" t="s">
-        <v>459</v>
-      </c>
-      <c r="M375" t="s">
-        <v>459</v>
+      <c r="M376" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>902</v>
+        <v>456</v>
       </c>
       <c r="B377" t="s">
-        <v>907</v>
+        <v>458</v>
       </c>
       <c r="M377" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>903</v>
-      </c>
-      <c r="B378" t="s">
-        <v>908</v>
-      </c>
-      <c r="M378" t="s">
-        <v>905</v>
+        <v>458</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>900</v>
+      </c>
+      <c r="B379" t="s">
+        <v>905</v>
+      </c>
+      <c r="M379" t="s">
         <v>904</v>
       </c>
-      <c r="B379" t="s">
-        <v>908</v>
-      </c>
-      <c r="M379" t="s">
-        <v>905</v>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>901</v>
+      </c>
+      <c r="B380" t="s">
+        <v>906</v>
+      </c>
+      <c r="M380" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>465</v>
+        <v>902</v>
       </c>
       <c r="B381" t="s">
-        <v>662</v>
+        <v>906</v>
       </c>
       <c r="M381" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>466</v>
-      </c>
-      <c r="B382" t="s">
-        <v>663</v>
-      </c>
-      <c r="M382" t="s">
-        <v>461</v>
+        <v>903</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B383" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M383" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B384" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M384" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B385" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M385" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>467</v>
+      </c>
+      <c r="B386" t="s">
+        <v>664</v>
+      </c>
+      <c r="M386" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B387" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>821</v>
-      </c>
-      <c r="B388" t="s">
-        <v>823</v>
-      </c>
-      <c r="M388" t="s">
-        <v>825</v>
+        <v>665</v>
+      </c>
+      <c r="M387" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>822</v>
+        <v>475</v>
       </c>
       <c r="B389" t="s">
-        <v>824</v>
-      </c>
-      <c r="M389" t="s">
-        <v>826</v>
+        <v>469</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>481</v>
+        <v>819</v>
       </c>
       <c r="B390" t="s">
-        <v>506</v>
+        <v>821</v>
       </c>
       <c r="M390" t="s">
-        <v>471</v>
+        <v>823</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>477</v>
+        <v>820</v>
       </c>
       <c r="B391" t="s">
-        <v>507</v>
+        <v>822</v>
       </c>
       <c r="M391" t="s">
-        <v>472</v>
+        <v>824</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B392" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M392" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B393" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M393" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B394" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M394" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>910</v>
+        <v>478</v>
       </c>
       <c r="B395" t="s">
-        <v>917</v>
+        <v>508</v>
       </c>
       <c r="M395" t="s">
-        <v>924</v>
+        <v>473</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>911</v>
+        <v>479</v>
       </c>
       <c r="B396" t="s">
-        <v>918</v>
+        <v>509</v>
       </c>
       <c r="M396" t="s">
-        <v>925</v>
+        <v>474</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B397" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="M397" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B398" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="M398" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B399" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="M399" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B400" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M400" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B401" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="M401" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="B402" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="M402" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="B403" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="M403" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>482</v>
+        <v>929</v>
       </c>
       <c r="B404" t="s">
-        <v>511</v>
+        <v>930</v>
       </c>
       <c r="M404" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>483</v>
+        <v>934</v>
       </c>
       <c r="B405" t="s">
-        <v>487</v>
+        <v>932</v>
       </c>
       <c r="M405" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>484</v>
-      </c>
-      <c r="B406" t="s">
-        <v>486</v>
-      </c>
-      <c r="M406" t="s">
-        <v>505</v>
+        <v>933</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>943</v>
+        <v>481</v>
       </c>
       <c r="B407" t="s">
-        <v>944</v>
+        <v>510</v>
       </c>
       <c r="M407" t="s">
-        <v>945</v>
+        <v>817</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>946</v>
+        <v>482</v>
       </c>
       <c r="B408" t="s">
-        <v>947</v>
+        <v>486</v>
       </c>
       <c r="M408" t="s">
-        <v>948</v>
+        <v>503</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>949</v>
+        <v>483</v>
       </c>
       <c r="B409" t="s">
-        <v>950</v>
+        <v>485</v>
       </c>
       <c r="M409" t="s">
-        <v>951</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>485</v>
+        <v>941</v>
       </c>
       <c r="B410" t="s">
-        <v>820</v>
+        <v>942</v>
       </c>
       <c r="M410" t="s">
-        <v>715</v>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>944</v>
+      </c>
+      <c r="B411" t="s">
+        <v>945</v>
+      </c>
+      <c r="M411" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>492</v>
+        <v>947</v>
       </c>
       <c r="B412" t="s">
-        <v>667</v>
+        <v>948</v>
       </c>
       <c r="M412" t="s">
-        <v>488</v>
+        <v>949</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>493</v>
+        <v>1068</v>
       </c>
       <c r="B413" t="s">
-        <v>668</v>
+        <v>1069</v>
       </c>
       <c r="M413" t="s">
-        <v>489</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B414" t="s">
-        <v>669</v>
+        <v>818</v>
       </c>
       <c r="M414" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>495</v>
-      </c>
-      <c r="B415" t="s">
-        <v>670</v>
-      </c>
-      <c r="M415" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>491</v>
+      </c>
+      <c r="B416" t="s">
+        <v>666</v>
+      </c>
+      <c r="M416" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B417" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="M417" t="s">
-        <v>699</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>493</v>
+      </c>
+      <c r="B418" t="s">
+        <v>668</v>
+      </c>
+      <c r="M418" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>671</v>
+        <v>494</v>
       </c>
       <c r="B419" t="s">
-        <v>497</v>
+        <v>669</v>
       </c>
       <c r="M419" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>672</v>
-      </c>
-      <c r="B420" t="s">
-        <v>498</v>
-      </c>
-      <c r="M420" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>673</v>
+        <v>495</v>
       </c>
       <c r="B421" t="s">
-        <v>499</v>
+        <v>697</v>
       </c>
       <c r="M421" t="s">
-        <v>502</v>
+        <v>698</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>503</v>
+        <v>670</v>
       </c>
       <c r="B423" t="s">
-        <v>700</v>
+        <v>496</v>
       </c>
       <c r="M423" t="s">
-        <v>712</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>671</v>
+      </c>
+      <c r="B424" t="s">
+        <v>497</v>
+      </c>
+      <c r="M424" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>701</v>
-      </c>
-      <c r="B425" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B425" t="s">
+        <v>498</v>
+      </c>
+      <c r="M425" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>502</v>
+      </c>
+      <c r="B427" t="s">
+        <v>699</v>
+      </c>
+      <c r="M427" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>700</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
+      <c r="G429" s="1"/>
+      <c r="H429" s="1"/>
+      <c r="I429" s="1"/>
+      <c r="J429" s="1"/>
+      <c r="K429" s="1"/>
+      <c r="L429" s="1"/>
+      <c r="M429" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="C425" s="1"/>
-      <c r="D425" s="1"/>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-      <c r="H425" s="1"/>
-      <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>702</v>
-      </c>
-      <c r="B426" t="s">
-        <v>704</v>
-      </c>
-      <c r="M426" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>717</v>
-      </c>
-      <c r="B428" t="s">
-        <v>718</v>
-      </c>
-      <c r="M428" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="B430" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="M430" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>722</v>
-      </c>
-      <c r="B431" t="s">
-        <v>727</v>
-      </c>
-      <c r="M431" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B432" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="M432" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>724</v>
-      </c>
-      <c r="B433" t="s">
-        <v>729</v>
-      </c>
-      <c r="M433" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B434" t="s">
-        <v>288</v>
+        <v>720</v>
       </c>
       <c r="M434" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>721</v>
+      </c>
+      <c r="B435" t="s">
         <v>726</v>
-      </c>
-      <c r="B435" t="s">
-        <v>730</v>
       </c>
       <c r="M435" t="s">
         <v>733</v>
       </c>
     </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>722</v>
+      </c>
+      <c r="B436" t="s">
+        <v>727</v>
+      </c>
+      <c r="M436" t="s">
+        <v>730</v>
+      </c>
+    </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>828</v>
+        <v>723</v>
       </c>
       <c r="B437" t="s">
-        <v>829</v>
+        <v>728</v>
       </c>
       <c r="M437" t="s">
-        <v>831</v>
+        <v>734</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>960</v>
+        <v>724</v>
       </c>
       <c r="B438" t="s">
-        <v>961</v>
+        <v>288</v>
       </c>
       <c r="M438" t="s">
-        <v>962</v>
+        <v>731</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>832</v>
+        <v>725</v>
       </c>
       <c r="B439" t="s">
-        <v>830</v>
+        <v>729</v>
       </c>
       <c r="M439" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>835</v>
-      </c>
-      <c r="B440" t="s">
-        <v>830</v>
-      </c>
-      <c r="M440" t="s">
-        <v>836</v>
+        <v>732</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="B441" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="M441" t="s">
-        <v>833</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>958</v>
+      </c>
+      <c r="B442" t="s">
+        <v>959</v>
+      </c>
+      <c r="M442" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>841</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="C443" s="3"/>
-      <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
-      <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-      <c r="J443" s="3"/>
-      <c r="K443" s="3"/>
-      <c r="L443" s="3"/>
-      <c r="M443" s="2" t="s">
-        <v>847</v>
+        <v>830</v>
+      </c>
+      <c r="B443" t="s">
+        <v>828</v>
+      </c>
+      <c r="M443" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>843</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C444" s="3"/>
-      <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
-      <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
-      <c r="J444" s="3"/>
-      <c r="K444" s="3"/>
-      <c r="L444" s="3"/>
-      <c r="M444" s="2" t="s">
-        <v>842</v>
+        <v>833</v>
+      </c>
+      <c r="B444" t="s">
+        <v>828</v>
+      </c>
+      <c r="M444" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>835</v>
+      </c>
+      <c r="B445" t="s">
+        <v>831</v>
+      </c>
+      <c r="M445" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>839</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+      <c r="I447" s="3"/>
+      <c r="J447" s="3"/>
+      <c r="K447" s="3"/>
+      <c r="L447" s="3"/>
+      <c r="M447" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>841</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="3"/>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="I448" s="3"/>
+      <c r="J448" s="3"/>
+      <c r="K448" s="3"/>
+      <c r="L448" s="3"/>
+      <c r="M448" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>842</v>
+      </c>
+      <c r="B449" t="s">
         <v>844</v>
       </c>
-      <c r="B445" t="s">
-        <v>846</v>
-      </c>
-      <c r="M445" t="s">
-        <v>845</v>
+      <c r="M449" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -7255,6 +7633,403 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>983</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>984</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>985</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>986</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>987</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>988</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>989</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>990</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>991</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>992</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>993</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>994</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>995</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>996</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>997</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>998</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>999</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -7319,218 +8094,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B16" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B21" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B24" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B26" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-Madmate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234D29A-BC98-41A3-B1F6-7FAAFA11AFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2134643F-2051-47BC-8C11-0C6295247EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="6630" windowWidth="21870" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2400" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1114">
   <si>
     <t>presetSelection</t>
   </si>
@@ -422,9 +429,6 @@
     <t>gmDiesAtStart</t>
   </si>
   <si>
-    <t>gmHideSettings</t>
-  </si>
-  <si>
     <t>gmCanWarp</t>
   </si>
   <si>
@@ -1022,9 +1026,6 @@
     <t>cleanerIntroDesc</t>
   </si>
   <si>
-    <t>見つからないようにみんなを呪い殺そう</t>
-  </si>
-  <si>
     <t>cleanerShortDesc</t>
   </si>
   <si>
@@ -1781,9 +1782,6 @@
     <t>Madmate</t>
   </si>
   <si>
-    <t>Block Skipping In Emergency Meetings</t>
-  </si>
-  <si>
     <t>No Vote Is Self Vote</t>
   </si>
   <si>
@@ -2321,9 +2319,6 @@
     <t>Can Kill/Revive Players</t>
   </si>
   <si>
-    <t>Hide Settings From Other Players</t>
-  </si>
-  <si>
     <t>Dies At Start Of Game</t>
   </si>
   <si>
@@ -2424,9 +2419,6 @@
   </si>
   <si>
     <t>Has Impostor Vision</t>
-  </si>
-  <si>
-    <t>Number Of Meetings (excluding Mayor Meeting)</t>
   </si>
   <si>
     <t>Morph Cooldown</t>
@@ -2845,9 +2837,6 @@
   </si>
   <si>
     <t>他プレイヤーを殺害・蘇生できる</t>
-  </si>
-  <si>
-    <t>他プレイヤーに設定を隠せる</t>
   </si>
   <si>
     <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;, Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
@@ -3306,9 +3295,6 @@
     <t>camouflagerRandomColors</t>
   </si>
   <si>
-    <t>Random Colors</t>
-  </si>
-  <si>
     <t>色がランダム</t>
   </si>
   <si>
@@ -3328,6 +3314,310 @@
   </si>
   <si>
     <t>出現可能な役職のみ表示</t>
+  </si>
+  <si>
+    <t>Randomize Colors</t>
+  </si>
+  <si>
+    <t>クルーを殺して死体を隠そう</t>
+  </si>
+  <si>
+    <t>hideSettings</t>
+  </si>
+  <si>
+    <t>特殊設定を隠す</t>
+  </si>
+  <si>
+    <t>Hide Special Settings</t>
+  </si>
+  <si>
+    <t>The Cleaner is an Impostor who has the ability to clean up dead bodies.</t>
+  </si>
+  <si>
+    <t>The Eraser is an Impostor that can erase the role of every player.
+The targeted players will lose their role after the meeting right before a player is exiled.
+After every erase, the cooldown increases by 10 seconds.
+The erase will be performed, even if the Eraser or their target die before the next meeting.
+By default the Eraser can erase everyone but the Spy and other Impostors. Depending on the options
+you can also erase them (Impostors will lose their special Impostor ability).</t>
+  </si>
+  <si>
+    <t>The Morphling is an Impostor which can additionally scan the appearance of a player. After an arbitrary time they can take on that appearance.</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.
+The Mafioso is an Impostor who cannot kill nor sabotage until the Godfather is dead.</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.
+The Godfather works like a normal Impostor.</t>
+  </si>
+  <si>
+    <t>A regular Crewmate.</t>
+  </si>
+  <si>
+    <t>A regular Impostor.</t>
+  </si>
+  <si>
+    <t>The Madmate is a Crewmate that works to support the Impostors.</t>
+  </si>
+  <si>
+    <t>The Sheriff has the ability to kill Impostors.
+If they try to kill a Crewmate, they die instead.</t>
+  </si>
+  <si>
+    <t>The Seer has two abilities (one can activate one of them or both in the options).
+The Seer sees the souls of players that died a round earlier, the souls slowy fade away.
+The Seer gets a blue flash on their screen, if a player dies somewhere on the map.</t>
+  </si>
+  <si>
+    <t>There are always two Lovers which are linked together.
+Their primary goal is it to stay alive together until the end of the game.
+If one Lover dies (and the option is activated), the other Lover suicides.
+You can select if Lovers are able to have a second role (could be a Neutral, Crewmate or
+Impostor Role).
+You can specify the chance of one Lover being an Impostor.
+The Lovers never know the role of their partner, they only see who their partner is.
+The Lovers win if they are both alive when the game ends. 
+If there is no killer among the Lovers (e.g. an Arsonist Lover + Crewmate Lover) and they
+are both alive when the game ends, they can win together with the Crewmates.</t>
+  </si>
+  <si>
+    <t>The Jester does not have any tasks.
+They win the game as a solo if they get voted out during a meeting.</t>
+  </si>
+  <si>
+    <t>The Mayor leads the Crewmates by having a vote that counts twice.
+The Mayor can always use their meeting, even if the maximum number of meetings
+was reached.</t>
+  </si>
+  <si>
+    <t>The Engineer (if alive) can fix one sabotage per game from anywhere on the map.
+The Engineer can use vents. If the Engineer is inside a vent, the Impostors will see a
+blue outline around all vents on the map (in order to warn them).
+Because of the vents the Engineer might not be able to start some tasks using the
+"Use" button, you can double click on the tasks instead.</t>
+  </si>
+  <si>
+    <t>The Lighter can turn on their Lighter every now and then,
+which increases their vision by a customizable amount.</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.
+The Janitor is an Impostor who cannot kill nor sabotage,
+but they can hide dead bodies instead.</t>
+  </si>
+  <si>
+    <t>The Camouflager is an Impostor which can additionally activate a camouflage mode.
+While it is active, all player names/pets/hats are hidden and all players have the
+same color.</t>
+  </si>
+  <si>
+    <t>The Vampire is an Impostor, that can bite other player. Bitten players die after a
+configurable amount of time.
+If the Vampire spawn chance is greater 0 (even if there is no Vampire in the game),
+all players can place one garlic.
+If a victim is near a garlic, the "Bite Button" turns into the default "Kill Button"
+and the Vampire can only perform a normal kill.</t>
+  </si>
+  <si>
+    <t>The Trickster is an Impostor that can place 3 jack-in-the-boxes that are invisible at first
+to other players.
+If the Trickster has placed all of their boxes they will be converted into a vent network
+usable only by the Trickster themselves, but the boxes are revealed to the others.
+If the boxes are converted to a vent network, the Trickster gains a new ability
+"Lights out" to limit the visibility of Non-Impostors, that cannot be fixed by other
+players. Lights are automatically restored after a while.</t>
+  </si>
+  <si>
+    <t>The Warlock is an Impostor, that can curse another player (the cursed player doesn't
+get notified).
+If the cursed person stands next to another player, the Warlock is able to kill that player
+(no matter how far away they are).
+Performing a kill with the help of a cursed player, will lift the curse and it will result in
+the Warlock being unable to move for a configurable amount of time.
+The Warlock can still perform normal kills, but the two buttons share the same
+cooldown.</t>
+  </si>
+  <si>
+    <t>The Bounty Hunter is an Impostor, that continuously get bounties (the targeted player
+doesn't get notified).
+The target of the Bounty Hunter swaps after every meeting and after a configuarble
+amount of time.
+If the Bounty Hunter kills their target, their kill cooldown will be a lot less than usual.
+Killing a player that's not their current target results in an increased kill cooldown.
+Depending on the options, there'll be an arrow pointing towards the current target.</t>
+  </si>
+  <si>
+    <t>The Detective can see footprints that other players leave behind.
+The Detective's other feature shows when they report a corpse: they recieve clues
+about the killer's identity. The type of information they get is based on the time it took
+them to find the corpse.</t>
+  </si>
+  <si>
+    <t>The Time Master has a time shield which they can activate.
+The time shield remains active for a configurable amount of time.
+If a player tries to kill the Time Master while the time shield is active,
+the kill won't happen and the time will rewind for a set amount of time.
+The kill cooldown of the killer won't be reset, so the Time Master
+has to make sure that the game won't result in the same situation.
+The Time Master won't be affected by the rewind.</t>
+  </si>
+  <si>
+    <t>The Medic can shield (highlighted by an outline around the player) one player per game,
+which makes the player unkillable.
+The shielded player can still be voted out and might also be an Impostor.
+If set in the options, the shielded player will get a red flash on their screen if someone
+(Impostor, Sheriff, ...) tried to murder them.
+If the Medic dies, the shield disappears with them.
+The Sheriff will not die if they try to kill a shielded Crewmate and won't perform a kill
+if they try to kill a shielded Impostor.
+The Medic's other feature shows when they report a corpse: they will see how long ago
+the player died.</t>
+  </si>
+  <si>
+    <t>The Shifter can take over the role of another Crewmate, the other player will transform
+into a Crewmate.
+The Shift will always be performed at the end of the next meeting right before a player
+is exiled. The target needs to be chosen during the round.
+Even if the Shifter or the target dies before the meeting, the Shift will still be
+performed.
+Swapping roles with an Impostor or Neutral fails and the Shifter commits suicide after
+the next meeting (there won't be any body).
+The Shifter aims to save roles from leaving the game, by e.g. taking over a Sheriff or
+Medic that is known to the Impostors.
+This works especially well against the Eraser, but also gives the Eraser the possiblity to
+act like a Shifter.</t>
+  </si>
+  <si>
+    <t>During meetings the Swapper can exchange votes that two people get
+(i.e. all votes that player A got will be given to player B and vice versa).
+Because of the Swappers strength in meetings, they might not start emergency
+meetings and can't fix lights and comms.</t>
+  </si>
+  <si>
+    <t>If the Hacker activates the "Hacker mode", the Hacker gets more information than
+others from the admin table and vitals for a set duration.
+Otherwise they see the same information as everyone else.
+Admin table: The Hacker can see the colors (or color types) of the players on the table.
+Vitals: The Hacker can see how long dead players have been dead for.</t>
+  </si>
+  <si>
+    <t>The Mini can be a Crewmate (67% chance) or an Impostor (33% chance).
+The Mini's character is smaller and hence visible to everyone in the game.
+The Mini cannot be killed until it turns 18 years old, however it can be voted out.
+The Crewmate Mini aims to play out the strength its invincibility in the early game.
+If it gets thrown out of the ship before it turns 18, everyone loses.
+So think twice before you vote out a Mini.</t>
+  </si>
+  <si>
+    <t>The Mini can be a Crewmate (67% chance) or an Impostor (33% chance).
+The Mini's character is smaller and hence visible to everyone in the game.
+The Mini cannot be killed until it turns 18 years old, however it can be voted out.
+While growing up the kill cooldown is doubled. When it's fully grown up its kill
+cooldown is 2/3 of the default one.
+If it gets thrown out of the ship, everything is fine.</t>
+  </si>
+  <si>
+    <t>The Tracker can select one player to track.
+Depending on the options the Tracker can track a different person after each meeting
+or the Tracker tracks the same person for the whole game.
+An arrow points to the last tracked position of the player.
+The arrow updates it's position every few seconds (configurable).</t>
+  </si>
+  <si>
+    <t>When the Snitch finishes all the tasks, arrows will appear (only visible to the Snitch)
+that point to the Impostors (depending on the options also to members of team Jackal).
+When the Snitch has one task left (configurable) the Snitch will be revealed to the
+Impostors (depending on the options also to members of team Jackal) with an arrow
+pointing to the Snitch.</t>
+  </si>
+  <si>
+    <t>The Jackal is part of an extra team, that tries to eliminate all the other players.
+The Jackal has no tasks and can kill Impostors, Crewmates and Neutrals.
+The Jackal (if allowed by the options) can select another player to be their Sidekick.
+Creating a Sidekick removes all tasks of the Sidekick and adds them to the team Jackal. The Sidekick loses their current role (except if they're a Lover, then they play
+in two teams).
+The "Create Sidekick Action" may only be used once per Jackal or once per game
+(depending on the options).
+The Jackal can also promote Impostors to be their Sidekick, but depending on the
+options the Impostor will either really turn into the Sidekick and leave the team
+Impostors or they will just look like the Sidekick to the Jackal an remain as they were.</t>
+  </si>
+  <si>
+    <t>Gets assigned to a player during the game by the "Create Sidekick Action" of the Jackal
+and joins the Jackal in their quest to eliminate all other players.
+Upon the death of the Jackal (depending on the options), they might get promoted to
+Jackal themselves and potentially even assign a Sidekick of their own.</t>
+  </si>
+  <si>
+    <t>The Spy is a Crewmate, which has no special abilities.
+The Spy looks like an additional Impostor to the Impostors, they can't tell the
+difference.
+There are two possibilities (depending on the set options):
+- The Impostors can't kill the Spy (because otherwise their kill button would reveal
+who the Spy is)
+- The Impostors can kill the Spy but they can also kill their Impostor partner (if they
+mistake another Impostor for the Spy)
+You can set whether the Sheriff can kill the Spy or not (in order to keep the lie alive).</t>
+  </si>
+  <si>
+    <t>The Security Guard is a Crewmate that has a certain amount of screws that they can use
+for either sealing vents or for placing new cameras.
+Placing a new camera and sealing vents takes a configurable amount of screws.
+The total number of screws that a Security Guard has can also be configured.
+The new camera will be visible after the next meeting and accessible by everyone.
+The vents will be sealed after the next meeting, players can't enter or exit sealed vents,
+but they can still "move to them" underground.
+NOTE:
+- Tickster boxes can't be sealed
+- The Security Guard can't place Cameras on MiraHQ
+- The remaining number of screws can be seen above their special button
+- On Skeld the four cameras will be replaced every 3 seconds
+(with the next four cameras). You can also navigate manually using the arrow keys.</t>
+  </si>
+  <si>
+    <t>The Arsonist does not have any tasks, they have to win the game solo.
+The Arsonist can douse other players by pressing the douse button and remaining
+next to the player for a few seconds.
+If the player that the Arsonist douses walks out of range, the cooldown will reset to 0.
+After dousing everyone alive the Arsonist can ignite all the players which results in
+an Arsonist win.</t>
+  </si>
+  <si>
+    <t>The Guesser can be a Crewmate or an Impostor (depending on the settings).
+The Guesser can shoot a player during the meeting, by guessing its role.
+If the guess is wrong, the Guesser dies instead.
+You can select how many players can be shot per meeting and how many players can
+be shot per game.
+The guesses Impostor and Crewmate are only right, if the player is part of the
+corresponding team and has no special role.
+You can only shoot during the voting time.</t>
+  </si>
+  <si>
+    <t>The Bait is a Crewmate that if killed, forces the killer to self report the body
+(you can configure a delay in the options).
+Additionally, the Bait can see if someone is inside a vent
+(depending on the options the exact vent gets an outline or all vents do).</t>
+  </si>
+  <si>
+    <t>The GM (Game Master) is an observer role.
+Their presence has no effect on the game itself, and all players know who the GM is
+at all times. The GM cannot be targeted by other players, cannot fix sabotages,
+and cannot vote or be voted for. They are a completely external presence,
+provided with a range of tools at their disposal to efficiently observe the flow of
+the game.</t>
+  </si>
+  <si>
+    <t>The Opportunist is a outsider role. So long as they are alive at the end of the game,
+they win alongside the victorious team. They can choose to side with any team they
+wish to ensure their own survival.</t>
+  </si>
+  <si>
+    <t>Total Meetings (excluding Mayor's)</t>
+  </si>
+  <si>
+    <t>Block Skipping in Meetings</t>
   </si>
 </sst>
 </file>
@@ -3651,10 +3941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q449"/>
+  <dimension ref="A1:Q450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,107 +3954,107 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>150</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3772,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3783,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3794,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3805,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3816,10 +4106,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3827,10 +4117,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3838,10 +4128,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3849,10 +4139,10 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3860,10 +4150,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="M16" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3871,43 +4161,32 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M17" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M18" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M19" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s">
-        <v>764</v>
-      </c>
-      <c r="M20" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3915,10 +4194,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="M21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3926,10 +4205,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,10 +4216,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3948,10 +4227,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3959,10 +4238,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="M28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3970,10 +4249,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3981,10 +4260,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3992,10 +4271,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="M32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4003,21 +4282,21 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B34" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M34" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4025,10 +4304,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4036,10 +4315,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M37" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4047,10 +4326,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4058,10 +4337,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="M39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4069,10 +4348,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4080,10 +4359,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="M42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4091,10 +4370,10 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4102,10 +4381,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4113,10 +4392,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="M46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4124,10 +4403,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="M47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4135,10 +4414,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4146,10 +4425,10 @@
         <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4157,10 +4436,10 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4168,10 +4447,10 @@
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -4179,10 +4458,10 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="M54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4190,10 +4469,10 @@
         <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,10 +4480,10 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4212,10 +4491,10 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,10 +4502,10 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4234,10 +4513,10 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4245,10 +4524,10 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4256,10 +4535,10 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4267,10 +4546,10 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4278,10 +4557,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4289,10 +4568,10 @@
         <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4300,10 +4579,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M69" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4311,10 +4590,10 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M70" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4322,10 +4601,10 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M71" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4333,21 +4612,21 @@
         <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M72" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B73" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="M73" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4355,10 +4634,10 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="M74" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4366,10 +4645,10 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4377,10 +4656,10 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M77" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4388,21 +4667,21 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B79" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="M79" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4410,10 +4689,10 @@
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4421,10 +4700,10 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M82" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4432,10 +4711,10 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M83" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4443,10 +4722,10 @@
         <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4454,10 +4733,10 @@
         <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4465,10 +4744,10 @@
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4476,10 +4755,10 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4487,10 +4766,10 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M90" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4498,10 +4777,10 @@
         <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="M91" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4509,10 +4788,10 @@
         <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M92" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4520,10 +4799,10 @@
         <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="M93" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4531,10 +4810,10 @@
         <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M94" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4542,10 +4821,10 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4553,10 +4832,10 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,10 +4843,10 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4575,10 +4854,10 @@
         <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M98" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4586,10 +4865,10 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M99" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,10 +4876,10 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4608,10 +4887,10 @@
         <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4619,10 +4898,10 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4630,10 +4909,10 @@
         <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4641,10 +4920,10 @@
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4652,10 +4931,10 @@
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M109" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4663,10 +4942,10 @@
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4674,21 +4953,21 @@
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="M111" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B112" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="M112" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -4696,10 +4975,10 @@
         <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,10 +4986,10 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -4718,10 +4997,10 @@
         <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="M116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -4729,10 +5008,10 @@
         <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -4740,10 +5019,10 @@
         <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="M118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,10 +5030,10 @@
         <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -4762,10 +5041,10 @@
         <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -4773,10 +5052,10 @@
         <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -4784,10 +5063,10 @@
         <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -4795,10 +5074,10 @@
         <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M124" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -4806,10 +5085,10 @@
         <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M125" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -4817,10 +5096,10 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -4828,10 +5107,10 @@
         <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -4839,10 +5118,10 @@
         <v>77</v>
       </c>
       <c r="B129" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -4850,10 +5129,10 @@
         <v>78</v>
       </c>
       <c r="B130" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="M130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -4861,54 +5140,54 @@
         <v>79</v>
       </c>
       <c r="B132" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B133" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="M133" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B135" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M135" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B136" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="M136" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4916,10 +5195,10 @@
         <v>80</v>
       </c>
       <c r="B137" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -4927,10 +5206,10 @@
         <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M138" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -4938,10 +5217,10 @@
         <v>82</v>
       </c>
       <c r="B140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M140" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -4949,10 +5228,10 @@
         <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M141" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -4960,10 +5239,10 @@
         <v>84</v>
       </c>
       <c r="B142" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M142" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,54 +5250,54 @@
         <v>85</v>
       </c>
       <c r="B144" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B145" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M145" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B146" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>679</v>
+      </c>
+      <c r="B147" t="s">
+        <v>683</v>
+      </c>
+      <c r="M147" t="s">
         <v>682</v>
-      </c>
-      <c r="B147" t="s">
-        <v>686</v>
-      </c>
-      <c r="M147" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B148" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="M148" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -5026,10 +5305,10 @@
         <v>87</v>
       </c>
       <c r="B149" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -5037,15 +5316,15 @@
         <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -5053,10 +5332,10 @@
         <v>88</v>
       </c>
       <c r="B152" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -5064,10 +5343,10 @@
         <v>89</v>
       </c>
       <c r="B153" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="M153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -5075,10 +5354,10 @@
         <v>90</v>
       </c>
       <c r="B154" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -5086,10 +5365,10 @@
         <v>91</v>
       </c>
       <c r="B155" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M155" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -5097,10 +5376,10 @@
         <v>92</v>
       </c>
       <c r="B157" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -5108,10 +5387,10 @@
         <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -5119,10 +5398,10 @@
         <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M159" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -5130,10 +5409,10 @@
         <v>95</v>
       </c>
       <c r="B161" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M161" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -5141,10 +5420,10 @@
         <v>96</v>
       </c>
       <c r="B162" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -5152,10 +5431,10 @@
         <v>97</v>
       </c>
       <c r="B163" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,10 +5442,10 @@
         <v>98</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M164" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -5174,10 +5453,10 @@
         <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -5185,10 +5464,10 @@
         <v>100</v>
       </c>
       <c r="B167" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -5196,10 +5475,10 @@
         <v>101</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -5207,10 +5486,10 @@
         <v>102</v>
       </c>
       <c r="B169" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M169" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -5218,10 +5497,10 @@
         <v>103</v>
       </c>
       <c r="B170" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M170" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -5229,10 +5508,10 @@
         <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M172" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -5240,10 +5519,10 @@
         <v>114</v>
       </c>
       <c r="B173" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="M173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -5251,10 +5530,10 @@
         <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="M174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -5262,10 +5541,10 @@
         <v>116</v>
       </c>
       <c r="B175" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="M175" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -5273,10 +5552,10 @@
         <v>117</v>
       </c>
       <c r="B176" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="M176" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -5284,10 +5563,10 @@
         <v>118</v>
       </c>
       <c r="B178" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M178" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -5295,10 +5574,10 @@
         <v>119</v>
       </c>
       <c r="B179" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M179" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -5306,10 +5585,10 @@
         <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -5317,10 +5596,10 @@
         <v>121</v>
       </c>
       <c r="B182" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M182" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -5328,10 +5607,10 @@
         <v>122</v>
       </c>
       <c r="B183" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -5339,10 +5618,10 @@
         <v>123</v>
       </c>
       <c r="B184" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M184" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,10 +5629,10 @@
         <v>124</v>
       </c>
       <c r="B185" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M185" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -5361,10 +5640,10 @@
         <v>125</v>
       </c>
       <c r="B186" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M186" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -5372,2115 +5651,2115 @@
         <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="M187" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B189" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="M189" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B191" t="s">
-        <v>799</v>
+        <v>1112</v>
       </c>
       <c r="M191" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B192" t="s">
-        <v>584</v>
+        <v>1113</v>
       </c>
       <c r="M192" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B193" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M193" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B194" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M194" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>961</v>
-      </c>
-      <c r="B196" t="s">
-        <v>964</v>
-      </c>
-      <c r="M196" t="s">
-        <v>967</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M195" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B197" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="M197" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B198" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="M198" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>705</v>
+        <v>957</v>
       </c>
       <c r="B199" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="M199" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B200" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="M200" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B201" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="M201" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B202" t="s">
-        <v>704</v>
+        <v>964</v>
       </c>
       <c r="M202" t="s">
-        <v>709</v>
+        <v>967</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>974</v>
+        <v>705</v>
       </c>
       <c r="B203" t="s">
-        <v>975</v>
+        <v>701</v>
       </c>
       <c r="M203" t="s">
-        <v>976</v>
+        <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B204" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="M204" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>261</v>
-      </c>
-      <c r="B206" t="s">
-        <v>587</v>
-      </c>
-      <c r="M206" t="s">
-        <v>263</v>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>971</v>
+      </c>
+      <c r="B205" t="s">
+        <v>972</v>
+      </c>
+      <c r="M205" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>260</v>
+      </c>
+      <c r="B207" t="s">
+        <v>584</v>
+      </c>
+      <c r="M207" t="s">
         <v>262</v>
       </c>
-      <c r="B207" t="s">
-        <v>588</v>
-      </c>
-      <c r="M207" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>265</v>
-      </c>
-      <c r="B209" t="s">
-        <v>589</v>
-      </c>
-      <c r="M209" t="s">
-        <v>695</v>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" t="s">
+        <v>585</v>
+      </c>
+      <c r="M208" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B210" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M210" t="s">
-        <v>268</v>
+        <v>692</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" t="s">
+        <v>587</v>
+      </c>
+      <c r="M211" t="s">
         <v>267</v>
       </c>
-      <c r="B211" t="s">
-        <v>591</v>
-      </c>
-      <c r="M211" t="s">
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+      <c r="B212" t="s">
+        <v>588</v>
+      </c>
+      <c r="M212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B214" t="s">
         <v>270</v>
       </c>
-      <c r="B213" t="s">
-        <v>271</v>
-      </c>
-      <c r="M213" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>272</v>
-      </c>
-      <c r="B215" t="s">
-        <v>545</v>
-      </c>
-      <c r="M215" t="s">
-        <v>203</v>
+      <c r="M214" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B216" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="M216" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M217" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>276</v>
-      </c>
-      <c r="B219" t="s">
-        <v>553</v>
-      </c>
-      <c r="M219" t="s">
-        <v>213</v>
+      <c r="B218" t="s">
+        <v>589</v>
+      </c>
+      <c r="M218" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="M220" t="s">
-        <v>756</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B221" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M221" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>279</v>
-      </c>
-      <c r="B223" t="s">
-        <v>554</v>
-      </c>
-      <c r="M223" t="s">
-        <v>214</v>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" t="s">
+        <v>590</v>
+      </c>
+      <c r="M222" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B224" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="M224" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="M225" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>283</v>
-      </c>
-      <c r="B227" t="s">
-        <v>555</v>
-      </c>
-      <c r="M227" t="s">
-        <v>215</v>
+      <c r="B226" t="s">
+        <v>639</v>
+      </c>
+      <c r="M226" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B228" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="M228" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>283</v>
+      </c>
+      <c r="B229" t="s">
+        <v>592</v>
+      </c>
+      <c r="M229" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>285</v>
+      </c>
+      <c r="B230" t="s">
+        <v>640</v>
+      </c>
+      <c r="M230" t="s">
         <v>286</v>
-      </c>
-      <c r="B229" t="s">
-        <v>643</v>
-      </c>
-      <c r="M229" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>288</v>
-      </c>
-      <c r="B231" t="s">
-        <v>556</v>
-      </c>
-      <c r="M231" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B232" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="M232" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M233" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>292</v>
-      </c>
-      <c r="B235" t="s">
-        <v>597</v>
-      </c>
-      <c r="M235" t="s">
-        <v>1034</v>
+      <c r="B234" t="s">
+        <v>593</v>
+      </c>
+      <c r="M234" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B236" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M236" t="s">
-        <v>294</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B237" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M237" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>296</v>
-      </c>
-      <c r="B239" t="s">
-        <v>599</v>
-      </c>
-      <c r="M239" t="s">
-        <v>297</v>
+      <c r="B238" t="s">
+        <v>595</v>
+      </c>
+      <c r="M238" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B240" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M240" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B241" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M241" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>301</v>
-      </c>
-      <c r="B243" t="s">
-        <v>601</v>
-      </c>
-      <c r="M243" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>299</v>
+      </c>
+      <c r="B242" t="s">
+        <v>595</v>
+      </c>
+      <c r="M242" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B244" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M244" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>302</v>
+      </c>
+      <c r="B245" t="s">
+        <v>599</v>
+      </c>
+      <c r="M245" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>304</v>
+      </c>
+      <c r="B246" t="s">
+        <v>641</v>
+      </c>
+      <c r="M246" t="s">
         <v>305</v>
-      </c>
-      <c r="B245" t="s">
-        <v>644</v>
-      </c>
-      <c r="M245" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>307</v>
-      </c>
-      <c r="B247" t="s">
-        <v>525</v>
-      </c>
-      <c r="M247" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B248" t="s">
-        <v>603</v>
+        <v>523</v>
       </c>
       <c r="M248" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>307</v>
+      </c>
+      <c r="B249" t="s">
+        <v>600</v>
+      </c>
+      <c r="M249" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>309</v>
+      </c>
+      <c r="B250" t="s">
+        <v>642</v>
+      </c>
+      <c r="M250" t="s">
         <v>310</v>
-      </c>
-      <c r="B249" t="s">
-        <v>645</v>
-      </c>
-      <c r="M249" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>312</v>
-      </c>
-      <c r="B251" t="s">
-        <v>527</v>
-      </c>
-      <c r="M251" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B252" t="s">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="M252" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B253" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="M253" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>316</v>
-      </c>
-      <c r="B255" t="s">
-        <v>529</v>
-      </c>
-      <c r="M255" t="s">
-        <v>178</v>
+      <c r="B254" t="s">
+        <v>643</v>
+      </c>
+      <c r="M254" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B256" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="M256" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B257" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="M257" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>320</v>
-      </c>
-      <c r="B259" t="s">
-        <v>530</v>
-      </c>
-      <c r="M259" t="s">
-        <v>181</v>
+      <c r="B258" t="s">
+        <v>644</v>
+      </c>
+      <c r="M258" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B260" t="s">
-        <v>606</v>
+        <v>528</v>
       </c>
       <c r="M260" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B261" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="M261" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>324</v>
-      </c>
-      <c r="B263" t="s">
-        <v>531</v>
-      </c>
-      <c r="M263" t="s">
-        <v>184</v>
+      <c r="B262" t="s">
+        <v>645</v>
+      </c>
+      <c r="M262" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B264" t="s">
-        <v>607</v>
+        <v>529</v>
       </c>
       <c r="M264" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>324</v>
+      </c>
+      <c r="B265" t="s">
+        <v>604</v>
+      </c>
+      <c r="M265" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>326</v>
+      </c>
+      <c r="B266" t="s">
+        <v>646</v>
+      </c>
+      <c r="M266" t="s">
         <v>327</v>
-      </c>
-      <c r="B265" t="s">
-        <v>649</v>
-      </c>
-      <c r="M265" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>329</v>
-      </c>
-      <c r="B267" t="s">
-        <v>532</v>
-      </c>
-      <c r="M267" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B268" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="M268" t="s">
-        <v>331</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B269" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="M269" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>333</v>
-      </c>
-      <c r="B271" t="s">
-        <v>533</v>
-      </c>
-      <c r="M271" t="s">
-        <v>189</v>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>330</v>
+      </c>
+      <c r="B270" t="s">
+        <v>647</v>
+      </c>
+      <c r="M270" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B272" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="M272" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B273" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="M273" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>337</v>
-      </c>
-      <c r="B275" t="s">
-        <v>534</v>
-      </c>
-      <c r="M275" t="s">
-        <v>192</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>334</v>
+      </c>
+      <c r="B274" t="s">
+        <v>648</v>
+      </c>
+      <c r="M274" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B276" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="M276" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B277" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M277" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>341</v>
-      </c>
-      <c r="B279" t="s">
-        <v>557</v>
-      </c>
-      <c r="M279" t="s">
-        <v>221</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>338</v>
+      </c>
+      <c r="B278" t="s">
+        <v>607</v>
+      </c>
+      <c r="M278" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B280" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="M280" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B281" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="M281" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>346</v>
-      </c>
-      <c r="B283" t="s">
-        <v>562</v>
-      </c>
-      <c r="M283" t="s">
-        <v>225</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>342</v>
+      </c>
+      <c r="B282" t="s">
+        <v>649</v>
+      </c>
+      <c r="M282" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B284" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="M284" t="s">
-        <v>348</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B285" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="M285" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>351</v>
-      </c>
-      <c r="B287" t="s">
-        <v>564</v>
-      </c>
-      <c r="M287" t="s">
-        <v>229</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>347</v>
+      </c>
+      <c r="B286" t="s">
+        <v>650</v>
+      </c>
+      <c r="M286" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B288" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="M288" t="s">
-        <v>353</v>
+        <v>228</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B289" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="M289" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>356</v>
-      </c>
-      <c r="B291" t="s">
-        <v>552</v>
-      </c>
-      <c r="M291" t="s">
-        <v>211</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>352</v>
+      </c>
+      <c r="B290" t="s">
+        <v>651</v>
+      </c>
+      <c r="M290" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B292" t="s">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="M292" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B293" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M293" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>360</v>
-      </c>
-      <c r="B295" t="s">
-        <v>567</v>
-      </c>
-      <c r="M295" t="s">
-        <v>232</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>357</v>
+      </c>
+      <c r="B294" t="s">
+        <v>611</v>
+      </c>
+      <c r="M294" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B296" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="M296" t="s">
-        <v>362</v>
+        <v>231</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B297" t="s">
-        <v>655</v>
+        <v>612</v>
       </c>
       <c r="M297" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>365</v>
-      </c>
-      <c r="B299" t="s">
-        <v>568</v>
-      </c>
-      <c r="M299" t="s">
-        <v>234</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>361</v>
+      </c>
+      <c r="B298" t="s">
+        <v>652</v>
+      </c>
+      <c r="M298" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B300" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="M300" t="s">
-        <v>367</v>
+        <v>233</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B301" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M301" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>369</v>
-      </c>
-      <c r="B303" t="s">
-        <v>571</v>
-      </c>
-      <c r="M303" t="s">
-        <v>238</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>366</v>
+      </c>
+      <c r="B302" t="s">
+        <v>613</v>
+      </c>
+      <c r="M302" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B304" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="M304" t="s">
-        <v>371</v>
+        <v>237</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B305" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="M305" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>374</v>
-      </c>
-      <c r="B307" t="s">
-        <v>618</v>
-      </c>
-      <c r="M307" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>370</v>
+      </c>
+      <c r="B306" t="s">
+        <v>653</v>
+      </c>
+      <c r="M306" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B308" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M308" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B309" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M309" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>380</v>
-      </c>
-      <c r="B311" t="s">
-        <v>621</v>
-      </c>
-      <c r="M311" t="s">
-        <v>381</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>376</v>
+      </c>
+      <c r="B310" t="s">
+        <v>617</v>
+      </c>
+      <c r="M310" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B312" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M312" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B313" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M313" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>384</v>
-      </c>
-      <c r="B315" t="s">
-        <v>572</v>
-      </c>
-      <c r="M315" t="s">
-        <v>241</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>381</v>
+      </c>
+      <c r="B314" t="s">
+        <v>617</v>
+      </c>
+      <c r="M314" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B316" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="M316" t="s">
-        <v>386</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B317" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="M317" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>389</v>
-      </c>
-      <c r="B319" t="s">
-        <v>573</v>
-      </c>
-      <c r="M319" t="s">
-        <v>244</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>385</v>
+      </c>
+      <c r="B318" t="s">
+        <v>654</v>
+      </c>
+      <c r="M318" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B320" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="M320" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B321" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="M321" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>394</v>
-      </c>
-      <c r="B323" t="s">
-        <v>547</v>
-      </c>
-      <c r="M323" t="s">
-        <v>207</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>390</v>
+      </c>
+      <c r="B322" t="s">
+        <v>655</v>
+      </c>
+      <c r="M322" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B324" t="s">
-        <v>624</v>
+        <v>545</v>
       </c>
       <c r="M324" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B325" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="M325" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="B326" t="s">
-        <v>935</v>
+        <v>656</v>
       </c>
       <c r="M326" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>398</v>
-      </c>
-      <c r="B328" t="s">
-        <v>625</v>
-      </c>
-      <c r="M328" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>451</v>
+      </c>
+      <c r="B327" t="s">
+        <v>930</v>
+      </c>
+      <c r="M327" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B329" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M329" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B330" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M330" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>403</v>
-      </c>
-      <c r="B332" t="s">
-        <v>577</v>
-      </c>
-      <c r="M332" t="s">
-        <v>248</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>400</v>
+      </c>
+      <c r="B331" t="s">
+        <v>623</v>
+      </c>
+      <c r="M331" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B333" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="M333" t="s">
-        <v>405</v>
+        <v>247</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B334" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="M334" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>408</v>
-      </c>
-      <c r="B336" t="s">
-        <v>579</v>
-      </c>
-      <c r="M336" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>404</v>
+      </c>
+      <c r="B335" t="s">
+        <v>657</v>
+      </c>
+      <c r="M335" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B337" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="M337" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B338" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M338" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>414</v>
-      </c>
-      <c r="B340" t="s">
-        <v>546</v>
-      </c>
-      <c r="M340" t="s">
-        <v>204</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>410</v>
+      </c>
+      <c r="B339" t="s">
+        <v>625</v>
+      </c>
+      <c r="M339" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B341" t="s">
-        <v>629</v>
+        <v>544</v>
       </c>
       <c r="M341" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B342" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M342" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>418</v>
-      </c>
-      <c r="B344" t="s">
-        <v>630</v>
-      </c>
-      <c r="M344" t="s">
-        <v>419</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>415</v>
+      </c>
+      <c r="B343" t="s">
+        <v>626</v>
+      </c>
+      <c r="M343" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B345" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M345" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B346" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M346" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>423</v>
-      </c>
-      <c r="B348" t="s">
-        <v>632</v>
-      </c>
-      <c r="M348" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>420</v>
+      </c>
+      <c r="B347" t="s">
+        <v>628</v>
+      </c>
+      <c r="M347" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B349" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M349" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B350" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M350" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>427</v>
-      </c>
-      <c r="B352" t="s">
-        <v>580</v>
-      </c>
-      <c r="M352" t="s">
-        <v>254</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>424</v>
+      </c>
+      <c r="B351" t="s">
+        <v>628</v>
+      </c>
+      <c r="M351" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B353" t="s">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="M353" t="s">
-        <v>429</v>
+        <v>253</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B354" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M354" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>431</v>
-      </c>
-      <c r="B356" t="s">
-        <v>583</v>
-      </c>
-      <c r="M356" t="s">
-        <v>257</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>428</v>
+      </c>
+      <c r="B355" t="s">
+        <v>630</v>
+      </c>
+      <c r="M355" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B357" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
       <c r="M357" t="s">
-        <v>433</v>
+        <v>256</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B358" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M358" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>436</v>
-      </c>
-      <c r="B360" t="s">
-        <v>636</v>
-      </c>
-      <c r="M360" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>432</v>
+      </c>
+      <c r="B359" t="s">
+        <v>632</v>
+      </c>
+      <c r="M359" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B361" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M361" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B362" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M362" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>441</v>
-      </c>
-      <c r="B364" t="s">
-        <v>638</v>
-      </c>
-      <c r="M364" t="s">
-        <v>696</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>438</v>
+      </c>
+      <c r="B363" t="s">
+        <v>634</v>
+      </c>
+      <c r="M363" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B365" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M365" t="s">
-        <v>443</v>
+        <v>693</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B366" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M366" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>445</v>
-      </c>
-      <c r="B368" t="s">
-        <v>640</v>
-      </c>
-      <c r="M368" t="s">
-        <v>200</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>442</v>
+      </c>
+      <c r="B367" t="s">
+        <v>636</v>
+      </c>
+      <c r="M367" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B369" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M369" t="s">
-        <v>447</v>
+        <v>199</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B370" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M370" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>449</v>
-      </c>
-      <c r="B372" t="s">
-        <v>169</v>
-      </c>
-      <c r="M372" t="s">
-        <v>169</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>446</v>
+      </c>
+      <c r="B371" t="s">
+        <v>638</v>
+      </c>
+      <c r="M371" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B373" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="M373" t="s">
-        <v>715</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B374" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M374" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>455</v>
-      </c>
-      <c r="B376" t="s">
-        <v>457</v>
-      </c>
-      <c r="M376" t="s">
-        <v>457</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>450</v>
+      </c>
+      <c r="B375" t="s">
+        <v>449</v>
+      </c>
+      <c r="M375" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>453</v>
+      </c>
+      <c r="B377" t="s">
+        <v>455</v>
+      </c>
+      <c r="M377" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>454</v>
+      </c>
+      <c r="B378" t="s">
         <v>456</v>
       </c>
-      <c r="B377" t="s">
-        <v>458</v>
-      </c>
-      <c r="M377" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>900</v>
-      </c>
-      <c r="B379" t="s">
-        <v>905</v>
-      </c>
-      <c r="M379" t="s">
-        <v>904</v>
+      <c r="M378" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B380" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="M380" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B381" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="M381" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>464</v>
-      </c>
-      <c r="B383" t="s">
-        <v>661</v>
-      </c>
-      <c r="M383" t="s">
-        <v>459</v>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>897</v>
+      </c>
+      <c r="B382" t="s">
+        <v>901</v>
+      </c>
+      <c r="M382" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B384" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M384" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B385" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M385" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B386" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M386" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B387" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M387" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>475</v>
-      </c>
-      <c r="B389" t="s">
-        <v>469</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>466</v>
+      </c>
+      <c r="B388" t="s">
+        <v>662</v>
+      </c>
+      <c r="M388" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>819</v>
+        <v>473</v>
       </c>
       <c r="B390" t="s">
-        <v>821</v>
-      </c>
-      <c r="M390" t="s">
-        <v>823</v>
+        <v>467</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B391" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="M391" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>480</v>
+        <v>815</v>
       </c>
       <c r="B392" t="s">
-        <v>505</v>
+        <v>817</v>
       </c>
       <c r="M392" t="s">
-        <v>470</v>
+        <v>819</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B393" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M393" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B394" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M394" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B395" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M395" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B396" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M396" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>908</v>
+        <v>477</v>
       </c>
       <c r="B397" t="s">
-        <v>915</v>
+        <v>507</v>
       </c>
       <c r="M397" t="s">
-        <v>922</v>
+        <v>472</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B398" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="M398" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B399" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="M399" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B400" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="M400" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B401" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="M401" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B402" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="M402" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B403" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="M403" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="B404" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="M404" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B405" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="M405" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>481</v>
-      </c>
-      <c r="B407" t="s">
-        <v>510</v>
-      </c>
-      <c r="M407" t="s">
-        <v>817</v>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>929</v>
+      </c>
+      <c r="B406" t="s">
+        <v>927</v>
+      </c>
+      <c r="M406" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B408" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="M408" t="s">
-        <v>503</v>
+        <v>812</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B409" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M409" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>941</v>
+        <v>481</v>
       </c>
       <c r="B410" t="s">
-        <v>942</v>
+        <v>483</v>
       </c>
       <c r="M410" t="s">
-        <v>943</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B411" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="M411" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B412" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="M412" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1068</v>
+        <v>941</v>
       </c>
       <c r="B413" t="s">
-        <v>1069</v>
+        <v>942</v>
       </c>
       <c r="M413" t="s">
-        <v>1070</v>
+        <v>943</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>484</v>
+        <v>1061</v>
       </c>
       <c r="B414" t="s">
-        <v>818</v>
+        <v>1062</v>
       </c>
       <c r="M414" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>491</v>
-      </c>
-      <c r="B416" t="s">
-        <v>666</v>
-      </c>
-      <c r="M416" t="s">
-        <v>487</v>
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>482</v>
+      </c>
+      <c r="B415" t="s">
+        <v>813</v>
+      </c>
+      <c r="M415" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B417" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="M417" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B418" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="M418" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B419" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M419" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>495</v>
-      </c>
-      <c r="B421" t="s">
-        <v>697</v>
-      </c>
-      <c r="M421" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>670</v>
-      </c>
-      <c r="B423" t="s">
-        <v>496</v>
-      </c>
-      <c r="M423" t="s">
-        <v>500</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>492</v>
+      </c>
+      <c r="B420" t="s">
+        <v>666</v>
+      </c>
+      <c r="M420" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>493</v>
+      </c>
+      <c r="B422" t="s">
+        <v>694</v>
+      </c>
+      <c r="M422" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B424" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M424" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B425" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M425" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>502</v>
-      </c>
-      <c r="B427" t="s">
-        <v>699</v>
-      </c>
-      <c r="M427" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>700</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
-      <c r="H429" s="1"/>
-      <c r="I429" s="1"/>
-      <c r="J429" s="1"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1"/>
-      <c r="M429" s="1" t="s">
-        <v>713</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>669</v>
+      </c>
+      <c r="B426" t="s">
+        <v>496</v>
+      </c>
+      <c r="M426" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>500</v>
+      </c>
+      <c r="B428" t="s">
+        <v>696</v>
+      </c>
+      <c r="M428" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>701</v>
-      </c>
-      <c r="B430" t="s">
-        <v>703</v>
-      </c>
-      <c r="M430" t="s">
+        <v>697</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+      <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+      <c r="H430" s="1"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+      <c r="K430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>716</v>
-      </c>
-      <c r="B432" t="s">
-        <v>717</v>
-      </c>
-      <c r="M432" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>719</v>
-      </c>
-      <c r="B434" t="s">
-        <v>720</v>
-      </c>
-      <c r="M434" t="s">
-        <v>735</v>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>698</v>
+      </c>
+      <c r="B431" t="s">
+        <v>700</v>
+      </c>
+      <c r="M431" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>713</v>
+      </c>
+      <c r="B433" t="s">
+        <v>714</v>
+      </c>
+      <c r="M433" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B435" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M435" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B436" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M436" t="s">
         <v>730</v>
@@ -7488,21 +7767,21 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B437" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M437" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B438" t="s">
-        <v>288</v>
+        <v>725</v>
       </c>
       <c r="M438" t="s">
         <v>731</v>
@@ -7510,97 +7789,87 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B439" t="s">
+        <v>287</v>
+      </c>
+      <c r="M439" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>722</v>
+      </c>
+      <c r="B440" t="s">
+        <v>726</v>
+      </c>
+      <c r="M440" t="s">
         <v>729</v>
-      </c>
-      <c r="M439" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>826</v>
-      </c>
-      <c r="B441" t="s">
-        <v>827</v>
-      </c>
-      <c r="M441" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>958</v>
+        <v>821</v>
       </c>
       <c r="B442" t="s">
-        <v>959</v>
+        <v>822</v>
       </c>
       <c r="M442" t="s">
-        <v>960</v>
+        <v>824</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>830</v>
+        <v>952</v>
       </c>
       <c r="B443" t="s">
-        <v>828</v>
+        <v>953</v>
       </c>
       <c r="M443" t="s">
-        <v>832</v>
+        <v>954</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B444" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="M444" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B445" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="M445" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>839</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C447" s="3"/>
-      <c r="D447" s="3"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
-      <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
-      <c r="J447" s="3"/>
-      <c r="K447" s="3"/>
-      <c r="L447" s="3"/>
-      <c r="M447" s="2" t="s">
-        <v>845</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>830</v>
+      </c>
+      <c r="B446" t="s">
+        <v>826</v>
+      </c>
+      <c r="M446" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -7618,13 +7887,34 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>842</v>
-      </c>
-      <c r="B449" t="s">
-        <v>844</v>
-      </c>
-      <c r="M449" t="s">
-        <v>843</v>
+        <v>836</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="3"/>
+      <c r="F449" s="3"/>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+      <c r="I449" s="3"/>
+      <c r="J449" s="3"/>
+      <c r="K449" s="3"/>
+      <c r="L449" s="3"/>
+      <c r="M449" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>837</v>
+      </c>
+      <c r="B450" t="s">
+        <v>839</v>
+      </c>
+      <c r="M450" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -7636,392 +7926,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" style="4" customWidth="1"/>
     <col min="13" max="13" width="58.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>150</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>982</v>
+        <v>976</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1083</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>983</v>
+        <v>977</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1084</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>978</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>979</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1080</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>980</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1086</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>987</v>
+        <v>981</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>988</v>
+        <v>982</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1075</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>989</v>
+        <v>983</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1087</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>990</v>
+        <v>984</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>991</v>
+        <v>985</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1088</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>992</v>
+        <v>986</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1089</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>993</v>
+        <v>987</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1073</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>994</v>
+        <v>988</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1090</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>995</v>
+        <v>989</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1072</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>996</v>
+        <v>990</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1091</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>997</v>
+        <v>991</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1092</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>992</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>993</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>994</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>995</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>996</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>997</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>998</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>999</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1004</v>
+      <c r="B24" s="4" t="s">
+        <v>1098</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1005</v>
+        <v>999</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1099</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1006</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B32" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>1007</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B33" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>1008</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B34" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>1009</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B35" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>1010</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1016</v>
+      <c r="B36" s="4" t="s">
+        <v>1109</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1017</v>
+        <v>1011</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1079</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1018</v>
+        <v>1012</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1078</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1019</v>
+        <v>1013</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1020</v>
+        <v>1014</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1082</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1021</v>
+        <v>1015</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1110</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1022</v>
+        <v>1016</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1111</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -8044,268 +8458,268 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>150</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B12" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B20" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B21" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B22" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B25" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B27" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B28" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2134643F-2051-47BC-8C11-0C6295247EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4585FC9-E822-4C39-8509-871AB77658D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2400" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="2085" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1179">
   <si>
     <t>presetSelection</t>
   </si>
@@ -3618,6 +3618,209 @@
   </si>
   <si>
     <t>Block Skipping in Meetings</t>
+  </si>
+  <si>
+    <t>vulture</t>
+  </si>
+  <si>
+    <t>vultureIntroDesc</t>
+  </si>
+  <si>
+    <t>vultureShortDesc</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>mediumIntroDesc</t>
+  </si>
+  <si>
+    <t>mediumShortDesc</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>Eat corpses to win</t>
+  </si>
+  <si>
+    <t>Eat dead bodies</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Question the souls</t>
+  </si>
+  <si>
+    <t>vultureCooldown</t>
+  </si>
+  <si>
+    <t>vultureNumberToWin</t>
+  </si>
+  <si>
+    <t>vultureCanUseVents</t>
+  </si>
+  <si>
+    <t>vultureShowArrows</t>
+  </si>
+  <si>
+    <t>mediumCooldown</t>
+  </si>
+  <si>
+    <t>mediumDuration</t>
+  </si>
+  <si>
+    <t>mediumOneTimeUse</t>
+  </si>
+  <si>
+    <t>Questioning Cooldown</t>
+  </si>
+  <si>
+    <t>Questioning Duration</t>
+  </si>
+  <si>
+    <t>Each Soul Can Only Be Questioned Once</t>
+  </si>
+  <si>
+    <t>Eat Cooldown</t>
+  </si>
+  <si>
+    <t>Number Of Corpses Required</t>
+  </si>
+  <si>
+    <t>喰らうクールダウン</t>
+  </si>
+  <si>
+    <t>死体を指す矢印を表示</t>
+  </si>
+  <si>
+    <t>ヴァルチャー</t>
+  </si>
+  <si>
+    <t>死体を喰らおう</t>
+  </si>
+  <si>
+    <t>ミーディアム</t>
+  </si>
+  <si>
+    <t>Question the souls of the dead to gain information</t>
+  </si>
+  <si>
+    <t>霊能力クールダウン</t>
+  </si>
+  <si>
+    <t>霊能力時間</t>
+  </si>
+  <si>
+    <t>1人ずつ1回のみ霊能力を使える</t>
+  </si>
+  <si>
+    <t>会議中、複数回撃てる</t>
+  </si>
+  <si>
+    <t>guesserHasMultipleShotsPerMeeting</t>
+  </si>
+  <si>
+    <t>jackalCanSeeEngineerVent</t>
+  </si>
+  <si>
+    <t>Can See If Engineer Is In A Vent</t>
+  </si>
+  <si>
+    <t>Can Shoot Multiple Times Per Meeting</t>
+  </si>
+  <si>
+    <t>ベント内のエンジニアが見える</t>
+  </si>
+  <si>
+    <t>mediumQuestion1</t>
+  </si>
+  <si>
+    <t>mediumQuestion2</t>
+  </si>
+  <si>
+    <t>mediumQuestion3</t>
+  </si>
+  <si>
+    <t>What is your role? My role is {0}.</t>
+  </si>
+  <si>
+    <t>What is your killer's color type? My killer is a {0} color.</t>
+  </si>
+  <si>
+    <t>mediumQuestion4</t>
+  </si>
+  <si>
+    <t>When did you die? I died {0}s before the meeting started.</t>
+  </si>
+  <si>
+    <t>What is your killer's role? My killer is {0}.</t>
+  </si>
+  <si>
+    <t>「君の役職は何でしょう」『私は{0}です』</t>
+  </si>
+  <si>
+    <t>「君を殺した人の役職は何でしょう」『私を殺した人は{0}です』</t>
+  </si>
+  <si>
+    <t>「君を殺した人はどんな色でしょう」『私を殺した人は{0}色をしていました』</t>
+  </si>
+  <si>
+    <t>必要な死体の数</t>
+  </si>
+  <si>
+    <t>Show Arrows Pointing Towards Corpses</t>
+  </si>
+  <si>
+    <t>幽霊から情報を聞き出そう</t>
+  </si>
+  <si>
+    <t>残り {0}体</t>
+  </si>
+  <si>
+    <t>vultureCorpses</t>
+  </si>
+  <si>
+    <t>vultureWin</t>
+  </si>
+  <si>
+    <t>Vulture Wins</t>
+  </si>
+  <si>
+    <t>Vulture {0} Win</t>
+  </si>
+  <si>
+    <t>ヴァルチャー勝利</t>
+  </si>
+  <si>
+    <t>ヴァルチャー{0}勝利</t>
+  </si>
+  <si>
+    <t>vultureWinExtra</t>
+  </si>
+  <si>
+    <t>「君はいつ死んだんでしょう」『私は会議の{0}秒前に死にました』</t>
+  </si>
+  <si>
+    <t>vultureFullDesc</t>
+  </si>
+  <si>
+    <t>mediumFullDesc</t>
+  </si>
+  <si>
+    <t>The Vulture does not have any tasks, he has to win the game as a solo.
+The Vulture is a neutral role that must eat a specified number of corpses
+(depending on the options) in order to win.
+Depending on the options, when a player dies, the Vulture gets an arrow pointing
+to the corpse.</t>
+  </si>
+  <si>
+    <t>The medium is a crewmate who can ask the souls of dead players for information.
+Like the Seer, it sees the places where the players have died (after the next meeting)
+and can question them. It then gets random information about the soul or the killer
+in the chat. The souls only stay for one round, i.e. until the next meeting.
+Depending on the options, the souls can only be questioned once and then disappear.</t>
   </si>
 </sst>
 </file>
@@ -3941,10 +4144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q450"/>
+  <dimension ref="A1:Q477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="M467" sqref="M467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,3236 +4887,3478 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>543</v>
-      </c>
-      <c r="M81" t="s">
-        <v>202</v>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>773</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s">
-        <v>737</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>773</v>
+      </c>
+      <c r="M83" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>35</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>774</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M84" t="s">
         <v>736</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" t="s">
-        <v>544</v>
-      </c>
-      <c r="M85" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>775</v>
+        <v>544</v>
       </c>
       <c r="M86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>775</v>
+      </c>
+      <c r="M87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>38</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>776</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M88" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" t="s">
-        <v>545</v>
-      </c>
-      <c r="M89" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>777</v>
+        <v>545</v>
       </c>
       <c r="M90" t="s">
-        <v>743</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M91" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M92" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M93" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>546</v>
+        <v>780</v>
       </c>
       <c r="M94" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M95" t="s">
-        <v>207</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>781</v>
+        <v>549</v>
       </c>
       <c r="M98" t="s">
-        <v>741</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>781</v>
+      </c>
+      <c r="M99" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>49</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>794</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M100" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>56</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>550</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M103" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" t="s">
-        <v>782</v>
-      </c>
-      <c r="M102" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>551</v>
+        <v>782</v>
       </c>
       <c r="M104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" t="s">
-        <v>777</v>
-      </c>
-      <c r="M109" t="s">
-        <v>743</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>772</v>
+        <v>553</v>
       </c>
       <c r="M110" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="M111" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>949</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>950</v>
+        <v>772</v>
       </c>
       <c r="M112" t="s">
-        <v>951</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>783</v>
+      </c>
+      <c r="M113" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>64</v>
+        <v>949</v>
       </c>
       <c r="B114" t="s">
-        <v>554</v>
+        <v>950</v>
       </c>
       <c r="M114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>65</v>
-      </c>
-      <c r="B115" t="s">
-        <v>784</v>
-      </c>
-      <c r="M115" t="s">
-        <v>216</v>
+        <v>951</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>785</v>
+        <v>554</v>
       </c>
       <c r="M116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="M117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="M118" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>801</v>
+      </c>
+      <c r="M119" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>555</v>
+        <v>802</v>
       </c>
       <c r="M120" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>70</v>
-      </c>
-      <c r="B121" t="s">
-        <v>556</v>
-      </c>
-      <c r="M121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B122" t="s">
-        <v>699</v>
+        <v>555</v>
       </c>
       <c r="M122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>558</v>
+        <v>699</v>
       </c>
       <c r="M124" t="s">
-        <v>745</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M125" t="s">
-        <v>746</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" t="s">
+        <v>558</v>
+      </c>
+      <c r="M126" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M127" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" t="s">
-        <v>803</v>
-      </c>
-      <c r="M128" t="s">
-        <v>225</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M129" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M130" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" t="s">
+        <v>561</v>
+      </c>
+      <c r="M131" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B132" t="s">
-        <v>562</v>
+        <v>804</v>
       </c>
       <c r="M132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>687</v>
-      </c>
-      <c r="B133" t="s">
-        <v>811</v>
-      </c>
-      <c r="M133" t="s">
-        <v>689</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>673</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
         <v>562</v>
       </c>
       <c r="M134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B135" t="s">
-        <v>686</v>
+        <v>811</v>
       </c>
       <c r="M135" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B136" t="s">
-        <v>685</v>
+        <v>562</v>
       </c>
       <c r="M136" t="s">
-        <v>675</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>676</v>
       </c>
       <c r="B137" t="s">
-        <v>563</v>
+        <v>686</v>
       </c>
       <c r="M137" t="s">
-        <v>230</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>677</v>
       </c>
       <c r="B138" t="s">
-        <v>564</v>
+        <v>685</v>
       </c>
       <c r="M138" t="s">
-        <v>833</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" t="s">
+        <v>563</v>
+      </c>
+      <c r="M139" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M140" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>83</v>
-      </c>
-      <c r="B141" t="s">
-        <v>773</v>
-      </c>
-      <c r="M141" t="s">
-        <v>737</v>
+        <v>833</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B142" t="s">
-        <v>786</v>
+        <v>565</v>
       </c>
       <c r="M142" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" t="s">
+        <v>773</v>
+      </c>
+      <c r="M143" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B144" t="s">
-        <v>566</v>
+        <v>786</v>
       </c>
       <c r="M144" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>688</v>
-      </c>
-      <c r="B145" t="s">
-        <v>756</v>
-      </c>
-      <c r="M145" t="s">
-        <v>747</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>678</v>
+        <v>85</v>
       </c>
       <c r="B146" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B147" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="M147" t="s">
-        <v>682</v>
+        <v>747</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B148" t="s">
-        <v>684</v>
+        <v>567</v>
       </c>
       <c r="M148" t="s">
-        <v>681</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>87</v>
+        <v>679</v>
       </c>
       <c r="B149" t="s">
-        <v>787</v>
+        <v>683</v>
       </c>
       <c r="M149" t="s">
-        <v>235</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>86</v>
+        <v>680</v>
       </c>
       <c r="B150" t="s">
-        <v>788</v>
+        <v>684</v>
       </c>
       <c r="M150" t="s">
-        <v>236</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>87</v>
+      </c>
       <c r="B151" t="s">
-        <v>568</v>
+        <v>787</v>
+      </c>
+      <c r="M151" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>569</v>
+        <v>788</v>
       </c>
       <c r="M152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>89</v>
-      </c>
       <c r="B153" t="s">
-        <v>805</v>
-      </c>
-      <c r="M153" t="s">
-        <v>238</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B154" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
       <c r="M154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B155" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s">
-        <v>1034</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>806</v>
+      </c>
+      <c r="M156" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>570</v>
+        <v>789</v>
       </c>
       <c r="M157" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>93</v>
-      </c>
-      <c r="B158" t="s">
-        <v>790</v>
-      </c>
-      <c r="M158" t="s">
-        <v>241</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>791</v>
+        <v>570</v>
       </c>
       <c r="M159" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" t="s">
+        <v>790</v>
+      </c>
+      <c r="M160" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B161" t="s">
-        <v>571</v>
+        <v>791</v>
       </c>
       <c r="M161" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>96</v>
-      </c>
-      <c r="B162" t="s">
-        <v>572</v>
-      </c>
-      <c r="M162" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B163" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M164" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" t="s">
+        <v>573</v>
+      </c>
+      <c r="M165" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B166" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M166" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>100</v>
-      </c>
-      <c r="B167" t="s">
-        <v>792</v>
-      </c>
-      <c r="M167" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B168" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M168" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B169" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M169" t="s">
-        <v>738</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B170" t="s">
-        <v>794</v>
+        <v>576</v>
       </c>
       <c r="M170" t="s">
-        <v>742</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171" t="s">
+        <v>793</v>
+      </c>
+      <c r="M171" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B172" t="s">
-        <v>577</v>
+        <v>794</v>
       </c>
       <c r="M172" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>114</v>
-      </c>
-      <c r="B173" t="s">
-        <v>755</v>
-      </c>
-      <c r="M173" t="s">
-        <v>251</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B174" t="s">
-        <v>807</v>
+        <v>577</v>
       </c>
       <c r="M174" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B175" t="s">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="M175" t="s">
-        <v>831</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M176" t="s">
-        <v>832</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" t="s">
+        <v>808</v>
+      </c>
+      <c r="M177" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B178" t="s">
-        <v>578</v>
+        <v>809</v>
       </c>
       <c r="M178" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>119</v>
-      </c>
-      <c r="B179" t="s">
-        <v>579</v>
-      </c>
-      <c r="M179" t="s">
-        <v>254</v>
+        <v>832</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B180" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M180" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181" t="s">
+        <v>579</v>
+      </c>
+      <c r="M181" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B182" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M182" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>122</v>
-      </c>
-      <c r="B183" t="s">
-        <v>792</v>
-      </c>
-      <c r="M183" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B184" t="s">
-        <v>793</v>
+        <v>581</v>
       </c>
       <c r="M184" t="s">
-        <v>738</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B185" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M185" t="s">
-        <v>742</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B186" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="M186" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B187" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="M187" t="s">
-        <v>748</v>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>125</v>
+      </c>
+      <c r="B188" t="s">
+        <v>774</v>
+      </c>
+      <c r="M188" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>902</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="M189" t="s">
-        <v>899</v>
+        <v>748</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>133</v>
+        <v>902</v>
       </c>
       <c r="B191" t="s">
-        <v>1112</v>
+        <v>900</v>
       </c>
       <c r="M191" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>134</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M192" t="s">
-        <v>752</v>
+        <v>899</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>135</v>
+        <v>1125</v>
       </c>
       <c r="B193" t="s">
-        <v>582</v>
+        <v>1135</v>
       </c>
       <c r="M193" t="s">
-        <v>258</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>136</v>
+        <v>1126</v>
       </c>
       <c r="B194" t="s">
-        <v>583</v>
+        <v>1136</v>
       </c>
       <c r="M194" t="s">
-        <v>259</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1069</v>
+        <v>1127</v>
       </c>
       <c r="B195" t="s">
-        <v>1071</v>
+        <v>779</v>
       </c>
       <c r="M195" t="s">
-        <v>1070</v>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M196" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>955</v>
+        <v>1167</v>
       </c>
       <c r="B197" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="M197" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>956</v>
-      </c>
-      <c r="B198" t="s">
-        <v>959</v>
-      </c>
-      <c r="M198" t="s">
-        <v>974</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>957</v>
+        <v>1129</v>
       </c>
       <c r="B199" t="s">
-        <v>960</v>
+        <v>1132</v>
       </c>
       <c r="M199" t="s">
-        <v>975</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>702</v>
+        <v>1130</v>
       </c>
       <c r="B200" t="s">
-        <v>962</v>
+        <v>1133</v>
       </c>
       <c r="M200" t="s">
-        <v>965</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>704</v>
+        <v>1131</v>
       </c>
       <c r="B201" t="s">
-        <v>963</v>
+        <v>1134</v>
       </c>
       <c r="M201" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>703</v>
-      </c>
-      <c r="B202" t="s">
-        <v>964</v>
-      </c>
-      <c r="M202" t="s">
-        <v>967</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>705</v>
+        <v>133</v>
       </c>
       <c r="B203" t="s">
-        <v>701</v>
+        <v>1112</v>
       </c>
       <c r="M203" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>968</v>
+        <v>134</v>
       </c>
       <c r="B204" t="s">
-        <v>969</v>
+        <v>1113</v>
       </c>
       <c r="M204" t="s">
-        <v>970</v>
+        <v>752</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>971</v>
+        <v>135</v>
       </c>
       <c r="B205" t="s">
-        <v>972</v>
+        <v>582</v>
       </c>
       <c r="M205" t="s">
-        <v>973</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>136</v>
+      </c>
+      <c r="B206" t="s">
+        <v>583</v>
+      </c>
+      <c r="M206" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>1069</v>
       </c>
       <c r="B207" t="s">
-        <v>584</v>
+        <v>1071</v>
       </c>
       <c r="M207" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>261</v>
-      </c>
-      <c r="B208" t="s">
-        <v>585</v>
-      </c>
-      <c r="M208" t="s">
-        <v>263</v>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>955</v>
+      </c>
+      <c r="B209" t="s">
+        <v>958</v>
+      </c>
+      <c r="M209" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>264</v>
+        <v>956</v>
       </c>
       <c r="B210" t="s">
-        <v>586</v>
+        <v>959</v>
       </c>
       <c r="M210" t="s">
-        <v>692</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>265</v>
+        <v>957</v>
       </c>
       <c r="B211" t="s">
-        <v>587</v>
+        <v>960</v>
       </c>
       <c r="M211" t="s">
-        <v>267</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>266</v>
+        <v>702</v>
       </c>
       <c r="B212" t="s">
-        <v>588</v>
+        <v>962</v>
       </c>
       <c r="M212" t="s">
-        <v>268</v>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>704</v>
+      </c>
+      <c r="B213" t="s">
+        <v>963</v>
+      </c>
+      <c r="M213" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>269</v>
+        <v>703</v>
       </c>
       <c r="B214" t="s">
-        <v>270</v>
+        <v>964</v>
       </c>
       <c r="M214" t="s">
-        <v>750</v>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>705</v>
+      </c>
+      <c r="B215" t="s">
+        <v>701</v>
+      </c>
+      <c r="M215" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>271</v>
+        <v>968</v>
       </c>
       <c r="B216" t="s">
-        <v>543</v>
+        <v>969</v>
       </c>
       <c r="M216" t="s">
-        <v>202</v>
+        <v>970</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>272</v>
+        <v>971</v>
       </c>
       <c r="B217" t="s">
-        <v>589</v>
+        <v>972</v>
       </c>
       <c r="M217" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>274</v>
-      </c>
-      <c r="B218" t="s">
-        <v>589</v>
-      </c>
-      <c r="M218" t="s">
-        <v>273</v>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>260</v>
+      </c>
+      <c r="B219" t="s">
+        <v>584</v>
+      </c>
+      <c r="M219" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B220" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="M220" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>276</v>
-      </c>
-      <c r="B221" t="s">
-        <v>590</v>
-      </c>
-      <c r="M221" t="s">
-        <v>753</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B222" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M222" t="s">
-        <v>753</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223" t="s">
+        <v>587</v>
+      </c>
+      <c r="M223" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B224" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="M224" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>279</v>
-      </c>
-      <c r="B225" t="s">
-        <v>591</v>
-      </c>
-      <c r="M225" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B226" t="s">
-        <v>639</v>
+        <v>270</v>
       </c>
       <c r="M226" t="s">
-        <v>280</v>
+        <v>750</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B228" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M228" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M229" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B230" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="M230" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M232" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B233" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M233" t="s">
-        <v>289</v>
+        <v>753</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B234" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M234" t="s">
-        <v>289</v>
+        <v>753</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B236" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="M236" t="s">
-        <v>1028</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B237" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M237" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B238" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="M238" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B240" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="M240" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B241" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M241" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B242" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="M242" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B244" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="M244" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B245" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M245" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B246" t="s">
-        <v>641</v>
+        <v>593</v>
       </c>
       <c r="M246" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B248" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="M248" t="s">
-        <v>171</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B249" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M249" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B250" t="s">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="M250" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B252" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="M252" t="s">
-        <v>174</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B253" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M253" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B254" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="M254" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B256" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="M256" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B257" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M257" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B258" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M258" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B260" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M260" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B261" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M261" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B262" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M262" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B264" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M264" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B265" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M265" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B266" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M266" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B268" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M268" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B269" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M269" t="s">
-        <v>1068</v>
+        <v>317</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B270" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M270" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B272" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M272" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B273" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M273" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B274" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M274" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B276" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M276" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B277" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M277" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B278" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="M278" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="M280" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B281" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M281" t="s">
-        <v>341</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B282" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M282" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B284" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="M284" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B285" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M285" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B286" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M286" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B288" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="M288" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B289" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M289" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B290" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="M290" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B292" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M292" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B293" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M293" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B294" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="M294" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B296" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M296" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B297" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M297" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B298" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M298" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B300" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M300" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B301" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M301" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B302" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="M302" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B304" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="M304" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B305" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M305" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B306" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="M306" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B308" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="M308" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B309" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M309" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B310" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="M310" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B312" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="M312" t="s">
-        <v>379</v>
+        <v>233</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B313" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M313" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B314" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M314" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B316" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M316" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B317" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M317" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B318" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M318" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B320" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="M320" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B321" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M321" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B322" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="M322" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B324" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="M324" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B325" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="M325" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B326" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="M326" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>451</v>
-      </c>
-      <c r="B327" t="s">
-        <v>930</v>
-      </c>
-      <c r="M327" t="s">
-        <v>452</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>382</v>
+      </c>
+      <c r="B328" t="s">
+        <v>570</v>
+      </c>
+      <c r="M328" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B329" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M329" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B330" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="M330" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>400</v>
-      </c>
-      <c r="B331" t="s">
-        <v>623</v>
-      </c>
-      <c r="M331" t="s">
-        <v>399</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>387</v>
+      </c>
+      <c r="B332" t="s">
+        <v>571</v>
+      </c>
+      <c r="M332" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="M333" t="s">
-        <v>247</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B334" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="M334" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>404</v>
-      </c>
-      <c r="B335" t="s">
-        <v>657</v>
-      </c>
-      <c r="M335" t="s">
-        <v>405</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>392</v>
+      </c>
+      <c r="B336" t="s">
+        <v>545</v>
+      </c>
+      <c r="M336" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B337" t="s">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="M337" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B338" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="M338" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="B339" t="s">
-        <v>625</v>
+        <v>930</v>
       </c>
       <c r="M339" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B341" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="M341" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B342" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M342" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B343" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M343" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B345" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="M345" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B346" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M346" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B347" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="M347" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B349" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="M349" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B350" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M350" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B351" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M351" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B353" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="M353" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B354" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M354" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B355" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M355" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B357" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="M357" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B358" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M358" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B359" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M359" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B361" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M361" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B362" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M362" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B363" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M363" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B365" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="M365" t="s">
-        <v>693</v>
+        <v>253</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B366" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M366" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B367" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M367" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B369" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="M369" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B370" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M370" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B371" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M371" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B373" t="s">
-        <v>168</v>
+        <v>633</v>
       </c>
       <c r="M373" t="s">
-        <v>168</v>
+        <v>435</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B374" t="s">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="M374" t="s">
-        <v>712</v>
+        <v>437</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B375" t="s">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="M375" t="s">
-        <v>712</v>
+        <v>437</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B377" t="s">
-        <v>455</v>
+        <v>635</v>
       </c>
       <c r="M377" t="s">
-        <v>455</v>
+        <v>693</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B378" t="s">
-        <v>456</v>
+        <v>636</v>
       </c>
       <c r="M378" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>895</v>
-      </c>
-      <c r="B380" t="s">
-        <v>900</v>
-      </c>
-      <c r="M380" t="s">
-        <v>899</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>442</v>
+      </c>
+      <c r="B379" t="s">
+        <v>636</v>
+      </c>
+      <c r="M379" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>896</v>
+        <v>443</v>
       </c>
       <c r="B381" t="s">
-        <v>901</v>
+        <v>637</v>
       </c>
       <c r="M381" t="s">
-        <v>898</v>
+        <v>199</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>897</v>
+        <v>444</v>
       </c>
       <c r="B382" t="s">
-        <v>901</v>
+        <v>638</v>
       </c>
       <c r="M382" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>462</v>
-      </c>
-      <c r="B384" t="s">
-        <v>658</v>
-      </c>
-      <c r="M384" t="s">
-        <v>457</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>446</v>
+      </c>
+      <c r="B383" t="s">
+        <v>638</v>
+      </c>
+      <c r="M383" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B385" t="s">
-        <v>659</v>
+        <v>168</v>
       </c>
       <c r="M385" t="s">
-        <v>458</v>
+        <v>168</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B386" t="s">
-        <v>660</v>
+        <v>449</v>
       </c>
       <c r="M386" t="s">
-        <v>459</v>
+        <v>712</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B387" t="s">
-        <v>661</v>
+        <v>449</v>
       </c>
       <c r="M387" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>466</v>
-      </c>
-      <c r="B388" t="s">
-        <v>662</v>
-      </c>
-      <c r="M388" t="s">
-        <v>461</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>453</v>
+      </c>
+      <c r="B389" t="s">
+        <v>455</v>
+      </c>
+      <c r="M389" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B390" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>814</v>
-      </c>
-      <c r="B391" t="s">
-        <v>816</v>
-      </c>
-      <c r="M391" t="s">
-        <v>818</v>
+        <v>456</v>
+      </c>
+      <c r="M390" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>815</v>
+        <v>895</v>
       </c>
       <c r="B392" t="s">
-        <v>817</v>
+        <v>900</v>
       </c>
       <c r="M392" t="s">
-        <v>819</v>
+        <v>899</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>478</v>
+        <v>896</v>
       </c>
       <c r="B393" t="s">
-        <v>503</v>
+        <v>901</v>
       </c>
       <c r="M393" t="s">
-        <v>468</v>
+        <v>898</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>474</v>
+        <v>897</v>
       </c>
       <c r="B394" t="s">
-        <v>504</v>
+        <v>901</v>
       </c>
       <c r="M394" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>475</v>
-      </c>
-      <c r="B395" t="s">
-        <v>505</v>
-      </c>
-      <c r="M395" t="s">
-        <v>470</v>
+        <v>898</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>476</v>
+        <v>1114</v>
       </c>
       <c r="B396" t="s">
-        <v>506</v>
+        <v>1120</v>
       </c>
       <c r="M396" t="s">
-        <v>471</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>477</v>
+        <v>1115</v>
       </c>
       <c r="B397" t="s">
-        <v>507</v>
+        <v>1121</v>
       </c>
       <c r="M397" t="s">
-        <v>472</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>903</v>
+        <v>1116</v>
       </c>
       <c r="B398" t="s">
-        <v>910</v>
+        <v>1122</v>
       </c>
       <c r="M398" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>904</v>
-      </c>
-      <c r="B399" t="s">
-        <v>911</v>
-      </c>
-      <c r="M399" t="s">
-        <v>918</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>905</v>
+        <v>1117</v>
       </c>
       <c r="B400" t="s">
-        <v>912</v>
+        <v>1123</v>
       </c>
       <c r="M400" t="s">
-        <v>919</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>906</v>
+        <v>1118</v>
       </c>
       <c r="B401" t="s">
-        <v>913</v>
+        <v>1142</v>
       </c>
       <c r="M401" t="s">
-        <v>920</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>907</v>
+        <v>1119</v>
       </c>
       <c r="B402" t="s">
-        <v>914</v>
+        <v>1124</v>
       </c>
       <c r="M402" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>908</v>
-      </c>
-      <c r="B403" t="s">
-        <v>915</v>
-      </c>
-      <c r="M403" t="s">
-        <v>922</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>909</v>
+        <v>462</v>
       </c>
       <c r="B404" t="s">
-        <v>916</v>
+        <v>658</v>
       </c>
       <c r="M404" t="s">
-        <v>923</v>
+        <v>457</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>924</v>
+        <v>463</v>
       </c>
       <c r="B405" t="s">
-        <v>925</v>
+        <v>659</v>
       </c>
       <c r="M405" t="s">
-        <v>926</v>
+        <v>458</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>929</v>
+        <v>464</v>
       </c>
       <c r="B406" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="M406" t="s">
-        <v>928</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>465</v>
+      </c>
+      <c r="B407" t="s">
+        <v>661</v>
+      </c>
+      <c r="M407" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B408" t="s">
-        <v>508</v>
+        <v>662</v>
       </c>
       <c r="M408" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>480</v>
-      </c>
-      <c r="B409" t="s">
-        <v>484</v>
-      </c>
-      <c r="M409" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B410" t="s">
-        <v>483</v>
-      </c>
-      <c r="M410" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>935</v>
+        <v>814</v>
       </c>
       <c r="B411" t="s">
-        <v>936</v>
+        <v>816</v>
       </c>
       <c r="M411" t="s">
-        <v>937</v>
+        <v>818</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>938</v>
+        <v>815</v>
       </c>
       <c r="B412" t="s">
-        <v>939</v>
+        <v>817</v>
       </c>
       <c r="M412" t="s">
-        <v>940</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>941</v>
+        <v>478</v>
       </c>
       <c r="B413" t="s">
-        <v>942</v>
+        <v>503</v>
       </c>
       <c r="M413" t="s">
-        <v>943</v>
+        <v>468</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1061</v>
+        <v>474</v>
       </c>
       <c r="B414" t="s">
-        <v>1062</v>
+        <v>504</v>
       </c>
       <c r="M414" t="s">
-        <v>1063</v>
+        <v>469</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B415" t="s">
-        <v>813</v>
+        <v>505</v>
       </c>
       <c r="M415" t="s">
-        <v>711</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>476</v>
+      </c>
+      <c r="B416" t="s">
+        <v>506</v>
+      </c>
+      <c r="M416" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B417" t="s">
-        <v>663</v>
+        <v>507</v>
       </c>
       <c r="M417" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>490</v>
+        <v>1168</v>
       </c>
       <c r="B418" t="s">
-        <v>664</v>
+        <v>1169</v>
       </c>
       <c r="M418" t="s">
-        <v>486</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>491</v>
+        <v>903</v>
       </c>
       <c r="B419" t="s">
-        <v>665</v>
+        <v>910</v>
       </c>
       <c r="M419" t="s">
-        <v>487</v>
+        <v>917</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>492</v>
+        <v>904</v>
       </c>
       <c r="B420" t="s">
-        <v>666</v>
+        <v>911</v>
       </c>
       <c r="M420" t="s">
-        <v>488</v>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>905</v>
+      </c>
+      <c r="B421" t="s">
+        <v>912</v>
+      </c>
+      <c r="M421" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>493</v>
+        <v>906</v>
       </c>
       <c r="B422" t="s">
-        <v>694</v>
+        <v>913</v>
       </c>
       <c r="M422" t="s">
-        <v>695</v>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>907</v>
+      </c>
+      <c r="B423" t="s">
+        <v>914</v>
+      </c>
+      <c r="M423" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>667</v>
+        <v>908</v>
       </c>
       <c r="B424" t="s">
-        <v>494</v>
+        <v>915</v>
       </c>
       <c r="M424" t="s">
-        <v>498</v>
+        <v>922</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>668</v>
+        <v>909</v>
       </c>
       <c r="B425" t="s">
-        <v>495</v>
+        <v>916</v>
       </c>
       <c r="M425" t="s">
-        <v>497</v>
+        <v>923</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>669</v>
+        <v>1173</v>
       </c>
       <c r="B426" t="s">
-        <v>496</v>
+        <v>1170</v>
       </c>
       <c r="M426" t="s">
-        <v>499</v>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>924</v>
+      </c>
+      <c r="B427" t="s">
+        <v>925</v>
+      </c>
+      <c r="M427" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>500</v>
+        <v>929</v>
       </c>
       <c r="B428" t="s">
-        <v>696</v>
+        <v>927</v>
       </c>
       <c r="M428" t="s">
-        <v>708</v>
+        <v>928</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>697</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
-      <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
-      <c r="H430" s="1"/>
-      <c r="I430" s="1"/>
-      <c r="J430" s="1"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1"/>
-      <c r="M430" s="1" t="s">
-        <v>710</v>
+        <v>479</v>
+      </c>
+      <c r="B430" t="s">
+        <v>508</v>
+      </c>
+      <c r="M430" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>698</v>
+        <v>480</v>
       </c>
       <c r="B431" t="s">
-        <v>700</v>
+        <v>484</v>
       </c>
       <c r="M431" t="s">
-        <v>707</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>481</v>
+      </c>
+      <c r="B432" t="s">
+        <v>483</v>
+      </c>
+      <c r="M432" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>713</v>
+        <v>935</v>
       </c>
       <c r="B433" t="s">
-        <v>714</v>
+        <v>936</v>
       </c>
       <c r="M433" t="s">
-        <v>715</v>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>938</v>
+      </c>
+      <c r="B434" t="s">
+        <v>939</v>
+      </c>
+      <c r="M434" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>716</v>
+        <v>941</v>
       </c>
       <c r="B435" t="s">
-        <v>717</v>
+        <v>942</v>
       </c>
       <c r="M435" t="s">
-        <v>732</v>
+        <v>943</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>718</v>
+        <v>1061</v>
       </c>
       <c r="B436" t="s">
-        <v>723</v>
+        <v>1062</v>
       </c>
       <c r="M436" t="s">
-        <v>730</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>719</v>
+        <v>482</v>
       </c>
       <c r="B437" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="M437" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>720</v>
-      </c>
-      <c r="B438" t="s">
-        <v>725</v>
-      </c>
-      <c r="M438" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>721</v>
+        <v>489</v>
       </c>
       <c r="B439" t="s">
-        <v>287</v>
+        <v>663</v>
       </c>
       <c r="M439" t="s">
-        <v>728</v>
+        <v>485</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>722</v>
+        <v>490</v>
       </c>
       <c r="B440" t="s">
-        <v>726</v>
+        <v>664</v>
       </c>
       <c r="M440" t="s">
-        <v>729</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>491</v>
+      </c>
+      <c r="B441" t="s">
+        <v>665</v>
+      </c>
+      <c r="M441" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>821</v>
+        <v>492</v>
       </c>
       <c r="B442" t="s">
-        <v>822</v>
+        <v>666</v>
       </c>
       <c r="M442" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>952</v>
-      </c>
-      <c r="B443" t="s">
-        <v>953</v>
-      </c>
-      <c r="M443" t="s">
-        <v>954</v>
+        <v>488</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>825</v>
+        <v>493</v>
       </c>
       <c r="B444" t="s">
-        <v>823</v>
+        <v>694</v>
       </c>
       <c r="M444" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>828</v>
-      </c>
-      <c r="B445" t="s">
-        <v>823</v>
-      </c>
-      <c r="M445" t="s">
-        <v>829</v>
+        <v>695</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>830</v>
+        <v>667</v>
       </c>
       <c r="B446" t="s">
-        <v>826</v>
+        <v>494</v>
       </c>
       <c r="M446" t="s">
-        <v>826</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>668</v>
+      </c>
+      <c r="B447" t="s">
+        <v>495</v>
+      </c>
+      <c r="M447" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>834</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C448" s="3"/>
-      <c r="D448" s="3"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
-      <c r="J448" s="3"/>
-      <c r="K448" s="3"/>
-      <c r="L448" s="3"/>
-      <c r="M448" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>836</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="C449" s="3"/>
-      <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
-      <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
-      <c r="I449" s="3"/>
-      <c r="J449" s="3"/>
-      <c r="K449" s="3"/>
-      <c r="L449" s="3"/>
-      <c r="M449" s="2" t="s">
-        <v>835</v>
+        <v>669</v>
+      </c>
+      <c r="B448" t="s">
+        <v>496</v>
+      </c>
+      <c r="M448" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>500</v>
+      </c>
+      <c r="B450" t="s">
+        <v>696</v>
+      </c>
+      <c r="M450" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>697</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+      <c r="H452" s="1"/>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+      <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="M452" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>698</v>
+      </c>
+      <c r="B453" t="s">
+        <v>700</v>
+      </c>
+      <c r="M453" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>713</v>
+      </c>
+      <c r="B455" t="s">
+        <v>714</v>
+      </c>
+      <c r="M455" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>716</v>
+      </c>
+      <c r="B457" t="s">
+        <v>717</v>
+      </c>
+      <c r="M457" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>718</v>
+      </c>
+      <c r="B458" t="s">
+        <v>723</v>
+      </c>
+      <c r="M458" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>719</v>
+      </c>
+      <c r="B459" t="s">
+        <v>724</v>
+      </c>
+      <c r="M459" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>720</v>
+      </c>
+      <c r="B460" t="s">
+        <v>725</v>
+      </c>
+      <c r="M460" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>721</v>
+      </c>
+      <c r="B461" t="s">
+        <v>287</v>
+      </c>
+      <c r="M461" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>722</v>
+      </c>
+      <c r="B462" t="s">
+        <v>726</v>
+      </c>
+      <c r="M462" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M464" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M465" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M466" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M467" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>821</v>
+      </c>
+      <c r="B469" t="s">
+        <v>822</v>
+      </c>
+      <c r="M469" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>952</v>
+      </c>
+      <c r="B470" t="s">
+        <v>953</v>
+      </c>
+      <c r="M470" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>825</v>
+      </c>
+      <c r="B471" t="s">
+        <v>823</v>
+      </c>
+      <c r="M471" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>828</v>
+      </c>
+      <c r="B472" t="s">
+        <v>823</v>
+      </c>
+      <c r="M472" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>830</v>
+      </c>
+      <c r="B473" t="s">
+        <v>826</v>
+      </c>
+      <c r="M473" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>834</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="3"/>
+      <c r="F475" s="3"/>
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+      <c r="I475" s="3"/>
+      <c r="J475" s="3"/>
+      <c r="K475" s="3"/>
+      <c r="L475" s="3"/>
+      <c r="M475" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>836</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
+      <c r="K476" s="3"/>
+      <c r="L476" s="3"/>
+      <c r="M476" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>837</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B477" t="s">
         <v>839</v>
       </c>
-      <c r="M450" t="s">
+      <c r="M477" t="s">
         <v>838</v>
       </c>
     </row>
@@ -7924,10 +8369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,7 +8663,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>997</v>
       </c>
@@ -8436,6 +8881,22 @@
       </c>
       <c r="M42" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4585FC9-E822-4C39-8509-871AB77658D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA636D-649A-41D3-913C-E79EAC8D2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2085" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="2610" windowWidth="22515" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1199">
   <si>
     <t>presetSelection</t>
   </si>
@@ -2541,12 +2541,6 @@
     <t>creditsMain</t>
   </si>
   <si>
-    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
-ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
-カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>creditsFull</t>
   </si>
   <si>
@@ -2559,10 +2553,6 @@
     <t>GM Edition v{0}</t>
   </si>
   <si>
-    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
-デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Banner.png</t>
   </si>
   <si>
@@ -2837,16 +2827,6 @@
   </si>
   <si>
     <t>他プレイヤーを殺害・蘇生できる</t>
-  </si>
-  <si>
-    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;, Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
-Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;,
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
-Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
-Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
     <t>roleSummaryExiled</t>
@@ -3178,12 +3158,6 @@
   <si>
     <t>・死体を消せる&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;_x000D_
 ・キルすることも可能だが&lt;color=#ff1919ff&gt;クリーナー&lt;/color&gt;の能力とキルクールは同期している</t>
-  </si>
-  <si>
-    <t>・探偵_x000D_
-・プレイヤーの足跡が見える_x000D_
-・一定時間内に死体を発見すると、犯人についての情報が得られる_x000D_
-・会議に入ったら、チャットで表示される</t>
   </si>
   <si>
     <t>・誰か1人にシールドを貼れる_x000D_
@@ -3698,9 +3672,6 @@
     <t>ヴァルチャー</t>
   </si>
   <si>
-    <t>死体を喰らおう</t>
-  </si>
-  <si>
     <t>ミーディアム</t>
   </si>
   <si>
@@ -3758,27 +3729,12 @@
     <t>What is your killer's role? My killer is {0}.</t>
   </si>
   <si>
-    <t>「君の役職は何でしょう」『私は{0}です』</t>
-  </si>
-  <si>
-    <t>「君を殺した人の役職は何でしょう」『私を殺した人は{0}です』</t>
-  </si>
-  <si>
-    <t>「君を殺した人はどんな色でしょう」『私を殺した人は{0}色をしていました』</t>
-  </si>
-  <si>
     <t>必要な死体の数</t>
   </si>
   <si>
     <t>Show Arrows Pointing Towards Corpses</t>
   </si>
   <si>
-    <t>幽霊から情報を聞き出そう</t>
-  </si>
-  <si>
-    <t>残り {0}体</t>
-  </si>
-  <si>
     <t>vultureCorpses</t>
   </si>
   <si>
@@ -3798,9 +3754,6 @@
   </si>
   <si>
     <t>vultureWinExtra</t>
-  </si>
-  <si>
-    <t>「君はいつ死んだんでしょう」『私は会議の{0}秒前に死にました』</t>
   </si>
   <si>
     <t>vultureFullDesc</t>
@@ -3821,6 +3774,142 @@
 and can question them. It then gets random information about the soul or the killer
 in the chat. The souls only stay for one round, i.e. until the next meeting.
 Depending on the options, the souls can only be questioned once and then disappear.</t>
+  </si>
+  <si>
+    <t>死骸を喰らおう</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>「あなたの役職は何でしょう」『私は{0}です』</t>
+  </si>
+  <si>
+    <t>「あなたを殺した人はどんな色でしょう」『私を殺した人は{0}色をしていました』</t>
+  </si>
+  <si>
+    <t>「あなたはいつ死んだんでしょう」『私は会議の{0}秒前に死にました』</t>
+  </si>
+  <si>
+    <t>「あなたを殺した人の役職は何でしょう」『私を殺した人は{0}です』</t>
+  </si>
+  <si>
+    <t>・一定数の死体を食べると勝利する
+・死体の場所が矢印にてある程度わかる（設定による）
+・食べた死体はその場から消える
+・ベントの使用が可能（設定による）</t>
+  </si>
+  <si>
+    <t>残り {0}人</t>
+  </si>
+  <si>
+    <t>取り残された魂から情報を聞き出そう</t>
+  </si>
+  <si>
+    <t>魂から情報を聞き出そう</t>
+  </si>
+  <si>
+    <t>updatePleaseWait</t>
+  </si>
+  <si>
+    <t>updateManually</t>
+  </si>
+  <si>
+    <t>updateInProgress</t>
+  </si>
+  <si>
+    <t>updateRestart</t>
+  </si>
+  <si>
+    <t>updateFailed</t>
+  </si>
+  <si>
+    <t>Unable to auto-update.
+Please update manually.</t>
+  </si>
+  <si>
+    <t>Update might already
+be in progress.</t>
+  </si>
+  <si>
+    <t>Update failed.
+Try again later,
+or update manually.</t>
+  </si>
+  <si>
+    <t>Update
+The Other Roles GM</t>
+  </si>
+  <si>
+    <t>アップデート中
+少々お待ちください…</t>
+  </si>
+  <si>
+    <t>アップデート実行中</t>
+  </si>
+  <si>
+    <t>Updating The Other Roles GM
+Please wait...</t>
+  </si>
+  <si>
+    <t>The Other Roles GM
+updated successfully.
+Please restart the game.</t>
+  </si>
+  <si>
+    <t>The Other Roles GMの
+アップデートが完了しました
+ゲームを再起動してください</t>
+  </si>
+  <si>
+    <t>自動アップデートが
+できませんでした
+手動で更新してください</t>
+  </si>
+  <si>
+    <t>updateButton</t>
+  </si>
+  <si>
+    <t>TOR GMを
+アップデート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・魂から情報を得られる
+・死体が上がった次のターンその魂が見える
+・魂は次の会議後に消える
+【色調表記】
+・濃い色
+　赤、青、緑、黒、紫、茶、マルーン、タン
+・淡い色
+　ピンク、オレンジ、黄色、白、水色、黄緑、ローズ、　バナナ、グレー、コーラル </t>
+  </si>
+  <si>
+    <t xml:space="preserve">・探偵
+・プレイヤーの足跡が見える
+・一定時間内に死体を発見すると、犯人についての情報が得られる
+・会議に入ったら、チャットで表示される
+【色調表記】
+・濃い色
+　赤、青、緑、黒、紫、茶、マルーン、タン
+・淡い色
+　ピンク、オレンジ、黄色、白、水色、黄緑、ローズ、　バナナ、グレー、コーラル </t>
   </si>
 </sst>
 </file>
@@ -4144,15 +4233,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q477"/>
+  <dimension ref="A1:Q484"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="M467" sqref="M467"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="M484" sqref="M484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4378,7 +4469,7 @@
         <v>759</v>
       </c>
       <c r="M18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4389,7 +4480,7 @@
         <v>760</v>
       </c>
       <c r="M19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4493,13 +4584,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B34" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M34" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4823,13 +4914,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B73" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="M73" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4837,10 +4928,10 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="M74" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4878,24 +4969,24 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B79" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="M79" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B80" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="M80" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5087,13 +5178,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B101" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="M101" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5186,13 +5277,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B114" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="M114" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5593,7 +5684,7 @@
         <v>789</v>
       </c>
       <c r="M157" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -5884,40 +5975,40 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B191" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M191" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B193" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="M193" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B194" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="M194" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B195" t="s">
         <v>779</v>
@@ -5928,57 +6019,57 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B196" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="M196" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="B197" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="M197" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B199" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="M199" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B200" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="M200" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B201" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="M201" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -5986,7 +6077,7 @@
         <v>133</v>
       </c>
       <c r="B203" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="M203" t="s">
         <v>751</v>
@@ -5997,7 +6088,7 @@
         <v>134</v>
       </c>
       <c r="B204" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="M204" t="s">
         <v>752</v>
@@ -6027,46 +6118,46 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="B207" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="M207" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B209" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M209" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B210" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="M210" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B211" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M211" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -6074,10 +6165,10 @@
         <v>702</v>
       </c>
       <c r="B212" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="M212" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -6085,10 +6176,10 @@
         <v>704</v>
       </c>
       <c r="B213" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="M213" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -6096,10 +6187,10 @@
         <v>703</v>
       </c>
       <c r="B214" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="M214" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -6115,24 +6206,24 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B216" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M216" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B217" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="M217" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -6374,7 +6465,7 @@
         <v>594</v>
       </c>
       <c r="M248" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -6649,7 +6740,7 @@
         <v>605</v>
       </c>
       <c r="M281" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -7130,7 +7221,7 @@
         <v>451</v>
       </c>
       <c r="B339" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M339" t="s">
         <v>452</v>
@@ -7556,101 +7647,101 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B392" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M392" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>894</v>
+      </c>
+      <c r="B393" t="s">
+        <v>899</v>
+      </c>
+      <c r="M393" t="s">
         <v>896</v>
-      </c>
-      <c r="B393" t="s">
-        <v>901</v>
-      </c>
-      <c r="M393" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B394" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M394" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B396" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="M396" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B397" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="M397" t="s">
-        <v>1140</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B398" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="M398" t="s">
-        <v>1140</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B400" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="M400" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B401" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="M401" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B402" t="s">
         <v>1119</v>
       </c>
-      <c r="B402" t="s">
-        <v>1124</v>
-      </c>
       <c r="M402" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -7795,123 +7886,123 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="B418" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="M418" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B419" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="M419" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B420" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="M420" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B421" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M421" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B422" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M422" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B423" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M423" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B424" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="M424" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B425" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="M425" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="B426" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="M426" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>922</v>
+      </c>
+      <c r="B427" t="s">
+        <v>923</v>
+      </c>
+      <c r="M427" t="s">
         <v>924</v>
-      </c>
-      <c r="B427" t="s">
-        <v>925</v>
-      </c>
-      <c r="M427" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B428" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="M428" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -7949,46 +8040,46 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B433" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="M433" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B434" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="M434" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B435" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="M435" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B436" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="M436" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -8212,32 +8303,32 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B464" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="M464" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B465" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="M465" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B466" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="M466" t="s">
         <v>1174</v>
@@ -8245,13 +8336,13 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B467" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="M467" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
@@ -8267,13 +8358,13 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B470" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="M470" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
@@ -8314,7 +8405,7 @@
         <v>834</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>933</v>
+        <v>1170</v>
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -8327,15 +8418,15 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
       <c r="M475" s="2" t="s">
-        <v>840</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>934</v>
+        <v>1168</v>
       </c>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -8348,18 +8439,84 @@
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
       <c r="M476" s="2" t="s">
-        <v>835</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>836</v>
+      </c>
+      <c r="B477" t="s">
+        <v>838</v>
+      </c>
+      <c r="M477" t="s">
         <v>837</v>
       </c>
-      <c r="B477" t="s">
-        <v>839</v>
-      </c>
-      <c r="M477" t="s">
-        <v>838</v>
+    </row>
+    <row r="479" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M479" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M480" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M481" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M482" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M483" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M484" s="4" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -8371,8 +8528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8434,469 +8591,475 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1040</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1178</v>
+        <v>1166</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -8969,218 +9132,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B22" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B26" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA636D-649A-41D3-913C-E79EAC8D2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D117AAE-9E3A-4C3E-9C9E-C5AACB8142DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="2610" windowWidth="22515" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="3180" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1210">
   <si>
     <t>presetSelection</t>
   </si>
@@ -1653,9 +1653,6 @@
     <t>Mini</t>
   </si>
   <si>
-    <t>Mini Growing Up Duration</t>
-  </si>
-  <si>
     <t>Lovers</t>
   </si>
   <si>
@@ -2347,9 +2344,6 @@
   </si>
   <si>
     <t>Can Win With Crew</t>
-  </si>
-  <si>
-    <t>Chance The Guesser Is An Impostor</t>
   </si>
   <si>
     <t>Number Of Shots</t>
@@ -3910,6 +3904,45 @@
 　赤、青、緑、黒、紫、茶、マルーン、タン
 ・淡い色
 　ピンク、オレンジ、黄色、白、水色、黄緑、ローズ、　バナナ、グレー、コーラル </t>
+  </si>
+  <si>
+    <t>playerColorRandom</t>
+  </si>
+  <si>
+    <t>playerNameDupes</t>
+  </si>
+  <si>
+    <t>Randomize Player Colors</t>
+  </si>
+  <si>
+    <t>Allow Duplicate Names</t>
+  </si>
+  <si>
+    <t>全員の色がランダムに</t>
+  </si>
+  <si>
+    <t>名前被りを許可</t>
+  </si>
+  <si>
+    <t>miniIsImpRate</t>
+  </si>
+  <si>
+    <t>Growing Up Duration</t>
+  </si>
+  <si>
+    <t>Chance Mini Is Impostor</t>
+  </si>
+  <si>
+    <t>Chance Guesser Is Impostor</t>
+  </si>
+  <si>
+    <t>eraserCooldownIncrease</t>
+  </si>
+  <si>
+    <t>Erase Cooldown Penalty</t>
+  </si>
+  <si>
+    <t>削除する度に追加されるクールダウン</t>
   </si>
 </sst>
 </file>
@@ -4233,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q484"/>
+  <dimension ref="A1:Q493"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="M484" sqref="M484"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,7 +4403,7 @@
         <v>515</v>
       </c>
       <c r="M8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4381,7 +4414,7 @@
         <v>516</v>
       </c>
       <c r="M9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4444,10 +4477,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4455,10 +4488,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4466,10 +4499,10 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4477,10 +4510,10 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4488,10 +4521,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4532,7 +4565,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
@@ -4565,7 +4598,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M32" t="s">
         <v>175</v>
@@ -4584,13 +4617,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B34" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="M34" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4609,10 +4642,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4620,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M38" t="s">
         <v>178</v>
@@ -4631,7 +4664,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M39" t="s">
         <v>179</v>
@@ -4653,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M42" t="s">
         <v>181</v>
@@ -4661,3862 +4694,3906 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
-        <v>764</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="B44" t="s">
+        <v>763</v>
+      </c>
+      <c r="M44" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>529</v>
-      </c>
-      <c r="M45" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>798</v>
+        <v>529</v>
       </c>
       <c r="M46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="M47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>764</v>
+      </c>
+      <c r="M48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>107</v>
       </c>
-      <c r="B48" t="s">
-        <v>766</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="B49" t="s">
+        <v>765</v>
+      </c>
+      <c r="M49" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>530</v>
-      </c>
-      <c r="M50" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>530</v>
+      </c>
+      <c r="M51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>109</v>
       </c>
-      <c r="B51" t="s">
-        <v>799</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="B52" t="s">
+        <v>797</v>
+      </c>
+      <c r="M52" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>531</v>
-      </c>
-      <c r="M53" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>800</v>
+        <v>531</v>
       </c>
       <c r="M54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>798</v>
+      </c>
+      <c r="M55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B55" t="s">
-        <v>767</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="B56" t="s">
+        <v>766</v>
+      </c>
+      <c r="M56" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>532</v>
-      </c>
-      <c r="M57" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>536</v>
+      </c>
+      <c r="M62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>55</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>537</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M63" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>538</v>
-      </c>
-      <c r="M65" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M66" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>540</v>
+        <v>1204</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
-        <v>768</v>
-      </c>
-      <c r="M69" t="s">
-        <v>733</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M70" t="s">
-        <v>749</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M71" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>770</v>
+        <v>540</v>
       </c>
       <c r="M72" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>940</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>941</v>
+        <v>768</v>
       </c>
       <c r="M73" t="s">
-        <v>942</v>
+        <v>733</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>944</v>
+        <v>769</v>
       </c>
       <c r="M74" t="s">
-        <v>943</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>938</v>
+      </c>
+      <c r="B75" t="s">
+        <v>939</v>
+      </c>
+      <c r="M75" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>542</v>
+        <v>942</v>
       </c>
       <c r="M76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" t="s">
-        <v>771</v>
-      </c>
-      <c r="M77" t="s">
-        <v>733</v>
+        <v>941</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>772</v>
+        <v>541</v>
       </c>
       <c r="M78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1059</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>1060</v>
+        <v>1206</v>
       </c>
       <c r="M79" t="s">
-        <v>1061</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1141</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>1144</v>
+        <v>770</v>
       </c>
       <c r="M80" t="s">
-        <v>1140</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>1139</v>
       </c>
       <c r="B82" t="s">
-        <v>543</v>
+        <v>1142</v>
       </c>
       <c r="M82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" t="s">
-        <v>773</v>
-      </c>
-      <c r="M83" t="s">
-        <v>737</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>774</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>771</v>
+      </c>
+      <c r="M85" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>544</v>
+        <v>772</v>
       </c>
       <c r="M86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" t="s">
-        <v>775</v>
-      </c>
-      <c r="M87" t="s">
-        <v>204</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>776</v>
+        <v>543</v>
       </c>
       <c r="M88" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" t="s">
+        <v>773</v>
+      </c>
+      <c r="M89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>545</v>
+        <v>774</v>
       </c>
       <c r="M90" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" t="s">
-        <v>777</v>
-      </c>
-      <c r="M91" t="s">
-        <v>743</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>778</v>
+        <v>544</v>
       </c>
       <c r="M92" t="s">
-        <v>754</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M93" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M94" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>546</v>
+        <v>777</v>
       </c>
       <c r="M95" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>547</v>
+        <v>778</v>
       </c>
       <c r="M96" t="s">
-        <v>207</v>
+        <v>738</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M97" t="s">
-        <v>208</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>781</v>
+        <v>547</v>
       </c>
       <c r="M99" t="s">
-        <v>741</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>794</v>
+        <v>548</v>
       </c>
       <c r="M100" t="s">
-        <v>742</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1142</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>1143</v>
+        <v>779</v>
       </c>
       <c r="M101" t="s">
-        <v>1145</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" t="s">
+        <v>792</v>
+      </c>
+      <c r="M102" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>56</v>
       </c>
-      <c r="B103" t="s">
-        <v>550</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="B105" t="s">
+        <v>549</v>
+      </c>
+      <c r="M105" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" t="s">
-        <v>782</v>
-      </c>
-      <c r="M104" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>551</v>
+        <v>780</v>
       </c>
       <c r="M106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" t="s">
-        <v>777</v>
-      </c>
-      <c r="M111" t="s">
-        <v>743</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>772</v>
+        <v>552</v>
       </c>
       <c r="M112" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="M113" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>945</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>946</v>
+        <v>770</v>
       </c>
       <c r="M114" t="s">
-        <v>947</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>781</v>
+      </c>
+      <c r="M115" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>943</v>
       </c>
       <c r="B116" t="s">
-        <v>554</v>
+        <v>944</v>
       </c>
       <c r="M116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>65</v>
-      </c>
-      <c r="B117" t="s">
-        <v>784</v>
-      </c>
-      <c r="M117" t="s">
-        <v>216</v>
+        <v>945</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>785</v>
+        <v>553</v>
       </c>
       <c r="M118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="M119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="M120" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>799</v>
+      </c>
+      <c r="M121" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B122" t="s">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="M122" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>70</v>
-      </c>
-      <c r="B123" t="s">
-        <v>556</v>
-      </c>
-      <c r="M123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>699</v>
+        <v>554</v>
       </c>
       <c r="M124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>558</v>
+        <v>698</v>
       </c>
       <c r="M126" t="s">
-        <v>745</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B127" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M127" t="s">
-        <v>746</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" t="s">
+        <v>557</v>
+      </c>
+      <c r="M128" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M129" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" t="s">
-        <v>803</v>
-      </c>
-      <c r="M130" t="s">
-        <v>225</v>
+        <v>745</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B131" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M131" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M132" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>560</v>
+      </c>
+      <c r="M133" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B134" t="s">
-        <v>562</v>
+        <v>802</v>
       </c>
       <c r="M134" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>687</v>
-      </c>
-      <c r="B135" t="s">
-        <v>811</v>
-      </c>
-      <c r="M135" t="s">
-        <v>689</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>673</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B137" t="s">
-        <v>686</v>
+        <v>809</v>
       </c>
       <c r="M137" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B138" t="s">
-        <v>685</v>
+        <v>561</v>
       </c>
       <c r="M138" t="s">
-        <v>675</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>675</v>
       </c>
       <c r="B139" t="s">
-        <v>563</v>
+        <v>685</v>
       </c>
       <c r="M139" t="s">
-        <v>230</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>676</v>
       </c>
       <c r="B140" t="s">
-        <v>564</v>
+        <v>684</v>
       </c>
       <c r="M140" t="s">
-        <v>833</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" t="s">
+        <v>562</v>
+      </c>
+      <c r="M141" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M142" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" t="s">
-        <v>773</v>
-      </c>
-      <c r="M143" t="s">
-        <v>737</v>
+        <v>831</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B144" t="s">
-        <v>786</v>
+        <v>564</v>
       </c>
       <c r="M144" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" t="s">
+        <v>771</v>
+      </c>
+      <c r="M145" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>566</v>
+        <v>784</v>
       </c>
       <c r="M146" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>688</v>
-      </c>
-      <c r="B147" t="s">
-        <v>756</v>
-      </c>
-      <c r="M147" t="s">
-        <v>747</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>678</v>
+        <v>85</v>
       </c>
       <c r="B148" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M148" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B149" t="s">
-        <v>683</v>
+        <v>755</v>
       </c>
       <c r="M149" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B150" t="s">
-        <v>684</v>
+        <v>566</v>
       </c>
       <c r="M150" t="s">
-        <v>681</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>87</v>
+        <v>678</v>
       </c>
       <c r="B151" t="s">
-        <v>787</v>
+        <v>682</v>
       </c>
       <c r="M151" t="s">
-        <v>235</v>
+        <v>681</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>679</v>
       </c>
       <c r="B152" t="s">
-        <v>788</v>
+        <v>683</v>
       </c>
       <c r="M152" t="s">
-        <v>236</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>87</v>
+      </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>785</v>
+      </c>
+      <c r="M153" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>569</v>
+        <v>786</v>
       </c>
       <c r="M154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>89</v>
-      </c>
       <c r="B155" t="s">
-        <v>805</v>
-      </c>
-      <c r="M155" t="s">
-        <v>238</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>806</v>
+        <v>568</v>
       </c>
       <c r="M156" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B157" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="M157" t="s">
-        <v>1030</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>90</v>
+      </c>
+      <c r="B158" t="s">
+        <v>804</v>
+      </c>
+      <c r="M158" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B159" t="s">
-        <v>570</v>
+        <v>787</v>
       </c>
       <c r="M159" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>93</v>
-      </c>
-      <c r="B160" t="s">
-        <v>790</v>
-      </c>
-      <c r="M160" t="s">
-        <v>241</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B161" t="s">
-        <v>791</v>
+        <v>569</v>
       </c>
       <c r="M161" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>93</v>
+      </c>
+      <c r="B162" t="s">
+        <v>788</v>
+      </c>
+      <c r="M162" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>571</v>
+        <v>789</v>
       </c>
       <c r="M163" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>96</v>
-      </c>
-      <c r="B164" t="s">
-        <v>572</v>
-      </c>
-      <c r="M164" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B165" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M165" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B166" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M166" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" t="s">
+        <v>572</v>
+      </c>
+      <c r="M167" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B168" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M168" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>100</v>
-      </c>
-      <c r="B169" t="s">
-        <v>792</v>
-      </c>
-      <c r="M169" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B170" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M170" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B171" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="M171" t="s">
-        <v>738</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B172" t="s">
-        <v>794</v>
+        <v>575</v>
       </c>
       <c r="M172" t="s">
-        <v>742</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" t="s">
+        <v>791</v>
+      </c>
+      <c r="M173" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B174" t="s">
-        <v>577</v>
+        <v>792</v>
       </c>
       <c r="M174" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>114</v>
-      </c>
-      <c r="B175" t="s">
-        <v>755</v>
-      </c>
-      <c r="M175" t="s">
-        <v>251</v>
+        <v>741</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>807</v>
+        <v>576</v>
       </c>
       <c r="M176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B177" t="s">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="M177" t="s">
-        <v>831</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B178" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M178" t="s">
-        <v>832</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" t="s">
+        <v>806</v>
+      </c>
+      <c r="M179" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B180" t="s">
-        <v>578</v>
+        <v>807</v>
       </c>
       <c r="M180" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>119</v>
-      </c>
-      <c r="B181" t="s">
-        <v>579</v>
-      </c>
-      <c r="M181" t="s">
-        <v>254</v>
+        <v>830</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B182" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M182" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>119</v>
+      </c>
+      <c r="B183" t="s">
+        <v>578</v>
+      </c>
+      <c r="M183" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B184" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M184" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>122</v>
-      </c>
-      <c r="B185" t="s">
-        <v>792</v>
-      </c>
-      <c r="M185" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B186" t="s">
-        <v>793</v>
+        <v>580</v>
       </c>
       <c r="M186" t="s">
-        <v>738</v>
+        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B187" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M187" t="s">
-        <v>742</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="M188" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B189" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="M189" t="s">
-        <v>748</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>125</v>
+      </c>
+      <c r="B190" t="s">
+        <v>772</v>
+      </c>
+      <c r="M190" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>900</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>898</v>
+        <v>808</v>
       </c>
       <c r="M191" t="s">
-        <v>897</v>
+        <v>747</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1120</v>
+        <v>898</v>
       </c>
       <c r="B193" t="s">
-        <v>1130</v>
+        <v>896</v>
       </c>
       <c r="M193" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1131</v>
-      </c>
-      <c r="M194" t="s">
-        <v>1154</v>
+        <v>895</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B195" t="s">
-        <v>779</v>
+        <v>1128</v>
       </c>
       <c r="M195" t="s">
-        <v>738</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B196" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
       <c r="M196" t="s">
-        <v>1133</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="B197" t="s">
-        <v>968</v>
+        <v>777</v>
       </c>
       <c r="M197" t="s">
-        <v>1177</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M198" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1124</v>
+        <v>1154</v>
       </c>
       <c r="B199" t="s">
-        <v>1127</v>
+        <v>966</v>
       </c>
       <c r="M199" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1138</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M201" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B202" t="s">
         <v>1126</v>
       </c>
-      <c r="B201" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M201" t="s">
-        <v>1139</v>
+      <c r="M202" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>133</v>
+        <v>1124</v>
       </c>
       <c r="B203" t="s">
-        <v>1107</v>
+        <v>1127</v>
       </c>
       <c r="M203" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>134</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M204" t="s">
-        <v>752</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B205" t="s">
-        <v>582</v>
+        <v>1105</v>
       </c>
       <c r="M205" t="s">
-        <v>258</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B206" t="s">
-        <v>583</v>
+        <v>1106</v>
       </c>
       <c r="M206" t="s">
-        <v>259</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1064</v>
+        <v>135</v>
       </c>
       <c r="B207" t="s">
-        <v>1066</v>
+        <v>581</v>
       </c>
       <c r="M207" t="s">
-        <v>1065</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>136</v>
+      </c>
+      <c r="B208" t="s">
+        <v>582</v>
+      </c>
+      <c r="M208" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>951</v>
+        <v>1062</v>
       </c>
       <c r="B209" t="s">
-        <v>954</v>
+        <v>1064</v>
       </c>
       <c r="M209" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>952</v>
-      </c>
-      <c r="B210" t="s">
-        <v>955</v>
-      </c>
-      <c r="M210" t="s">
-        <v>970</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B211" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="M211" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>702</v>
+        <v>950</v>
       </c>
       <c r="B212" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="M212" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>704</v>
+        <v>951</v>
       </c>
       <c r="B213" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="M213" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B214" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M214" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B215" t="s">
-        <v>701</v>
+        <v>957</v>
       </c>
       <c r="M215" t="s">
-        <v>706</v>
+        <v>960</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>964</v>
+        <v>702</v>
       </c>
       <c r="B216" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="M216" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>967</v>
+        <v>704</v>
       </c>
       <c r="B217" t="s">
-        <v>968</v>
+        <v>700</v>
       </c>
       <c r="M217" t="s">
-        <v>969</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>962</v>
+      </c>
+      <c r="B218" t="s">
+        <v>963</v>
+      </c>
+      <c r="M218" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>260</v>
+        <v>965</v>
       </c>
       <c r="B219" t="s">
-        <v>584</v>
+        <v>966</v>
       </c>
       <c r="M219" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>261</v>
-      </c>
-      <c r="B220" t="s">
-        <v>585</v>
-      </c>
-      <c r="M220" t="s">
-        <v>263</v>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>264</v>
+        <v>1198</v>
       </c>
       <c r="B222" t="s">
-        <v>586</v>
+        <v>1200</v>
       </c>
       <c r="M222" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>265</v>
-      </c>
-      <c r="B223" t="s">
-        <v>587</v>
-      </c>
-      <c r="M223" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>266</v>
-      </c>
-      <c r="B224" t="s">
-        <v>588</v>
-      </c>
-      <c r="M224" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>269</v>
-      </c>
-      <c r="B226" t="s">
-        <v>270</v>
-      </c>
-      <c r="M226" t="s">
-        <v>750</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="M228" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B229" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M229" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>274</v>
-      </c>
-      <c r="B230" t="s">
-        <v>589</v>
-      </c>
-      <c r="M230" t="s">
-        <v>273</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>264</v>
+      </c>
+      <c r="B231" t="s">
+        <v>585</v>
+      </c>
+      <c r="M231" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="M232" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M233" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>277</v>
-      </c>
-      <c r="B234" t="s">
-        <v>590</v>
-      </c>
-      <c r="M234" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>278</v>
-      </c>
-      <c r="B236" t="s">
-        <v>552</v>
-      </c>
-      <c r="M236" t="s">
-        <v>213</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" t="s">
+        <v>270</v>
+      </c>
+      <c r="M235" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B237" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="M237" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="M238" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>282</v>
-      </c>
-      <c r="B240" t="s">
-        <v>553</v>
-      </c>
-      <c r="M240" t="s">
-        <v>214</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>274</v>
+      </c>
+      <c r="B239" t="s">
+        <v>588</v>
+      </c>
+      <c r="M239" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="M241" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="M242" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>287</v>
-      </c>
-      <c r="B244" t="s">
-        <v>554</v>
-      </c>
-      <c r="M244" t="s">
-        <v>215</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>277</v>
+      </c>
+      <c r="B243" t="s">
+        <v>589</v>
+      </c>
+      <c r="M243" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="M245" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M246" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>291</v>
-      </c>
-      <c r="B248" t="s">
-        <v>594</v>
-      </c>
-      <c r="M248" t="s">
-        <v>1024</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>281</v>
+      </c>
+      <c r="B247" t="s">
+        <v>638</v>
+      </c>
+      <c r="M247" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="M249" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M250" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>295</v>
-      </c>
-      <c r="B252" t="s">
-        <v>596</v>
-      </c>
-      <c r="M252" t="s">
-        <v>296</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>285</v>
+      </c>
+      <c r="B251" t="s">
+        <v>639</v>
+      </c>
+      <c r="M251" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B253" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="M253" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B254" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M254" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>300</v>
-      </c>
-      <c r="B256" t="s">
-        <v>598</v>
-      </c>
-      <c r="M256" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>290</v>
+      </c>
+      <c r="B255" t="s">
+        <v>592</v>
+      </c>
+      <c r="M255" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B257" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M257" t="s">
-        <v>303</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B258" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="M258" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>306</v>
-      </c>
-      <c r="B260" t="s">
-        <v>523</v>
-      </c>
-      <c r="M260" t="s">
-        <v>171</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>294</v>
+      </c>
+      <c r="B259" t="s">
+        <v>594</v>
+      </c>
+      <c r="M259" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B261" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M261" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B262" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="M262" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>311</v>
-      </c>
-      <c r="B264" t="s">
-        <v>525</v>
-      </c>
-      <c r="M264" t="s">
-        <v>174</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>299</v>
+      </c>
+      <c r="B263" t="s">
+        <v>594</v>
+      </c>
+      <c r="M263" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B265" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M265" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B266" t="s">
-        <v>643</v>
+        <v>598</v>
       </c>
       <c r="M266" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>315</v>
-      </c>
-      <c r="B268" t="s">
-        <v>527</v>
-      </c>
-      <c r="M268" t="s">
-        <v>177</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>304</v>
+      </c>
+      <c r="B267" t="s">
+        <v>640</v>
+      </c>
+      <c r="M267" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B269" t="s">
-        <v>602</v>
+        <v>523</v>
       </c>
       <c r="M269" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B270" t="s">
-        <v>644</v>
+        <v>599</v>
       </c>
       <c r="M270" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>319</v>
-      </c>
-      <c r="B272" t="s">
-        <v>528</v>
-      </c>
-      <c r="M272" t="s">
-        <v>180</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>309</v>
+      </c>
+      <c r="B271" t="s">
+        <v>641</v>
+      </c>
+      <c r="M271" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B273" t="s">
-        <v>603</v>
+        <v>525</v>
       </c>
       <c r="M273" t="s">
-        <v>321</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B274" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="M274" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>323</v>
-      </c>
-      <c r="B276" t="s">
-        <v>529</v>
-      </c>
-      <c r="M276" t="s">
-        <v>183</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>314</v>
+      </c>
+      <c r="B275" t="s">
+        <v>642</v>
+      </c>
+      <c r="M275" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B277" t="s">
-        <v>604</v>
+        <v>527</v>
       </c>
       <c r="M277" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B278" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="M278" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>328</v>
-      </c>
-      <c r="B280" t="s">
-        <v>530</v>
-      </c>
-      <c r="M280" t="s">
-        <v>187</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>318</v>
+      </c>
+      <c r="B279" t="s">
+        <v>643</v>
+      </c>
+      <c r="M279" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B281" t="s">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="M281" t="s">
-        <v>1063</v>
+        <v>180</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B282" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="M282" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>331</v>
-      </c>
-      <c r="B284" t="s">
-        <v>531</v>
-      </c>
-      <c r="M284" t="s">
-        <v>188</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>322</v>
+      </c>
+      <c r="B283" t="s">
+        <v>644</v>
+      </c>
+      <c r="M283" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B285" t="s">
-        <v>606</v>
+        <v>529</v>
       </c>
       <c r="M285" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B286" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="M286" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>335</v>
-      </c>
-      <c r="B288" t="s">
-        <v>532</v>
-      </c>
-      <c r="M288" t="s">
-        <v>191</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>326</v>
+      </c>
+      <c r="B287" t="s">
+        <v>645</v>
+      </c>
+      <c r="M287" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B289" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
       <c r="M289" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B290" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M290" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>339</v>
-      </c>
-      <c r="B292" t="s">
-        <v>555</v>
-      </c>
-      <c r="M292" t="s">
-        <v>220</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>330</v>
+      </c>
+      <c r="B291" t="s">
+        <v>646</v>
+      </c>
+      <c r="M291" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B293" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
       <c r="M293" t="s">
-        <v>341</v>
+        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B294" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="M294" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>344</v>
-      </c>
-      <c r="B296" t="s">
-        <v>560</v>
-      </c>
-      <c r="M296" t="s">
-        <v>224</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>334</v>
+      </c>
+      <c r="B295" t="s">
+        <v>647</v>
+      </c>
+      <c r="M295" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B297" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="M297" t="s">
-        <v>346</v>
+        <v>191</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B298" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="M298" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>349</v>
-      </c>
-      <c r="B300" t="s">
-        <v>562</v>
-      </c>
-      <c r="M300" t="s">
-        <v>228</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>338</v>
+      </c>
+      <c r="B299" t="s">
+        <v>606</v>
+      </c>
+      <c r="M299" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B301" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="M301" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B302" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="M302" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>354</v>
-      </c>
-      <c r="B304" t="s">
-        <v>550</v>
-      </c>
-      <c r="M304" t="s">
-        <v>210</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>342</v>
+      </c>
+      <c r="B303" t="s">
+        <v>648</v>
+      </c>
+      <c r="M303" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B305" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="M305" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B306" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M306" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>358</v>
-      </c>
-      <c r="B308" t="s">
-        <v>565</v>
-      </c>
-      <c r="M308" t="s">
-        <v>231</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>347</v>
+      </c>
+      <c r="B307" t="s">
+        <v>649</v>
+      </c>
+      <c r="M307" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B309" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="M309" t="s">
-        <v>360</v>
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B310" t="s">
-        <v>652</v>
+        <v>609</v>
       </c>
       <c r="M310" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>363</v>
-      </c>
-      <c r="B312" t="s">
-        <v>566</v>
-      </c>
-      <c r="M312" t="s">
-        <v>233</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>352</v>
+      </c>
+      <c r="B311" t="s">
+        <v>650</v>
+      </c>
+      <c r="M311" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B313" t="s">
-        <v>613</v>
+        <v>549</v>
       </c>
       <c r="M313" t="s">
-        <v>365</v>
+        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B314" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M314" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>367</v>
-      </c>
-      <c r="B316" t="s">
-        <v>569</v>
-      </c>
-      <c r="M316" t="s">
-        <v>237</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>357</v>
+      </c>
+      <c r="B315" t="s">
+        <v>610</v>
+      </c>
+      <c r="M315" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B317" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="M317" t="s">
-        <v>369</v>
+        <v>231</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B318" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="M318" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>372</v>
-      </c>
-      <c r="B320" t="s">
-        <v>615</v>
-      </c>
-      <c r="M320" t="s">
-        <v>373</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>361</v>
+      </c>
+      <c r="B319" t="s">
+        <v>651</v>
+      </c>
+      <c r="M319" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B321" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="M321" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B322" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="M322" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>378</v>
-      </c>
-      <c r="B324" t="s">
-        <v>618</v>
-      </c>
-      <c r="M324" t="s">
-        <v>379</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>366</v>
+      </c>
+      <c r="B323" t="s">
+        <v>612</v>
+      </c>
+      <c r="M323" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B325" t="s">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="M325" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B326" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M326" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>382</v>
-      </c>
-      <c r="B328" t="s">
-        <v>570</v>
-      </c>
-      <c r="M328" t="s">
-        <v>240</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>370</v>
+      </c>
+      <c r="B327" t="s">
+        <v>652</v>
+      </c>
+      <c r="M327" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B329" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M329" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B330" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="M330" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>387</v>
-      </c>
-      <c r="B332" t="s">
-        <v>571</v>
-      </c>
-      <c r="M332" t="s">
-        <v>243</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>376</v>
+      </c>
+      <c r="B331" t="s">
+        <v>616</v>
+      </c>
+      <c r="M331" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B333" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M333" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B334" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="M334" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>392</v>
-      </c>
-      <c r="B336" t="s">
-        <v>545</v>
-      </c>
-      <c r="M336" t="s">
-        <v>206</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>381</v>
+      </c>
+      <c r="B335" t="s">
+        <v>616</v>
+      </c>
+      <c r="M335" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B337" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="M337" t="s">
-        <v>394</v>
+        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B338" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="M338" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="B339" t="s">
-        <v>928</v>
+        <v>653</v>
       </c>
       <c r="M339" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B341" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="M341" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B342" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="M342" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B343" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="M343" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B345" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="M345" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B346" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M346" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B347" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M347" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>406</v>
-      </c>
-      <c r="B349" t="s">
-        <v>577</v>
-      </c>
-      <c r="M349" t="s">
-        <v>407</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>451</v>
+      </c>
+      <c r="B348" t="s">
+        <v>926</v>
+      </c>
+      <c r="M348" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B350" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M350" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B351" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M351" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>412</v>
-      </c>
-      <c r="B353" t="s">
-        <v>544</v>
-      </c>
-      <c r="M353" t="s">
-        <v>203</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>400</v>
+      </c>
+      <c r="B352" t="s">
+        <v>622</v>
+      </c>
+      <c r="M352" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B354" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="M354" t="s">
-        <v>414</v>
+        <v>247</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B355" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M355" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>416</v>
-      </c>
-      <c r="B357" t="s">
-        <v>627</v>
-      </c>
-      <c r="M357" t="s">
-        <v>417</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>404</v>
+      </c>
+      <c r="B356" t="s">
+        <v>656</v>
+      </c>
+      <c r="M356" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B358" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="M358" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B359" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M359" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>421</v>
-      </c>
-      <c r="B361" t="s">
-        <v>629</v>
-      </c>
-      <c r="M361" t="s">
-        <v>422</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>410</v>
+      </c>
+      <c r="B360" t="s">
+        <v>624</v>
+      </c>
+      <c r="M360" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B362" t="s">
-        <v>628</v>
+        <v>543</v>
       </c>
       <c r="M362" t="s">
-        <v>419</v>
+        <v>203</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B363" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M363" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>425</v>
-      </c>
-      <c r="B365" t="s">
-        <v>578</v>
-      </c>
-      <c r="M365" t="s">
-        <v>253</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>415</v>
+      </c>
+      <c r="B364" t="s">
+        <v>625</v>
+      </c>
+      <c r="M364" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B366" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M366" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B367" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M367" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>429</v>
-      </c>
-      <c r="B369" t="s">
-        <v>581</v>
-      </c>
-      <c r="M369" t="s">
-        <v>256</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>420</v>
+      </c>
+      <c r="B368" t="s">
+        <v>627</v>
+      </c>
+      <c r="M368" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B370" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M370" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B371" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="M371" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>434</v>
-      </c>
-      <c r="B373" t="s">
-        <v>633</v>
-      </c>
-      <c r="M373" t="s">
-        <v>435</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>424</v>
+      </c>
+      <c r="B372" t="s">
+        <v>627</v>
+      </c>
+      <c r="M372" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B374" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="M374" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B375" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="M375" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>439</v>
-      </c>
-      <c r="B377" t="s">
-        <v>635</v>
-      </c>
-      <c r="M377" t="s">
-        <v>693</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>428</v>
+      </c>
+      <c r="B376" t="s">
+        <v>629</v>
+      </c>
+      <c r="M376" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B378" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="M378" t="s">
-        <v>441</v>
+        <v>256</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B379" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M379" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>443</v>
-      </c>
-      <c r="B381" t="s">
-        <v>637</v>
-      </c>
-      <c r="M381" t="s">
-        <v>199</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>432</v>
+      </c>
+      <c r="B380" t="s">
+        <v>631</v>
+      </c>
+      <c r="M380" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B382" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M382" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B383" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M383" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>447</v>
-      </c>
-      <c r="B385" t="s">
-        <v>168</v>
-      </c>
-      <c r="M385" t="s">
-        <v>168</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>438</v>
+      </c>
+      <c r="B384" t="s">
+        <v>633</v>
+      </c>
+      <c r="M384" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B386" t="s">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="M386" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B387" t="s">
-        <v>449</v>
+        <v>635</v>
       </c>
       <c r="M387" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>453</v>
-      </c>
-      <c r="B389" t="s">
-        <v>455</v>
-      </c>
-      <c r="M389" t="s">
-        <v>455</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>442</v>
+      </c>
+      <c r="B388" t="s">
+        <v>635</v>
+      </c>
+      <c r="M388" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B390" t="s">
-        <v>456</v>
+        <v>636</v>
       </c>
       <c r="M390" t="s">
-        <v>456</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>444</v>
+      </c>
+      <c r="B391" t="s">
+        <v>637</v>
+      </c>
+      <c r="M391" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>893</v>
+        <v>446</v>
       </c>
       <c r="B392" t="s">
-        <v>898</v>
+        <v>637</v>
       </c>
       <c r="M392" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>894</v>
-      </c>
-      <c r="B393" t="s">
-        <v>899</v>
-      </c>
-      <c r="M393" t="s">
-        <v>896</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>895</v>
+        <v>447</v>
       </c>
       <c r="B394" t="s">
-        <v>899</v>
+        <v>168</v>
       </c>
       <c r="M394" t="s">
-        <v>896</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>448</v>
+      </c>
+      <c r="B395" t="s">
+        <v>449</v>
+      </c>
+      <c r="M395" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1109</v>
+        <v>450</v>
       </c>
       <c r="B396" t="s">
-        <v>1115</v>
+        <v>449</v>
       </c>
       <c r="M396" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M397" t="s">
-        <v>1167</v>
+        <v>711</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1111</v>
+        <v>453</v>
       </c>
       <c r="B398" t="s">
-        <v>1117</v>
+        <v>455</v>
       </c>
       <c r="M398" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M400" t="s">
-        <v>1135</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>454</v>
+      </c>
+      <c r="B399" t="s">
+        <v>456</v>
+      </c>
+      <c r="M399" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1113</v>
+        <v>891</v>
       </c>
       <c r="B401" t="s">
-        <v>1136</v>
+        <v>896</v>
       </c>
       <c r="M401" t="s">
-        <v>1178</v>
+        <v>895</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1114</v>
+        <v>892</v>
       </c>
       <c r="B402" t="s">
-        <v>1119</v>
+        <v>897</v>
       </c>
       <c r="M402" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>462</v>
-      </c>
-      <c r="B404" t="s">
-        <v>658</v>
-      </c>
-      <c r="M404" t="s">
-        <v>457</v>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>893</v>
+      </c>
+      <c r="B403" t="s">
+        <v>897</v>
+      </c>
+      <c r="M403" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>463</v>
+        <v>1107</v>
       </c>
       <c r="B405" t="s">
-        <v>659</v>
+        <v>1113</v>
       </c>
       <c r="M405" t="s">
-        <v>458</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>464</v>
+        <v>1108</v>
       </c>
       <c r="B406" t="s">
-        <v>660</v>
+        <v>1114</v>
       </c>
       <c r="M406" t="s">
-        <v>459</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>465</v>
+        <v>1109</v>
       </c>
       <c r="B407" t="s">
-        <v>661</v>
+        <v>1115</v>
       </c>
       <c r="M407" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>466</v>
-      </c>
-      <c r="B408" t="s">
-        <v>662</v>
-      </c>
-      <c r="M408" t="s">
-        <v>461</v>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M409" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>473</v>
+        <v>1111</v>
       </c>
       <c r="B410" t="s">
-        <v>467</v>
+        <v>1134</v>
+      </c>
+      <c r="M410" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>814</v>
+        <v>1112</v>
       </c>
       <c r="B411" t="s">
-        <v>816</v>
+        <v>1117</v>
       </c>
       <c r="M411" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>815</v>
-      </c>
-      <c r="B412" t="s">
-        <v>817</v>
-      </c>
-      <c r="M412" t="s">
-        <v>819</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B413" t="s">
-        <v>503</v>
+        <v>657</v>
       </c>
       <c r="M413" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B414" t="s">
-        <v>504</v>
+        <v>658</v>
       </c>
       <c r="M414" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B415" t="s">
-        <v>505</v>
+        <v>659</v>
       </c>
       <c r="M415" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B416" t="s">
-        <v>506</v>
+        <v>660</v>
       </c>
       <c r="M416" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B417" t="s">
-        <v>507</v>
+        <v>661</v>
       </c>
       <c r="M417" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M418" t="s">
-        <v>1160</v>
+        <v>461</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>901</v>
+        <v>473</v>
       </c>
       <c r="B419" t="s">
-        <v>908</v>
-      </c>
-      <c r="M419" t="s">
-        <v>915</v>
+        <v>467</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>902</v>
+        <v>812</v>
       </c>
       <c r="B420" t="s">
-        <v>909</v>
+        <v>814</v>
       </c>
       <c r="M420" t="s">
-        <v>916</v>
+        <v>816</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>903</v>
+        <v>813</v>
       </c>
       <c r="B421" t="s">
-        <v>910</v>
+        <v>815</v>
       </c>
       <c r="M421" t="s">
-        <v>917</v>
+        <v>817</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>904</v>
+        <v>478</v>
       </c>
       <c r="B422" t="s">
-        <v>911</v>
+        <v>503</v>
       </c>
       <c r="M422" t="s">
-        <v>918</v>
+        <v>468</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>905</v>
+        <v>474</v>
       </c>
       <c r="B423" t="s">
-        <v>912</v>
+        <v>504</v>
       </c>
       <c r="M423" t="s">
-        <v>919</v>
+        <v>469</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>906</v>
+        <v>475</v>
       </c>
       <c r="B424" t="s">
-        <v>913</v>
+        <v>505</v>
       </c>
       <c r="M424" t="s">
-        <v>920</v>
+        <v>470</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>907</v>
+        <v>476</v>
       </c>
       <c r="B425" t="s">
-        <v>914</v>
+        <v>506</v>
       </c>
       <c r="M425" t="s">
-        <v>921</v>
+        <v>471</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1162</v>
+        <v>477</v>
       </c>
       <c r="B426" t="s">
-        <v>1159</v>
+        <v>507</v>
       </c>
       <c r="M426" t="s">
-        <v>1161</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>922</v>
+        <v>1155</v>
       </c>
       <c r="B427" t="s">
-        <v>923</v>
+        <v>1156</v>
       </c>
       <c r="M427" t="s">
-        <v>924</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
       <c r="B428" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="M428" t="s">
-        <v>926</v>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>900</v>
+      </c>
+      <c r="B429" t="s">
+        <v>907</v>
+      </c>
+      <c r="M429" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>479</v>
+        <v>901</v>
       </c>
       <c r="B430" t="s">
-        <v>508</v>
+        <v>908</v>
       </c>
       <c r="M430" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>480</v>
+        <v>902</v>
       </c>
       <c r="B431" t="s">
-        <v>484</v>
+        <v>909</v>
       </c>
       <c r="M431" t="s">
-        <v>501</v>
+        <v>916</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>481</v>
+        <v>903</v>
       </c>
       <c r="B432" t="s">
-        <v>483</v>
+        <v>910</v>
       </c>
       <c r="M432" t="s">
-        <v>502</v>
+        <v>917</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="B433" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="M433" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="B434" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="M434" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>937</v>
+        <v>1160</v>
       </c>
       <c r="B435" t="s">
-        <v>938</v>
+        <v>1157</v>
       </c>
       <c r="M435" t="s">
-        <v>939</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1056</v>
+        <v>920</v>
       </c>
       <c r="B436" t="s">
-        <v>1057</v>
+        <v>921</v>
       </c>
       <c r="M436" t="s">
-        <v>1058</v>
+        <v>922</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>482</v>
+        <v>925</v>
       </c>
       <c r="B437" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="M437" t="s">
-        <v>711</v>
+        <v>924</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B439" t="s">
-        <v>663</v>
+        <v>508</v>
       </c>
       <c r="M439" t="s">
-        <v>485</v>
+        <v>810</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B440" t="s">
-        <v>664</v>
+        <v>484</v>
       </c>
       <c r="M440" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B441" t="s">
-        <v>665</v>
+        <v>483</v>
       </c>
       <c r="M441" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>492</v>
+        <v>929</v>
       </c>
       <c r="B442" t="s">
-        <v>666</v>
+        <v>930</v>
       </c>
       <c r="M442" t="s">
-        <v>488</v>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>932</v>
+      </c>
+      <c r="B443" t="s">
+        <v>933</v>
+      </c>
+      <c r="M443" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>493</v>
+        <v>935</v>
       </c>
       <c r="B444" t="s">
-        <v>694</v>
+        <v>936</v>
       </c>
       <c r="M444" t="s">
-        <v>695</v>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>667</v>
+        <v>482</v>
       </c>
       <c r="B446" t="s">
-        <v>494</v>
+        <v>811</v>
       </c>
       <c r="M446" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>668</v>
-      </c>
-      <c r="B447" t="s">
-        <v>495</v>
-      </c>
-      <c r="M447" t="s">
-        <v>497</v>
+        <v>710</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>669</v>
+        <v>489</v>
       </c>
       <c r="B448" t="s">
-        <v>496</v>
+        <v>662</v>
       </c>
       <c r="M448" t="s">
-        <v>499</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>490</v>
+      </c>
+      <c r="B449" t="s">
+        <v>663</v>
+      </c>
+      <c r="M449" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B450" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="M450" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>697</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
-      <c r="J452" s="1"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1"/>
-      <c r="M452" s="1" t="s">
-        <v>710</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>492</v>
+      </c>
+      <c r="B451" t="s">
+        <v>665</v>
+      </c>
+      <c r="M451" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>698</v>
+        <v>493</v>
       </c>
       <c r="B453" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="M453" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="B455" t="s">
-        <v>714</v>
+        <v>494</v>
       </c>
       <c r="M455" t="s">
-        <v>715</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>667</v>
+      </c>
+      <c r="B456" t="s">
+        <v>495</v>
+      </c>
+      <c r="M456" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="B457" t="s">
-        <v>717</v>
+        <v>496</v>
       </c>
       <c r="M457" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>718</v>
-      </c>
-      <c r="B458" t="s">
-        <v>723</v>
-      </c>
-      <c r="M458" t="s">
-        <v>730</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="B459" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="M459" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>720</v>
-      </c>
-      <c r="B460" t="s">
-        <v>725</v>
-      </c>
-      <c r="M460" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>721</v>
-      </c>
-      <c r="B461" t="s">
-        <v>287</v>
-      </c>
-      <c r="M461" t="s">
-        <v>728</v>
+        <v>696</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+      <c r="H461" s="1"/>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="M461" s="1" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="B462" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="M462" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1146</v>
+        <v>712</v>
       </c>
       <c r="B464" t="s">
-        <v>1149</v>
+        <v>713</v>
       </c>
       <c r="M464" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M465" t="s">
-        <v>1173</v>
+        <v>714</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1148</v>
+        <v>715</v>
       </c>
       <c r="B466" t="s">
-        <v>1152</v>
+        <v>716</v>
       </c>
       <c r="M466" t="s">
-        <v>1174</v>
+        <v>731</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1151</v>
+        <v>717</v>
       </c>
       <c r="B467" t="s">
-        <v>1153</v>
+        <v>722</v>
       </c>
       <c r="M467" t="s">
-        <v>1175</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>718</v>
+      </c>
+      <c r="B468" t="s">
+        <v>723</v>
+      </c>
+      <c r="M468" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>821</v>
+        <v>719</v>
       </c>
       <c r="B469" t="s">
-        <v>822</v>
+        <v>724</v>
       </c>
       <c r="M469" t="s">
-        <v>824</v>
+        <v>730</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>948</v>
+        <v>720</v>
       </c>
       <c r="B470" t="s">
-        <v>949</v>
+        <v>287</v>
       </c>
       <c r="M470" t="s">
-        <v>950</v>
+        <v>727</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>825</v>
+        <v>721</v>
       </c>
       <c r="B471" t="s">
-        <v>823</v>
+        <v>725</v>
       </c>
       <c r="M471" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>828</v>
-      </c>
-      <c r="B472" t="s">
-        <v>823</v>
-      </c>
-      <c r="M472" t="s">
-        <v>829</v>
+        <v>728</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>830</v>
+        <v>1144</v>
       </c>
       <c r="B473" t="s">
-        <v>826</v>
+        <v>1147</v>
       </c>
       <c r="M473" t="s">
-        <v>826</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M474" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>834</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C475" s="3"/>
-      <c r="D475" s="3"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="3"/>
-      <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
-      <c r="I475" s="3"/>
-      <c r="J475" s="3"/>
-      <c r="K475" s="3"/>
-      <c r="L475" s="3"/>
-      <c r="M475" s="2" t="s">
-        <v>1171</v>
+        <v>1146</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M475" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M476" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>819</v>
+      </c>
+      <c r="B478" t="s">
+        <v>820</v>
+      </c>
+      <c r="M478" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>946</v>
+      </c>
+      <c r="B479" t="s">
+        <v>947</v>
+      </c>
+      <c r="M479" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>823</v>
+      </c>
+      <c r="B480" t="s">
+        <v>821</v>
+      </c>
+      <c r="M480" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>826</v>
+      </c>
+      <c r="B481" t="s">
+        <v>821</v>
+      </c>
+      <c r="M481" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>828</v>
+      </c>
+      <c r="B482" t="s">
+        <v>824</v>
+      </c>
+      <c r="M482" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>832</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+      <c r="F484" s="3"/>
+      <c r="G484" s="3"/>
+      <c r="H484" s="3"/>
+      <c r="I484" s="3"/>
+      <c r="J484" s="3"/>
+      <c r="K484" s="3"/>
+      <c r="L484" s="3"/>
+      <c r="M484" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>833</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C485" s="3"/>
+      <c r="D485" s="3"/>
+      <c r="E485" s="3"/>
+      <c r="F485" s="3"/>
+      <c r="G485" s="3"/>
+      <c r="H485" s="3"/>
+      <c r="I485" s="3"/>
+      <c r="J485" s="3"/>
+      <c r="K485" s="3"/>
+      <c r="L485" s="3"/>
+      <c r="M485" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>834</v>
+      </c>
+      <c r="B486" t="s">
+        <v>836</v>
+      </c>
+      <c r="M486" t="s">
         <v>835</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C476" s="3"/>
-      <c r="D476" s="3"/>
-      <c r="E476" s="3"/>
-      <c r="F476" s="3"/>
-      <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
-      <c r="I476" s="3"/>
-      <c r="J476" s="3"/>
-      <c r="K476" s="3"/>
-      <c r="L476" s="3"/>
-      <c r="M476" s="2" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>836</v>
-      </c>
-      <c r="B477" t="s">
-        <v>838</v>
-      </c>
-      <c r="M477" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B479" s="4" t="s">
+    </row>
+    <row r="488" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M488" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M489" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M490" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M491" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="M479" s="4" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B480" s="4" t="s">
+    </row>
+    <row r="492" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M492" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="M480" s="4" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B481" s="4" t="s">
+    </row>
+    <row r="493" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="M481" s="4" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M482" s="4" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B483" s="4" t="s">
+      <c r="M493" s="4" t="s">
         <v>1192</v>
-      </c>
-      <c r="M483" s="4" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="M484" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -8528,8 +8605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8591,475 +8668,475 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>1165</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>1166</v>
-      </c>
       <c r="M44" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
@@ -9132,218 +9209,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B15" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B16" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B17" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B22" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B24" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B26" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B27" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D117AAE-9E3A-4C3E-9C9E-C5AACB8142DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C6D72-14F0-4F41-B7BA-93A3ECC108E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="3180" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="3150" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1213">
   <si>
     <t>presetSelection</t>
   </si>
@@ -3943,6 +3943,15 @@
   </si>
   <si>
     <t>削除する度に追加されるクールダウン</t>
+  </si>
+  <si>
+    <t>uselessOptions</t>
+  </si>
+  <si>
+    <t>Useless Options</t>
+  </si>
+  <si>
+    <t>使いどころのない設定</t>
   </si>
 </sst>
 </file>
@@ -4266,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q493"/>
+  <dimension ref="A1:Q494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6248,17 +6257,6 @@
         <v>961</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>704</v>
-      </c>
-      <c r="B217" t="s">
-        <v>700</v>
-      </c>
-      <c r="M217" t="s">
-        <v>705</v>
-      </c>
-    </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>962</v>
@@ -6283,117 +6281,128 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
       <c r="B221" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="M221" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>1198</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>1200</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M223" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>260</v>
-      </c>
-      <c r="B228" t="s">
-        <v>583</v>
-      </c>
-      <c r="M228" t="s">
-        <v>262</v>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>704</v>
+      </c>
+      <c r="B224" t="s">
+        <v>700</v>
+      </c>
+      <c r="M224" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>260</v>
+      </c>
+      <c r="B229" t="s">
+        <v>583</v>
+      </c>
+      <c r="M229" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>261</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>584</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M230" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>264</v>
-      </c>
-      <c r="B231" t="s">
-        <v>585</v>
-      </c>
-      <c r="M231" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M232" t="s">
-        <v>267</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>265</v>
+      </c>
+      <c r="B233" t="s">
+        <v>586</v>
+      </c>
+      <c r="M233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>266</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>587</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M234" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>269</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>270</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M236" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>271</v>
-      </c>
-      <c r="B237" t="s">
-        <v>542</v>
-      </c>
-      <c r="M237" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="M238" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B239" t="s">
         <v>588</v>
@@ -6402,31 +6411,31 @@
         <v>273</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>275</v>
-      </c>
-      <c r="B241" t="s">
-        <v>550</v>
-      </c>
-      <c r="M241" t="s">
-        <v>212</v>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>274</v>
+      </c>
+      <c r="B240" t="s">
+        <v>588</v>
+      </c>
+      <c r="M240" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="M242" t="s">
-        <v>752</v>
+        <v>212</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B243" t="s">
         <v>589</v>
@@ -6435,97 +6444,97 @@
         <v>752</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>278</v>
-      </c>
-      <c r="B245" t="s">
-        <v>551</v>
-      </c>
-      <c r="M245" t="s">
-        <v>213</v>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>277</v>
+      </c>
+      <c r="B244" t="s">
+        <v>589</v>
+      </c>
+      <c r="M244" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="M246" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B247" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="M247" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>282</v>
-      </c>
-      <c r="B249" t="s">
-        <v>552</v>
-      </c>
-      <c r="M249" t="s">
-        <v>214</v>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>281</v>
+      </c>
+      <c r="B248" t="s">
+        <v>638</v>
+      </c>
+      <c r="M248" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="M250" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>283</v>
+      </c>
+      <c r="B251" t="s">
+        <v>591</v>
+      </c>
+      <c r="M251" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>285</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>639</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M252" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>287</v>
-      </c>
-      <c r="B253" t="s">
-        <v>553</v>
-      </c>
-      <c r="M253" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="M254" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B255" t="s">
         <v>592</v>
@@ -6534,31 +6543,31 @@
         <v>289</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>291</v>
-      </c>
-      <c r="B257" t="s">
-        <v>593</v>
-      </c>
-      <c r="M257" t="s">
-        <v>1022</v>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>290</v>
+      </c>
+      <c r="B256" t="s">
+        <v>592</v>
+      </c>
+      <c r="M256" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M258" t="s">
-        <v>293</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B259" t="s">
         <v>594</v>
@@ -6567,328 +6576,328 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>295</v>
-      </c>
-      <c r="B261" t="s">
-        <v>595</v>
-      </c>
-      <c r="M261" t="s">
-        <v>296</v>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>294</v>
+      </c>
+      <c r="B260" t="s">
+        <v>594</v>
+      </c>
+      <c r="M260" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M262" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>297</v>
+      </c>
+      <c r="B263" t="s">
+        <v>596</v>
+      </c>
+      <c r="M263" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>299</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>594</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M264" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>300</v>
-      </c>
-      <c r="B265" t="s">
-        <v>597</v>
-      </c>
-      <c r="M265" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B266" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M266" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>302</v>
+      </c>
+      <c r="B267" t="s">
+        <v>598</v>
+      </c>
+      <c r="M267" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>304</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>640</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M268" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>306</v>
-      </c>
-      <c r="B269" t="s">
-        <v>523</v>
-      </c>
-      <c r="M269" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="M270" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>307</v>
+      </c>
+      <c r="B271" t="s">
+        <v>599</v>
+      </c>
+      <c r="M271" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>309</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>641</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M272" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>311</v>
-      </c>
-      <c r="B273" t="s">
-        <v>525</v>
-      </c>
-      <c r="M273" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" t="s">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="M274" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B275" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="M275" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>315</v>
-      </c>
-      <c r="B277" t="s">
-        <v>527</v>
-      </c>
-      <c r="M277" t="s">
-        <v>177</v>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>314</v>
+      </c>
+      <c r="B276" t="s">
+        <v>642</v>
+      </c>
+      <c r="M276" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B278" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="M278" t="s">
-        <v>317</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B279" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="M279" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>319</v>
-      </c>
-      <c r="B281" t="s">
-        <v>528</v>
-      </c>
-      <c r="M281" t="s">
-        <v>180</v>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>318</v>
+      </c>
+      <c r="B280" t="s">
+        <v>643</v>
+      </c>
+      <c r="M280" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B282" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="M282" t="s">
-        <v>321</v>
+        <v>180</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B283" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="M283" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>323</v>
-      </c>
-      <c r="B285" t="s">
-        <v>529</v>
-      </c>
-      <c r="M285" t="s">
-        <v>183</v>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>322</v>
+      </c>
+      <c r="B284" t="s">
+        <v>644</v>
+      </c>
+      <c r="M284" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="M286" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>324</v>
+      </c>
+      <c r="B287" t="s">
+        <v>603</v>
+      </c>
+      <c r="M287" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>326</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>645</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M288" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>328</v>
-      </c>
-      <c r="B289" t="s">
-        <v>530</v>
-      </c>
-      <c r="M289" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B290" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="M290" t="s">
-        <v>1061</v>
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>329</v>
+      </c>
+      <c r="B291" t="s">
+        <v>604</v>
+      </c>
+      <c r="M291" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>330</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>646</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M292" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>331</v>
-      </c>
-      <c r="B293" t="s">
-        <v>531</v>
-      </c>
-      <c r="M293" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B294" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="M294" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B295" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="M295" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>335</v>
-      </c>
-      <c r="B297" t="s">
-        <v>532</v>
-      </c>
-      <c r="M297" t="s">
-        <v>191</v>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>334</v>
+      </c>
+      <c r="B296" t="s">
+        <v>647</v>
+      </c>
+      <c r="M296" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B298" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="M298" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B299" t="s">
         <v>606</v>
@@ -6897,130 +6906,130 @@
         <v>337</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>339</v>
-      </c>
-      <c r="B301" t="s">
-        <v>554</v>
-      </c>
-      <c r="M301" t="s">
-        <v>220</v>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>338</v>
+      </c>
+      <c r="B300" t="s">
+        <v>606</v>
+      </c>
+      <c r="M300" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" t="s">
-        <v>607</v>
+        <v>554</v>
       </c>
       <c r="M302" t="s">
-        <v>341</v>
+        <v>220</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>340</v>
+      </c>
+      <c r="B303" t="s">
+        <v>607</v>
+      </c>
+      <c r="M303" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>342</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>648</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M304" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>344</v>
-      </c>
-      <c r="B305" t="s">
-        <v>559</v>
-      </c>
-      <c r="M305" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B306" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="M306" t="s">
-        <v>346</v>
+        <v>224</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>345</v>
+      </c>
+      <c r="B307" t="s">
+        <v>608</v>
+      </c>
+      <c r="M307" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>347</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>649</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M308" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>349</v>
-      </c>
-      <c r="B309" t="s">
-        <v>561</v>
-      </c>
-      <c r="M309" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B310" t="s">
-        <v>609</v>
+        <v>561</v>
       </c>
       <c r="M310" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>350</v>
+      </c>
+      <c r="B311" t="s">
+        <v>609</v>
+      </c>
+      <c r="M311" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>352</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>650</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M312" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>354</v>
-      </c>
-      <c r="B313" t="s">
-        <v>549</v>
-      </c>
-      <c r="M313" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B314" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="M314" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B315" t="s">
         <v>610</v>
@@ -7029,64 +7038,64 @@
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>358</v>
-      </c>
-      <c r="B317" t="s">
-        <v>564</v>
-      </c>
-      <c r="M317" t="s">
-        <v>231</v>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>357</v>
+      </c>
+      <c r="B316" t="s">
+        <v>610</v>
+      </c>
+      <c r="M316" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B318" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="M318" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>359</v>
+      </c>
+      <c r="B319" t="s">
+        <v>611</v>
+      </c>
+      <c r="M319" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>361</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>651</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M320" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>363</v>
-      </c>
-      <c r="B321" t="s">
-        <v>565</v>
-      </c>
-      <c r="M321" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B322" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="M322" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B323" t="s">
         <v>612</v>
@@ -7095,199 +7104,199 @@
         <v>365</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>367</v>
-      </c>
-      <c r="B325" t="s">
-        <v>568</v>
-      </c>
-      <c r="M325" t="s">
-        <v>237</v>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>366</v>
+      </c>
+      <c r="B324" t="s">
+        <v>612</v>
+      </c>
+      <c r="M324" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B326" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="M326" t="s">
-        <v>369</v>
+        <v>237</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>368</v>
+      </c>
+      <c r="B327" t="s">
+        <v>613</v>
+      </c>
+      <c r="M327" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>370</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>652</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M328" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>372</v>
-      </c>
-      <c r="B329" t="s">
-        <v>614</v>
-      </c>
-      <c r="M329" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B330" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M330" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>374</v>
+      </c>
+      <c r="B331" t="s">
+        <v>615</v>
+      </c>
+      <c r="M331" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>376</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>616</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M332" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>378</v>
-      </c>
-      <c r="B333" t="s">
-        <v>617</v>
-      </c>
-      <c r="M333" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B334" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M334" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>380</v>
+      </c>
+      <c r="B335" t="s">
+        <v>615</v>
+      </c>
+      <c r="M335" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>381</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>616</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M336" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>382</v>
-      </c>
-      <c r="B337" t="s">
-        <v>569</v>
-      </c>
-      <c r="M337" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B338" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="M338" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>383</v>
+      </c>
+      <c r="B339" t="s">
+        <v>618</v>
+      </c>
+      <c r="M339" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>385</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>653</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M340" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>387</v>
-      </c>
-      <c r="B341" t="s">
-        <v>570</v>
-      </c>
-      <c r="M341" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B342" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="M342" t="s">
-        <v>389</v>
+        <v>243</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>388</v>
+      </c>
+      <c r="B343" t="s">
+        <v>619</v>
+      </c>
+      <c r="M343" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>390</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>654</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M344" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>392</v>
-      </c>
-      <c r="B345" t="s">
-        <v>544</v>
-      </c>
-      <c r="M345" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B346" t="s">
-        <v>620</v>
+        <v>544</v>
       </c>
       <c r="M346" t="s">
-        <v>394</v>
+        <v>206</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B347" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="M347" t="s">
         <v>394</v>
@@ -7295,40 +7304,40 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>395</v>
+      </c>
+      <c r="B348" t="s">
+        <v>655</v>
+      </c>
+      <c r="M348" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>451</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B349" t="s">
         <v>926</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M349" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>396</v>
-      </c>
-      <c r="B350" t="s">
-        <v>621</v>
-      </c>
-      <c r="M350" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B351" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M351" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B352" t="s">
         <v>622</v>
@@ -7337,97 +7346,97 @@
         <v>399</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>401</v>
-      </c>
-      <c r="B354" t="s">
-        <v>574</v>
-      </c>
-      <c r="M354" t="s">
-        <v>247</v>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>400</v>
+      </c>
+      <c r="B353" t="s">
+        <v>622</v>
+      </c>
+      <c r="M353" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B355" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="M355" t="s">
-        <v>403</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>402</v>
+      </c>
+      <c r="B356" t="s">
+        <v>623</v>
+      </c>
+      <c r="M356" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>404</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>656</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M357" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>406</v>
-      </c>
-      <c r="B358" t="s">
-        <v>576</v>
-      </c>
-      <c r="M358" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B359" t="s">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="M359" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B360" t="s">
         <v>624</v>
       </c>
       <c r="M360" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>410</v>
+      </c>
+      <c r="B361" t="s">
+        <v>624</v>
+      </c>
+      <c r="M361" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>412</v>
-      </c>
-      <c r="B362" t="s">
-        <v>543</v>
-      </c>
-      <c r="M362" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B363" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="M363" t="s">
-        <v>414</v>
+        <v>203</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B364" t="s">
         <v>625</v>
@@ -7436,31 +7445,31 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>416</v>
-      </c>
-      <c r="B366" t="s">
-        <v>626</v>
-      </c>
-      <c r="M366" t="s">
-        <v>417</v>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>415</v>
+      </c>
+      <c r="B365" t="s">
+        <v>625</v>
+      </c>
+      <c r="M365" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B367" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M367" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B368" t="s">
         <v>627</v>
@@ -7469,31 +7478,31 @@
         <v>419</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>421</v>
-      </c>
-      <c r="B370" t="s">
-        <v>628</v>
-      </c>
-      <c r="M370" t="s">
-        <v>422</v>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>420</v>
+      </c>
+      <c r="B369" t="s">
+        <v>627</v>
+      </c>
+      <c r="M369" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B371" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M371" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B372" t="s">
         <v>627</v>
@@ -7502,31 +7511,31 @@
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>425</v>
-      </c>
-      <c r="B374" t="s">
-        <v>577</v>
-      </c>
-      <c r="M374" t="s">
-        <v>253</v>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>424</v>
+      </c>
+      <c r="B373" t="s">
+        <v>627</v>
+      </c>
+      <c r="M373" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B375" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="M375" t="s">
-        <v>427</v>
+        <v>253</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B376" t="s">
         <v>629</v>
@@ -7535,64 +7544,64 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>429</v>
-      </c>
-      <c r="B378" t="s">
-        <v>580</v>
-      </c>
-      <c r="M378" t="s">
-        <v>256</v>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>428</v>
+      </c>
+      <c r="B377" t="s">
+        <v>629</v>
+      </c>
+      <c r="M377" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B379" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="M379" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>430</v>
+      </c>
+      <c r="B380" t="s">
+        <v>630</v>
+      </c>
+      <c r="M380" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>432</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B381" t="s">
         <v>631</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M381" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>434</v>
-      </c>
-      <c r="B382" t="s">
-        <v>632</v>
-      </c>
-      <c r="M382" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B383" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M383" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B384" t="s">
         <v>633</v>
@@ -7601,31 +7610,31 @@
         <v>437</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>439</v>
-      </c>
-      <c r="B386" t="s">
-        <v>634</v>
-      </c>
-      <c r="M386" t="s">
-        <v>692</v>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>438</v>
+      </c>
+      <c r="B385" t="s">
+        <v>633</v>
+      </c>
+      <c r="M385" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B387" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M387" t="s">
-        <v>441</v>
+        <v>692</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B388" t="s">
         <v>635</v>
@@ -7634,31 +7643,31 @@
         <v>441</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>443</v>
-      </c>
-      <c r="B390" t="s">
-        <v>636</v>
-      </c>
-      <c r="M390" t="s">
-        <v>199</v>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>442</v>
+      </c>
+      <c r="B389" t="s">
+        <v>635</v>
+      </c>
+      <c r="M389" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B391" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M391" t="s">
-        <v>445</v>
+        <v>199</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B392" t="s">
         <v>637</v>
@@ -7667,31 +7676,31 @@
         <v>445</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>447</v>
-      </c>
-      <c r="B394" t="s">
-        <v>168</v>
-      </c>
-      <c r="M394" t="s">
-        <v>168</v>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>446</v>
+      </c>
+      <c r="B393" t="s">
+        <v>637</v>
+      </c>
+      <c r="M393" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B395" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="M395" t="s">
-        <v>711</v>
+        <v>168</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B396" t="s">
         <v>449</v>
@@ -7700,53 +7709,53 @@
         <v>711</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>453</v>
-      </c>
-      <c r="B398" t="s">
-        <v>455</v>
-      </c>
-      <c r="M398" t="s">
-        <v>455</v>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>450</v>
+      </c>
+      <c r="B397" t="s">
+        <v>449</v>
+      </c>
+      <c r="M397" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>453</v>
+      </c>
+      <c r="B399" t="s">
+        <v>455</v>
+      </c>
+      <c r="M399" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>454</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B400" t="s">
         <v>456</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M400" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>891</v>
-      </c>
-      <c r="B401" t="s">
-        <v>896</v>
-      </c>
-      <c r="M401" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B402" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M402" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B403" t="s">
         <v>897</v>
@@ -7755,755 +7764,745 @@
         <v>894</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M405" t="s">
-        <v>1132</v>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>893</v>
+      </c>
+      <c r="B404" t="s">
+        <v>897</v>
+      </c>
+      <c r="M404" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B406" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M406" t="s">
-        <v>1165</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B407" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M407" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M409" t="s">
-        <v>1133</v>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M408" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B410" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="M410" t="s">
-        <v>1176</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M411" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>1112</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B412" t="s">
         <v>1117</v>
       </c>
-      <c r="M411" t="s">
+      <c r="M412" t="s">
         <v>1177</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>462</v>
-      </c>
-      <c r="B413" t="s">
-        <v>657</v>
-      </c>
-      <c r="M413" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B414" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M414" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B415" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M415" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B416" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M416" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>465</v>
+      </c>
+      <c r="B417" t="s">
+        <v>660</v>
+      </c>
+      <c r="M417" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>466</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>661</v>
       </c>
-      <c r="M417" t="s">
+      <c r="M418" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>473</v>
-      </c>
-      <c r="B419" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>812</v>
+        <v>473</v>
       </c>
       <c r="B420" t="s">
-        <v>814</v>
-      </c>
-      <c r="M420" t="s">
-        <v>816</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B421" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M421" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>478</v>
+        <v>813</v>
       </c>
       <c r="B422" t="s">
-        <v>503</v>
+        <v>815</v>
       </c>
       <c r="M422" t="s">
-        <v>468</v>
+        <v>817</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B423" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M423" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B424" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M424" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B425" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M425" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B426" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M426" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1155</v>
+        <v>477</v>
       </c>
       <c r="B427" t="s">
-        <v>1156</v>
+        <v>507</v>
       </c>
       <c r="M427" t="s">
-        <v>1158</v>
+        <v>472</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>899</v>
+        <v>1155</v>
       </c>
       <c r="B428" t="s">
-        <v>906</v>
+        <v>1156</v>
       </c>
       <c r="M428" t="s">
-        <v>913</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B429" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M429" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B430" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M430" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B431" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M431" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B432" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M432" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B433" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M433" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B434" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M434" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1160</v>
+        <v>905</v>
       </c>
       <c r="B435" t="s">
-        <v>1157</v>
+        <v>912</v>
       </c>
       <c r="M435" t="s">
-        <v>1159</v>
+        <v>919</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="B436" t="s">
-        <v>921</v>
+        <v>1157</v>
       </c>
       <c r="M436" t="s">
-        <v>922</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>920</v>
+      </c>
+      <c r="B437" t="s">
+        <v>921</v>
+      </c>
+      <c r="M437" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
         <v>925</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B438" t="s">
         <v>923</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M438" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>479</v>
-      </c>
-      <c r="B439" t="s">
-        <v>508</v>
-      </c>
-      <c r="M439" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B440" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="M440" t="s">
-        <v>501</v>
+        <v>810</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B441" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M441" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>929</v>
+        <v>481</v>
       </c>
       <c r="B442" t="s">
-        <v>930</v>
+        <v>483</v>
       </c>
       <c r="M442" t="s">
-        <v>931</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B443" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="M443" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B444" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M444" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1054</v>
+        <v>935</v>
       </c>
       <c r="B445" t="s">
-        <v>1055</v>
+        <v>936</v>
       </c>
       <c r="M445" t="s">
-        <v>1056</v>
+        <v>937</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M446" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
         <v>482</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B447" t="s">
         <v>811</v>
       </c>
-      <c r="M446" t="s">
+      <c r="M447" t="s">
         <v>710</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>489</v>
-      </c>
-      <c r="B448" t="s">
-        <v>662</v>
-      </c>
-      <c r="M448" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B449" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M449" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B450" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M450" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>491</v>
+      </c>
+      <c r="B451" t="s">
+        <v>664</v>
+      </c>
+      <c r="M451" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>492</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B452" t="s">
         <v>665</v>
       </c>
-      <c r="M451" t="s">
+      <c r="M452" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>493</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>693</v>
       </c>
-      <c r="M453" t="s">
+      <c r="M454" t="s">
         <v>694</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>666</v>
-      </c>
-      <c r="B455" t="s">
-        <v>494</v>
-      </c>
-      <c r="M455" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B456" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M456" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>667</v>
+      </c>
+      <c r="B457" t="s">
+        <v>495</v>
+      </c>
+      <c r="M457" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>668</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B458" t="s">
         <v>496</v>
       </c>
-      <c r="M457" t="s">
+      <c r="M458" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>500</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B460" t="s">
         <v>695</v>
       </c>
-      <c r="M459" t="s">
+      <c r="M460" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>696</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C461" s="1"/>
-      <c r="D461" s="1"/>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
-      <c r="G461" s="1"/>
-      <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
-      <c r="J461" s="1"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="1"/>
-      <c r="M461" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>696</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+      <c r="H462" s="1"/>
+      <c r="I462" s="1"/>
+      <c r="J462" s="1"/>
+      <c r="K462" s="1"/>
+      <c r="L462" s="1"/>
+      <c r="M462" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
         <v>697</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B463" t="s">
         <v>699</v>
       </c>
-      <c r="M462" t="s">
+      <c r="M463" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
         <v>712</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B465" t="s">
         <v>713</v>
       </c>
-      <c r="M464" t="s">
+      <c r="M465" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>715</v>
-      </c>
-      <c r="B466" t="s">
-        <v>716</v>
-      </c>
-      <c r="M466" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B467" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="M467" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B468" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M468" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B469" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M469" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B470" t="s">
-        <v>287</v>
+        <v>724</v>
       </c>
       <c r="M470" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471" t="s">
+        <v>287</v>
+      </c>
+      <c r="M471" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
         <v>721</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B472" t="s">
         <v>725</v>
       </c>
-      <c r="M471" t="s">
+      <c r="M472" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1147</v>
-      </c>
-      <c r="M473" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B474" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M474" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B475" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="M475" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M476" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>1149</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B477" t="s">
         <v>1151</v>
       </c>
-      <c r="M476" t="s">
+      <c r="M477" t="s">
         <v>1173</v>
-      </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>819</v>
-      </c>
-      <c r="B478" t="s">
-        <v>820</v>
-      </c>
-      <c r="M478" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>946</v>
+        <v>819</v>
       </c>
       <c r="B479" t="s">
-        <v>947</v>
+        <v>820</v>
       </c>
       <c r="M479" t="s">
-        <v>948</v>
+        <v>822</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>823</v>
+        <v>946</v>
       </c>
       <c r="B480" t="s">
-        <v>821</v>
+        <v>947</v>
       </c>
       <c r="M480" t="s">
-        <v>825</v>
+        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B481" t="s">
         <v>821</v>
       </c>
       <c r="M481" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>826</v>
+      </c>
+      <c r="B482" t="s">
+        <v>821</v>
+      </c>
+      <c r="M482" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>828</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B483" t="s">
         <v>824</v>
       </c>
-      <c r="M482" t="s">
+      <c r="M483" t="s">
         <v>824</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>832</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C484" s="3"/>
-      <c r="D484" s="3"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
-      <c r="I484" s="3"/>
-      <c r="J484" s="3"/>
-      <c r="K484" s="3"/>
-      <c r="L484" s="3"/>
-      <c r="M484" s="2" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -8516,83 +8515,104 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
       <c r="M485" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>833</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C486" s="3"/>
+      <c r="D486" s="3"/>
+      <c r="E486" s="3"/>
+      <c r="F486" s="3"/>
+      <c r="G486" s="3"/>
+      <c r="H486" s="3"/>
+      <c r="I486" s="3"/>
+      <c r="J486" s="3"/>
+      <c r="K486" s="3"/>
+      <c r="L486" s="3"/>
+      <c r="M486" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
         <v>834</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B487" t="s">
         <v>836</v>
       </c>
-      <c r="M486" t="s">
+      <c r="M487" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="488" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M488" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M489" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>1178</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B490" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="M489" s="4" t="s">
+      <c r="M490" s="4" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+    <row r="491" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>1179</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B491" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="M490" s="4" t="s">
+      <c r="M491" s="4" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+    <row r="492" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>1180</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B492" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="M491" s="4" t="s">
+      <c r="M492" s="4" t="s">
         <v>1188</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M492" s="4" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="493" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M493" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>1182</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B494" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="M493" s="4" t="s">
+      <c r="M494" s="4" t="s">
         <v>1192</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C6D72-14F0-4F41-B7BA-93A3ECC108E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECEE2E-34AE-4B58-83F1-5E11A962D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3150" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="2250" windowWidth="25035" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
     <sheet name="Role Descriptions" sheetId="3" r:id="rId2"/>
-    <sheet name="Images" sheetId="2" r:id="rId3"/>
+    <sheet name="Role Blurbs" sheetId="6" r:id="rId3"/>
+    <sheet name="Images" sheetId="2" r:id="rId4"/>
+    <sheet name="Colors" sheetId="4" r:id="rId5"/>
+    <sheet name="Hats" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1348">
   <si>
     <t>presetSelection</t>
   </si>
@@ -556,9 +559,6 @@
   </si>
   <si>
     <t>変身時間</t>
-  </si>
-  <si>
-    <t>カモフラージャ</t>
   </si>
   <si>
     <t>カモフラージュクールダウン</t>
@@ -3666,9 +3666,6 @@
     <t>ヴァルチャー</t>
   </si>
   <si>
-    <t>ミーディアム</t>
-  </si>
-  <si>
     <t>Question the souls of the dead to gain information</t>
   </si>
   <si>
@@ -3952,6 +3949,429 @@
   </si>
   <si>
     <t>使いどころのない設定</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Turqoise</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Nougat</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Wasabi</t>
+  </si>
+  <si>
+    <t>Hot Pink</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Signal Orange</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Blurple</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>colorSalmon</t>
+  </si>
+  <si>
+    <t>colorBordeaux</t>
+  </si>
+  <si>
+    <t>colorOlive</t>
+  </si>
+  <si>
+    <t>colorTurqoise</t>
+  </si>
+  <si>
+    <t>colorMint</t>
+  </si>
+  <si>
+    <t>colorLavender</t>
+  </si>
+  <si>
+    <t>colorNougat</t>
+  </si>
+  <si>
+    <t>colorPeach</t>
+  </si>
+  <si>
+    <t>colorWasabi</t>
+  </si>
+  <si>
+    <t>colorPetrol</t>
+  </si>
+  <si>
+    <t>colorLemon</t>
+  </si>
+  <si>
+    <t>colorTeal</t>
+  </si>
+  <si>
+    <t>colorBlurple</t>
+  </si>
+  <si>
+    <t>colorSunrise</t>
+  </si>
+  <si>
+    <t>colorIce</t>
+  </si>
+  <si>
+    <t>colorHotPink</t>
+  </si>
+  <si>
+    <t>colorSignalOrange</t>
+  </si>
+  <si>
+    <t>サーモン</t>
+  </si>
+  <si>
+    <t>ボルドー</t>
+  </si>
+  <si>
+    <t>オリーブ</t>
+  </si>
+  <si>
+    <t>ターコイズ</t>
+  </si>
+  <si>
+    <t>ミント</t>
+  </si>
+  <si>
+    <t>ラベンダー</t>
+  </si>
+  <si>
+    <t>ヌガー</t>
+  </si>
+  <si>
+    <t>ピーチ</t>
+  </si>
+  <si>
+    <t>ワサビ</t>
+  </si>
+  <si>
+    <t>ホットピンク</t>
+  </si>
+  <si>
+    <t>レモン</t>
+  </si>
+  <si>
+    <t>シグナルオレンジ</t>
+  </si>
+  <si>
+    <t>ティール</t>
+  </si>
+  <si>
+    <t>サンライズ</t>
+  </si>
+  <si>
+    <t>アイス</t>
+  </si>
+  <si>
+    <t>ブラープル</t>
+  </si>
+  <si>
+    <t>ペトロールブルー</t>
+  </si>
+  <si>
+    <t>Petrol Blue</t>
+  </si>
+  <si>
+    <t>Innersloth Hats</t>
+  </si>
+  <si>
+    <t>developerHats</t>
+  </si>
+  <si>
+    <t>Developer Hats</t>
+  </si>
+  <si>
+    <t>communityHats</t>
+  </si>
+  <si>
+    <t>Community Hats</t>
+  </si>
+  <si>
+    <t>TOR開発チーム作</t>
+  </si>
+  <si>
+    <t>Innersloth公式作</t>
+  </si>
+  <si>
+    <t>shiuneCollection</t>
+  </si>
+  <si>
+    <t>Shiune Collection</t>
+  </si>
+  <si>
+    <t>しうねコレクション</t>
+  </si>
+  <si>
+    <t>コミュニティー作</t>
+  </si>
+  <si>
+    <t>gmEditionLibhalt</t>
+  </si>
+  <si>
+    <t>gmEditionGeneral</t>
+  </si>
+  <si>
+    <t>libhaltコレクション</t>
+  </si>
+  <si>
+    <t>libhalt Collection</t>
+  </si>
+  <si>
+    <t>GM Edition Exclusive</t>
+  </si>
+  <si>
+    <t>GMエディション限定</t>
+  </si>
+  <si>
+    <t>innerslothHats</t>
+  </si>
+  <si>
+    <t>shifterBlurb</t>
+  </si>
+  <si>
+    <t>mayorBlurb</t>
+  </si>
+  <si>
+    <t>sheriffBlurb</t>
+  </si>
+  <si>
+    <t>lighterBlurb</t>
+  </si>
+  <si>
+    <t>detectiveBlurb</t>
+  </si>
+  <si>
+    <t>timeMasterBlurb</t>
+  </si>
+  <si>
+    <t>medicBlurb</t>
+  </si>
+  <si>
+    <t>swapperBlurb</t>
+  </si>
+  <si>
+    <t>seerBlurb</t>
+  </si>
+  <si>
+    <t>hackerBlurb</t>
+  </si>
+  <si>
+    <t>trackerBlurb</t>
+  </si>
+  <si>
+    <t>snitchBlurb</t>
+  </si>
+  <si>
+    <t>spyBlurb</t>
+  </si>
+  <si>
+    <t>securityGuardBlurb</t>
+  </si>
+  <si>
+    <t>baitBlurb</t>
+  </si>
+  <si>
+    <t>mediumBlurb</t>
+  </si>
+  <si>
+    <t>mafiaBlurb</t>
+  </si>
+  <si>
+    <t>camouflagerBlurb</t>
+  </si>
+  <si>
+    <t>vampireBlurb</t>
+  </si>
+  <si>
+    <t>eraserBlurb</t>
+  </si>
+  <si>
+    <t>tricksterBlurb</t>
+  </si>
+  <si>
+    <t>cleanerBlurb</t>
+  </si>
+  <si>
+    <t>warlockBlurb</t>
+  </si>
+  <si>
+    <t>bountyHunterBlurb</t>
+  </si>
+  <si>
+    <t>madmateBlurb</t>
+  </si>
+  <si>
+    <t>miniBlurb</t>
+  </si>
+  <si>
+    <t>loversBlurb</t>
+  </si>
+  <si>
+    <t>guesserBlurb</t>
+  </si>
+  <si>
+    <t>jesterBlurb</t>
+  </si>
+  <si>
+    <t>arsonistBlurb</t>
+  </si>
+  <si>
+    <t>jackalBlurb</t>
+  </si>
+  <si>
+    <t>opportunistBlurb</t>
+  </si>
+  <si>
+    <t>vultureBlurb</t>
+  </si>
+  <si>
+    <t>gmBlurb</t>
+  </si>
+  <si>
+    <t>シェリフは、インポスターや第3陣営をキルできます。インポスターや第3陣営をキルしてクルーを勝利に導いてください。ただし、クルーをキルしてしまうとシェリフ自身が死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>探偵は、他人の足跡が見えます。
+時間内に死体を通報すると更に多くの情報を得られるので重要な役割となってます。</t>
+  </si>
+  <si>
+    <t>ハッカーは、アドミンやバイタルでより多くの情報を得られます。制限時間付きでアドミンなら色がわかり、バイタルなら死んだ時間までわかります。</t>
+  </si>
+  <si>
+    <t>ライターは、一定時間視界を広くすることができます。停電中に使いインポスターの視界で動けるので多くの情報を得ましょう。</t>
+  </si>
+  <si>
+    <t>市長は、投票先に2票はいります。
+慎重に怪しい人物に投票しましょう。</t>
+  </si>
+  <si>
+    <t>メディックは、誰か一人にシールドを貼ることができます。シールドを貼ったプレイヤーがキルされるとシールドが壊れます。誰に殺されそうになったのかが守られた人はわかるので伝えましょう。</t>
+  </si>
+  <si>
+    <t>警備員は、ベントを塞ぐことや新しいカメラを設置できます。ベントを塞いでインポスターにベントを使わせないようにしましょう。カメラを新しく設置して目撃情報を増やしましょう。</t>
+  </si>
+  <si>
+    <t>シーアは、死んだ瞬間がわかります。
+更に死んだ場所に行くと魂も見えるので重要な役割となっています。</t>
+  </si>
+  <si>
+    <t>シフターは、選んだ人の役割を引き継ぐことができます。ただし、インポスターや第3陣営を選んでしまうと死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>スニッチは、タスクが終了すると誰がインポスターなのかわかります。ただし、タスク終了間際になるとインポスターに場所がバレてしまうので要注意…</t>
+  </si>
+  <si>
+    <t>スパイは、インポスターからは仲間に見えてしまうクルー陣営です。インポスターに仲間と思わせて誰か判明したら裏切りましょう。</t>
+  </si>
+  <si>
+    <t>スワッパーは、投票先を入れ替えることができます。自身と誰かの投票先を変えるか、他者の投票先を入れ替えられます。</t>
+  </si>
+  <si>
+    <t>タイムマスターは、自身に一定時間シールドを貼れます。もし、シールド中にキルされたら全体の時間が巻き戻されるので情報を伝えましょう。</t>
+  </si>
+  <si>
+    <t>トラッカーは、誰か一人を追跡できます。
+常にどこら辺に居るのかがわかります。</t>
+  </si>
+  <si>
+    <t>ベイトは、キルされるとそのインポスター自身に通報させることが出来ます。更に、インポスターが入っているベントが見えるので重要な役割です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミディアムは、死んだ人の魂からさらに多くの情報を得られます。ただし、魂はそのターンしか見れないため急がなくては行けません。 </t>
+  </si>
+  <si>
+    <t>ミニは、小さくて可愛いクルーメイトです。ただし、一定の確率でインポスターである『イビルミニ』となるので気をつけてください。</t>
+  </si>
+  <si>
+    <t>ゲッサーは、誰かの役職を会議中に当てることでキルできます。ただし、一定の確率でインポスターである『イビルゲッサー』となるので気をつけてください。</t>
+  </si>
+  <si>
+    <t>ラバーズは、最後まで生き残っていれば勝利となります。相方が死んでしまうと自身も死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>オポチュニストは、最後まで生き残っていれば追加で勝利することができます。なにしてもいい異端児です。</t>
+  </si>
+  <si>
+    <t>ヴァルチャーは、死体を食べることができます。死体を一定の数食べることによって勝利することができます。</t>
+  </si>
+  <si>
+    <t>ジェスターは、吊られると勝利できます。
+ただし、キルされても勝てないのでたくさん怪しくなりましょう。</t>
+  </si>
+  <si>
+    <t>アーソニストは、全員にガソリンをかけることができます。全員にガソリンをかけ終え、発火させることで勝利します。</t>
+  </si>
+  <si>
+    <t>ジャッカルは、クルーとインポスターを全滅することで勝利できます。サイドキックで仲間を作ることで勝利しやすくなるので仲間を作りましょう。</t>
+  </si>
+  <si>
+    <t>バウンティハンターは、標的をキルすることによってキルクールを大幅に減らすことができます。殺しまくりましょう。</t>
+  </si>
+  <si>
+    <t>カモフラージャーは、一定時間全員の色を統一し名前を隠すことができます。相方をサポートしながらキルしましょう。</t>
+  </si>
+  <si>
+    <t>クリーナーは、死体を消すことができます。
+ただし、死体を消すとキルができないので要注意…</t>
+  </si>
+  <si>
+    <t>イレイサーは、役職を消すことができます。
+クルー陣営の役職を消してインポスターの有利に働くよう動きましょう。</t>
+  </si>
+  <si>
+    <t>トリックスターは、新しい専用のベントを設置できます。専用のベントを全て設置完了したら強制的な停電を起こせるので活用しましょう。</t>
+  </si>
+  <si>
+    <t>ヴァンパイアは、時間差でキルができます。
+ただし、にんにくの置いてある場所では通常のキルしか行えないので要注意…</t>
+  </si>
+  <si>
+    <t>ウォーロックは、誰かに呪いをかける事でその呪われた人の前で遠隔キルができます。ただし、遠隔キルの後は一定時間動けなくなるので要注意…</t>
+  </si>
+  <si>
+    <t>ゴッドファーザーは、マフィアのボスです。
+通常のインポスターとやることは変わりません。
+マフィオソは、ゴッドファーザーが死んだらゴッドファーザーへと昇格できます。それまでは、狂人という立ち位置になります。
+掃除屋は、死体を消すことができます。
+キルやサボタージュはできないので要注意…</t>
+  </si>
+  <si>
+    <t>カモフラージャー</t>
+  </si>
+  <si>
+    <t>ミディアム</t>
   </si>
 </sst>
 </file>
@@ -4277,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,7 +4763,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M2" t="s">
         <v>159</v>
@@ -4354,7 +4774,7 @@
         <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M3" t="s">
         <v>160</v>
@@ -4365,7 +4785,7 @@
         <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M4" t="s">
         <v>161</v>
@@ -4376,7 +4796,7 @@
         <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M5" t="s">
         <v>162</v>
@@ -4387,7 +4807,7 @@
         <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M6" t="s">
         <v>163</v>
@@ -4398,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M7" t="s">
         <v>158</v>
@@ -4409,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4420,10 +4840,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4431,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M10" t="s">
         <v>164</v>
@@ -4442,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M11" t="s">
         <v>165</v>
@@ -4453,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M12" t="s">
         <v>166</v>
@@ -4464,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M13" t="s">
         <v>167</v>
@@ -4486,10 +4906,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4497,10 +4917,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4508,10 +4928,10 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4519,10 +4939,10 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4530,10 +4950,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4541,7 +4961,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M24" t="s">
         <v>169</v>
@@ -4552,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M25" t="s">
         <v>170</v>
@@ -4563,7 +4983,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M27" t="s">
         <v>171</v>
@@ -4574,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
@@ -4585,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M29" t="s">
         <v>173</v>
@@ -4596,10 +5016,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M31" t="s">
-        <v>174</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4607,10 +5027,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4618,21 +5038,21 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M34" t="s">
         <v>1052</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4640,10 +5060,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4651,10 +5071,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4662,10 +5082,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4673,10 +5093,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,10 +5104,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4695,21 +5115,21 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M43" t="s">
         <v>1207</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4717,10 +5137,10 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4728,10 +5148,10 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4739,10 +5159,10 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4750,10 +5170,10 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4761,10 +5181,10 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4772,10 +5192,10 @@
         <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4783,7 +5203,7 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M52" t="s">
         <v>170</v>
@@ -4794,10 +5214,10 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4805,10 +5225,10 @@
         <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4816,10 +5236,10 @@
         <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4827,10 +5247,10 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4838,10 +5258,10 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4849,10 +5269,10 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4860,10 +5280,10 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4871,10 +5291,10 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4882,10 +5302,10 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4893,21 +5313,21 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B67" t="s">
         <v>1203</v>
       </c>
-      <c r="B67" t="s">
-        <v>1205</v>
-      </c>
       <c r="M67" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4915,10 +5335,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="M68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4926,10 +5346,10 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4937,10 +5357,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M71" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4948,10 +5368,10 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M72" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4959,10 +5379,10 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M73" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4970,21 +5390,21 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M74" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>937</v>
+      </c>
+      <c r="B75" t="s">
         <v>938</v>
       </c>
-      <c r="B75" t="s">
+      <c r="M75" t="s">
         <v>939</v>
-      </c>
-      <c r="M75" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4992,10 +5412,10 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M76" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,10 +5423,10 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5014,10 +5434,10 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="M79" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5025,32 +5445,32 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B81" t="s">
         <v>1057</v>
       </c>
-      <c r="B81" t="s">
+      <c r="M81" t="s">
         <v>1058</v>
-      </c>
-      <c r="M81" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B82" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="M82" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5058,10 +5478,10 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5069,10 +5489,10 @@
         <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M85" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5080,10 +5500,10 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M86" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5091,10 +5511,10 @@
         <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5102,10 +5522,10 @@
         <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5113,10 +5533,10 @@
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5124,10 +5544,10 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5135,10 +5555,10 @@
         <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M93" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5146,10 +5566,10 @@
         <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M94" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -5157,10 +5577,10 @@
         <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M95" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5168,10 +5588,10 @@
         <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M96" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5179,10 +5599,10 @@
         <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5190,10 +5610,10 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5201,10 +5621,10 @@
         <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5212,10 +5632,10 @@
         <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,10 +5643,10 @@
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5234,21 +5654,21 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M102" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B103" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M103" t="s">
         <v>1141</v>
-      </c>
-      <c r="M103" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5256,10 +5676,10 @@
         <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5267,10 +5687,10 @@
         <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5278,10 +5698,10 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5289,10 +5709,10 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5300,10 +5720,10 @@
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5311,10 +5731,10 @@
         <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M113" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5322,10 +5742,10 @@
         <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5333,21 +5753,21 @@
         <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M115" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>942</v>
+      </c>
+      <c r="B116" t="s">
         <v>943</v>
       </c>
-      <c r="B116" t="s">
+      <c r="M116" t="s">
         <v>944</v>
-      </c>
-      <c r="M116" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5355,10 +5775,10 @@
         <v>64</v>
       </c>
       <c r="B118" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M118" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5366,10 +5786,10 @@
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5377,10 +5797,10 @@
         <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5388,10 +5808,10 @@
         <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5399,10 +5819,10 @@
         <v>68</v>
       </c>
       <c r="B122" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5410,10 +5830,10 @@
         <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5421,10 +5841,10 @@
         <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5432,10 +5852,10 @@
         <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5443,10 +5863,10 @@
         <v>72</v>
       </c>
       <c r="B127" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5454,10 +5874,10 @@
         <v>73</v>
       </c>
       <c r="B128" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M128" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5465,10 +5885,10 @@
         <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M129" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5476,10 +5896,10 @@
         <v>75</v>
       </c>
       <c r="B131" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,10 +5907,10 @@
         <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5498,10 +5918,10 @@
         <v>77</v>
       </c>
       <c r="B133" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5509,10 +5929,10 @@
         <v>78</v>
       </c>
       <c r="B134" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5520,54 +5940,54 @@
         <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B137" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M137" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B139" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M139" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B140" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M140" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -5575,10 +5995,10 @@
         <v>80</v>
       </c>
       <c r="B141" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -5586,10 +6006,10 @@
         <v>81</v>
       </c>
       <c r="B142" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M142" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -5597,10 +6017,10 @@
         <v>82</v>
       </c>
       <c r="B144" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -5608,10 +6028,10 @@
         <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M145" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -5619,10 +6039,10 @@
         <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -5630,54 +6050,54 @@
         <v>85</v>
       </c>
       <c r="B148" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B149" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M149" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B150" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B151" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M151" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>678</v>
+      </c>
+      <c r="B152" t="s">
+        <v>682</v>
+      </c>
+      <c r="M152" t="s">
         <v>679</v>
-      </c>
-      <c r="B152" t="s">
-        <v>683</v>
-      </c>
-      <c r="M152" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -5685,10 +6105,10 @@
         <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M153" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -5696,15 +6116,15 @@
         <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -5712,10 +6132,10 @@
         <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -5723,10 +6143,10 @@
         <v>89</v>
       </c>
       <c r="B157" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -5734,10 +6154,10 @@
         <v>90</v>
       </c>
       <c r="B158" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -5745,10 +6165,10 @@
         <v>91</v>
       </c>
       <c r="B159" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M159" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,10 +6176,10 @@
         <v>92</v>
       </c>
       <c r="B161" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -5767,10 +6187,10 @@
         <v>93</v>
       </c>
       <c r="B162" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -5778,10 +6198,10 @@
         <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -5789,10 +6209,10 @@
         <v>95</v>
       </c>
       <c r="B165" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -5800,10 +6220,10 @@
         <v>96</v>
       </c>
       <c r="B166" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M166" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,10 +6231,10 @@
         <v>97</v>
       </c>
       <c r="B167" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -5822,10 +6242,10 @@
         <v>98</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M168" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -5833,10 +6253,10 @@
         <v>99</v>
       </c>
       <c r="B170" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -5844,10 +6264,10 @@
         <v>100</v>
       </c>
       <c r="B171" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,10 +6275,10 @@
         <v>101</v>
       </c>
       <c r="B172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M172" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -5866,10 +6286,10 @@
         <v>102</v>
       </c>
       <c r="B173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M173" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -5877,10 +6297,10 @@
         <v>103</v>
       </c>
       <c r="B174" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M174" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -5888,10 +6308,10 @@
         <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M176" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -5899,10 +6319,10 @@
         <v>114</v>
       </c>
       <c r="B177" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M177" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -5910,10 +6330,10 @@
         <v>115</v>
       </c>
       <c r="B178" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M178" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -5921,10 +6341,10 @@
         <v>116</v>
       </c>
       <c r="B179" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M179" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -5932,10 +6352,10 @@
         <v>117</v>
       </c>
       <c r="B180" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M180" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -5943,10 +6363,10 @@
         <v>118</v>
       </c>
       <c r="B182" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M182" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -5954,10 +6374,10 @@
         <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M183" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -5965,10 +6385,10 @@
         <v>120</v>
       </c>
       <c r="B184" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,10 +6396,10 @@
         <v>121</v>
       </c>
       <c r="B186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -5987,10 +6407,10 @@
         <v>122</v>
       </c>
       <c r="B187" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -5998,10 +6418,10 @@
         <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M188" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -6009,10 +6429,10 @@
         <v>124</v>
       </c>
       <c r="B189" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M189" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -6020,10 +6440,10 @@
         <v>125</v>
       </c>
       <c r="B190" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M190" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -6031,109 +6451,109 @@
         <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M191" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B193" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M193" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B195" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="M195" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B196" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M196" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B197" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M197" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B198" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M198" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B199" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M199" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B201" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="M201" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B202" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M202" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B203" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="M203" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -6141,10 +6561,10 @@
         <v>133</v>
       </c>
       <c r="B205" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M205" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -6152,10 +6572,10 @@
         <v>134</v>
       </c>
       <c r="B206" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M206" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -6163,10 +6583,10 @@
         <v>135</v>
       </c>
       <c r="B207" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M207" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,491 +6594,491 @@
         <v>136</v>
       </c>
       <c r="B208" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M209" t="s">
         <v>1062</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B211" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M211" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B212" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M212" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B213" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M213" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B214" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M214" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B215" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M215" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B216" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M216" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>961</v>
+      </c>
+      <c r="B218" t="s">
         <v>962</v>
       </c>
-      <c r="B218" t="s">
+      <c r="M218" t="s">
         <v>963</v>
-      </c>
-      <c r="M218" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>964</v>
+      </c>
+      <c r="B219" t="s">
         <v>965</v>
       </c>
-      <c r="B219" t="s">
+      <c r="M219" t="s">
         <v>966</v>
-      </c>
-      <c r="M219" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M221" t="s">
         <v>1210</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1211</v>
-      </c>
-      <c r="M221" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B222" t="s">
         <v>1197</v>
       </c>
-      <c r="B222" t="s">
+      <c r="M222" t="s">
         <v>1199</v>
-      </c>
-      <c r="M222" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B223" t="s">
         <v>1198</v>
       </c>
-      <c r="B223" t="s">
+      <c r="M223" t="s">
         <v>1200</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>703</v>
+      </c>
+      <c r="B224" t="s">
+        <v>699</v>
+      </c>
+      <c r="M224" t="s">
         <v>704</v>
-      </c>
-      <c r="B224" t="s">
-        <v>700</v>
-      </c>
-      <c r="M224" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M230" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B232" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M232" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B233" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M233" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B234" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M234" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>268</v>
+      </c>
+      <c r="B236" t="s">
         <v>269</v>
       </c>
-      <c r="B236" t="s">
-        <v>270</v>
-      </c>
       <c r="M236" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M238" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>271</v>
+      </c>
+      <c r="B239" t="s">
+        <v>587</v>
+      </c>
+      <c r="M239" t="s">
         <v>272</v>
-      </c>
-      <c r="B239" t="s">
-        <v>588</v>
-      </c>
-      <c r="M239" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M240" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M242" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M243" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M244" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B246" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" t="s">
+        <v>589</v>
+      </c>
+      <c r="M247" t="s">
         <v>279</v>
-      </c>
-      <c r="B247" t="s">
-        <v>590</v>
-      </c>
-      <c r="M247" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B248" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M248" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B250" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M250" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>282</v>
+      </c>
+      <c r="B251" t="s">
+        <v>590</v>
+      </c>
+      <c r="M251" t="s">
         <v>283</v>
-      </c>
-      <c r="B251" t="s">
-        <v>591</v>
-      </c>
-      <c r="M251" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>284</v>
+      </c>
+      <c r="B252" t="s">
+        <v>638</v>
+      </c>
+      <c r="M252" t="s">
         <v>285</v>
-      </c>
-      <c r="B252" t="s">
-        <v>639</v>
-      </c>
-      <c r="M252" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M254" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>287</v>
+      </c>
+      <c r="B255" t="s">
+        <v>591</v>
+      </c>
+      <c r="M255" t="s">
         <v>288</v>
-      </c>
-      <c r="B255" t="s">
-        <v>592</v>
-      </c>
-      <c r="M255" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M256" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B258" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M258" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>291</v>
+      </c>
+      <c r="B259" t="s">
+        <v>593</v>
+      </c>
+      <c r="M259" t="s">
         <v>292</v>
-      </c>
-      <c r="B259" t="s">
-        <v>594</v>
-      </c>
-      <c r="M259" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M260" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>294</v>
+      </c>
+      <c r="B262" t="s">
+        <v>594</v>
+      </c>
+      <c r="M262" t="s">
         <v>295</v>
-      </c>
-      <c r="B262" t="s">
-        <v>595</v>
-      </c>
-      <c r="M262" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>296</v>
+      </c>
+      <c r="B263" t="s">
+        <v>595</v>
+      </c>
+      <c r="M263" t="s">
         <v>297</v>
-      </c>
-      <c r="B263" t="s">
-        <v>596</v>
-      </c>
-      <c r="M263" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B264" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M264" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>299</v>
+      </c>
+      <c r="B266" t="s">
+        <v>596</v>
+      </c>
+      <c r="M266" t="s">
         <v>300</v>
-      </c>
-      <c r="B266" t="s">
-        <v>597</v>
-      </c>
-      <c r="M266" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>301</v>
+      </c>
+      <c r="B267" t="s">
+        <v>597</v>
+      </c>
+      <c r="M267" t="s">
         <v>302</v>
-      </c>
-      <c r="B267" t="s">
-        <v>598</v>
-      </c>
-      <c r="M267" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>303</v>
+      </c>
+      <c r="B268" t="s">
+        <v>639</v>
+      </c>
+      <c r="M268" t="s">
         <v>304</v>
-      </c>
-      <c r="B268" t="s">
-        <v>640</v>
-      </c>
-      <c r="M268" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M270" t="s">
         <v>171</v>
@@ -6666,1030 +7086,1030 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>306</v>
+      </c>
+      <c r="B271" t="s">
+        <v>598</v>
+      </c>
+      <c r="M271" t="s">
         <v>307</v>
-      </c>
-      <c r="B271" t="s">
-        <v>599</v>
-      </c>
-      <c r="M271" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>308</v>
+      </c>
+      <c r="B272" t="s">
+        <v>640</v>
+      </c>
+      <c r="M272" t="s">
         <v>309</v>
-      </c>
-      <c r="B272" t="s">
-        <v>641</v>
-      </c>
-      <c r="M272" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M274" t="s">
-        <v>174</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>311</v>
+      </c>
+      <c r="B275" t="s">
+        <v>599</v>
+      </c>
+      <c r="M275" t="s">
         <v>312</v>
-      </c>
-      <c r="B275" t="s">
-        <v>600</v>
-      </c>
-      <c r="M275" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M276" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B278" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M278" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>315</v>
+      </c>
+      <c r="B279" t="s">
+        <v>600</v>
+      </c>
+      <c r="M279" t="s">
         <v>316</v>
-      </c>
-      <c r="B279" t="s">
-        <v>601</v>
-      </c>
-      <c r="M279" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B280" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M280" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B282" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>319</v>
+      </c>
+      <c r="B283" t="s">
+        <v>601</v>
+      </c>
+      <c r="M283" t="s">
         <v>320</v>
-      </c>
-      <c r="B283" t="s">
-        <v>602</v>
-      </c>
-      <c r="M283" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B284" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M284" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B286" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M286" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>323</v>
+      </c>
+      <c r="B287" t="s">
+        <v>602</v>
+      </c>
+      <c r="M287" t="s">
         <v>324</v>
-      </c>
-      <c r="B287" t="s">
-        <v>603</v>
-      </c>
-      <c r="M287" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>325</v>
+      </c>
+      <c r="B288" t="s">
+        <v>644</v>
+      </c>
+      <c r="M288" t="s">
         <v>326</v>
-      </c>
-      <c r="B288" t="s">
-        <v>645</v>
-      </c>
-      <c r="M288" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M290" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M291" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M292" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B294" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M294" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>331</v>
+      </c>
+      <c r="B295" t="s">
+        <v>604</v>
+      </c>
+      <c r="M295" t="s">
         <v>332</v>
-      </c>
-      <c r="B295" t="s">
-        <v>605</v>
-      </c>
-      <c r="M295" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B296" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M296" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B298" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M298" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>335</v>
+      </c>
+      <c r="B299" t="s">
+        <v>605</v>
+      </c>
+      <c r="M299" t="s">
         <v>336</v>
-      </c>
-      <c r="B299" t="s">
-        <v>606</v>
-      </c>
-      <c r="M299" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B300" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M300" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B302" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M302" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>339</v>
+      </c>
+      <c r="B303" t="s">
+        <v>606</v>
+      </c>
+      <c r="M303" t="s">
         <v>340</v>
-      </c>
-      <c r="B303" t="s">
-        <v>607</v>
-      </c>
-      <c r="M303" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>341</v>
+      </c>
+      <c r="B304" t="s">
+        <v>647</v>
+      </c>
+      <c r="M304" t="s">
         <v>342</v>
-      </c>
-      <c r="B304" t="s">
-        <v>648</v>
-      </c>
-      <c r="M304" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M306" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>344</v>
+      </c>
+      <c r="B307" t="s">
+        <v>607</v>
+      </c>
+      <c r="M307" t="s">
         <v>345</v>
-      </c>
-      <c r="B307" t="s">
-        <v>608</v>
-      </c>
-      <c r="M307" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>346</v>
+      </c>
+      <c r="B308" t="s">
+        <v>648</v>
+      </c>
+      <c r="M308" t="s">
         <v>347</v>
-      </c>
-      <c r="B308" t="s">
-        <v>649</v>
-      </c>
-      <c r="M308" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B310" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M310" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>349</v>
+      </c>
+      <c r="B311" t="s">
+        <v>608</v>
+      </c>
+      <c r="M311" t="s">
         <v>350</v>
-      </c>
-      <c r="B311" t="s">
-        <v>609</v>
-      </c>
-      <c r="M311" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>351</v>
+      </c>
+      <c r="B312" t="s">
+        <v>649</v>
+      </c>
+      <c r="M312" t="s">
         <v>352</v>
-      </c>
-      <c r="B312" t="s">
-        <v>650</v>
-      </c>
-      <c r="M312" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B314" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M314" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>354</v>
+      </c>
+      <c r="B315" t="s">
+        <v>609</v>
+      </c>
+      <c r="M315" t="s">
         <v>355</v>
-      </c>
-      <c r="B315" t="s">
-        <v>610</v>
-      </c>
-      <c r="M315" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B316" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M318" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>358</v>
+      </c>
+      <c r="B319" t="s">
+        <v>610</v>
+      </c>
+      <c r="M319" t="s">
         <v>359</v>
-      </c>
-      <c r="B319" t="s">
-        <v>611</v>
-      </c>
-      <c r="M319" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>360</v>
+      </c>
+      <c r="B320" t="s">
+        <v>650</v>
+      </c>
+      <c r="M320" t="s">
         <v>361</v>
-      </c>
-      <c r="B320" t="s">
-        <v>651</v>
-      </c>
-      <c r="M320" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B322" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M322" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>363</v>
+      </c>
+      <c r="B323" t="s">
+        <v>611</v>
+      </c>
+      <c r="M323" t="s">
         <v>364</v>
-      </c>
-      <c r="B323" t="s">
-        <v>612</v>
-      </c>
-      <c r="M323" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B324" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M324" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B326" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M326" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>367</v>
+      </c>
+      <c r="B327" t="s">
+        <v>612</v>
+      </c>
+      <c r="M327" t="s">
         <v>368</v>
-      </c>
-      <c r="B327" t="s">
-        <v>613</v>
-      </c>
-      <c r="M327" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>369</v>
+      </c>
+      <c r="B328" t="s">
+        <v>651</v>
+      </c>
+      <c r="M328" t="s">
         <v>370</v>
-      </c>
-      <c r="B328" t="s">
-        <v>652</v>
-      </c>
-      <c r="M328" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>371</v>
+      </c>
+      <c r="B330" t="s">
+        <v>613</v>
+      </c>
+      <c r="M330" t="s">
         <v>372</v>
-      </c>
-      <c r="B330" t="s">
-        <v>614</v>
-      </c>
-      <c r="M330" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>373</v>
+      </c>
+      <c r="B331" t="s">
+        <v>614</v>
+      </c>
+      <c r="M331" t="s">
         <v>374</v>
-      </c>
-      <c r="B331" t="s">
-        <v>615</v>
-      </c>
-      <c r="M331" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>375</v>
+      </c>
+      <c r="B332" t="s">
+        <v>615</v>
+      </c>
+      <c r="M332" t="s">
         <v>376</v>
-      </c>
-      <c r="B332" t="s">
-        <v>616</v>
-      </c>
-      <c r="M332" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>377</v>
+      </c>
+      <c r="B334" t="s">
+        <v>616</v>
+      </c>
+      <c r="M334" t="s">
         <v>378</v>
-      </c>
-      <c r="B334" t="s">
-        <v>617</v>
-      </c>
-      <c r="M334" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B335" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B336" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M336" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B338" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M338" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>382</v>
+      </c>
+      <c r="B339" t="s">
+        <v>617</v>
+      </c>
+      <c r="M339" t="s">
         <v>383</v>
-      </c>
-      <c r="B339" t="s">
-        <v>618</v>
-      </c>
-      <c r="M339" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>384</v>
+      </c>
+      <c r="B340" t="s">
+        <v>652</v>
+      </c>
+      <c r="M340" t="s">
         <v>385</v>
-      </c>
-      <c r="B340" t="s">
-        <v>653</v>
-      </c>
-      <c r="M340" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B342" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M342" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>387</v>
+      </c>
+      <c r="B343" t="s">
+        <v>618</v>
+      </c>
+      <c r="M343" t="s">
         <v>388</v>
-      </c>
-      <c r="B343" t="s">
-        <v>619</v>
-      </c>
-      <c r="M343" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>389</v>
+      </c>
+      <c r="B344" t="s">
+        <v>653</v>
+      </c>
+      <c r="M344" t="s">
         <v>390</v>
-      </c>
-      <c r="B344" t="s">
-        <v>654</v>
-      </c>
-      <c r="M344" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B346" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>392</v>
+      </c>
+      <c r="B347" t="s">
+        <v>619</v>
+      </c>
+      <c r="M347" t="s">
         <v>393</v>
-      </c>
-      <c r="B347" t="s">
-        <v>620</v>
-      </c>
-      <c r="M347" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B348" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M348" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>450</v>
+      </c>
+      <c r="B349" t="s">
+        <v>925</v>
+      </c>
+      <c r="M349" t="s">
         <v>451</v>
-      </c>
-      <c r="B349" t="s">
-        <v>926</v>
-      </c>
-      <c r="M349" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>395</v>
+      </c>
+      <c r="B351" t="s">
+        <v>620</v>
+      </c>
+      <c r="M351" t="s">
         <v>396</v>
-      </c>
-      <c r="B351" t="s">
-        <v>621</v>
-      </c>
-      <c r="M351" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>397</v>
+      </c>
+      <c r="B352" t="s">
+        <v>621</v>
+      </c>
+      <c r="M352" t="s">
         <v>398</v>
-      </c>
-      <c r="B352" t="s">
-        <v>622</v>
-      </c>
-      <c r="M352" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B353" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M353" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B355" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M355" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>401</v>
+      </c>
+      <c r="B356" t="s">
+        <v>622</v>
+      </c>
+      <c r="M356" t="s">
         <v>402</v>
-      </c>
-      <c r="B356" t="s">
-        <v>623</v>
-      </c>
-      <c r="M356" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>403</v>
+      </c>
+      <c r="B357" t="s">
+        <v>655</v>
+      </c>
+      <c r="M357" t="s">
         <v>404</v>
-      </c>
-      <c r="B357" t="s">
-        <v>656</v>
-      </c>
-      <c r="M357" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>405</v>
+      </c>
+      <c r="B359" t="s">
+        <v>575</v>
+      </c>
+      <c r="M359" t="s">
         <v>406</v>
-      </c>
-      <c r="B359" t="s">
-        <v>576</v>
-      </c>
-      <c r="M359" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>407</v>
+      </c>
+      <c r="B360" t="s">
+        <v>623</v>
+      </c>
+      <c r="M360" t="s">
         <v>408</v>
-      </c>
-      <c r="B360" t="s">
-        <v>624</v>
-      </c>
-      <c r="M360" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>409</v>
+      </c>
+      <c r="B361" t="s">
+        <v>623</v>
+      </c>
+      <c r="M361" t="s">
         <v>410</v>
-      </c>
-      <c r="B361" t="s">
-        <v>624</v>
-      </c>
-      <c r="M361" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B363" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M363" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>412</v>
+      </c>
+      <c r="B364" t="s">
+        <v>624</v>
+      </c>
+      <c r="M364" t="s">
         <v>413</v>
-      </c>
-      <c r="B364" t="s">
-        <v>625</v>
-      </c>
-      <c r="M364" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B365" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M365" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>415</v>
+      </c>
+      <c r="B367" t="s">
+        <v>625</v>
+      </c>
+      <c r="M367" t="s">
         <v>416</v>
-      </c>
-      <c r="B367" t="s">
-        <v>626</v>
-      </c>
-      <c r="M367" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>417</v>
+      </c>
+      <c r="B368" t="s">
+        <v>626</v>
+      </c>
+      <c r="M368" t="s">
         <v>418</v>
-      </c>
-      <c r="B368" t="s">
-        <v>627</v>
-      </c>
-      <c r="M368" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B369" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M369" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>420</v>
+      </c>
+      <c r="B371" t="s">
+        <v>627</v>
+      </c>
+      <c r="M371" t="s">
         <v>421</v>
-      </c>
-      <c r="B371" t="s">
-        <v>628</v>
-      </c>
-      <c r="M371" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B372" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M372" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B373" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M373" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B375" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M375" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>425</v>
+      </c>
+      <c r="B376" t="s">
+        <v>628</v>
+      </c>
+      <c r="M376" t="s">
         <v>426</v>
-      </c>
-      <c r="B376" t="s">
-        <v>629</v>
-      </c>
-      <c r="M376" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B377" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M377" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B379" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M379" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>429</v>
+      </c>
+      <c r="B380" t="s">
+        <v>629</v>
+      </c>
+      <c r="M380" t="s">
         <v>430</v>
-      </c>
-      <c r="B380" t="s">
-        <v>630</v>
-      </c>
-      <c r="M380" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>431</v>
+      </c>
+      <c r="B381" t="s">
+        <v>630</v>
+      </c>
+      <c r="M381" t="s">
         <v>432</v>
-      </c>
-      <c r="B381" t="s">
-        <v>631</v>
-      </c>
-      <c r="M381" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>433</v>
+      </c>
+      <c r="B383" t="s">
+        <v>631</v>
+      </c>
+      <c r="M383" t="s">
         <v>434</v>
-      </c>
-      <c r="B383" t="s">
-        <v>632</v>
-      </c>
-      <c r="M383" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>435</v>
+      </c>
+      <c r="B384" t="s">
+        <v>632</v>
+      </c>
+      <c r="M384" t="s">
         <v>436</v>
-      </c>
-      <c r="B384" t="s">
-        <v>633</v>
-      </c>
-      <c r="M384" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B385" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M385" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B387" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M387" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>439</v>
+      </c>
+      <c r="B388" t="s">
+        <v>634</v>
+      </c>
+      <c r="M388" t="s">
         <v>440</v>
-      </c>
-      <c r="B388" t="s">
-        <v>635</v>
-      </c>
-      <c r="M388" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B389" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M389" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B391" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M391" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>443</v>
+      </c>
+      <c r="B392" t="s">
+        <v>636</v>
+      </c>
+      <c r="M392" t="s">
         <v>444</v>
-      </c>
-      <c r="B392" t="s">
-        <v>637</v>
-      </c>
-      <c r="M392" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B393" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M393" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B395" t="s">
         <v>168</v>
@@ -7700,601 +8120,601 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>447</v>
+      </c>
+      <c r="B396" t="s">
         <v>448</v>
       </c>
-      <c r="B396" t="s">
-        <v>449</v>
-      </c>
       <c r="M396" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B397" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M397" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B400" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M400" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B402" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M402" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B403" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M403" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>892</v>
+      </c>
+      <c r="B404" t="s">
+        <v>896</v>
+      </c>
+      <c r="M404" t="s">
         <v>893</v>
-      </c>
-      <c r="B404" t="s">
-        <v>897</v>
-      </c>
-      <c r="M404" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B406" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M406" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B407" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M407" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B408" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M408" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B410" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M410" t="s">
-        <v>1133</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B411" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="M411" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B412" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M412" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B414" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M414" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B415" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M415" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B416" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M416" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B417" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M417" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B418" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M418" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B420" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B421" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M421" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B422" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M422" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B423" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M423" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B424" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M424" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B425" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M425" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B426" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M426" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M427" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B428" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M428" t="s">
         <v>1156</v>
-      </c>
-      <c r="M428" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B429" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M429" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B430" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M430" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B431" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M431" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B432" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M432" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B433" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M433" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B434" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M434" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B435" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M435" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B436" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M436" t="s">
         <v>1157</v>
-      </c>
-      <c r="M436" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>919</v>
+      </c>
+      <c r="B437" t="s">
         <v>920</v>
       </c>
-      <c r="B437" t="s">
+      <c r="M437" t="s">
         <v>921</v>
-      </c>
-      <c r="M437" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B438" t="s">
+        <v>922</v>
+      </c>
+      <c r="M438" t="s">
         <v>923</v>
-      </c>
-      <c r="M438" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B440" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M440" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B441" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M441" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B442" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M442" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>928</v>
+      </c>
+      <c r="B443" t="s">
         <v>929</v>
       </c>
-      <c r="B443" t="s">
+      <c r="M443" t="s">
         <v>930</v>
-      </c>
-      <c r="M443" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>931</v>
+      </c>
+      <c r="B444" t="s">
         <v>932</v>
       </c>
-      <c r="B444" t="s">
+      <c r="M444" t="s">
         <v>933</v>
-      </c>
-      <c r="M444" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>934</v>
+      </c>
+      <c r="B445" t="s">
         <v>935</v>
       </c>
-      <c r="B445" t="s">
+      <c r="M445" t="s">
         <v>936</v>
-      </c>
-      <c r="M445" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B446" t="s">
         <v>1054</v>
       </c>
-      <c r="B446" t="s">
+      <c r="M446" t="s">
         <v>1055</v>
-      </c>
-      <c r="M446" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B447" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M447" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B449" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M449" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B450" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M450" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B451" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M451" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B452" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M452" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B454" t="s">
+        <v>692</v>
+      </c>
+      <c r="M454" t="s">
         <v>693</v>
-      </c>
-      <c r="M454" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B456" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M456" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B457" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M457" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B458" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M458" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B460" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M460" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -8307,202 +8727,202 @@
       <c r="K462" s="1"/>
       <c r="L462" s="1"/>
       <c r="M462" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B463" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M463" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>711</v>
+      </c>
+      <c r="B465" t="s">
         <v>712</v>
       </c>
-      <c r="B465" t="s">
+      <c r="M465" t="s">
         <v>713</v>
-      </c>
-      <c r="M465" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>714</v>
+      </c>
+      <c r="B467" t="s">
         <v>715</v>
       </c>
-      <c r="B467" t="s">
-        <v>716</v>
-      </c>
       <c r="M467" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B468" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M468" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B469" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M469" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B470" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M470" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B471" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M471" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B472" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M472" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B474" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="M474" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B475" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="M475" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B476" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="M476" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B477" t="s">
         <v>1149</v>
       </c>
-      <c r="B477" t="s">
-        <v>1151</v>
-      </c>
       <c r="M477" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>818</v>
+      </c>
+      <c r="B479" t="s">
         <v>819</v>
       </c>
-      <c r="B479" t="s">
-        <v>820</v>
-      </c>
       <c r="M479" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>945</v>
+      </c>
+      <c r="B480" t="s">
         <v>946</v>
       </c>
-      <c r="B480" t="s">
+      <c r="M480" t="s">
         <v>947</v>
-      </c>
-      <c r="M480" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B481" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M481" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>825</v>
+      </c>
+      <c r="B482" t="s">
+        <v>820</v>
+      </c>
+      <c r="M482" t="s">
         <v>826</v>
-      </c>
-      <c r="B482" t="s">
-        <v>821</v>
-      </c>
-      <c r="M482" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B483" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M483" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -8515,15 +8935,15 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
       <c r="M485" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -8536,84 +8956,84 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
       <c r="M486" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>833</v>
+      </c>
+      <c r="B487" t="s">
+        <v>835</v>
+      </c>
+      <c r="M487" t="s">
         <v>834</v>
-      </c>
-      <c r="B487" t="s">
-        <v>836</v>
-      </c>
-      <c r="M487" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="M489" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="490" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="M490" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="491" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="M491" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="492" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="M492" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="493" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="M493" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="494" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="M494" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -8626,7 +9046,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8688,475 +9108,475 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>1163</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>1164</v>
-      </c>
       <c r="M44" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -9165,11 +9585,346 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24339F-182E-497F-BCB5-E8925B014635}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9229,218 +9984,610 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B28" t="s">
-        <v>863</v>
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407DFB6-40D6-40B4-994E-B61EB81D0E28}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF16F22E-C55D-4FF3-81DD-FA92E4CD5EC9}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1278</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECEE2E-34AE-4B58-83F1-5E11A962D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD10921-3040-4305-88A7-73C480376DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="2250" windowWidth="25035" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="5655" windowWidth="21045" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
     <sheet name="Role Descriptions" sheetId="3" r:id="rId2"/>
     <sheet name="Role Blurbs" sheetId="6" r:id="rId3"/>
     <sheet name="Images" sheetId="2" r:id="rId4"/>
-    <sheet name="Colors" sheetId="4" r:id="rId5"/>
-    <sheet name="Hats" sheetId="5" r:id="rId6"/>
+    <sheet name="Button Text" sheetId="7" r:id="rId5"/>
+    <sheet name="Colors" sheetId="4" r:id="rId6"/>
+    <sheet name="Hats" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1463">
   <si>
     <t>presetSelection</t>
   </si>
@@ -786,12 +787,6 @@
     <t>インポスターが誰でも殺せる</t>
   </si>
   <si>
-    <t>セキュリティガード</t>
-  </si>
-  <si>
-    <t>セキュリティガードクールダウン</t>
-  </si>
-  <si>
     <t>ネジ所持数</t>
   </si>
   <si>
@@ -1257,9 +1252,6 @@
     <t>securityGuard</t>
   </si>
   <si>
-    <t>セキュリティーガード</t>
-  </si>
-  <si>
     <t>securityGuardIntroDesc</t>
   </si>
   <si>
@@ -1368,15 +1360,9 @@
     <t>lover</t>
   </si>
   <si>
-    <t>loverIntroDesc</t>
-  </si>
-  <si>
     <t>恋に落ちてしまった</t>
   </si>
   <si>
-    <t>loverShortDesc</t>
-  </si>
-  <si>
     <t>gm</t>
   </si>
   <si>
@@ -1803,9 +1789,6 @@
     <t>Get voted out</t>
   </si>
   <si>
-    <t>Your vote counts twice</t>
-  </si>
-  <si>
     <t>Maintain important systems on the ship</t>
   </si>
   <si>
@@ -2292,9 +2275,6 @@
     <t>投票スキップ禁止</t>
   </si>
   <si>
-    <t>自分の票が倍の力を持っている</t>
-  </si>
-  <si>
     <t>指名クールダウン</t>
   </si>
   <si>
@@ -2710,12 +2690,6 @@
   </si>
   <si>
     <t>opportunist</t>
-  </si>
-  <si>
-    <t>oppIntroDesc</t>
-  </si>
-  <si>
-    <t>oppShortDesc</t>
   </si>
   <si>
     <t>とにかく生き残りましょう</t>
@@ -3207,10 +3181,6 @@
   <si>
     <t>・誰かがベントを使うと、そのベントが黄色く光る_x000D_
 ・&lt;color=#ff1919ff&gt;人外&lt;/color&gt;がベイトをキルするとキルした人が一定時間後に自動的にレポートする</t>
-  </si>
-  <si>
-    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;に加担するキルできない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営_x000D_
-・停電が直せない</t>
   </si>
   <si>
     <t>・ベントに入ることができる_x000D_
@@ -3760,13 +3730,6 @@
 to the corpse.</t>
   </si>
   <si>
-    <t>The medium is a crewmate who can ask the souls of dead players for information.
-Like the Seer, it sees the places where the players have died (after the next meeting)
-and can question them. It then gets random information about the soul or the killer
-in the chat. The souls only stay for one round, i.e. until the next meeting.
-Depending on the options, the souls can only be questioned once and then disappear.</t>
-  </si>
-  <si>
     <t>死骸を喰らおう</t>
   </si>
   <si>
@@ -4260,9 +4223,6 @@
     <t>gmBlurb</t>
   </si>
   <si>
-    <t>シェリフは、インポスターや第3陣営をキルできます。インポスターや第3陣営をキルしてクルーを勝利に導いてください。ただし、クルーをキルしてしまうとシェリフ自身が死んでしまうので要注意…</t>
-  </si>
-  <si>
     <t>探偵は、他人の足跡が見えます。
 時間内に死体を通報すると更に多くの情報を得られるので重要な役割となってます。</t>
   </si>
@@ -4273,10 +4233,6 @@
     <t>ライターは、一定時間視界を広くすることができます。停電中に使いインポスターの視界で動けるので多くの情報を得ましょう。</t>
   </si>
   <si>
-    <t>市長は、投票先に2票はいります。
-慎重に怪しい人物に投票しましょう。</t>
-  </si>
-  <si>
     <t>メディックは、誰か一人にシールドを貼ることができます。シールドを貼ったプレイヤーがキルされるとシールドが壊れます。誰に殺されそうになったのかが守られた人はわかるので伝えましょう。</t>
   </si>
   <si>
@@ -4287,9 +4243,6 @@
 更に死んだ場所に行くと魂も見えるので重要な役割となっています。</t>
   </si>
   <si>
-    <t>シフターは、選んだ人の役割を引き継ぐことができます。ただし、インポスターや第3陣営を選んでしまうと死んでしまうので要注意…</t>
-  </si>
-  <si>
     <t>スニッチは、タスクが終了すると誰がインポスターなのかわかります。ただし、タスク終了間際になるとインポスターに場所がバレてしまうので要注意…</t>
   </si>
   <si>
@@ -4361,17 +4314,416 @@
     <t>ウォーロックは、誰かに呪いをかける事でその呪われた人の前で遠隔キルができます。ただし、遠隔キルの後は一定時間動けなくなるので要注意…</t>
   </si>
   <si>
-    <t>ゴッドファーザーは、マフィアのボスです。
-通常のインポスターとやることは変わりません。
-マフィオソは、ゴッドファーザーが死んだらゴッドファーザーへと昇格できます。それまでは、狂人という立ち位置になります。
-掃除屋は、死体を消すことができます。
-キルやサボタージュはできないので要注意…</t>
-  </si>
-  <si>
     <t>カモフラージャー</t>
   </si>
   <si>
     <t>ミディアム</t>
+  </si>
+  <si>
+    <t>lovers</t>
+  </si>
+  <si>
+    <t>mafia</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>guesser</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;に加担するキルできない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営
+・停電が直せない</t>
+  </si>
+  <si>
+    <t>マフィアは、３人組のインポスター。ゴッドファーザーとマフィオソとジャニターと一緒に勝利を目指しましょう。</t>
+  </si>
+  <si>
+    <t>シェリフは、インポスターやその他陣営をキルできます。インポスターやその他陣営をキルしてクルーを勝利に導いてください。ただし、クルーをキルしてしまうとシェリフ自身が死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>シフターは、選んだ人の役割を引き継ぐことができます。ただし、インポスターやその他陣営を選んでしまうと死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>huskFullDesc</t>
+  </si>
+  <si>
+    <t>元役職持ちのなれの果て
+もうやることがない
+生きても死んでも負けは確定しちゃった</t>
+  </si>
+  <si>
+    <t>The Husk is what remains of a former Neutral role.
+You're free of all responsibility, as your loss is set in stone.</t>
+  </si>
+  <si>
+    <t>husk</t>
+  </si>
+  <si>
+    <t>Husk</t>
+  </si>
+  <si>
+    <t>なれの果て</t>
+  </si>
+  <si>
+    <t>警備員</t>
+  </si>
+  <si>
+    <t>クールダウン</t>
+  </si>
+  <si>
+    <t>opportunistIntroDesc</t>
+  </si>
+  <si>
+    <t>opportunistShortDesc</t>
+  </si>
+  <si>
+    <t>loversIntroDesc</t>
+  </si>
+  <si>
+    <t>loversShortDesc</t>
+  </si>
+  <si>
+    <t>ゲームマスターは、ゲームに影響を与えない神のような存在。</t>
+  </si>
+  <si>
+    <t>マッドメイトは、クルーでありながらインポスターの勝利を望む異端者。</t>
+  </si>
+  <si>
+    <t>roleNoSettings</t>
+  </si>
+  <si>
+    <t>No Settings For Role</t>
+  </si>
+  <si>
+    <t>設定できる項目が\nありません</t>
+  </si>
+  <si>
+    <t>The Medium is a crewmate who can ask the souls of dead players for information.
+Like the Seer, it sees the places where the players have died (after the next meeting)
+and can question them. It then gets random information about the soul or the killer
+in the chat. The souls only stay for one round, i.e. until the next meeting.
+Depending on the options, the souls can only be questioned once and then disappear.</t>
+  </si>
+  <si>
+    <t>The Shifter can take over the role of another Crewmate, the other player will transform into a Crewmate.</t>
+  </si>
+  <si>
+    <t>The Mayor leads the Crewmates by having a vote that counts twice.
+The Mayor can always use their meeting, even if the maximum number of meetings was reached.</t>
+  </si>
+  <si>
+    <t>The Sheriff has the ability to kill Impostors. If they try to kill a Crewmate, they die instead.</t>
+  </si>
+  <si>
+    <t>The Lighter can turn on their Lighter every now and then, which increases their vision by a customizable amount.</t>
+  </si>
+  <si>
+    <t>The Detective can see footprints that other players leave behind.</t>
+  </si>
+  <si>
+    <t>The Time Master has a time shield which they can activate. The time shield remains active for a configurable amount of time.
+If a player tries to kill the Time Master while the time shield is active, the kill won't happen and the time will rewind for a set amount of time.</t>
+  </si>
+  <si>
+    <t>The Medic can shield (highlighted by an outline around the player) one player per game, which makes the player unkillable.</t>
+  </si>
+  <si>
+    <t>During meetings the Swapper can exchange votes that two people get.</t>
+  </si>
+  <si>
+    <t>The Seer sees the souls of players that died a round earlier, the souls slowly fade away. The Seer gets a blue flash on their screen, if a player dies somewhere on the map.</t>
+  </si>
+  <si>
+    <t>If the Hacker activates the "Hacker mode", the Hacker gets more information than others from the admin table and vitals for a set duration.</t>
+  </si>
+  <si>
+    <t>The Tracker can select one player to track. An arrow points to the last tracked position of the player.</t>
+  </si>
+  <si>
+    <t>When the Snitch finishes all the tasks, arrows will appear (only visible to the Snitch) that point to the Impostors (depending on the options also to members of team Jackal).</t>
+  </si>
+  <si>
+    <t>The Spy is a Crewmate, which has no special abilities.
+The Spy looks like an additional Impostor to the Impostors, they can't tell the difference.</t>
+  </si>
+  <si>
+    <t>The Security Guard is a Crewmate that has a certain amount of screws that they can use for either sealing vents or for placing new cameras.</t>
+  </si>
+  <si>
+    <t>The Bait is a Crewmate that if killed, forces the killer to self report the body.</t>
+  </si>
+  <si>
+    <t>The Medium is a Crewmate who can ask the souls of dead players for information.</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.</t>
+  </si>
+  <si>
+    <t>The Camouflager is an Impostor which can additionally activate a camouflage mode. While it is active, all player names/pets/hats are hidden and all players have the same color.</t>
+  </si>
+  <si>
+    <t>The Vampire is an Impostor, that can bite other player. Bitten players die after a configurable amount of time.</t>
+  </si>
+  <si>
+    <t>The Eraser is an Impostor that can erase the role of every player.</t>
+  </si>
+  <si>
+    <t>The Trickster is an Impostor that can place 3 jack-in-the-boxes that are invisible at first to other players.</t>
+  </si>
+  <si>
+    <t>The Warlock is an Impostor, that can curse another player. If the cursed person stands next to another player, the Warlock is able to kill that player (no matter how far away they are).</t>
+  </si>
+  <si>
+    <t>The Bounty Hunter is an Impostor, that continuously get bounties. If the Bounty Hunter kills their target, their kill cooldown will be a lot less than usual.</t>
+  </si>
+  <si>
+    <t>The Madmate is a crewmate that works to support the impostors.</t>
+  </si>
+  <si>
+    <t>The Mini's character is smaller and hence visible to everyone in the game.
+The Mini cannot be killed until it turns 18 years old, however it can be voted out.</t>
+  </si>
+  <si>
+    <t>There are always two Lovers which are linked together.
+Their primary goal is it to stay alive together until the end of the game.
+If one Lover dies, the other Lover suicides.</t>
+  </si>
+  <si>
+    <t>The Guesser can shoot players during the meeting, by guessing its role. If the guess is wrong, the Guesser dies instead.</t>
+  </si>
+  <si>
+    <t>The Jester does not have any tasks. They win the game as a solo, if they get voted out during a meeting.</t>
+  </si>
+  <si>
+    <t>The Arsonist can douse other players by pressing the douse button and remaining next to the player for a few seconds.
+After dousing everyone alive the Arsonist can ignite all the players which results in an Arsonist win.</t>
+  </si>
+  <si>
+    <t>The Jackal is part of an extra team, that tries to eliminate all the other players.</t>
+  </si>
+  <si>
+    <t>The Opportunist is a outsider role. So long as they are alive at the end of the game, they win alongside the victorious team.</t>
+  </si>
+  <si>
+    <t>The GM (Game Master) is an observer role. Their presence has no effect on the game itself, and all players know who the GM is at all times.</t>
+  </si>
+  <si>
+    <t>The Vulture is a neutral role that must eat a specified number of corpses in order to win.</t>
+  </si>
+  <si>
+    <t>カモ</t>
+  </si>
+  <si>
+    <t>掃除</t>
+  </si>
+  <si>
+    <t>封鎖</t>
+  </si>
+  <si>
+    <t>呪う</t>
+  </si>
+  <si>
+    <t>呪殺</t>
+  </si>
+  <si>
+    <t>かける</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>ニンニク</t>
+  </si>
+  <si>
+    <t>ハック</t>
+  </si>
+  <si>
+    <t>着火</t>
+  </si>
+  <si>
+    <t>ライト</t>
+  </si>
+  <si>
+    <t>強制停電</t>
+  </si>
+  <si>
+    <t>モーフ</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>直す</t>
+  </si>
+  <si>
+    <t>巻き戻す</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>シールド</t>
+  </si>
+  <si>
+    <t>シフト</t>
+  </si>
+  <si>
+    <t>トラック</t>
+  </si>
+  <si>
+    <t>ベント</t>
+  </si>
+  <si>
+    <t>噛む</t>
+  </si>
+  <si>
+    <t>喰らう</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>CamoText</t>
+  </si>
+  <si>
+    <t>CleanText</t>
+  </si>
+  <si>
+    <t>CloseVentText</t>
+  </si>
+  <si>
+    <t>CurseText</t>
+  </si>
+  <si>
+    <t>CurseKillText</t>
+  </si>
+  <si>
+    <t>DouseText</t>
+  </si>
+  <si>
+    <t>EraserText</t>
+  </si>
+  <si>
+    <t>GarlicText</t>
+  </si>
+  <si>
+    <t>HackerText</t>
+  </si>
+  <si>
+    <t>IgniteText</t>
+  </si>
+  <si>
+    <t>LighterText</t>
+  </si>
+  <si>
+    <t>LightsOutText</t>
+  </si>
+  <si>
+    <t>MorphText</t>
+  </si>
+  <si>
+    <t>PlaceCameraText</t>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxText</t>
+  </si>
+  <si>
+    <t>RepairText</t>
+  </si>
+  <si>
+    <t>RewindText</t>
+  </si>
+  <si>
+    <t>SampleText</t>
+  </si>
+  <si>
+    <t>SeerText</t>
+  </si>
+  <si>
+    <t>ShieldText</t>
+  </si>
+  <si>
+    <t>ShiftText</t>
+  </si>
+  <si>
+    <t>SidekickText</t>
+  </si>
+  <si>
+    <t>TimeShieldText</t>
+  </si>
+  <si>
+    <t>TrackerText</t>
+  </si>
+  <si>
+    <t>TricksterVentText</t>
+  </si>
+  <si>
+    <t>VampireText</t>
+  </si>
+  <si>
+    <t>VultureText</t>
+  </si>
+  <si>
+    <t>MediumText</t>
+  </si>
+  <si>
+    <t>Your vote counts multiple times</t>
+  </si>
+  <si>
+    <t>自分の票が何倍もの力を持っている</t>
+  </si>
+  <si>
+    <t>メイヤーは、投票先に２票以上はいります。
+慎重に怪しい人物に投票しましょう。</t>
+  </si>
+  <si>
+    <t>madmateCanBeGA</t>
+  </si>
+  <si>
+    <t>Can Become Guardian Angel</t>
+  </si>
+  <si>
+    <t>守護天使になれる</t>
+  </si>
+  <si>
+    <t>mayorNumVotes</t>
+  </si>
+  <si>
+    <t>Number of Votes</t>
+  </si>
+  <si>
+    <t>投票数</t>
+  </si>
+  <si>
+    <t>scientistUseVitalsTime</t>
+  </si>
+  <si>
+    <t>gaHideMark</t>
+  </si>
+  <si>
+    <t>shapeshifterShiftAnyone</t>
+  </si>
+  <si>
+    <t>Consume Vitals Time</t>
+  </si>
+  <si>
+    <t>Hide Angel Mark</t>
+  </si>
+  <si>
+    <t>Shapeshift Into Anyone</t>
+  </si>
+  <si>
+    <t>共有のバイタル時間も消費する</t>
+  </si>
+  <si>
+    <t>会議中、天使のマークを隠す</t>
+  </si>
+  <si>
+    <t>誰にでも変身できる</t>
   </si>
 </sst>
 </file>
@@ -4695,10 +5047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q494"/>
+  <dimension ref="A1:Q511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="B191" workbookViewId="0">
+      <selection activeCell="M210" sqref="M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,7 +5115,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M2" t="s">
         <v>159</v>
@@ -4774,7 +5126,7 @@
         <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M3" t="s">
         <v>160</v>
@@ -4785,7 +5137,7 @@
         <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M4" t="s">
         <v>161</v>
@@ -4796,7 +5148,7 @@
         <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M5" t="s">
         <v>162</v>
@@ -4807,7 +5159,7 @@
         <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M6" t="s">
         <v>163</v>
@@ -4818,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M7" t="s">
         <v>158</v>
@@ -4829,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M8" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4840,10 +5192,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M9" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4851,7 +5203,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M10" t="s">
         <v>164</v>
@@ -4862,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M11" t="s">
         <v>165</v>
@@ -4873,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M12" t="s">
         <v>166</v>
@@ -4884,7 +5236,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M13" t="s">
         <v>167</v>
@@ -4906,10 +5258,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="M16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4917,10 +5269,10 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="M17" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4928,10 +5280,10 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="M18" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4939,10 +5291,10 @@
         <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M19" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4950,10 +5302,10 @@
         <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="M21" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,7 +5313,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M24" t="s">
         <v>169</v>
@@ -4972,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M25" t="s">
         <v>170</v>
@@ -4983,7 +5335,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M27" t="s">
         <v>171</v>
@@ -4994,7 +5346,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="M28" t="s">
         <v>172</v>
@@ -5005,7 +5357,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M29" t="s">
         <v>173</v>
@@ -5016,10 +5368,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M31" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5027,7 +5379,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="M32" t="s">
         <v>174</v>
@@ -5038,7 +5390,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M33" t="s">
         <v>175</v>
@@ -5046,13 +5398,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B34" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="M34" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5060,7 +5412,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M36" t="s">
         <v>176</v>
@@ -5071,10 +5423,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="M37" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5082,7 +5434,7 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="M38" t="s">
         <v>177</v>
@@ -5093,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="M39" t="s">
         <v>178</v>
@@ -5104,7 +5456,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M41" t="s">
         <v>179</v>
@@ -5115,7 +5467,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="M42" t="s">
         <v>180</v>
@@ -5123,13 +5475,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B43" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="M43" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5137,7 +5489,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="M44" t="s">
         <v>181</v>
@@ -5148,7 +5500,7 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M46" t="s">
         <v>182</v>
@@ -5159,7 +5511,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="M47" t="s">
         <v>183</v>
@@ -5170,7 +5522,7 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="M48" t="s">
         <v>184</v>
@@ -5181,7 +5533,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="M49" t="s">
         <v>185</v>
@@ -5192,7 +5544,7 @@
         <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M51" t="s">
         <v>186</v>
@@ -5203,7 +5555,7 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="M52" t="s">
         <v>170</v>
@@ -5214,7 +5566,7 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M54" t="s">
         <v>187</v>
@@ -5225,7 +5577,7 @@
         <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M55" t="s">
         <v>188</v>
@@ -5236,7 +5588,7 @@
         <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="M56" t="s">
         <v>189</v>
@@ -5247,7 +5599,7 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M58" t="s">
         <v>190</v>
@@ -5258,7 +5610,7 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M59" t="s">
         <v>191</v>
@@ -5269,7 +5621,7 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M60" t="s">
         <v>192</v>
@@ -5280,7 +5632,7 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M61" t="s">
         <v>193</v>
@@ -5291,7 +5643,7 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M62" t="s">
         <v>194</v>
@@ -5302,7 +5654,7 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M63" t="s">
         <v>195</v>
@@ -5313,7 +5665,7 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M66" t="s">
         <v>196</v>
@@ -5321,13 +5673,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B67" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="M67" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -5335,7 +5687,7 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="M68" t="s">
         <v>197</v>
@@ -5346,7 +5698,7 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M70" t="s">
         <v>198</v>
@@ -5357,10 +5709,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="M71" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -5368,10 +5720,10 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M72" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -5379,10 +5731,10 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="M73" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -5390,21 +5742,21 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="M74" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B75" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="M75" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -5412,10 +5764,10 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="M76" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -5423,7 +5775,7 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M78" t="s">
         <v>199</v>
@@ -5434,10 +5786,10 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="M79" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5797,7 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="M80" t="s">
         <v>200</v>
@@ -5453,24 +5805,24 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="B81" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="M81" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="B82" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="M82" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,7 +5830,7 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s">
         <v>201</v>
@@ -5489,10 +5841,10 @@
         <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="M85" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5500,10 +5852,10 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="M86" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5511,7 +5863,7 @@
         <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M88" t="s">
         <v>202</v>
@@ -5522,7 +5874,7 @@
         <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="M89" t="s">
         <v>203</v>
@@ -5533,7 +5885,7 @@
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="M90" t="s">
         <v>204</v>
@@ -5544,7 +5896,7 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M92" t="s">
         <v>205</v>
@@ -5555,10 +5907,10 @@
         <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="M93" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5566,10 +5918,10 @@
         <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="M94" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -5577,10 +5929,10 @@
         <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="M95" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5588,10 +5940,10 @@
         <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="M96" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5599,10 +5951,10 @@
         <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M97" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5610,7 +5962,7 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M98" t="s">
         <v>206</v>
@@ -5621,7 +5973,7 @@
         <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M99" t="s">
         <v>207</v>
@@ -5632,7 +5984,7 @@
         <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M100" t="s">
         <v>208</v>
@@ -5643,10 +5995,10 @@
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="M101" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5654,21 +6006,21 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="M102" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B103" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="M103" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5676,7 +6028,7 @@
         <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M105" t="s">
         <v>209</v>
@@ -5687,7 +6039,7 @@
         <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="M106" t="s">
         <v>210</v>
@@ -5698,749 +6050,749 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M108" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>59</v>
       </c>
-      <c r="B110" t="s">
-        <v>550</v>
-      </c>
-      <c r="M110" t="s">
+      <c r="B111" t="s">
+        <v>545</v>
+      </c>
+      <c r="M111" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112" t="s">
-        <v>551</v>
-      </c>
-      <c r="M112" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>774</v>
+        <v>546</v>
       </c>
       <c r="M113" t="s">
-        <v>741</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M114" t="s">
-        <v>200</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="M115" t="s">
-        <v>742</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>942</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>943</v>
+        <v>773</v>
       </c>
       <c r="M116" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" t="s">
-        <v>552</v>
-      </c>
-      <c r="M118" t="s">
-        <v>214</v>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>933</v>
+      </c>
+      <c r="B117" t="s">
+        <v>934</v>
+      </c>
+      <c r="M117" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>781</v>
+        <v>547</v>
       </c>
       <c r="M119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="M120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="M121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>791</v>
+      </c>
+      <c r="M122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>68</v>
       </c>
-      <c r="B122" t="s">
-        <v>799</v>
-      </c>
-      <c r="M122" t="s">
+      <c r="B123" t="s">
+        <v>792</v>
+      </c>
+      <c r="M123" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" t="s">
-        <v>553</v>
-      </c>
-      <c r="M124" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>697</v>
+        <v>549</v>
       </c>
       <c r="M126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>555</v>
+        <v>691</v>
       </c>
       <c r="M127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M128" t="s">
-        <v>743</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" t="s">
+        <v>551</v>
+      </c>
+      <c r="M129" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>74</v>
       </c>
-      <c r="B129" t="s">
-        <v>557</v>
-      </c>
-      <c r="M129" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" t="s">
-        <v>558</v>
-      </c>
-      <c r="M131" t="s">
-        <v>223</v>
+      <c r="B130" t="s">
+        <v>552</v>
+      </c>
+      <c r="M130" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>800</v>
+        <v>553</v>
       </c>
       <c r="M132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B133" t="s">
-        <v>559</v>
+        <v>793</v>
       </c>
       <c r="M133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" t="s">
+        <v>554</v>
+      </c>
+      <c r="M134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>78</v>
       </c>
-      <c r="B134" t="s">
-        <v>801</v>
-      </c>
-      <c r="M134" t="s">
+      <c r="B135" t="s">
+        <v>794</v>
+      </c>
+      <c r="M135" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" t="s">
-        <v>560</v>
-      </c>
-      <c r="M136" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>685</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>808</v>
+        <v>555</v>
       </c>
       <c r="M137" t="s">
-        <v>687</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B138" t="s">
-        <v>560</v>
+        <v>801</v>
       </c>
       <c r="M138" t="s">
-        <v>228</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B139" t="s">
-        <v>684</v>
+        <v>555</v>
       </c>
       <c r="M139" t="s">
-        <v>672</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B140" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="M140" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
+        <v>677</v>
       </c>
       <c r="M141" t="s">
-        <v>229</v>
+        <v>667</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" t="s">
+        <v>556</v>
+      </c>
+      <c r="M142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>81</v>
       </c>
-      <c r="B142" t="s">
-        <v>562</v>
-      </c>
-      <c r="M142" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>82</v>
-      </c>
-      <c r="B144" t="s">
-        <v>563</v>
-      </c>
-      <c r="M144" t="s">
-        <v>230</v>
+      <c r="B143" t="s">
+        <v>557</v>
+      </c>
+      <c r="M143" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" t="s">
-        <v>770</v>
+        <v>558</v>
       </c>
       <c r="M145" t="s">
-        <v>735</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" t="s">
+        <v>763</v>
+      </c>
+      <c r="M146" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>84</v>
       </c>
-      <c r="B146" t="s">
-        <v>783</v>
-      </c>
-      <c r="M146" t="s">
+      <c r="B147" t="s">
+        <v>776</v>
+      </c>
+      <c r="M147" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>85</v>
-      </c>
-      <c r="B148" t="s">
-        <v>564</v>
-      </c>
-      <c r="M148" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>686</v>
+        <v>85</v>
       </c>
       <c r="B149" t="s">
-        <v>754</v>
+        <v>559</v>
       </c>
       <c r="M149" t="s">
-        <v>745</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>747</v>
       </c>
       <c r="M150" t="s">
-        <v>233</v>
+        <v>739</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B151" t="s">
-        <v>681</v>
+        <v>560</v>
       </c>
       <c r="M151" t="s">
-        <v>680</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B152" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M152" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>87</v>
+        <v>672</v>
       </c>
       <c r="B153" t="s">
-        <v>784</v>
+        <v>676</v>
       </c>
       <c r="M153" t="s">
-        <v>234</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" t="s">
+        <v>777</v>
+      </c>
+      <c r="M154" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>86</v>
       </c>
-      <c r="B154" t="s">
-        <v>785</v>
-      </c>
-      <c r="M154" t="s">
+      <c r="B155" t="s">
+        <v>778</v>
+      </c>
+      <c r="M155" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>566</v>
-      </c>
-    </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>88</v>
-      </c>
       <c r="B156" t="s">
-        <v>567</v>
-      </c>
-      <c r="M156" t="s">
-        <v>236</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
-        <v>802</v>
+        <v>562</v>
       </c>
       <c r="M157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B158" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="M158" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" t="s">
+        <v>796</v>
+      </c>
+      <c r="M159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>91</v>
       </c>
-      <c r="B159" t="s">
-        <v>786</v>
-      </c>
-      <c r="M159" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>92</v>
-      </c>
-      <c r="B161" t="s">
-        <v>568</v>
-      </c>
-      <c r="M161" t="s">
-        <v>239</v>
+      <c r="B160" t="s">
+        <v>779</v>
+      </c>
+      <c r="M160" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B162" t="s">
-        <v>787</v>
+        <v>563</v>
       </c>
       <c r="M162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" t="s">
+        <v>780</v>
+      </c>
+      <c r="M163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>94</v>
       </c>
-      <c r="B163" t="s">
-        <v>788</v>
-      </c>
-      <c r="M163" t="s">
+      <c r="B164" t="s">
+        <v>781</v>
+      </c>
+      <c r="M164" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>95</v>
-      </c>
-      <c r="B165" t="s">
-        <v>569</v>
-      </c>
-      <c r="M165" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B166" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B167" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M167" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" t="s">
+        <v>566</v>
+      </c>
+      <c r="M168" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>98</v>
       </c>
-      <c r="B168" t="s">
-        <v>572</v>
-      </c>
-      <c r="M168" t="s">
+      <c r="B169" t="s">
+        <v>567</v>
+      </c>
+      <c r="M169" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>99</v>
-      </c>
-      <c r="B170" t="s">
-        <v>573</v>
-      </c>
-      <c r="M170" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>789</v>
+        <v>568</v>
       </c>
       <c r="M171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B172" t="s">
-        <v>574</v>
+        <v>782</v>
       </c>
       <c r="M172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B173" t="s">
-        <v>790</v>
+        <v>569</v>
       </c>
       <c r="M173" t="s">
-        <v>736</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" t="s">
+        <v>783</v>
+      </c>
+      <c r="M174" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>103</v>
       </c>
-      <c r="B174" t="s">
-        <v>791</v>
-      </c>
-      <c r="M174" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>113</v>
-      </c>
-      <c r="B176" t="s">
-        <v>575</v>
-      </c>
-      <c r="M176" t="s">
-        <v>249</v>
+      <c r="B175" t="s">
+        <v>784</v>
+      </c>
+      <c r="M175" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B177" t="s">
-        <v>753</v>
+        <v>570</v>
       </c>
       <c r="M177" t="s">
-        <v>250</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B178" t="s">
-        <v>804</v>
+        <v>746</v>
       </c>
       <c r="M178" t="s">
-        <v>251</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B179" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="M179" t="s">
-        <v>828</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" t="s">
+        <v>798</v>
+      </c>
+      <c r="M180" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>117</v>
       </c>
-      <c r="B180" t="s">
-        <v>806</v>
-      </c>
-      <c r="M180" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>118</v>
-      </c>
-      <c r="B182" t="s">
-        <v>576</v>
-      </c>
-      <c r="M182" t="s">
-        <v>252</v>
+      <c r="B181" t="s">
+        <v>799</v>
+      </c>
+      <c r="M181" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B183" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="M183" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>119</v>
+      </c>
+      <c r="B184" t="s">
+        <v>572</v>
+      </c>
+      <c r="M184" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>120</v>
       </c>
-      <c r="B184" t="s">
-        <v>578</v>
-      </c>
-      <c r="M184" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>121</v>
-      </c>
-      <c r="B186" t="s">
-        <v>579</v>
-      </c>
-      <c r="M186" t="s">
-        <v>255</v>
+      <c r="B185" t="s">
+        <v>573</v>
+      </c>
+      <c r="M185" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B187" t="s">
-        <v>789</v>
+        <v>574</v>
       </c>
       <c r="M187" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B188" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="M188" t="s">
-        <v>736</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="M189" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B190" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="M190" t="s">
         <v>734</v>
@@ -6448,2592 +6800,2713 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>125</v>
+      </c>
+      <c r="B191" t="s">
+        <v>764</v>
+      </c>
+      <c r="M191" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>126</v>
       </c>
-      <c r="B191" t="s">
-        <v>807</v>
-      </c>
-      <c r="M191" t="s">
-        <v>746</v>
+      <c r="B192" t="s">
+        <v>800</v>
+      </c>
+      <c r="M192" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>897</v>
+        <v>1448</v>
       </c>
       <c r="B193" t="s">
-        <v>895</v>
+        <v>1449</v>
       </c>
       <c r="M193" t="s">
-        <v>894</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1117</v>
+        <v>888</v>
       </c>
       <c r="B195" t="s">
-        <v>1127</v>
+        <v>886</v>
       </c>
       <c r="M195" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M196" t="s">
-        <v>1150</v>
+        <v>885</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M197" t="s">
         <v>1119</v>
-      </c>
-      <c r="B197" t="s">
-        <v>776</v>
-      </c>
-      <c r="M197" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="B198" t="s">
-        <v>1151</v>
+        <v>1118</v>
       </c>
       <c r="M198" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1152</v>
+        <v>1109</v>
       </c>
       <c r="B199" t="s">
-        <v>965</v>
+        <v>769</v>
       </c>
       <c r="M199" t="s">
-        <v>1173</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M200" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1121</v>
+        <v>1142</v>
       </c>
       <c r="B201" t="s">
-        <v>1124</v>
+        <v>956</v>
       </c>
       <c r="M201" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M202" t="s">
-        <v>1134</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M203" t="s">
         <v>1123</v>
       </c>
-      <c r="B203" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M203" t="s">
-        <v>1135</v>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>133</v>
+        <v>1113</v>
       </c>
       <c r="B205" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="M205" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>134</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1105</v>
-      </c>
-      <c r="M206" t="s">
-        <v>750</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>135</v>
+        <v>1454</v>
       </c>
       <c r="B207" t="s">
-        <v>580</v>
+        <v>1457</v>
       </c>
       <c r="M207" t="s">
-        <v>257</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>1455</v>
       </c>
       <c r="B208" t="s">
-        <v>581</v>
+        <v>1458</v>
       </c>
       <c r="M208" t="s">
-        <v>258</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1061</v>
+        <v>1456</v>
       </c>
       <c r="B209" t="s">
-        <v>1063</v>
+        <v>1459</v>
       </c>
       <c r="M209" t="s">
-        <v>1062</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>948</v>
+        <v>133</v>
       </c>
       <c r="B211" t="s">
-        <v>951</v>
+        <v>1094</v>
       </c>
       <c r="M211" t="s">
-        <v>954</v>
+        <v>743</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>949</v>
+        <v>134</v>
       </c>
       <c r="B212" t="s">
-        <v>952</v>
+        <v>1095</v>
       </c>
       <c r="M212" t="s">
-        <v>967</v>
+        <v>744</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>950</v>
+        <v>135</v>
       </c>
       <c r="B213" t="s">
-        <v>953</v>
+        <v>575</v>
       </c>
       <c r="M213" t="s">
-        <v>968</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>700</v>
+        <v>136</v>
       </c>
       <c r="B214" t="s">
-        <v>955</v>
+        <v>576</v>
       </c>
       <c r="M214" t="s">
-        <v>958</v>
+        <v>256</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>702</v>
+        <v>1051</v>
       </c>
       <c r="B215" t="s">
-        <v>956</v>
+        <v>1053</v>
       </c>
       <c r="M215" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>701</v>
-      </c>
-      <c r="B216" t="s">
-        <v>957</v>
-      </c>
-      <c r="M216" t="s">
-        <v>960</v>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>939</v>
+      </c>
+      <c r="B217" t="s">
+        <v>942</v>
+      </c>
+      <c r="M217" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="B218" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="M218" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="B219" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="M219" t="s">
-        <v>966</v>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>694</v>
+      </c>
+      <c r="B220" t="s">
+        <v>946</v>
+      </c>
+      <c r="M220" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1208</v>
+        <v>696</v>
       </c>
       <c r="B221" t="s">
-        <v>1209</v>
+        <v>947</v>
       </c>
       <c r="M221" t="s">
-        <v>1210</v>
+        <v>950</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1195</v>
+        <v>695</v>
       </c>
       <c r="B222" t="s">
-        <v>1197</v>
+        <v>948</v>
       </c>
       <c r="M222" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1200</v>
+        <v>951</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>703</v>
+        <v>952</v>
       </c>
       <c r="B224" t="s">
-        <v>699</v>
+        <v>953</v>
       </c>
       <c r="M224" t="s">
-        <v>704</v>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>955</v>
+      </c>
+      <c r="B225" t="s">
+        <v>956</v>
+      </c>
+      <c r="M225" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M227" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M228" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>259</v>
+        <v>1185</v>
       </c>
       <c r="B229" t="s">
-        <v>582</v>
+        <v>1187</v>
       </c>
       <c r="M229" t="s">
-        <v>261</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>260</v>
+        <v>697</v>
       </c>
       <c r="B230" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="M230" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>263</v>
-      </c>
-      <c r="B232" t="s">
-        <v>584</v>
-      </c>
-      <c r="M232" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>264</v>
-      </c>
-      <c r="B233" t="s">
-        <v>585</v>
-      </c>
-      <c r="M233" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>265</v>
-      </c>
-      <c r="B234" t="s">
-        <v>586</v>
-      </c>
-      <c r="M234" t="s">
-        <v>267</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>257</v>
+      </c>
+      <c r="B235" t="s">
+        <v>577</v>
+      </c>
+      <c r="M235" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B236" t="s">
-        <v>269</v>
+        <v>578</v>
       </c>
       <c r="M236" t="s">
-        <v>748</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B238" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="M238" t="s">
-        <v>201</v>
+        <v>684</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B239" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M239" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M240" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B242" t="s">
-        <v>549</v>
+        <v>267</v>
       </c>
       <c r="M242" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>275</v>
-      </c>
-      <c r="B243" t="s">
-        <v>588</v>
-      </c>
-      <c r="M243" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B244" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="M244" t="s">
-        <v>751</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245" t="s">
+        <v>582</v>
+      </c>
+      <c r="M245" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B246" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="M246" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>278</v>
-      </c>
-      <c r="B247" t="s">
-        <v>589</v>
-      </c>
-      <c r="M247" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B248" t="s">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="M248" t="s">
-        <v>279</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>273</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M249" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B250" t="s">
-        <v>551</v>
+        <v>1445</v>
       </c>
       <c r="M250" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>282</v>
-      </c>
-      <c r="B251" t="s">
-        <v>590</v>
-      </c>
-      <c r="M251" t="s">
-        <v>283</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>545</v>
       </c>
       <c r="M252" t="s">
-        <v>285</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>276</v>
+      </c>
+      <c r="B253" t="s">
+        <v>583</v>
+      </c>
+      <c r="M253" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B254" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="M254" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>287</v>
-      </c>
-      <c r="B255" t="s">
-        <v>591</v>
-      </c>
-      <c r="M255" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B256" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="M256" t="s">
-        <v>288</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>280</v>
+      </c>
+      <c r="B257" t="s">
+        <v>584</v>
+      </c>
+      <c r="M257" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B258" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="M258" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>291</v>
-      </c>
-      <c r="B259" t="s">
-        <v>593</v>
-      </c>
-      <c r="M259" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
       <c r="M260" t="s">
-        <v>292</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>285</v>
+      </c>
+      <c r="B261" t="s">
+        <v>585</v>
+      </c>
+      <c r="M261" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B262" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M262" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>296</v>
-      </c>
-      <c r="B263" t="s">
-        <v>595</v>
-      </c>
-      <c r="M263" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>298</v>
+        <v>1334</v>
       </c>
       <c r="B264" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="M264" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B266" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="M266" t="s">
-        <v>300</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B267" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="M267" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B268" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="M268" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B270" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="M270" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="M271" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B272" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="M272" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B274" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="M274" t="s">
-        <v>1346</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B275" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M275" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B276" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="M276" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B278" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M278" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B279" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M279" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B280" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M280" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B282" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M282" t="s">
-        <v>179</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B283" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M283" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B284" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M284" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B286" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M286" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B287" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M287" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B288" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M288" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B290" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M290" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B291" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M291" t="s">
-        <v>1060</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B292" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="M292" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B294" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M294" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B295" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M295" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B296" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="M296" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B298" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M298" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B299" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M299" t="s">
-        <v>336</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B300" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="M300" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B302" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="M302" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B303" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M303" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B304" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="M304" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B306" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="M306" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B307" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="M307" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="M308" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B310" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="M310" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B311" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M311" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B312" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M312" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B314" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="M314" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B315" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M315" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B316" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="M316" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B318" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M318" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B319" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="M319" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="M320" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="M322" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M323" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B324" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M324" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="M326" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="M327" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B328" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="M328" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B330" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="M330" t="s">
-        <v>372</v>
+        <v>232</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B331" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="M331" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B332" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="M332" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B334" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="M334" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B335" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M335" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B336" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="M336" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>381</v>
+        <v>1335</v>
       </c>
       <c r="B338" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="M338" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>382</v>
-      </c>
-      <c r="B339" t="s">
-        <v>617</v>
-      </c>
-      <c r="M339" t="s">
-        <v>383</v>
+        <v>196</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="M340" t="s">
-        <v>385</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>371</v>
+      </c>
+      <c r="B341" t="s">
+        <v>608</v>
+      </c>
+      <c r="M341" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B342" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="M342" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>387</v>
-      </c>
-      <c r="B343" t="s">
-        <v>618</v>
-      </c>
-      <c r="M343" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B344" t="s">
-        <v>653</v>
+        <v>610</v>
       </c>
       <c r="M344" t="s">
-        <v>390</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>377</v>
+      </c>
+      <c r="B345" t="s">
+        <v>608</v>
+      </c>
+      <c r="M345" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B346" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="M346" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>392</v>
-      </c>
-      <c r="B347" t="s">
-        <v>619</v>
-      </c>
-      <c r="M347" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B348" t="s">
-        <v>654</v>
+        <v>563</v>
       </c>
       <c r="M348" t="s">
-        <v>393</v>
+        <v>239</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="B349" t="s">
-        <v>925</v>
+        <v>611</v>
       </c>
       <c r="M349" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>395</v>
-      </c>
-      <c r="B351" t="s">
-        <v>620</v>
-      </c>
-      <c r="M351" t="s">
-        <v>396</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>382</v>
+      </c>
+      <c r="B350" t="s">
+        <v>646</v>
+      </c>
+      <c r="M350" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B352" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="M352" t="s">
-        <v>398</v>
+        <v>242</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B353" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M353" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>400</v>
-      </c>
-      <c r="B355" t="s">
-        <v>573</v>
-      </c>
-      <c r="M355" t="s">
-        <v>246</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>387</v>
+      </c>
+      <c r="B354" t="s">
+        <v>647</v>
+      </c>
+      <c r="M354" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B356" t="s">
-        <v>622</v>
+        <v>538</v>
       </c>
       <c r="M356" t="s">
-        <v>402</v>
+        <v>205</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B357" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="M357" t="s">
-        <v>404</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>392</v>
+      </c>
+      <c r="B358" t="s">
+        <v>648</v>
+      </c>
+      <c r="M358" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="B359" t="s">
-        <v>575</v>
+        <v>916</v>
       </c>
       <c r="M359" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>407</v>
-      </c>
-      <c r="B360" t="s">
-        <v>623</v>
-      </c>
-      <c r="M360" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B361" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M361" t="s">
-        <v>410</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>395</v>
+      </c>
+      <c r="B362" t="s">
+        <v>615</v>
+      </c>
+      <c r="M362" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B363" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="M363" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>412</v>
-      </c>
-      <c r="B364" t="s">
-        <v>624</v>
-      </c>
-      <c r="M364" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B365" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="M365" t="s">
-        <v>413</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>399</v>
+      </c>
+      <c r="B366" t="s">
+        <v>616</v>
+      </c>
+      <c r="M366" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B367" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="M367" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>417</v>
-      </c>
-      <c r="B368" t="s">
-        <v>626</v>
-      </c>
-      <c r="M368" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B369" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="M369" t="s">
-        <v>418</v>
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>404</v>
+      </c>
+      <c r="B370" t="s">
+        <v>617</v>
+      </c>
+      <c r="M370" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B371" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="M371" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>422</v>
-      </c>
-      <c r="B372" t="s">
-        <v>626</v>
-      </c>
-      <c r="M372" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B373" t="s">
-        <v>626</v>
+        <v>537</v>
       </c>
       <c r="M373" t="s">
-        <v>418</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" t="s">
+        <v>618</v>
+      </c>
+      <c r="M374" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B375" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="M375" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>425</v>
-      </c>
-      <c r="B376" t="s">
-        <v>628</v>
-      </c>
-      <c r="M376" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>427</v>
+        <v>1336</v>
       </c>
       <c r="B377" t="s">
-        <v>628</v>
+        <v>535</v>
       </c>
       <c r="M377" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B379" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="M379" t="s">
-        <v>255</v>
+        <v>413</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B380" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="M380" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B381" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="M381" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B383" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="M383" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B384" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="M384" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B385" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="M385" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B387" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="M387" t="s">
-        <v>691</v>
+        <v>250</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B388" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="M388" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B389" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="M389" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B391" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
       <c r="M391" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B392" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="M392" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B393" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="M393" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B395" t="s">
-        <v>168</v>
+        <v>625</v>
       </c>
       <c r="M395" t="s">
-        <v>168</v>
+        <v>431</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B396" t="s">
-        <v>448</v>
+        <v>626</v>
       </c>
       <c r="M396" t="s">
-        <v>710</v>
+        <v>433</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
-        <v>448</v>
+        <v>626</v>
       </c>
       <c r="M397" t="s">
-        <v>710</v>
+        <v>433</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B399" t="s">
-        <v>454</v>
+        <v>627</v>
       </c>
       <c r="M399" t="s">
-        <v>454</v>
+        <v>685</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B400" t="s">
-        <v>455</v>
+        <v>628</v>
       </c>
       <c r="M400" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>890</v>
-      </c>
-      <c r="B402" t="s">
-        <v>895</v>
-      </c>
-      <c r="M402" t="s">
-        <v>894</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>438</v>
+      </c>
+      <c r="B401" t="s">
+        <v>628</v>
+      </c>
+      <c r="M401" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>891</v>
+        <v>439</v>
       </c>
       <c r="B403" t="s">
-        <v>896</v>
+        <v>629</v>
       </c>
       <c r="M403" t="s">
-        <v>893</v>
+        <v>198</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>892</v>
+        <v>1333</v>
       </c>
       <c r="B404" t="s">
-        <v>896</v>
+        <v>533</v>
       </c>
       <c r="M404" t="s">
-        <v>893</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B405" t="s">
+        <v>630</v>
+      </c>
+      <c r="M405" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1106</v>
+        <v>1352</v>
       </c>
       <c r="B406" t="s">
-        <v>1112</v>
+        <v>630</v>
       </c>
       <c r="M406" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M407" t="s">
-        <v>1163</v>
+        <v>440</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1108</v>
+        <v>441</v>
       </c>
       <c r="B408" t="s">
-        <v>1114</v>
+        <v>168</v>
       </c>
       <c r="M408" t="s">
-        <v>1163</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>442</v>
+      </c>
+      <c r="B409" t="s">
+        <v>443</v>
+      </c>
+      <c r="M409" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1109</v>
+        <v>444</v>
       </c>
       <c r="B410" t="s">
-        <v>1115</v>
+        <v>443</v>
       </c>
       <c r="M410" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M411" t="s">
-        <v>1174</v>
+        <v>704</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1111</v>
+        <v>447</v>
       </c>
       <c r="B412" t="s">
-        <v>1116</v>
+        <v>449</v>
       </c>
       <c r="M412" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>461</v>
-      </c>
-      <c r="B414" t="s">
-        <v>656</v>
-      </c>
-      <c r="M414" t="s">
-        <v>456</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>448</v>
+      </c>
+      <c r="B413" t="s">
+        <v>450</v>
+      </c>
+      <c r="M413" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>462</v>
+        <v>883</v>
       </c>
       <c r="B415" t="s">
-        <v>657</v>
+        <v>886</v>
       </c>
       <c r="M415" t="s">
-        <v>457</v>
+        <v>885</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>463</v>
+        <v>1349</v>
       </c>
       <c r="B416" t="s">
-        <v>658</v>
+        <v>887</v>
       </c>
       <c r="M416" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>464</v>
+        <v>1350</v>
       </c>
       <c r="B417" t="s">
-        <v>659</v>
+        <v>887</v>
       </c>
       <c r="M417" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>465</v>
-      </c>
-      <c r="B418" t="s">
-        <v>660</v>
-      </c>
-      <c r="M418" t="s">
-        <v>460</v>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M419" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>472</v>
+        <v>1097</v>
       </c>
       <c r="B420" t="s">
-        <v>466</v>
+        <v>1103</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>811</v>
+        <v>1098</v>
       </c>
       <c r="B421" t="s">
-        <v>813</v>
+        <v>1104</v>
       </c>
       <c r="M421" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>812</v>
-      </c>
-      <c r="B422" t="s">
-        <v>814</v>
-      </c>
-      <c r="M422" t="s">
-        <v>816</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>477</v>
+        <v>1099</v>
       </c>
       <c r="B423" t="s">
-        <v>502</v>
+        <v>1105</v>
       </c>
       <c r="M423" t="s">
-        <v>467</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>473</v>
+        <v>1100</v>
       </c>
       <c r="B424" t="s">
-        <v>503</v>
+        <v>1122</v>
       </c>
       <c r="M424" t="s">
-        <v>468</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>474</v>
+        <v>1101</v>
       </c>
       <c r="B425" t="s">
-        <v>504</v>
+        <v>1106</v>
       </c>
       <c r="M425" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>475</v>
-      </c>
-      <c r="B426" t="s">
-        <v>505</v>
-      </c>
-      <c r="M426" t="s">
-        <v>470</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>476</v>
+        <v>1344</v>
       </c>
       <c r="B427" t="s">
-        <v>506</v>
+        <v>1345</v>
       </c>
       <c r="M427" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1154</v>
-      </c>
-      <c r="M428" t="s">
-        <v>1156</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>898</v>
+        <v>1355</v>
       </c>
       <c r="B429" t="s">
-        <v>905</v>
+        <v>1356</v>
       </c>
       <c r="M429" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>899</v>
-      </c>
-      <c r="B430" t="s">
-        <v>906</v>
-      </c>
-      <c r="M430" t="s">
-        <v>913</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>900</v>
+        <v>456</v>
       </c>
       <c r="B431" t="s">
-        <v>907</v>
+        <v>650</v>
       </c>
       <c r="M431" t="s">
-        <v>914</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>901</v>
+        <v>457</v>
       </c>
       <c r="B432" t="s">
-        <v>908</v>
+        <v>651</v>
       </c>
       <c r="M432" t="s">
-        <v>915</v>
+        <v>452</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>902</v>
+        <v>458</v>
       </c>
       <c r="B433" t="s">
-        <v>909</v>
+        <v>652</v>
       </c>
       <c r="M433" t="s">
-        <v>916</v>
+        <v>453</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>903</v>
+        <v>459</v>
       </c>
       <c r="B434" t="s">
-        <v>910</v>
+        <v>653</v>
       </c>
       <c r="M434" t="s">
-        <v>917</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>904</v>
+        <v>460</v>
       </c>
       <c r="B435" t="s">
-        <v>911</v>
+        <v>654</v>
       </c>
       <c r="M435" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M436" t="s">
-        <v>1157</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>919</v>
+        <v>467</v>
       </c>
       <c r="B437" t="s">
-        <v>920</v>
-      </c>
-      <c r="M437" t="s">
-        <v>921</v>
+        <v>461</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>924</v>
+        <v>804</v>
       </c>
       <c r="B438" t="s">
-        <v>922</v>
+        <v>806</v>
       </c>
       <c r="M438" t="s">
-        <v>923</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>805</v>
+      </c>
+      <c r="B439" t="s">
+        <v>807</v>
+      </c>
+      <c r="M439" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B440" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M440" t="s">
-        <v>809</v>
+        <v>462</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B441" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="M441" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B442" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="M442" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>928</v>
+        <v>470</v>
       </c>
       <c r="B443" t="s">
-        <v>929</v>
+        <v>500</v>
       </c>
       <c r="M443" t="s">
-        <v>930</v>
+        <v>465</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>931</v>
+        <v>471</v>
       </c>
       <c r="B444" t="s">
-        <v>932</v>
+        <v>501</v>
       </c>
       <c r="M444" t="s">
-        <v>933</v>
+        <v>466</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>934</v>
+        <v>1143</v>
       </c>
       <c r="B445" t="s">
-        <v>935</v>
+        <v>1144</v>
       </c>
       <c r="M445" t="s">
-        <v>936</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1053</v>
+        <v>889</v>
       </c>
       <c r="B446" t="s">
-        <v>1054</v>
+        <v>896</v>
       </c>
       <c r="M446" t="s">
-        <v>1055</v>
+        <v>903</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>481</v>
+        <v>890</v>
       </c>
       <c r="B447" t="s">
-        <v>810</v>
+        <v>897</v>
       </c>
       <c r="M447" t="s">
-        <v>709</v>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>891</v>
+      </c>
+      <c r="B448" t="s">
+        <v>898</v>
+      </c>
+      <c r="M448" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>488</v>
+        <v>892</v>
       </c>
       <c r="B449" t="s">
-        <v>661</v>
+        <v>899</v>
       </c>
       <c r="M449" t="s">
-        <v>484</v>
+        <v>906</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>489</v>
+        <v>893</v>
       </c>
       <c r="B450" t="s">
-        <v>662</v>
+        <v>900</v>
       </c>
       <c r="M450" t="s">
-        <v>485</v>
+        <v>907</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>490</v>
+        <v>894</v>
       </c>
       <c r="B451" t="s">
-        <v>663</v>
+        <v>901</v>
       </c>
       <c r="M451" t="s">
-        <v>486</v>
+        <v>908</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>895</v>
       </c>
       <c r="B452" t="s">
-        <v>664</v>
+        <v>902</v>
       </c>
       <c r="M452" t="s">
-        <v>487</v>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M453" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>492</v>
+        <v>910</v>
       </c>
       <c r="B454" t="s">
-        <v>692</v>
+        <v>911</v>
       </c>
       <c r="M454" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>665</v>
-      </c>
-      <c r="B456" t="s">
-        <v>493</v>
-      </c>
-      <c r="M456" t="s">
-        <v>497</v>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>915</v>
+      </c>
+      <c r="B455" t="s">
+        <v>913</v>
+      </c>
+      <c r="M455" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>666</v>
+        <v>473</v>
       </c>
       <c r="B457" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M457" t="s">
-        <v>496</v>
+        <v>802</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="B458" t="s">
+        <v>478</v>
+      </c>
+      <c r="M458" t="s">
         <v>495</v>
       </c>
-      <c r="M458" t="s">
-        <v>498</v>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>475</v>
+      </c>
+      <c r="B459" t="s">
+        <v>477</v>
+      </c>
+      <c r="M459" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>499</v>
+        <v>919</v>
       </c>
       <c r="B460" t="s">
-        <v>694</v>
+        <v>920</v>
       </c>
       <c r="M460" t="s">
-        <v>706</v>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>922</v>
+      </c>
+      <c r="B461" t="s">
+        <v>923</v>
+      </c>
+      <c r="M461" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>695</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C462" s="1"/>
-      <c r="D462" s="1"/>
-      <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
-      <c r="J462" s="1"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1"/>
-      <c r="M462" s="1" t="s">
-        <v>708</v>
+        <v>925</v>
+      </c>
+      <c r="B462" t="s">
+        <v>926</v>
+      </c>
+      <c r="M462" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>696</v>
+        <v>1043</v>
       </c>
       <c r="B463" t="s">
-        <v>698</v>
+        <v>1044</v>
       </c>
       <c r="M463" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>711</v>
-      </c>
-      <c r="B465" t="s">
-        <v>712</v>
-      </c>
-      <c r="M465" t="s">
-        <v>713</v>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>476</v>
+      </c>
+      <c r="B464" t="s">
+        <v>803</v>
+      </c>
+      <c r="M464" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>483</v>
+      </c>
+      <c r="B466" t="s">
+        <v>655</v>
+      </c>
+      <c r="M466" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>714</v>
+        <v>484</v>
       </c>
       <c r="B467" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="M467" t="s">
-        <v>730</v>
+        <v>480</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>716</v>
+        <v>485</v>
       </c>
       <c r="B468" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="M468" t="s">
-        <v>728</v>
+        <v>481</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>717</v>
+        <v>486</v>
       </c>
       <c r="B469" t="s">
-        <v>722</v>
+        <v>658</v>
       </c>
       <c r="M469" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>718</v>
-      </c>
-      <c r="B470" t="s">
-        <v>723</v>
-      </c>
-      <c r="M470" t="s">
-        <v>729</v>
+        <v>482</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>719</v>
+        <v>487</v>
       </c>
       <c r="B471" t="s">
-        <v>286</v>
+        <v>686</v>
       </c>
       <c r="M471" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>720</v>
-      </c>
-      <c r="B472" t="s">
-        <v>724</v>
-      </c>
-      <c r="M472" t="s">
-        <v>727</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>659</v>
+      </c>
+      <c r="B473" t="s">
+        <v>488</v>
+      </c>
+      <c r="M473" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1142</v>
+        <v>660</v>
       </c>
       <c r="B474" t="s">
-        <v>1145</v>
+        <v>489</v>
       </c>
       <c r="M474" t="s">
-        <v>1168</v>
+        <v>491</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1143</v>
+        <v>661</v>
       </c>
       <c r="B475" t="s">
-        <v>1146</v>
+        <v>490</v>
       </c>
       <c r="M475" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M476" t="s">
-        <v>1170</v>
+        <v>493</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1147</v>
+        <v>494</v>
       </c>
       <c r="B477" t="s">
-        <v>1149</v>
+        <v>688</v>
       </c>
       <c r="M477" t="s">
-        <v>1171</v>
+        <v>700</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>818</v>
-      </c>
-      <c r="B479" t="s">
-        <v>819</v>
-      </c>
-      <c r="M479" t="s">
-        <v>821</v>
+        <v>689</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>945</v>
+        <v>690</v>
       </c>
       <c r="B480" t="s">
-        <v>946</v>
+        <v>692</v>
       </c>
       <c r="M480" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>822</v>
-      </c>
-      <c r="B481" t="s">
-        <v>820</v>
-      </c>
-      <c r="M481" t="s">
-        <v>824</v>
+        <v>699</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>825</v>
+        <v>705</v>
       </c>
       <c r="B482" t="s">
-        <v>820</v>
+        <v>706</v>
       </c>
       <c r="M482" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>827</v>
-      </c>
-      <c r="B483" t="s">
-        <v>823</v>
-      </c>
-      <c r="M483" t="s">
-        <v>823</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>708</v>
+      </c>
+      <c r="B484" t="s">
+        <v>709</v>
+      </c>
+      <c r="M484" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>831</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C485" s="3"/>
-      <c r="D485" s="3"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
-      <c r="I485" s="3"/>
-      <c r="J485" s="3"/>
-      <c r="K485" s="3"/>
-      <c r="L485" s="3"/>
-      <c r="M485" s="2" t="s">
-        <v>1167</v>
+        <v>710</v>
+      </c>
+      <c r="B485" t="s">
+        <v>715</v>
+      </c>
+      <c r="M485" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>832</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C486" s="3"/>
-      <c r="D486" s="3"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
-      <c r="I486" s="3"/>
-      <c r="J486" s="3"/>
-      <c r="K486" s="3"/>
-      <c r="L486" s="3"/>
-      <c r="M486" s="2" t="s">
-        <v>1165</v>
+        <v>711</v>
+      </c>
+      <c r="B486" t="s">
+        <v>716</v>
+      </c>
+      <c r="M486" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>833</v>
+        <v>712</v>
       </c>
       <c r="B487" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="M487" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>713</v>
+      </c>
+      <c r="B488" t="s">
+        <v>284</v>
+      </c>
+      <c r="M488" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B489" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M489" s="4" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+        <v>714</v>
+      </c>
+      <c r="B489" t="s">
+        <v>718</v>
+      </c>
+      <c r="M489" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M491" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M492" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M493" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M494" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>811</v>
+      </c>
+      <c r="B496" t="s">
+        <v>812</v>
+      </c>
+      <c r="M496" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>936</v>
+      </c>
+      <c r="B497" t="s">
+        <v>937</v>
+      </c>
+      <c r="M497" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>815</v>
+      </c>
+      <c r="B498" t="s">
+        <v>813</v>
+      </c>
+      <c r="M498" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>818</v>
+      </c>
+      <c r="B499" t="s">
+        <v>813</v>
+      </c>
+      <c r="M499" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>820</v>
+      </c>
+      <c r="B500" t="s">
+        <v>816</v>
+      </c>
+      <c r="M500" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>824</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C502" s="3"/>
+      <c r="D502" s="3"/>
+      <c r="E502" s="3"/>
+      <c r="F502" s="3"/>
+      <c r="G502" s="3"/>
+      <c r="H502" s="3"/>
+      <c r="I502" s="3"/>
+      <c r="J502" s="3"/>
+      <c r="K502" s="3"/>
+      <c r="L502" s="3"/>
+      <c r="M502" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>825</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C503" s="3"/>
+      <c r="D503" s="3"/>
+      <c r="E503" s="3"/>
+      <c r="F503" s="3"/>
+      <c r="G503" s="3"/>
+      <c r="H503" s="3"/>
+      <c r="I503" s="3"/>
+      <c r="J503" s="3"/>
+      <c r="K503" s="3"/>
+      <c r="L503" s="3"/>
+      <c r="M503" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>826</v>
+      </c>
+      <c r="B504" t="s">
+        <v>828</v>
+      </c>
+      <c r="M504" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M506" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B507" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="M490" s="4" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="M507" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M508" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M509" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B510" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="B491" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="M491" s="4" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="M510" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M492" s="4" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    </row>
+    <row r="511" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M511" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M493" s="4" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M494" s="4" t="s">
-        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -9043,10 +9516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9108,475 +9581,486 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1044</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>1161</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1162</v>
+        <v>1358</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1193</v>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -9588,13 +10072,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24339F-182E-497F-BCB5-E8925B014635}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="13" max="13" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9650,268 +10135,376 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1280</v>
+        <v>1269</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1359</v>
       </c>
       <c r="M2" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1281</v>
+        <v>1270</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1318</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1282</v>
+        <v>1271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1361</v>
       </c>
       <c r="M4" t="s">
-        <v>1314</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1283</v>
+        <v>1272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1362</v>
       </c>
       <c r="M5" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1284</v>
+        <v>1273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1363</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1285</v>
+        <v>1274</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="M7" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1286</v>
+        <v>1275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1365</v>
       </c>
       <c r="M8" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1287</v>
+        <v>1276</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1366</v>
       </c>
       <c r="M9" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1288</v>
+        <v>1277</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1367</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1289</v>
+        <v>1278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1368</v>
       </c>
       <c r="M11" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1290</v>
+        <v>1279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1369</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1291</v>
+        <v>1280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1370</v>
       </c>
       <c r="M13" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1292</v>
+        <v>1281</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="M14" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1293</v>
+        <v>1282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1372</v>
       </c>
       <c r="M15" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1294</v>
+        <v>1283</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1373</v>
       </c>
       <c r="M16" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1295</v>
+        <v>1284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1374</v>
       </c>
       <c r="M17" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1296</v>
+        <v>1285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1375</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1297</v>
+        <v>1286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1376</v>
       </c>
       <c r="M19" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1298</v>
+        <v>1287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1377</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1299</v>
+        <v>1288</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1378</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1300</v>
+        <v>1289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1379</v>
       </c>
       <c r="M22" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1301</v>
+        <v>1290</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1054</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1302</v>
+        <v>1291</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1380</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1303</v>
+        <v>1292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1381</v>
       </c>
       <c r="M25" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1305</v>
+        <v>1294</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="M27" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1306</v>
+        <v>1295</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="M28" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1307</v>
+        <v>1296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1385</v>
       </c>
       <c r="M29" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1308</v>
+        <v>1297</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1386</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1309</v>
+        <v>1298</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1387</v>
       </c>
       <c r="M31" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1310</v>
+        <v>1299</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1388</v>
       </c>
       <c r="M32" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1311</v>
+        <v>1300</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1389</v>
       </c>
       <c r="M33" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1312</v>
+        <v>1301</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1391</v>
       </c>
       <c r="M34" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1313</v>
+        <v>1302</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -9923,8 +10516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9984,218 +10577,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B3" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B4" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B8" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B9" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B10" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B11" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B12" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B13" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B14" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B15" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B16" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B17" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B18" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B19" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B20" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B21" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B22" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B23" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B24" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B25" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B26" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B27" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B28" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -10204,11 +10797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407DFB6-40D6-40B4-994E-B61EB81D0E28}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E03A3E-CD6E-42CA-AC43-3F5764A8A875}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10269,189 +10862,226 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1211</v>
+        <v>1417</v>
       </c>
       <c r="M2" t="s">
-        <v>1244</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1212</v>
+        <v>1418</v>
       </c>
       <c r="M3" t="s">
-        <v>1245</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1213</v>
+        <v>1419</v>
       </c>
       <c r="M4" t="s">
-        <v>1246</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1214</v>
+        <v>1420</v>
       </c>
       <c r="M5" t="s">
-        <v>1247</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1215</v>
+        <v>1421</v>
       </c>
       <c r="M6" t="s">
-        <v>1248</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1216</v>
+        <v>1422</v>
       </c>
       <c r="M7" t="s">
-        <v>1249</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1217</v>
+        <v>1423</v>
       </c>
       <c r="M8" t="s">
-        <v>1250</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1218</v>
+        <v>1424</v>
       </c>
       <c r="M9" t="s">
-        <v>1251</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1219</v>
+        <v>1425</v>
       </c>
       <c r="M10" t="s">
-        <v>1252</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1220</v>
+        <v>1426</v>
       </c>
       <c r="M11" t="s">
-        <v>1253</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1261</v>
+        <v>1427</v>
       </c>
       <c r="M12" t="s">
-        <v>1260</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1221</v>
+        <v>1428</v>
       </c>
       <c r="M13" t="s">
-        <v>1254</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1222</v>
+        <v>1429</v>
       </c>
       <c r="M14" t="s">
-        <v>1255</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1223</v>
+        <v>1430</v>
       </c>
       <c r="M15" t="s">
-        <v>1256</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1224</v>
+        <v>1431</v>
       </c>
       <c r="M16" t="s">
-        <v>1259</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1225</v>
+        <v>1432</v>
       </c>
       <c r="M17" t="s">
-        <v>1257</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1226</v>
+        <v>1433</v>
       </c>
       <c r="M18" t="s">
-        <v>1258</v>
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="M23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -10460,6 +11090,262 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407DFB6-40D6-40B4-994E-B61EB81D0E28}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF16F22E-C55D-4FF3-81DD-FA92E4CD5EC9}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -10526,68 +11412,68 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="B2" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="M2" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="B3" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="M3" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="B4" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="M4" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="B5" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="M5" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="B6" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="M6" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="B7" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="M7" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C6D72-14F0-4F41-B7BA-93A3ECC108E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1087D9B0-616F-4C4E-BA4A-E0B39E2FF170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3150" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2220" windowWidth="24465" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
     <sheet name="Role Descriptions" sheetId="3" r:id="rId2"/>
-    <sheet name="Images" sheetId="2" r:id="rId3"/>
+    <sheet name="Role Blurbs" sheetId="6" r:id="rId3"/>
+    <sheet name="Images" sheetId="2" r:id="rId4"/>
+    <sheet name="Button Text" sheetId="7" r:id="rId5"/>
+    <sheet name="Colors" sheetId="4" r:id="rId6"/>
+    <sheet name="Hats" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1508">
   <si>
     <t>presetSelection</t>
   </si>
@@ -555,18 +559,9 @@
     <t>変身クールダウン</t>
   </si>
   <si>
-    <t>変身時間</t>
-  </si>
-  <si>
-    <t>カモフラージャ</t>
-  </si>
-  <si>
     <t>カモフラージュクールダウン</t>
   </si>
   <si>
-    <t>カモフラージュ時間</t>
-  </si>
-  <si>
     <t>ヴァンパイア</t>
   </si>
   <si>
@@ -594,9 +589,6 @@
     <t>強制停電クールダウン</t>
   </si>
   <si>
-    <t>強制停電時間</t>
-  </si>
-  <si>
     <t>クリーナー</t>
   </si>
   <si>
@@ -693,9 +685,6 @@
     <t>ライトクールダウン</t>
   </si>
   <si>
-    <t>ライト時間</t>
-  </si>
-  <si>
     <t>ディテクティブ</t>
   </si>
   <si>
@@ -717,18 +706,12 @@
     <t>巻き戻す時間</t>
   </si>
   <si>
-    <t>シールド時間</t>
-  </si>
-  <si>
     <t>メディック</t>
   </si>
   <si>
     <t>メディックのみ</t>
   </si>
   <si>
-    <t>攻撃されたら対象者にも知らせる</t>
-  </si>
-  <si>
     <t>スワッパー</t>
   </si>
   <si>
@@ -753,9 +736,6 @@
     <t>ハッキングクールダウン</t>
   </si>
   <si>
-    <t>ハッキング時間</t>
-  </si>
-  <si>
     <t>トラッカー</t>
   </si>
   <si>
@@ -786,12 +766,6 @@
     <t>インポスターが誰でも殺せる</t>
   </si>
   <si>
-    <t>セキュリティガード</t>
-  </si>
-  <si>
-    <t>セキュリティガードクールダウン</t>
-  </si>
-  <si>
     <t>ネジ所持数</t>
   </si>
   <si>
@@ -1257,9 +1231,6 @@
     <t>securityGuard</t>
   </si>
   <si>
-    <t>セキュリティーガード</t>
-  </si>
-  <si>
     <t>securityGuardIntroDesc</t>
   </si>
   <si>
@@ -1368,15 +1339,9 @@
     <t>lover</t>
   </si>
   <si>
-    <t>loverIntroDesc</t>
-  </si>
-  <si>
     <t>恋に落ちてしまった</t>
   </si>
   <si>
-    <t>loverShortDesc</t>
-  </si>
-  <si>
     <t>gm</t>
   </si>
   <si>
@@ -1803,9 +1768,6 @@
     <t>Get voted out</t>
   </si>
   <si>
-    <t>Your vote counts twice</t>
-  </si>
-  <si>
     <t>Maintain important systems on the ship</t>
   </si>
   <si>
@@ -2292,9 +2254,6 @@
     <t>投票スキップ禁止</t>
   </si>
   <si>
-    <t>自分の票が倍の力を持っている</t>
-  </si>
-  <si>
     <t>指名クールダウン</t>
   </si>
   <si>
@@ -2712,12 +2671,6 @@
     <t>opportunist</t>
   </si>
   <si>
-    <t>oppIntroDesc</t>
-  </si>
-  <si>
-    <t>oppShortDesc</t>
-  </si>
-  <si>
     <t>とにかく生き残りましょう</t>
   </si>
   <si>
@@ -3067,9 +3020,6 @@
   </si>
   <si>
     <t>oppFullDesc</t>
-  </si>
-  <si>
-    <t>・入れた人の投票数が2票になる</t>
   </si>
   <si>
     <t>・能力を使うと一定時間視界が広くなる</t>
@@ -3207,10 +3157,6 @@
   <si>
     <t>・誰かがベントを使うと、そのベントが黄色く光る_x000D_
 ・&lt;color=#ff1919ff&gt;人外&lt;/color&gt;がベイトをキルするとキルした人が一定時間後に自動的にレポートする</t>
-  </si>
-  <si>
-    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;に加担するキルできない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営_x000D_
-・停電が直せない</t>
   </si>
   <si>
     <t>・ベントに入ることができる_x000D_
@@ -3666,16 +3612,10 @@
     <t>ヴァルチャー</t>
   </si>
   <si>
-    <t>ミーディアム</t>
-  </si>
-  <si>
     <t>Question the souls of the dead to gain information</t>
   </si>
   <si>
     <t>霊能力クールダウン</t>
-  </si>
-  <si>
-    <t>霊能力時間</t>
   </si>
   <si>
     <t>1人ずつ1回のみ霊能力を使える</t>
@@ -3763,13 +3703,6 @@
 to the corpse.</t>
   </si>
   <si>
-    <t>The medium is a crewmate who can ask the souls of dead players for information.
-Like the Seer, it sees the places where the players have died (after the next meeting)
-and can question them. It then gets random information about the soul or the killer
-in the chat. The souls only stay for one round, i.e. until the next meeting.
-Depending on the options, the souls can only be questioned once and then disappear.</t>
-  </si>
-  <si>
     <t>死骸を喰らおう</t>
   </si>
   <si>
@@ -3809,9 +3742,6 @@
 ・死体の場所が矢印にてある程度わかる（設定による）
 ・食べた死体はその場から消える
 ・ベントの使用が可能（設定による）</t>
-  </si>
-  <si>
-    <t>残り {0}人</t>
   </si>
   <si>
     <t>取り残された魂から情報を聞き出そう</t>
@@ -3952,6 +3882,983 @@
   </si>
   <si>
     <t>使いどころのない設定</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Turqoise</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Nougat</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Wasabi</t>
+  </si>
+  <si>
+    <t>Hot Pink</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Signal Orange</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Blurple</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>colorSalmon</t>
+  </si>
+  <si>
+    <t>colorBordeaux</t>
+  </si>
+  <si>
+    <t>colorOlive</t>
+  </si>
+  <si>
+    <t>colorTurqoise</t>
+  </si>
+  <si>
+    <t>colorMint</t>
+  </si>
+  <si>
+    <t>colorLavender</t>
+  </si>
+  <si>
+    <t>colorNougat</t>
+  </si>
+  <si>
+    <t>colorPeach</t>
+  </si>
+  <si>
+    <t>colorWasabi</t>
+  </si>
+  <si>
+    <t>colorPetrol</t>
+  </si>
+  <si>
+    <t>colorLemon</t>
+  </si>
+  <si>
+    <t>colorTeal</t>
+  </si>
+  <si>
+    <t>colorBlurple</t>
+  </si>
+  <si>
+    <t>colorSunrise</t>
+  </si>
+  <si>
+    <t>colorIce</t>
+  </si>
+  <si>
+    <t>colorHotPink</t>
+  </si>
+  <si>
+    <t>colorSignalOrange</t>
+  </si>
+  <si>
+    <t>サーモン</t>
+  </si>
+  <si>
+    <t>ボルドー</t>
+  </si>
+  <si>
+    <t>オリーブ</t>
+  </si>
+  <si>
+    <t>ターコイズ</t>
+  </si>
+  <si>
+    <t>ミント</t>
+  </si>
+  <si>
+    <t>ラベンダー</t>
+  </si>
+  <si>
+    <t>ヌガー</t>
+  </si>
+  <si>
+    <t>ピーチ</t>
+  </si>
+  <si>
+    <t>ワサビ</t>
+  </si>
+  <si>
+    <t>ホットピンク</t>
+  </si>
+  <si>
+    <t>レモン</t>
+  </si>
+  <si>
+    <t>シグナルオレンジ</t>
+  </si>
+  <si>
+    <t>ティール</t>
+  </si>
+  <si>
+    <t>サンライズ</t>
+  </si>
+  <si>
+    <t>アイス</t>
+  </si>
+  <si>
+    <t>ブラープル</t>
+  </si>
+  <si>
+    <t>ペトロールブルー</t>
+  </si>
+  <si>
+    <t>Petrol Blue</t>
+  </si>
+  <si>
+    <t>Innersloth Hats</t>
+  </si>
+  <si>
+    <t>developerHats</t>
+  </si>
+  <si>
+    <t>Developer Hats</t>
+  </si>
+  <si>
+    <t>communityHats</t>
+  </si>
+  <si>
+    <t>Community Hats</t>
+  </si>
+  <si>
+    <t>TOR開発チーム作</t>
+  </si>
+  <si>
+    <t>Innersloth公式作</t>
+  </si>
+  <si>
+    <t>shiuneCollection</t>
+  </si>
+  <si>
+    <t>Shiune Collection</t>
+  </si>
+  <si>
+    <t>しうねコレクション</t>
+  </si>
+  <si>
+    <t>コミュニティー作</t>
+  </si>
+  <si>
+    <t>gmEditionLibhalt</t>
+  </si>
+  <si>
+    <t>gmEditionGeneral</t>
+  </si>
+  <si>
+    <t>libhaltコレクション</t>
+  </si>
+  <si>
+    <t>libhalt Collection</t>
+  </si>
+  <si>
+    <t>GM Edition Exclusive</t>
+  </si>
+  <si>
+    <t>GMエディション限定</t>
+  </si>
+  <si>
+    <t>innerslothHats</t>
+  </si>
+  <si>
+    <t>shifterBlurb</t>
+  </si>
+  <si>
+    <t>mayorBlurb</t>
+  </si>
+  <si>
+    <t>sheriffBlurb</t>
+  </si>
+  <si>
+    <t>lighterBlurb</t>
+  </si>
+  <si>
+    <t>detectiveBlurb</t>
+  </si>
+  <si>
+    <t>timeMasterBlurb</t>
+  </si>
+  <si>
+    <t>medicBlurb</t>
+  </si>
+  <si>
+    <t>swapperBlurb</t>
+  </si>
+  <si>
+    <t>seerBlurb</t>
+  </si>
+  <si>
+    <t>hackerBlurb</t>
+  </si>
+  <si>
+    <t>trackerBlurb</t>
+  </si>
+  <si>
+    <t>snitchBlurb</t>
+  </si>
+  <si>
+    <t>spyBlurb</t>
+  </si>
+  <si>
+    <t>securityGuardBlurb</t>
+  </si>
+  <si>
+    <t>baitBlurb</t>
+  </si>
+  <si>
+    <t>mediumBlurb</t>
+  </si>
+  <si>
+    <t>mafiaBlurb</t>
+  </si>
+  <si>
+    <t>camouflagerBlurb</t>
+  </si>
+  <si>
+    <t>vampireBlurb</t>
+  </si>
+  <si>
+    <t>eraserBlurb</t>
+  </si>
+  <si>
+    <t>tricksterBlurb</t>
+  </si>
+  <si>
+    <t>cleanerBlurb</t>
+  </si>
+  <si>
+    <t>warlockBlurb</t>
+  </si>
+  <si>
+    <t>bountyHunterBlurb</t>
+  </si>
+  <si>
+    <t>madmateBlurb</t>
+  </si>
+  <si>
+    <t>miniBlurb</t>
+  </si>
+  <si>
+    <t>loversBlurb</t>
+  </si>
+  <si>
+    <t>guesserBlurb</t>
+  </si>
+  <si>
+    <t>jesterBlurb</t>
+  </si>
+  <si>
+    <t>arsonistBlurb</t>
+  </si>
+  <si>
+    <t>jackalBlurb</t>
+  </si>
+  <si>
+    <t>opportunistBlurb</t>
+  </si>
+  <si>
+    <t>vultureBlurb</t>
+  </si>
+  <si>
+    <t>gmBlurb</t>
+  </si>
+  <si>
+    <t>探偵は、他人の足跡が見えます。
+時間内に死体を通報すると更に多くの情報を得られるので重要な役割となってます。</t>
+  </si>
+  <si>
+    <t>ハッカーは、アドミンやバイタルでより多くの情報を得られます。制限時間付きでアドミンなら色がわかり、バイタルなら死んだ時間までわかります。</t>
+  </si>
+  <si>
+    <t>ライターは、一定時間視界を広くすることができます。停電中に使いインポスターの視界で動けるので多くの情報を得ましょう。</t>
+  </si>
+  <si>
+    <t>メディックは、誰か一人にシールドを貼ることができます。シールドを貼ったプレイヤーがキルされるとシールドが壊れます。誰に殺されそうになったのかが守られた人はわかるので伝えましょう。</t>
+  </si>
+  <si>
+    <t>警備員は、ベントを塞ぐことや新しいカメラを設置できます。ベントを塞いでインポスターにベントを使わせないようにしましょう。カメラを新しく設置して目撃情報を増やしましょう。</t>
+  </si>
+  <si>
+    <t>シーアは、死んだ瞬間がわかります。
+更に死んだ場所に行くと魂も見えるので重要な役割となっています。</t>
+  </si>
+  <si>
+    <t>スニッチは、タスクが終了すると誰がインポスターなのかわかります。ただし、タスク終了間際になるとインポスターに場所がバレてしまうので要注意…</t>
+  </si>
+  <si>
+    <t>スパイは、インポスターからは仲間に見えてしまうクルー陣営です。インポスターに仲間と思わせて誰か判明したら裏切りましょう。</t>
+  </si>
+  <si>
+    <t>スワッパーは、投票先を入れ替えることができます。自身と誰かの投票先を変えるか、他者の投票先を入れ替えられます。</t>
+  </si>
+  <si>
+    <t>タイムマスターは、自身に一定時間シールドを貼れます。もし、シールド中にキルされたら全体の時間が巻き戻されるので情報を伝えましょう。</t>
+  </si>
+  <si>
+    <t>トラッカーは、誰か一人を追跡できます。
+常にどこら辺に居るのかがわかります。</t>
+  </si>
+  <si>
+    <t>ベイトは、キルされるとそのインポスター自身に通報させることが出来ます。更に、インポスターが入っているベントが見えるので重要な役割です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミディアムは、死んだ人の魂からさらに多くの情報を得られます。ただし、魂はそのターンしか見れないため急がなくては行けません。 </t>
+  </si>
+  <si>
+    <t>ミニは、小さくて可愛いクルーメイトです。ただし、一定の確率でインポスターである『イビルミニ』となるので気をつけてください。</t>
+  </si>
+  <si>
+    <t>ゲッサーは、誰かの役職を会議中に当てることでキルできます。ただし、一定の確率でインポスターである『イビルゲッサー』となるので気をつけてください。</t>
+  </si>
+  <si>
+    <t>ラバーズは、最後まで生き残っていれば勝利となります。相方が死んでしまうと自身も死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>オポチュニストは、最後まで生き残っていれば追加で勝利することができます。なにしてもいい異端児です。</t>
+  </si>
+  <si>
+    <t>ヴァルチャーは、死体を食べることができます。死体を一定の数食べることによって勝利することができます。</t>
+  </si>
+  <si>
+    <t>ジェスターは、吊られると勝利できます。
+ただし、キルされても勝てないのでたくさん怪しくなりましょう。</t>
+  </si>
+  <si>
+    <t>アーソニストは、全員にガソリンをかけることができます。全員にガソリンをかけ終え、発火させることで勝利します。</t>
+  </si>
+  <si>
+    <t>ジャッカルは、クルーとインポスターを全滅することで勝利できます。サイドキックで仲間を作ることで勝利しやすくなるので仲間を作りましょう。</t>
+  </si>
+  <si>
+    <t>バウンティハンターは、標的をキルすることによってキルクールを大幅に減らすことができます。殺しまくりましょう。</t>
+  </si>
+  <si>
+    <t>カモフラージャーは、一定時間全員の色を統一し名前を隠すことができます。相方をサポートしながらキルしましょう。</t>
+  </si>
+  <si>
+    <t>クリーナーは、死体を消すことができます。
+ただし、死体を消すとキルができないので要注意…</t>
+  </si>
+  <si>
+    <t>イレイサーは、役職を消すことができます。
+クルー陣営の役職を消してインポスターの有利に働くよう動きましょう。</t>
+  </si>
+  <si>
+    <t>トリックスターは、新しい専用のベントを設置できます。専用のベントを全て設置完了したら強制的な停電を起こせるので活用しましょう。</t>
+  </si>
+  <si>
+    <t>ヴァンパイアは、時間差でキルができます。
+ただし、にんにくの置いてある場所では通常のキルしか行えないので要注意…</t>
+  </si>
+  <si>
+    <t>ウォーロックは、誰かに呪いをかける事でその呪われた人の前で遠隔キルができます。ただし、遠隔キルの後は一定時間動けなくなるので要注意…</t>
+  </si>
+  <si>
+    <t>カモフラージャー</t>
+  </si>
+  <si>
+    <t>ミディアム</t>
+  </si>
+  <si>
+    <t>lovers</t>
+  </si>
+  <si>
+    <t>mafia</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>guesser</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;に加担するキルできない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営
+・停電が直せない</t>
+  </si>
+  <si>
+    <t>マフィアは、３人組のインポスター。ゴッドファーザーとマフィオソとジャニターと一緒に勝利を目指しましょう。</t>
+  </si>
+  <si>
+    <t>シェリフは、インポスターやその他陣営をキルできます。インポスターやその他陣営をキルしてクルーを勝利に導いてください。ただし、クルーをキルしてしまうとシェリフ自身が死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>シフターは、選んだ人の役割を引き継ぐことができます。ただし、インポスターやその他陣営を選んでしまうと死んでしまうので要注意…</t>
+  </si>
+  <si>
+    <t>huskFullDesc</t>
+  </si>
+  <si>
+    <t>元役職持ちのなれの果て
+もうやることがない
+生きても死んでも負けは確定しちゃった</t>
+  </si>
+  <si>
+    <t>The Husk is what remains of a former Neutral role.
+You're free of all responsibility, as your loss is set in stone.</t>
+  </si>
+  <si>
+    <t>husk</t>
+  </si>
+  <si>
+    <t>Husk</t>
+  </si>
+  <si>
+    <t>なれの果て</t>
+  </si>
+  <si>
+    <t>警備員</t>
+  </si>
+  <si>
+    <t>クールダウン</t>
+  </si>
+  <si>
+    <t>opportunistIntroDesc</t>
+  </si>
+  <si>
+    <t>opportunistShortDesc</t>
+  </si>
+  <si>
+    <t>loversIntroDesc</t>
+  </si>
+  <si>
+    <t>loversShortDesc</t>
+  </si>
+  <si>
+    <t>ゲームマスターは、ゲームに影響を与えない神のような存在。</t>
+  </si>
+  <si>
+    <t>マッドメイトは、クルーでありながらインポスターの勝利を望む異端者。</t>
+  </si>
+  <si>
+    <t>roleNoSettings</t>
+  </si>
+  <si>
+    <t>No Settings For Role</t>
+  </si>
+  <si>
+    <t>設定できる項目が\nありません</t>
+  </si>
+  <si>
+    <t>The Medium is a crewmate who can ask the souls of dead players for information.
+Like the Seer, it sees the places where the players have died (after the next meeting)
+and can question them. It then gets random information about the soul or the killer
+in the chat. The souls only stay for one round, i.e. until the next meeting.
+Depending on the options, the souls can only be questioned once and then disappear.</t>
+  </si>
+  <si>
+    <t>The Shifter can take over the role of another Crewmate, the other player will transform into a Crewmate.</t>
+  </si>
+  <si>
+    <t>The Mayor leads the Crewmates by having a vote that counts twice.
+The Mayor can always use their meeting, even if the maximum number of meetings was reached.</t>
+  </si>
+  <si>
+    <t>The Sheriff has the ability to kill Impostors. If they try to kill a Crewmate, they die instead.</t>
+  </si>
+  <si>
+    <t>The Lighter can turn on their Lighter every now and then, which increases their vision by a customizable amount.</t>
+  </si>
+  <si>
+    <t>The Detective can see footprints that other players leave behind.</t>
+  </si>
+  <si>
+    <t>The Time Master has a time shield which they can activate. The time shield remains active for a configurable amount of time.
+If a player tries to kill the Time Master while the time shield is active, the kill won't happen and the time will rewind for a set amount of time.</t>
+  </si>
+  <si>
+    <t>The Medic can shield (highlighted by an outline around the player) one player per game, which makes the player unkillable.</t>
+  </si>
+  <si>
+    <t>During meetings the Swapper can exchange votes that two people get.</t>
+  </si>
+  <si>
+    <t>The Seer sees the souls of players that died a round earlier, the souls slowly fade away. The Seer gets a blue flash on their screen, if a player dies somewhere on the map.</t>
+  </si>
+  <si>
+    <t>If the Hacker activates the "Hacker mode", the Hacker gets more information than others from the admin table and vitals for a set duration.</t>
+  </si>
+  <si>
+    <t>The Tracker can select one player to track. An arrow points to the last tracked position of the player.</t>
+  </si>
+  <si>
+    <t>When the Snitch finishes all the tasks, arrows will appear (only visible to the Snitch) that point to the Impostors (depending on the options also to members of team Jackal).</t>
+  </si>
+  <si>
+    <t>The Spy is a Crewmate, which has no special abilities.
+The Spy looks like an additional Impostor to the Impostors, they can't tell the difference.</t>
+  </si>
+  <si>
+    <t>The Security Guard is a Crewmate that has a certain amount of screws that they can use for either sealing vents or for placing new cameras.</t>
+  </si>
+  <si>
+    <t>The Bait is a Crewmate that if killed, forces the killer to self report the body.</t>
+  </si>
+  <si>
+    <t>The Medium is a Crewmate who can ask the souls of dead players for information.</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.</t>
+  </si>
+  <si>
+    <t>The Camouflager is an Impostor which can additionally activate a camouflage mode. While it is active, all player names/pets/hats are hidden and all players have the same color.</t>
+  </si>
+  <si>
+    <t>The Vampire is an Impostor, that can bite other player. Bitten players die after a configurable amount of time.</t>
+  </si>
+  <si>
+    <t>The Eraser is an Impostor that can erase the role of every player.</t>
+  </si>
+  <si>
+    <t>The Trickster is an Impostor that can place 3 jack-in-the-boxes that are invisible at first to other players.</t>
+  </si>
+  <si>
+    <t>The Warlock is an Impostor, that can curse another player. If the cursed person stands next to another player, the Warlock is able to kill that player (no matter how far away they are).</t>
+  </si>
+  <si>
+    <t>The Bounty Hunter is an Impostor, that continuously get bounties. If the Bounty Hunter kills their target, their kill cooldown will be a lot less than usual.</t>
+  </si>
+  <si>
+    <t>The Madmate is a crewmate that works to support the impostors.</t>
+  </si>
+  <si>
+    <t>The Mini's character is smaller and hence visible to everyone in the game.
+The Mini cannot be killed until it turns 18 years old, however it can be voted out.</t>
+  </si>
+  <si>
+    <t>There are always two Lovers which are linked together.
+Their primary goal is it to stay alive together until the end of the game.
+If one Lover dies, the other Lover suicides.</t>
+  </si>
+  <si>
+    <t>The Guesser can shoot players during the meeting, by guessing its role. If the guess is wrong, the Guesser dies instead.</t>
+  </si>
+  <si>
+    <t>The Jester does not have any tasks. They win the game as a solo, if they get voted out during a meeting.</t>
+  </si>
+  <si>
+    <t>The Arsonist can douse other players by pressing the douse button and remaining next to the player for a few seconds.
+After dousing everyone alive the Arsonist can ignite all the players which results in an Arsonist win.</t>
+  </si>
+  <si>
+    <t>The Jackal is part of an extra team, that tries to eliminate all the other players.</t>
+  </si>
+  <si>
+    <t>The Opportunist is a outsider role. So long as they are alive at the end of the game, they win alongside the victorious team.</t>
+  </si>
+  <si>
+    <t>The GM (Game Master) is an observer role. Their presence has no effect on the game itself, and all players know who the GM is at all times.</t>
+  </si>
+  <si>
+    <t>The Vulture is a neutral role that must eat a specified number of corpses in order to win.</t>
+  </si>
+  <si>
+    <t>カモ</t>
+  </si>
+  <si>
+    <t>掃除</t>
+  </si>
+  <si>
+    <t>封鎖</t>
+  </si>
+  <si>
+    <t>呪う</t>
+  </si>
+  <si>
+    <t>呪殺</t>
+  </si>
+  <si>
+    <t>かける</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>ニンニク</t>
+  </si>
+  <si>
+    <t>ハック</t>
+  </si>
+  <si>
+    <t>着火</t>
+  </si>
+  <si>
+    <t>ライト</t>
+  </si>
+  <si>
+    <t>強制停電</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>巻き戻す</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>シールド</t>
+  </si>
+  <si>
+    <t>シフト</t>
+  </si>
+  <si>
+    <t>トラック</t>
+  </si>
+  <si>
+    <t>ベント</t>
+  </si>
+  <si>
+    <t>噛む</t>
+  </si>
+  <si>
+    <t>喰らう</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>CamoText</t>
+  </si>
+  <si>
+    <t>CleanText</t>
+  </si>
+  <si>
+    <t>CloseVentText</t>
+  </si>
+  <si>
+    <t>CurseText</t>
+  </si>
+  <si>
+    <t>CurseKillText</t>
+  </si>
+  <si>
+    <t>DouseText</t>
+  </si>
+  <si>
+    <t>EraserText</t>
+  </si>
+  <si>
+    <t>GarlicText</t>
+  </si>
+  <si>
+    <t>HackerText</t>
+  </si>
+  <si>
+    <t>IgniteText</t>
+  </si>
+  <si>
+    <t>LighterText</t>
+  </si>
+  <si>
+    <t>LightsOutText</t>
+  </si>
+  <si>
+    <t>MorphText</t>
+  </si>
+  <si>
+    <t>PlaceCameraText</t>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxText</t>
+  </si>
+  <si>
+    <t>RepairText</t>
+  </si>
+  <si>
+    <t>RewindText</t>
+  </si>
+  <si>
+    <t>SampleText</t>
+  </si>
+  <si>
+    <t>SeerText</t>
+  </si>
+  <si>
+    <t>ShieldText</t>
+  </si>
+  <si>
+    <t>ShiftText</t>
+  </si>
+  <si>
+    <t>SidekickText</t>
+  </si>
+  <si>
+    <t>TimeShieldText</t>
+  </si>
+  <si>
+    <t>TrackerText</t>
+  </si>
+  <si>
+    <t>TricksterVentText</t>
+  </si>
+  <si>
+    <t>VampireText</t>
+  </si>
+  <si>
+    <t>VultureText</t>
+  </si>
+  <si>
+    <t>MediumText</t>
+  </si>
+  <si>
+    <t>Your vote counts multiple times</t>
+  </si>
+  <si>
+    <t>自分の票が何倍もの力を持っている</t>
+  </si>
+  <si>
+    <t>メイヤーは、投票先に２票以上はいります。
+慎重に怪しい人物に投票しましょう。</t>
+  </si>
+  <si>
+    <t>madmateCanBeGA</t>
+  </si>
+  <si>
+    <t>Can Become Guardian Angel</t>
+  </si>
+  <si>
+    <t>守護天使になれる</t>
+  </si>
+  <si>
+    <t>mayorNumVotes</t>
+  </si>
+  <si>
+    <t>Number of Votes</t>
+  </si>
+  <si>
+    <t>投票数</t>
+  </si>
+  <si>
+    <t>scientistUseVitalsTime</t>
+  </si>
+  <si>
+    <t>gaHideMark</t>
+  </si>
+  <si>
+    <t>shapeshifterShiftAnyone</t>
+  </si>
+  <si>
+    <t>Consume Vitals Time</t>
+  </si>
+  <si>
+    <t>Hide Angel Mark</t>
+  </si>
+  <si>
+    <t>Shapeshift Into Anyone</t>
+  </si>
+  <si>
+    <t>共有のバイタル時間も消費する</t>
+  </si>
+  <si>
+    <t>会議中、天使のマークを隠す</t>
+  </si>
+  <si>
+    <t>誰にでも変身できる</t>
+  </si>
+  <si>
+    <t>blockOriginal</t>
+  </si>
+  <si>
+    <t>Enable Mod Roles And Block Vanilla Roles</t>
+  </si>
+  <si>
+    <t>MOD役職を有効にする</t>
+  </si>
+  <si>
+    <t>guesserToGhostChat</t>
+  </si>
+  <si>
+    <t>guesserPierceShield</t>
+  </si>
+  <si>
+    <t>Guesses Visible In Ghost Chat</t>
+  </si>
+  <si>
+    <t>Guesses Ignore The Medic Shield</t>
+  </si>
+  <si>
+    <t>霊界チャットに推測の詳細を送る</t>
+  </si>
+  <si>
+    <t>メディックのシールドを無視する</t>
+  </si>
+  <si>
+    <t>Number Of Sabotage Fixes</t>
+  </si>
+  <si>
+    <t>Impostors See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>Jackal and Sidekick See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>engineerNumFixes</t>
+  </si>
+  <si>
+    <t>engineerImpostorsSeeVent</t>
+  </si>
+  <si>
+    <t>engineerJackalSeeVent</t>
+  </si>
+  <si>
+    <t>サボタージュを直せる回数</t>
+  </si>
+  <si>
+    <t>ベント使用時、インポスターに見える</t>
+  </si>
+  <si>
+    <t>ベント使用時、ジャッカル陣営に見える</t>
+  </si>
+  <si>
+    <t>Medic Sees Murder Attempt On Shielded Player</t>
+  </si>
+  <si>
+    <t>medicSeesMurderAttempt</t>
+  </si>
+  <si>
+    <t>攻撃されたら、メディックに知らせる</t>
+  </si>
+  <si>
+    <t>攻撃されたら、対象者に知らせる</t>
+  </si>
+  <si>
+    <t>Tracker Can Track Corpses</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Cooldown</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Duration</t>
+  </si>
+  <si>
+    <t>trackerTrackCorpses</t>
+  </si>
+  <si>
+    <t>trackerCorpseCooldown</t>
+  </si>
+  <si>
+    <t>trackerCorpseDuration</t>
+  </si>
+  <si>
+    <t>死体をトラッキングできる</t>
+  </si>
+  <si>
+    <t>死体トラッキングクールダウン</t>
+  </si>
+  <si>
+    <t>死体トラッキング持続時間</t>
+  </si>
+  <si>
+    <t>変身持続時間</t>
+  </si>
+  <si>
+    <t>カモフラージュ持続時間</t>
+  </si>
+  <si>
+    <t>強制停電持続時間</t>
+  </si>
+  <si>
+    <t>ライト持続時間</t>
+  </si>
+  <si>
+    <t>シールド持続時間</t>
+  </si>
+  <si>
+    <t>ハッキング持続時間</t>
+  </si>
+  <si>
+    <t>霊能力使用時間</t>
+  </si>
+  <si>
+    <t>parallelMedbayScans</t>
+  </si>
+  <si>
+    <t>Allow Parallel MedBay Scans</t>
+  </si>
+  <si>
+    <t>メッドベイスキャン同時使用可</t>
+  </si>
+  <si>
+    <t>The Other Roles Settings</t>
+  </si>
+  <si>
+    <t>torSettings</t>
+  </si>
+  <si>
+    <t>guesserGuessChat</t>
+  </si>
+  <si>
+    <t>Guesser guessed the role {0} for {1}!</t>
+  </si>
+  <si>
+    <t>ゲッサーは「{1}」のロールが「{0}」だと推測した！</t>
+  </si>
+  <si>
+    <t>修復</t>
+  </si>
+  <si>
+    <t>PathfindText</t>
+  </si>
+  <si>
+    <t>探す</t>
+  </si>
+  <si>
+    <t>変身</t>
+  </si>
+  <si>
+    <t>The Other Rolesの設定</t>
+  </si>
+  <si>
+    <t>残り {0}体</t>
+  </si>
+  <si>
+    <t>霊能力</t>
+  </si>
+  <si>
+    <t>detectiveLightLabel</t>
+  </si>
+  <si>
+    <t>detectiveDarkLabel</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>・入れた人の投票数が2票以上になる</t>
   </si>
 </sst>
 </file>
@@ -4275,10 +5182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q494"/>
+  <dimension ref="A1:Q529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,4280 +5247,4566 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>1492</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>1491</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-      <c r="M3" t="s">
-        <v>160</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="M4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="M6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="M7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>689</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="M9" t="s">
-        <v>690</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="M11" t="s">
-        <v>165</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="M12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="M14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>507</v>
       </c>
       <c r="M15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>756</v>
-      </c>
-      <c r="M16" t="s">
-        <v>669</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>1450</v>
       </c>
       <c r="B17" t="s">
-        <v>757</v>
+        <v>1451</v>
       </c>
       <c r="M17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>758</v>
-      </c>
-      <c r="M18" t="s">
-        <v>927</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>759</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s">
-        <v>928</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>741</v>
+      </c>
+      <c r="M20" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="M21" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>521</v>
-      </c>
-      <c r="M24" t="s">
-        <v>169</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>743</v>
+      </c>
+      <c r="M22" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>744</v>
+      </c>
+      <c r="M23" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>522</v>
+        <v>745</v>
       </c>
       <c r="M25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>523</v>
-      </c>
-      <c r="M27" t="s">
-        <v>171</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>508</v>
       </c>
       <c r="M28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="M31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="M32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="M33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1053</v>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>512</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>527</v>
+        <v>779</v>
       </c>
       <c r="M36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>761</v>
+        <v>513</v>
       </c>
       <c r="M37" t="s">
-        <v>818</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>1033</v>
       </c>
       <c r="B38" t="s">
-        <v>775</v>
+        <v>1041</v>
       </c>
       <c r="M38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>762</v>
-      </c>
-      <c r="M39" t="s">
-        <v>179</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>514</v>
+      </c>
+      <c r="M40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>528</v>
+        <v>746</v>
       </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="M42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1207</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>1208</v>
+        <v>747</v>
       </c>
       <c r="M43" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>763</v>
-      </c>
-      <c r="M44" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>515</v>
+      </c>
+      <c r="M45" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>529</v>
+        <v>780</v>
       </c>
       <c r="M46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>1184</v>
       </c>
       <c r="B47" t="s">
-        <v>796</v>
+        <v>1185</v>
       </c>
       <c r="M47" t="s">
-        <v>184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="M48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>765</v>
-      </c>
-      <c r="M49" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>516</v>
+      </c>
+      <c r="M50" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>530</v>
+        <v>781</v>
       </c>
       <c r="M51" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="M52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>531</v>
-      </c>
-      <c r="M54" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>750</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>798</v>
+        <v>517</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="M56" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="M58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>533</v>
+        <v>783</v>
       </c>
       <c r="M59" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>534</v>
+        <v>751</v>
       </c>
       <c r="M60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" t="s">
-        <v>535</v>
-      </c>
-      <c r="M61" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="M62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s">
-        <v>196</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>521</v>
+      </c>
+      <c r="M64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>522</v>
+      </c>
+      <c r="M65" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="M66" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1203</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>1205</v>
+        <v>524</v>
       </c>
       <c r="M67" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1204</v>
-      </c>
-      <c r="M68" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="M70" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>1180</v>
       </c>
       <c r="B71" t="s">
-        <v>767</v>
+        <v>1182</v>
       </c>
       <c r="M71" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>540</v>
+        <v>1181</v>
       </c>
       <c r="M72" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" t="s">
-        <v>768</v>
-      </c>
-      <c r="M73" t="s">
-        <v>733</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>769</v>
+        <v>526</v>
       </c>
       <c r="M74" t="s">
-        <v>734</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>938</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>939</v>
+        <v>752</v>
       </c>
       <c r="M75" t="s">
-        <v>940</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>942</v>
+        <v>527</v>
       </c>
       <c r="M76" t="s">
-        <v>941</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>753</v>
+      </c>
+      <c r="M77" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>541</v>
+        <v>754</v>
       </c>
       <c r="M78" t="s">
-        <v>200</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>921</v>
       </c>
       <c r="B79" t="s">
-        <v>1206</v>
+        <v>922</v>
       </c>
       <c r="M79" t="s">
-        <v>732</v>
+        <v>923</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>770</v>
+        <v>925</v>
       </c>
       <c r="M80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M81" t="s">
-        <v>1059</v>
+        <v>924</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1139</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>1142</v>
+        <v>528</v>
       </c>
       <c r="M82" t="s">
-        <v>1138</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M83" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>542</v>
+        <v>755</v>
       </c>
       <c r="M84" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>1038</v>
       </c>
       <c r="B85" t="s">
-        <v>771</v>
+        <v>1039</v>
       </c>
       <c r="M85" t="s">
-        <v>736</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>1118</v>
       </c>
       <c r="B86" t="s">
-        <v>772</v>
+        <v>1121</v>
       </c>
       <c r="M86" t="s">
-        <v>735</v>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>1454</v>
       </c>
       <c r="B88" t="s">
-        <v>543</v>
+        <v>1456</v>
       </c>
       <c r="M88" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" t="s">
-        <v>773</v>
-      </c>
-      <c r="M89" t="s">
-        <v>204</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>774</v>
+        <v>529</v>
       </c>
       <c r="M90" t="s">
-        <v>205</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>756</v>
+      </c>
+      <c r="M91" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>544</v>
+        <v>757</v>
       </c>
       <c r="M92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" t="s">
-        <v>775</v>
-      </c>
-      <c r="M93" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>776</v>
+        <v>530</v>
       </c>
       <c r="M94" t="s">
-        <v>753</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="M95" t="s">
-        <v>737</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="M96" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" t="s">
-        <v>545</v>
-      </c>
-      <c r="M97" t="s">
-        <v>739</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="M98" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>547</v>
+        <v>760</v>
       </c>
       <c r="M99" t="s">
-        <v>208</v>
+        <v>728</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>548</v>
+        <v>761</v>
       </c>
       <c r="M100" t="s">
-        <v>209</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="M101" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="M102" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1140</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>1141</v>
+        <v>532</v>
       </c>
       <c r="M103" t="s">
-        <v>1143</v>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>533</v>
+      </c>
+      <c r="M104" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="M105" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>780</v>
+        <v>535</v>
       </c>
       <c r="M106" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>764</v>
+      </c>
+      <c r="M107" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>550</v>
+        <v>777</v>
       </c>
       <c r="M108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" t="s">
-        <v>551</v>
-      </c>
-      <c r="M110" t="s">
-        <v>213</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>536</v>
+      </c>
+      <c r="M111" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>552</v>
+        <v>765</v>
       </c>
       <c r="M112" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" t="s">
-        <v>775</v>
-      </c>
-      <c r="M113" t="s">
-        <v>742</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>770</v>
+        <v>537</v>
       </c>
       <c r="M114" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>1438</v>
       </c>
       <c r="B115" t="s">
-        <v>781</v>
+        <v>1439</v>
       </c>
       <c r="M115" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>943</v>
-      </c>
-      <c r="B116" t="s">
-        <v>944</v>
-      </c>
-      <c r="M116" t="s">
-        <v>945</v>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" t="s">
+        <v>538</v>
+      </c>
+      <c r="M117" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>1462</v>
       </c>
       <c r="B118" t="s">
-        <v>553</v>
+        <v>1459</v>
       </c>
       <c r="M118" t="s">
-        <v>215</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>1463</v>
       </c>
       <c r="B119" t="s">
-        <v>782</v>
+        <v>1460</v>
       </c>
       <c r="M119" t="s">
-        <v>216</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>1464</v>
       </c>
       <c r="B120" t="s">
-        <v>783</v>
+        <v>1461</v>
       </c>
       <c r="M120" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>67</v>
-      </c>
-      <c r="B121" t="s">
-        <v>799</v>
-      </c>
-      <c r="M121" t="s">
-        <v>218</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>800</v>
+        <v>539</v>
       </c>
       <c r="M122" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" t="s">
+        <v>760</v>
+      </c>
+      <c r="M123" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>554</v>
+        <v>755</v>
       </c>
       <c r="M124" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>766</v>
       </c>
       <c r="M125" t="s">
-        <v>221</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>926</v>
       </c>
       <c r="B126" t="s">
-        <v>698</v>
+        <v>927</v>
       </c>
       <c r="M126" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" t="s">
-        <v>556</v>
-      </c>
-      <c r="M127" t="s">
-        <v>223</v>
+        <v>928</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="M128" t="s">
-        <v>744</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="M129" t="s">
-        <v>745</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" t="s">
+        <v>768</v>
+      </c>
+      <c r="M130" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>559</v>
+        <v>784</v>
       </c>
       <c r="M131" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="M132" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>77</v>
-      </c>
-      <c r="B133" t="s">
-        <v>560</v>
-      </c>
-      <c r="M133" t="s">
-        <v>226</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>802</v>
+        <v>541</v>
       </c>
       <c r="M134" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>542</v>
+      </c>
+      <c r="M135" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>561</v>
+        <v>684</v>
       </c>
       <c r="M136" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>686</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>809</v>
+        <v>543</v>
       </c>
       <c r="M137" t="s">
-        <v>688</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>672</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="M138" t="s">
-        <v>229</v>
+        <v>730</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>675</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>685</v>
+        <v>545</v>
       </c>
       <c r="M139" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>676</v>
-      </c>
-      <c r="B140" t="s">
-        <v>684</v>
-      </c>
-      <c r="M140" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="M141" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>563</v>
+        <v>786</v>
       </c>
       <c r="M142" t="s">
-        <v>831</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" t="s">
+        <v>547</v>
+      </c>
+      <c r="M143" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>564</v>
+        <v>787</v>
       </c>
       <c r="M144" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>83</v>
-      </c>
-      <c r="B145" t="s">
-        <v>771</v>
-      </c>
-      <c r="M145" t="s">
-        <v>736</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B146" t="s">
-        <v>784</v>
+        <v>548</v>
       </c>
       <c r="M146" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>672</v>
+      </c>
+      <c r="B147" t="s">
+        <v>794</v>
+      </c>
+      <c r="M147" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>658</v>
       </c>
       <c r="B148" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="M148" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B149" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
       <c r="M149" t="s">
-        <v>746</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B150" t="s">
-        <v>566</v>
+        <v>670</v>
       </c>
       <c r="M150" t="s">
-        <v>234</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>678</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
-        <v>682</v>
+        <v>549</v>
       </c>
       <c r="M151" t="s">
-        <v>681</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>679</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s">
-        <v>683</v>
+        <v>550</v>
       </c>
       <c r="M152" t="s">
-        <v>680</v>
+        <v>816</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>87</v>
+        <v>1469</v>
       </c>
       <c r="B153" t="s">
-        <v>785</v>
+        <v>1468</v>
       </c>
       <c r="M153" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>86</v>
-      </c>
-      <c r="B154" t="s">
-        <v>786</v>
-      </c>
-      <c r="M154" t="s">
-        <v>236</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>82</v>
+      </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>551</v>
+      </c>
+      <c r="M155" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>756</v>
       </c>
       <c r="M156" t="s">
-        <v>237</v>
+        <v>722</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="M157" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>90</v>
-      </c>
-      <c r="B158" t="s">
-        <v>804</v>
-      </c>
-      <c r="M158" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B159" t="s">
-        <v>787</v>
+        <v>552</v>
       </c>
       <c r="M159" t="s">
-        <v>1028</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>673</v>
+      </c>
+      <c r="B160" t="s">
+        <v>740</v>
+      </c>
+      <c r="M160" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>92</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="M161" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>664</v>
       </c>
       <c r="B162" t="s">
-        <v>788</v>
+        <v>668</v>
       </c>
       <c r="M162" t="s">
-        <v>241</v>
+        <v>667</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>94</v>
+        <v>665</v>
       </c>
       <c r="B163" t="s">
-        <v>789</v>
+        <v>669</v>
       </c>
       <c r="M163" t="s">
-        <v>242</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>87</v>
+      </c>
+      <c r="B164" t="s">
+        <v>770</v>
+      </c>
+      <c r="M164" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B165" t="s">
-        <v>570</v>
+        <v>771</v>
       </c>
       <c r="M165" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>96</v>
-      </c>
       <c r="B166" t="s">
-        <v>571</v>
-      </c>
-      <c r="M166" t="s">
-        <v>244</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="M167" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>788</v>
       </c>
       <c r="M168" t="s">
-        <v>246</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" t="s">
+        <v>789</v>
+      </c>
+      <c r="M169" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B170" t="s">
-        <v>574</v>
+        <v>772</v>
       </c>
       <c r="M170" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>100</v>
-      </c>
-      <c r="B171" t="s">
-        <v>790</v>
-      </c>
-      <c r="M171" t="s">
-        <v>248</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B172" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M172" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="M173" t="s">
-        <v>737</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="M174" t="s">
-        <v>741</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1472</v>
+      </c>
+      <c r="M175" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>113</v>
+        <v>1476</v>
       </c>
       <c r="B176" t="s">
-        <v>576</v>
+        <v>1473</v>
       </c>
       <c r="M176" t="s">
-        <v>250</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>114</v>
+        <v>1477</v>
       </c>
       <c r="B177" t="s">
-        <v>754</v>
+        <v>1474</v>
       </c>
       <c r="M177" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>115</v>
-      </c>
-      <c r="B178" t="s">
-        <v>805</v>
-      </c>
-      <c r="M178" t="s">
-        <v>252</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B179" t="s">
-        <v>806</v>
+        <v>557</v>
       </c>
       <c r="M179" t="s">
-        <v>829</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B180" t="s">
-        <v>807</v>
+        <v>558</v>
       </c>
       <c r="M180" t="s">
-        <v>830</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>97</v>
+      </c>
+      <c r="B181" t="s">
+        <v>559</v>
+      </c>
+      <c r="M181" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B182" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="M182" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>119</v>
-      </c>
-      <c r="B183" t="s">
-        <v>578</v>
-      </c>
-      <c r="M183" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B184" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="M184" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>100</v>
+      </c>
+      <c r="B185" t="s">
+        <v>775</v>
+      </c>
+      <c r="M185" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B186" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="M186" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="M187" t="s">
-        <v>257</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B188" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="M188" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>124</v>
-      </c>
-      <c r="B189" t="s">
-        <v>792</v>
-      </c>
-      <c r="M189" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B190" t="s">
-        <v>772</v>
+        <v>563</v>
       </c>
       <c r="M190" t="s">
-        <v>735</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B191" t="s">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="M191" t="s">
-        <v>747</v>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" t="s">
+        <v>790</v>
+      </c>
+      <c r="M192" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>898</v>
+        <v>116</v>
       </c>
       <c r="B193" t="s">
-        <v>896</v>
+        <v>791</v>
       </c>
       <c r="M193" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M195" t="s">
-        <v>1130</v>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>117</v>
+      </c>
+      <c r="B194" t="s">
+        <v>792</v>
+      </c>
+      <c r="M194" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1119</v>
+        <v>118</v>
       </c>
       <c r="B196" t="s">
-        <v>1129</v>
+        <v>564</v>
       </c>
       <c r="M196" t="s">
-        <v>1152</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1120</v>
+        <v>119</v>
       </c>
       <c r="B197" t="s">
-        <v>777</v>
+        <v>565</v>
       </c>
       <c r="M197" t="s">
-        <v>737</v>
+        <v>244</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1121</v>
+        <v>120</v>
       </c>
       <c r="B198" t="s">
-        <v>1153</v>
+        <v>566</v>
       </c>
       <c r="M198" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B199" t="s">
-        <v>966</v>
-      </c>
-      <c r="M199" t="s">
-        <v>1175</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B200" t="s">
+        <v>567</v>
+      </c>
+      <c r="M200" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1122</v>
+        <v>122</v>
       </c>
       <c r="B201" t="s">
-        <v>1125</v>
+        <v>775</v>
       </c>
       <c r="M201" t="s">
-        <v>1135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1123</v>
+        <v>123</v>
       </c>
       <c r="B202" t="s">
-        <v>1126</v>
+        <v>776</v>
       </c>
       <c r="M202" t="s">
-        <v>1136</v>
+        <v>723</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1124</v>
+        <v>124</v>
       </c>
       <c r="B203" t="s">
-        <v>1127</v>
+        <v>777</v>
       </c>
       <c r="M203" t="s">
-        <v>1137</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>125</v>
+      </c>
+      <c r="B204" t="s">
+        <v>757</v>
+      </c>
+      <c r="M204" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B205" t="s">
-        <v>1105</v>
+        <v>793</v>
       </c>
       <c r="M205" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>134</v>
+        <v>1435</v>
       </c>
       <c r="B206" t="s">
-        <v>1106</v>
+        <v>1436</v>
       </c>
       <c r="M206" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>135</v>
-      </c>
-      <c r="B207" t="s">
-        <v>581</v>
-      </c>
-      <c r="M207" t="s">
-        <v>258</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>881</v>
       </c>
       <c r="B208" t="s">
-        <v>582</v>
+        <v>879</v>
       </c>
       <c r="M208" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1063</v>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M210" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>949</v>
+        <v>1100</v>
       </c>
       <c r="B211" t="s">
-        <v>952</v>
+        <v>1110</v>
       </c>
       <c r="M211" t="s">
-        <v>955</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>950</v>
+        <v>1101</v>
       </c>
       <c r="B212" t="s">
-        <v>953</v>
+        <v>762</v>
       </c>
       <c r="M212" t="s">
-        <v>968</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>951</v>
+        <v>1102</v>
       </c>
       <c r="B213" t="s">
-        <v>954</v>
+        <v>1132</v>
       </c>
       <c r="M213" t="s">
-        <v>969</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>701</v>
+        <v>1133</v>
       </c>
       <c r="B214" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="M214" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>703</v>
-      </c>
-      <c r="B215" t="s">
-        <v>957</v>
-      </c>
-      <c r="M215" t="s">
-        <v>960</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>702</v>
+        <v>1103</v>
       </c>
       <c r="B216" t="s">
-        <v>958</v>
+        <v>1106</v>
       </c>
       <c r="M216" t="s">
-        <v>961</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M217" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>962</v>
+        <v>1105</v>
       </c>
       <c r="B218" t="s">
-        <v>963</v>
+        <v>1108</v>
       </c>
       <c r="M218" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>965</v>
-      </c>
-      <c r="B219" t="s">
-        <v>966</v>
-      </c>
-      <c r="M219" t="s">
-        <v>967</v>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M220" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1210</v>
+        <v>1442</v>
       </c>
       <c r="B221" t="s">
-        <v>1211</v>
+        <v>1445</v>
       </c>
       <c r="M221" t="s">
-        <v>1212</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1197</v>
+        <v>1443</v>
       </c>
       <c r="B222" t="s">
-        <v>1199</v>
+        <v>1446</v>
       </c>
       <c r="M222" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M223" t="s">
-        <v>1202</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>704</v>
+        <v>133</v>
       </c>
       <c r="B224" t="s">
-        <v>700</v>
+        <v>1086</v>
       </c>
       <c r="M224" t="s">
-        <v>705</v>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>134</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M225" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" t="s">
+        <v>568</v>
+      </c>
+      <c r="M226" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>136</v>
+      </c>
+      <c r="B227" t="s">
+        <v>569</v>
+      </c>
+      <c r="M227" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M228" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>260</v>
+        <v>1488</v>
       </c>
       <c r="B229" t="s">
-        <v>583</v>
+        <v>1489</v>
       </c>
       <c r="M229" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>261</v>
-      </c>
-      <c r="B230" t="s">
-        <v>584</v>
-      </c>
-      <c r="M230" t="s">
-        <v>263</v>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>932</v>
+      </c>
+      <c r="B231" t="s">
+        <v>935</v>
+      </c>
+      <c r="M231" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>264</v>
+        <v>933</v>
       </c>
       <c r="B232" t="s">
-        <v>585</v>
+        <v>936</v>
       </c>
       <c r="M232" t="s">
-        <v>691</v>
+        <v>951</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>265</v>
+        <v>934</v>
       </c>
       <c r="B233" t="s">
-        <v>586</v>
+        <v>937</v>
       </c>
       <c r="M233" t="s">
-        <v>267</v>
+        <v>952</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>266</v>
+        <v>687</v>
       </c>
       <c r="B234" t="s">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="M234" t="s">
-        <v>268</v>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>689</v>
+      </c>
+      <c r="B235" t="s">
+        <v>940</v>
+      </c>
+      <c r="M235" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>269</v>
+        <v>688</v>
       </c>
       <c r="B236" t="s">
-        <v>270</v>
+        <v>941</v>
       </c>
       <c r="M236" t="s">
-        <v>749</v>
+        <v>944</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>945</v>
       </c>
       <c r="B238" t="s">
-        <v>542</v>
+        <v>946</v>
       </c>
       <c r="M238" t="s">
-        <v>202</v>
+        <v>947</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>272</v>
+        <v>948</v>
       </c>
       <c r="B239" t="s">
-        <v>588</v>
+        <v>949</v>
       </c>
       <c r="M239" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>274</v>
-      </c>
-      <c r="B240" t="s">
-        <v>588</v>
-      </c>
-      <c r="M240" t="s">
-        <v>273</v>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M241" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>275</v>
+        <v>1174</v>
       </c>
       <c r="B242" t="s">
-        <v>550</v>
+        <v>1176</v>
       </c>
       <c r="M242" t="s">
-        <v>212</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>1175</v>
       </c>
       <c r="B243" t="s">
-        <v>589</v>
+        <v>1177</v>
       </c>
       <c r="M243" t="s">
-        <v>752</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>690</v>
       </c>
       <c r="B244" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="M244" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>278</v>
-      </c>
-      <c r="B246" t="s">
-        <v>551</v>
-      </c>
-      <c r="M246" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>279</v>
-      </c>
-      <c r="B247" t="s">
-        <v>590</v>
-      </c>
-      <c r="M247" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>281</v>
-      </c>
-      <c r="B248" t="s">
-        <v>638</v>
-      </c>
-      <c r="M248" t="s">
-        <v>280</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>570</v>
+      </c>
+      <c r="M249" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="M250" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>283</v>
-      </c>
-      <c r="B251" t="s">
-        <v>591</v>
-      </c>
-      <c r="M251" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="M252" t="s">
-        <v>286</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>573</v>
+      </c>
+      <c r="M253" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="M254" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>288</v>
-      </c>
-      <c r="B255" t="s">
-        <v>592</v>
-      </c>
-      <c r="M255" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>592</v>
+        <v>260</v>
       </c>
       <c r="M256" t="s">
-        <v>289</v>
+        <v>735</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
       <c r="M258" t="s">
-        <v>1022</v>
+        <v>198</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="M259" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="M260" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
       <c r="M262" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>596</v>
+        <v>1432</v>
       </c>
       <c r="M263" t="s">
-        <v>298</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>594</v>
+        <v>1432</v>
       </c>
       <c r="M264" t="s">
-        <v>293</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="M266" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="M267" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M268" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="M270" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="M271" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M272" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M274" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="M275" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="B276" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
       <c r="M276" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>315</v>
+        <v>1324</v>
       </c>
       <c r="B278" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="M278" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>316</v>
-      </c>
-      <c r="B279" t="s">
-        <v>601</v>
-      </c>
-      <c r="M279" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
       <c r="M280" t="s">
-        <v>317</v>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>580</v>
+      </c>
+      <c r="M281" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="M282" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>320</v>
-      </c>
-      <c r="B283" t="s">
-        <v>602</v>
-      </c>
-      <c r="M283" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>644</v>
+        <v>581</v>
       </c>
       <c r="M284" t="s">
-        <v>321</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>582</v>
+      </c>
+      <c r="M285" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="M286" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>324</v>
-      </c>
-      <c r="B287" t="s">
-        <v>603</v>
-      </c>
-      <c r="M287" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>645</v>
+        <v>583</v>
       </c>
       <c r="M288" t="s">
-        <v>327</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" t="s">
+        <v>584</v>
+      </c>
+      <c r="M289" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B290" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="M290" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>329</v>
-      </c>
-      <c r="B291" t="s">
-        <v>604</v>
-      </c>
-      <c r="M291" t="s">
-        <v>1061</v>
+        <v>295</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B292" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
       <c r="M292" t="s">
-        <v>305</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+      <c r="M293" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="B294" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="M294" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>332</v>
-      </c>
-      <c r="B295" t="s">
-        <v>605</v>
-      </c>
-      <c r="M295" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="B296" t="s">
-        <v>647</v>
+        <v>512</v>
       </c>
       <c r="M296" t="s">
-        <v>333</v>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297" t="s">
+        <v>586</v>
+      </c>
+      <c r="M297" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B298" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="M298" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>336</v>
-      </c>
-      <c r="B299" t="s">
-        <v>606</v>
-      </c>
-      <c r="M299" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B300" t="s">
-        <v>606</v>
+        <v>514</v>
       </c>
       <c r="M300" t="s">
-        <v>337</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301" t="s">
+        <v>587</v>
+      </c>
+      <c r="M301" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B302" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="M302" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>340</v>
-      </c>
-      <c r="B303" t="s">
-        <v>607</v>
-      </c>
-      <c r="M303" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B304" t="s">
-        <v>648</v>
+        <v>515</v>
       </c>
       <c r="M304" t="s">
-        <v>343</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" t="s">
+        <v>588</v>
+      </c>
+      <c r="M305" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B306" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="M306" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>345</v>
-      </c>
-      <c r="B307" t="s">
-        <v>608</v>
-      </c>
-      <c r="M307" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B308" t="s">
-        <v>649</v>
+        <v>516</v>
       </c>
       <c r="M308" t="s">
-        <v>348</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" t="s">
+        <v>589</v>
+      </c>
+      <c r="M309" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="B310" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="M310" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>350</v>
-      </c>
-      <c r="B311" t="s">
-        <v>609</v>
-      </c>
-      <c r="M311" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B312" t="s">
-        <v>650</v>
+        <v>517</v>
       </c>
       <c r="M312" t="s">
-        <v>353</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313" t="s">
+        <v>590</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B314" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
       <c r="M314" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>355</v>
-      </c>
-      <c r="B315" t="s">
-        <v>610</v>
-      </c>
-      <c r="M315" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B316" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="M316" t="s">
-        <v>356</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>322</v>
+      </c>
+      <c r="B317" t="s">
+        <v>591</v>
+      </c>
+      <c r="M317" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="B318" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="M318" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>359</v>
-      </c>
-      <c r="B319" t="s">
-        <v>611</v>
-      </c>
-      <c r="M319" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="B320" t="s">
-        <v>651</v>
+        <v>519</v>
       </c>
       <c r="M320" t="s">
-        <v>362</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>326</v>
+      </c>
+      <c r="B321" t="s">
+        <v>592</v>
+      </c>
+      <c r="M321" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B322" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="M322" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>364</v>
-      </c>
-      <c r="B323" t="s">
-        <v>612</v>
-      </c>
-      <c r="M323" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B324" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="M324" t="s">
-        <v>365</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>330</v>
+      </c>
+      <c r="B325" t="s">
+        <v>593</v>
+      </c>
+      <c r="M325" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B326" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="M326" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>368</v>
-      </c>
-      <c r="B327" t="s">
-        <v>613</v>
-      </c>
-      <c r="M327" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="B328" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="M328" t="s">
-        <v>371</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>335</v>
+      </c>
+      <c r="B329" t="s">
+        <v>594</v>
+      </c>
+      <c r="M329" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B330" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="M330" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>374</v>
-      </c>
-      <c r="B331" t="s">
-        <v>615</v>
-      </c>
-      <c r="M331" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B332" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="M332" t="s">
-        <v>377</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>340</v>
+      </c>
+      <c r="B333" t="s">
+        <v>595</v>
+      </c>
+      <c r="M333" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="B334" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="M334" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>380</v>
-      </c>
-      <c r="B335" t="s">
-        <v>615</v>
-      </c>
-      <c r="M335" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B336" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="M336" t="s">
-        <v>377</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337" t="s">
+        <v>596</v>
+      </c>
+      <c r="M337" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="M338" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>383</v>
-      </c>
-      <c r="B339" t="s">
-        <v>618</v>
-      </c>
-      <c r="M339" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>653</v>
+        <v>551</v>
       </c>
       <c r="M340" t="s">
-        <v>386</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341" t="s">
+        <v>597</v>
+      </c>
+      <c r="M341" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="M342" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>388</v>
-      </c>
-      <c r="B343" t="s">
-        <v>619</v>
-      </c>
-      <c r="M343" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="B344" t="s">
-        <v>654</v>
+        <v>552</v>
       </c>
       <c r="M344" t="s">
-        <v>391</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345" t="s">
+        <v>598</v>
+      </c>
+      <c r="M345" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="M346" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>393</v>
-      </c>
-      <c r="B347" t="s">
-        <v>620</v>
-      </c>
-      <c r="M347" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>655</v>
+        <v>555</v>
       </c>
       <c r="M348" t="s">
-        <v>394</v>
+        <v>230</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>926</v>
+        <v>599</v>
       </c>
       <c r="M349" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>396</v>
-      </c>
-      <c r="B351" t="s">
-        <v>621</v>
-      </c>
-      <c r="M351" t="s">
-        <v>397</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>360</v>
+      </c>
+      <c r="B350" t="s">
+        <v>638</v>
+      </c>
+      <c r="M350" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>398</v>
+        <v>1325</v>
       </c>
       <c r="B352" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="M352" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>400</v>
-      </c>
-      <c r="B353" t="s">
-        <v>622</v>
-      </c>
-      <c r="M353" t="s">
-        <v>399</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354" t="s">
+        <v>600</v>
+      </c>
+      <c r="M354" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="M355" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="M356" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>404</v>
-      </c>
-      <c r="B357" t="s">
-        <v>656</v>
-      </c>
-      <c r="M357" t="s">
-        <v>405</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>368</v>
+      </c>
+      <c r="B358" t="s">
+        <v>603</v>
+      </c>
+      <c r="M358" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="M359" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="M360" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>410</v>
-      </c>
-      <c r="B361" t="s">
-        <v>624</v>
-      </c>
-      <c r="M361" t="s">
-        <v>411</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>372</v>
+      </c>
+      <c r="B362" t="s">
+        <v>556</v>
+      </c>
+      <c r="M362" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="M363" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="M364" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>415</v>
-      </c>
-      <c r="B365" t="s">
-        <v>625</v>
-      </c>
-      <c r="M365" t="s">
-        <v>414</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>377</v>
+      </c>
+      <c r="B366" t="s">
+        <v>557</v>
+      </c>
+      <c r="M366" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="M367" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B368" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="M368" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>420</v>
-      </c>
-      <c r="B369" t="s">
-        <v>627</v>
-      </c>
-      <c r="M369" t="s">
-        <v>419</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>382</v>
+      </c>
+      <c r="B370" t="s">
+        <v>531</v>
+      </c>
+      <c r="M370" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B371" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="M371" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="B372" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="M372" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B373" t="s">
-        <v>627</v>
+        <v>909</v>
       </c>
       <c r="M373" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="M375" t="s">
-        <v>253</v>
+        <v>387</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B376" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="M376" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B377" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="M377" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B379" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="M379" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B380" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="M380" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B381" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="M381" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B383" t="s">
-        <v>632</v>
+        <v>563</v>
       </c>
       <c r="M383" t="s">
-        <v>435</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="B384" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="M384" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="B385" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="M385" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B387" t="s">
-        <v>634</v>
+        <v>530</v>
       </c>
       <c r="M387" t="s">
-        <v>692</v>
+        <v>199</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="M388" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B389" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="M389" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>443</v>
+        <v>1326</v>
       </c>
       <c r="B391" t="s">
-        <v>636</v>
+        <v>528</v>
       </c>
       <c r="M391" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>444</v>
-      </c>
-      <c r="B392" t="s">
-        <v>637</v>
-      </c>
-      <c r="M392" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="B393" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="M393" t="s">
-        <v>445</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>407</v>
+      </c>
+      <c r="B394" t="s">
+        <v>613</v>
+      </c>
+      <c r="M394" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B395" t="s">
-        <v>168</v>
+        <v>613</v>
       </c>
       <c r="M395" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>448</v>
-      </c>
-      <c r="B396" t="s">
-        <v>449</v>
-      </c>
-      <c r="M396" t="s">
-        <v>711</v>
+        <v>408</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="B397" t="s">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="M397" t="s">
-        <v>711</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>412</v>
+      </c>
+      <c r="B398" t="s">
+        <v>613</v>
+      </c>
+      <c r="M398" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B399" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="M399" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>454</v>
-      </c>
-      <c r="B400" t="s">
-        <v>456</v>
-      </c>
-      <c r="M400" t="s">
-        <v>456</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>414</v>
+      </c>
+      <c r="B401" t="s">
+        <v>564</v>
+      </c>
+      <c r="M401" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>891</v>
+        <v>415</v>
       </c>
       <c r="B402" t="s">
-        <v>896</v>
+        <v>615</v>
       </c>
       <c r="M402" t="s">
-        <v>895</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>892</v>
+        <v>417</v>
       </c>
       <c r="B403" t="s">
-        <v>897</v>
+        <v>615</v>
       </c>
       <c r="M403" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>893</v>
-      </c>
-      <c r="B404" t="s">
-        <v>897</v>
-      </c>
-      <c r="M404" t="s">
-        <v>894</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>418</v>
+      </c>
+      <c r="B405" t="s">
+        <v>567</v>
+      </c>
+      <c r="M405" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1107</v>
+        <v>419</v>
       </c>
       <c r="B406" t="s">
-        <v>1113</v>
+        <v>616</v>
       </c>
       <c r="M406" t="s">
-        <v>1132</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1108</v>
+        <v>421</v>
       </c>
       <c r="B407" t="s">
-        <v>1114</v>
+        <v>617</v>
       </c>
       <c r="M407" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1115</v>
-      </c>
-      <c r="M408" t="s">
-        <v>1165</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>423</v>
+      </c>
+      <c r="B409" t="s">
+        <v>618</v>
+      </c>
+      <c r="M409" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1110</v>
+        <v>425</v>
       </c>
       <c r="B410" t="s">
-        <v>1116</v>
+        <v>619</v>
       </c>
       <c r="M410" t="s">
-        <v>1133</v>
+        <v>426</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1111</v>
+        <v>427</v>
       </c>
       <c r="B411" t="s">
-        <v>1134</v>
+        <v>619</v>
       </c>
       <c r="M411" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M412" t="s">
-        <v>1177</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>428</v>
+      </c>
+      <c r="B413" t="s">
+        <v>620</v>
+      </c>
+      <c r="M413" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B414" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="M414" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B415" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="M415" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>464</v>
-      </c>
-      <c r="B416" t="s">
-        <v>659</v>
-      </c>
-      <c r="M416" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B417" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="M417" t="s">
-        <v>460</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>466</v>
+        <v>1323</v>
       </c>
       <c r="B418" t="s">
-        <v>661</v>
+        <v>526</v>
       </c>
       <c r="M418" t="s">
-        <v>461</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B419" t="s">
+        <v>623</v>
+      </c>
+      <c r="M419" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>473</v>
+        <v>1342</v>
       </c>
       <c r="B420" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>812</v>
-      </c>
-      <c r="B421" t="s">
-        <v>814</v>
-      </c>
-      <c r="M421" t="s">
-        <v>816</v>
+        <v>623</v>
+      </c>
+      <c r="M420" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>813</v>
+        <v>434</v>
       </c>
       <c r="B422" t="s">
-        <v>815</v>
+        <v>168</v>
       </c>
       <c r="M422" t="s">
-        <v>817</v>
+        <v>168</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="B423" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="M423" t="s">
-        <v>468</v>
+        <v>697</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="B424" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="M424" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>475</v>
-      </c>
-      <c r="B425" t="s">
-        <v>505</v>
-      </c>
-      <c r="M425" t="s">
-        <v>470</v>
+        <v>697</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="B426" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="M426" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="B427" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="M427" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M428" t="s">
-        <v>1158</v>
+        <v>443</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="B429" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="M429" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>900</v>
+        <v>1339</v>
       </c>
       <c r="B430" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="M430" t="s">
-        <v>914</v>
+        <v>877</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>901</v>
+        <v>1340</v>
       </c>
       <c r="B431" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="M431" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>902</v>
-      </c>
-      <c r="B432" t="s">
-        <v>909</v>
-      </c>
-      <c r="M432" t="s">
-        <v>916</v>
+        <v>877</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>903</v>
+        <v>1088</v>
       </c>
       <c r="B433" t="s">
-        <v>910</v>
+        <v>1094</v>
       </c>
       <c r="M433" t="s">
-        <v>917</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>904</v>
+        <v>1089</v>
       </c>
       <c r="B434" t="s">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="M434" t="s">
-        <v>918</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>905</v>
+        <v>1090</v>
       </c>
       <c r="B435" t="s">
-        <v>912</v>
+        <v>1096</v>
       </c>
       <c r="M435" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M436" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>920</v>
+        <v>1091</v>
       </c>
       <c r="B437" t="s">
-        <v>921</v>
+        <v>1097</v>
       </c>
       <c r="M437" t="s">
-        <v>922</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>925</v>
+        <v>1092</v>
       </c>
       <c r="B438" t="s">
-        <v>923</v>
+        <v>1114</v>
       </c>
       <c r="M438" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>479</v>
-      </c>
-      <c r="B440" t="s">
-        <v>508</v>
-      </c>
-      <c r="M440" t="s">
-        <v>810</v>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M439" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>480</v>
+        <v>1334</v>
       </c>
       <c r="B441" t="s">
-        <v>484</v>
+        <v>1335</v>
       </c>
       <c r="M441" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>481</v>
-      </c>
-      <c r="B442" t="s">
-        <v>483</v>
-      </c>
-      <c r="M442" t="s">
-        <v>502</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>929</v>
+        <v>1345</v>
       </c>
       <c r="B443" t="s">
-        <v>930</v>
+        <v>1346</v>
       </c>
       <c r="M443" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>932</v>
-      </c>
-      <c r="B444" t="s">
-        <v>933</v>
-      </c>
-      <c r="M444" t="s">
-        <v>934</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>935</v>
+        <v>449</v>
       </c>
       <c r="B445" t="s">
-        <v>936</v>
+        <v>643</v>
       </c>
       <c r="M445" t="s">
-        <v>937</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1054</v>
+        <v>450</v>
       </c>
       <c r="B446" t="s">
-        <v>1055</v>
+        <v>644</v>
       </c>
       <c r="M446" t="s">
-        <v>1056</v>
+        <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="B447" t="s">
-        <v>811</v>
+        <v>645</v>
       </c>
       <c r="M447" t="s">
-        <v>710</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>452</v>
+      </c>
+      <c r="B448" t="s">
+        <v>646</v>
+      </c>
+      <c r="M448" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="B449" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="M449" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>490</v>
-      </c>
-      <c r="B450" t="s">
-        <v>663</v>
-      </c>
-      <c r="M450" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B451" t="s">
-        <v>664</v>
-      </c>
-      <c r="M451" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>797</v>
       </c>
       <c r="B452" t="s">
-        <v>665</v>
+        <v>799</v>
       </c>
       <c r="M452" t="s">
-        <v>488</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>798</v>
+      </c>
+      <c r="B453" t="s">
+        <v>800</v>
+      </c>
+      <c r="M453" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>693</v>
+        <v>490</v>
       </c>
       <c r="M454" t="s">
-        <v>694</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>461</v>
+      </c>
+      <c r="B455" t="s">
+        <v>491</v>
+      </c>
+      <c r="M455" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>666</v>
+        <v>462</v>
       </c>
       <c r="B456" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M456" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>667</v>
+        <v>463</v>
       </c>
       <c r="B457" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M457" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
       <c r="B458" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M458" t="s">
-        <v>499</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M459" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>882</v>
       </c>
       <c r="B460" t="s">
-        <v>695</v>
+        <v>889</v>
       </c>
       <c r="M460" t="s">
-        <v>707</v>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>883</v>
+      </c>
+      <c r="B461" t="s">
+        <v>890</v>
+      </c>
+      <c r="M461" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>696</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C462" s="1"/>
-      <c r="D462" s="1"/>
-      <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
-      <c r="J462" s="1"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1"/>
-      <c r="M462" s="1" t="s">
-        <v>709</v>
+        <v>884</v>
+      </c>
+      <c r="B462" t="s">
+        <v>891</v>
+      </c>
+      <c r="M462" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="B463" t="s">
-        <v>699</v>
+        <v>892</v>
       </c>
       <c r="M463" t="s">
-        <v>706</v>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>886</v>
+      </c>
+      <c r="B464" t="s">
+        <v>893</v>
+      </c>
+      <c r="M464" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="B465" t="s">
-        <v>713</v>
+        <v>894</v>
       </c>
       <c r="M465" t="s">
-        <v>714</v>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>888</v>
+      </c>
+      <c r="B466" t="s">
+        <v>895</v>
+      </c>
+      <c r="M466" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>715</v>
+        <v>1139</v>
       </c>
       <c r="B467" t="s">
-        <v>716</v>
+        <v>1136</v>
       </c>
       <c r="M467" t="s">
-        <v>731</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>717</v>
+        <v>903</v>
       </c>
       <c r="B468" t="s">
-        <v>722</v>
+        <v>904</v>
       </c>
       <c r="M468" t="s">
-        <v>729</v>
+        <v>905</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>718</v>
+        <v>908</v>
       </c>
       <c r="B469" t="s">
-        <v>723</v>
+        <v>906</v>
       </c>
       <c r="M469" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>719</v>
-      </c>
-      <c r="B470" t="s">
-        <v>724</v>
-      </c>
-      <c r="M470" t="s">
-        <v>730</v>
+        <v>907</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>720</v>
+        <v>466</v>
       </c>
       <c r="B471" t="s">
-        <v>287</v>
+        <v>495</v>
       </c>
       <c r="M471" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>721</v>
+        <v>467</v>
       </c>
       <c r="B472" t="s">
-        <v>725</v>
+        <v>471</v>
       </c>
       <c r="M472" t="s">
-        <v>728</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>468</v>
+      </c>
+      <c r="B473" t="s">
+        <v>470</v>
+      </c>
+      <c r="M473" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1144</v>
+        <v>912</v>
       </c>
       <c r="B474" t="s">
-        <v>1147</v>
+        <v>913</v>
       </c>
       <c r="M474" t="s">
-        <v>1170</v>
+        <v>914</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1145</v>
+        <v>915</v>
       </c>
       <c r="B475" t="s">
-        <v>1148</v>
+        <v>916</v>
       </c>
       <c r="M475" t="s">
-        <v>1171</v>
+        <v>917</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1146</v>
+        <v>918</v>
       </c>
       <c r="B476" t="s">
-        <v>1150</v>
+        <v>919</v>
       </c>
       <c r="M476" t="s">
-        <v>1172</v>
+        <v>920</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1149</v>
+        <v>1035</v>
       </c>
       <c r="B477" t="s">
-        <v>1151</v>
+        <v>1036</v>
       </c>
       <c r="M477" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>819</v>
-      </c>
-      <c r="B479" t="s">
-        <v>820</v>
-      </c>
-      <c r="M479" t="s">
-        <v>822</v>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>469</v>
+      </c>
+      <c r="B478" t="s">
+        <v>796</v>
+      </c>
+      <c r="M478" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>946</v>
+        <v>476</v>
       </c>
       <c r="B480" t="s">
-        <v>947</v>
+        <v>648</v>
       </c>
       <c r="M480" t="s">
-        <v>948</v>
+        <v>472</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>823</v>
+        <v>477</v>
       </c>
       <c r="B481" t="s">
-        <v>821</v>
+        <v>649</v>
       </c>
       <c r="M481" t="s">
-        <v>825</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>826</v>
+        <v>478</v>
       </c>
       <c r="B482" t="s">
-        <v>821</v>
+        <v>650</v>
       </c>
       <c r="M482" t="s">
-        <v>827</v>
+        <v>474</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>828</v>
+        <v>479</v>
       </c>
       <c r="B483" t="s">
-        <v>824</v>
+        <v>651</v>
       </c>
       <c r="M483" t="s">
-        <v>824</v>
+        <v>475</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>832</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C485" s="3"/>
-      <c r="D485" s="3"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
-      <c r="I485" s="3"/>
-      <c r="J485" s="3"/>
-      <c r="K485" s="3"/>
-      <c r="L485" s="3"/>
-      <c r="M485" s="2" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>833</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C486" s="3"/>
-      <c r="D486" s="3"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
-      <c r="I486" s="3"/>
-      <c r="J486" s="3"/>
-      <c r="K486" s="3"/>
-      <c r="L486" s="3"/>
-      <c r="M486" s="2" t="s">
-        <v>1167</v>
+        <v>480</v>
+      </c>
+      <c r="B485" t="s">
+        <v>679</v>
+      </c>
+      <c r="M485" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>834</v>
+        <v>652</v>
       </c>
       <c r="B487" t="s">
-        <v>836</v>
+        <v>481</v>
       </c>
       <c r="M487" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>653</v>
+      </c>
+      <c r="B488" t="s">
+        <v>482</v>
+      </c>
+      <c r="M488" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B489" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M489" s="4" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B490" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="M490" s="4" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="B489" t="s">
+        <v>483</v>
+      </c>
+      <c r="M489" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M491" s="4" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M492" s="4" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="B491" t="s">
+        <v>681</v>
+      </c>
+      <c r="M491" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M493" s="4" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+      <c r="H493" s="1"/>
+      <c r="I493" s="1"/>
+      <c r="J493" s="1"/>
+      <c r="K493" s="1"/>
+      <c r="L493" s="1"/>
+      <c r="M493" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M494" s="4" t="s">
-        <v>1192</v>
+        <v>683</v>
+      </c>
+      <c r="B494" t="s">
+        <v>685</v>
+      </c>
+      <c r="M494" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>698</v>
+      </c>
+      <c r="B496" t="s">
+        <v>699</v>
+      </c>
+      <c r="M496" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>701</v>
+      </c>
+      <c r="B498" t="s">
+        <v>702</v>
+      </c>
+      <c r="M498" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>703</v>
+      </c>
+      <c r="B499" t="s">
+        <v>708</v>
+      </c>
+      <c r="M499" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>704</v>
+      </c>
+      <c r="B500" t="s">
+        <v>709</v>
+      </c>
+      <c r="M500" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>705</v>
+      </c>
+      <c r="B501" t="s">
+        <v>710</v>
+      </c>
+      <c r="M501" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>706</v>
+      </c>
+      <c r="B502" t="s">
+        <v>277</v>
+      </c>
+      <c r="M502" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>707</v>
+      </c>
+      <c r="B503" t="s">
+        <v>711</v>
+      </c>
+      <c r="M503" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M504" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1505</v>
+      </c>
+      <c r="M505" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M507" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M508" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M509" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M510" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>804</v>
+      </c>
+      <c r="B514" t="s">
+        <v>805</v>
+      </c>
+      <c r="M514" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>929</v>
+      </c>
+      <c r="B515" t="s">
+        <v>930</v>
+      </c>
+      <c r="M515" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>808</v>
+      </c>
+      <c r="B516" t="s">
+        <v>806</v>
+      </c>
+      <c r="M516" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>811</v>
+      </c>
+      <c r="B517" t="s">
+        <v>806</v>
+      </c>
+      <c r="M517" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>813</v>
+      </c>
+      <c r="B518" t="s">
+        <v>809</v>
+      </c>
+      <c r="M518" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>817</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C520" s="3"/>
+      <c r="D520" s="3"/>
+      <c r="E520" s="3"/>
+      <c r="F520" s="3"/>
+      <c r="G520" s="3"/>
+      <c r="H520" s="3"/>
+      <c r="I520" s="3"/>
+      <c r="J520" s="3"/>
+      <c r="K520" s="3"/>
+      <c r="L520" s="3"/>
+      <c r="M520" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>818</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C521" s="3"/>
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+      <c r="F521" s="3"/>
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+      <c r="I521" s="3"/>
+      <c r="J521" s="3"/>
+      <c r="K521" s="3"/>
+      <c r="L521" s="3"/>
+      <c r="M521" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>819</v>
+      </c>
+      <c r="B522" t="s">
+        <v>821</v>
+      </c>
+      <c r="M522" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M524" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M525" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M526" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M527" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M528" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M529" s="4" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -8623,10 +9816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8688,475 +9881,486 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1011</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>985</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>1002</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1045</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1164</v>
+        <v>1348</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1195</v>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -9165,11 +10369,455 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24339F-182E-497F-BCB5-E8925B014635}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="13" max="13" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F94718-1E67-46BF-B76C-539A7DE72FFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9229,218 +10877,911 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="B2" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="B3" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="B4" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="B8" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="B10" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B12" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="B13" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="B15" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="B16" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="B17" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="B18" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B19" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B20" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B21" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B22" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B23" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="B25" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="B26" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="B27" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="B28" t="s">
-        <v>863</v>
+        <v>848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E03A3E-CD6E-42CA-AC43-3F5764A8A875}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1430</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407DFB6-40D6-40B4-994E-B61EB81D0E28}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF16F22E-C55D-4FF3-81DD-FA92E4CD5EC9}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1087D9B0-616F-4C4E-BA4A-E0B39E2FF170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F8953-0FC0-4CEE-A3A4-A252B7D9E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2220" windowWidth="24465" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="3720" windowWidth="23325" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -5184,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q529"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9818,7 +9818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Streaming\Among Us\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56794214-0794-43E6-8F74-064B86D57F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436DFD6A-703A-436A-9F70-F979807C506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4185" windowWidth="23790" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="5325" windowWidth="25335" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Hats" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1592">
   <si>
     <t>presetSelection</t>
   </si>
@@ -1246,15 +1247,6 @@
     <t>REVIVE</t>
   </si>
   <si>
-    <t>ストリーマーモード</t>
-  </si>
-  <si>
-    <t>幽霊時、全員のタスク残量が見える</t>
-  </si>
-  <si>
-    <t>幽霊時、全員の投票先が見える</t>
-  </si>
-  <si>
     <t>streamerModeButton</t>
   </si>
   <si>
@@ -1844,9 +1836,6 @@
   </si>
   <si>
     <t>Ghosts See Votes</t>
-  </si>
-  <si>
-    <t>Role Summary</t>
   </si>
   <si>
     <t xml:space="preserve"> has a different or no version of The Other Roles</t>
@@ -4791,9 +4780,6 @@
     <t>インポスターロール</t>
   </si>
   <si>
-    <t>幽霊時、全員のロールが見える</t>
-  </si>
-  <si>
     <t>最終結果を表示</t>
   </si>
   <si>
@@ -5108,6 +5094,54 @@
   </si>
   <si>
     <t>空包</t>
+  </si>
+  <si>
+    <t>roleSummarySabotage</t>
+  </si>
+  <si>
+    <t>Sabotage</t>
+  </si>
+  <si>
+    <t>サボ</t>
+  </si>
+  <si>
+    <t>Show Role Summary</t>
+  </si>
+  <si>
+    <t>modOptionsText</t>
+  </si>
+  <si>
+    <t>moreOptionsText</t>
+  </si>
+  <si>
+    <t>ストリーマー\nモード</t>
+  </si>
+  <si>
+    <t>幽霊時、全員の\nタスク残量が見える</t>
+  </si>
+  <si>
+    <t>幽霊時、全員の\nロールが見える</t>
+  </si>
+  <si>
+    <t>幽霊時、全員の\n投票先が見える</t>
+  </si>
+  <si>
+    <t>MODの設定</t>
+  </si>
+  <si>
+    <t>Mod Options...</t>
+  </si>
+  <si>
+    <t>More Options...</t>
+  </si>
+  <si>
+    <t>Warn The Killer With A Flash</t>
+  </si>
+  <si>
+    <t>baitShowKillFlash</t>
+  </si>
+  <si>
+    <t>死亡時、犯人に警告する</t>
   </si>
 </sst>
 </file>
@@ -5431,10 +5465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q626"/>
+  <dimension ref="A1:Q630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="B420" sqref="B420"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="M401" sqref="M401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,13 +5530,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B2" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="M2" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5510,7 +5544,7 @@
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M4" t="s">
         <v>126</v>
@@ -5521,7 +5555,7 @@
         <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M5" t="s">
         <v>127</v>
@@ -5532,7 +5566,7 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M6" t="s">
         <v>128</v>
@@ -5543,7 +5577,7 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M7" t="s">
         <v>129</v>
@@ -5554,7 +5588,7 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M8" t="s">
         <v>130</v>
@@ -5565,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M9" t="s">
         <v>125</v>
@@ -5576,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M10" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5587,10 +5621,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M11" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5598,10 +5632,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M12" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5609,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M13" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5620,10 +5654,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M14" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5631,21 +5665,21 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M15" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B17" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="M17" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5667,7 +5701,7 @@
         <v>394</v>
       </c>
       <c r="M20" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5678,7 +5712,7 @@
         <v>394</v>
       </c>
       <c r="M21" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5686,10 +5720,10 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="M23" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5697,10 +5731,10 @@
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="M24" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5708,10 +5742,10 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="M25" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5719,10 +5753,10 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M26" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,10 +5764,10 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="M27" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5760,10 +5794,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M34" t="s">
         <v>132</v>
@@ -5774,7 +5808,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M35" t="s">
         <v>133</v>
@@ -5785,10 +5819,10 @@
         <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M37" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5796,7 +5830,7 @@
         <v>243</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M38" t="s">
         <v>244</v>
@@ -5807,7 +5841,7 @@
         <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M39" t="s">
         <v>244</v>
@@ -5818,7 +5852,7 @@
         <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M41" t="s">
         <v>247</v>
@@ -5829,7 +5863,7 @@
         <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M42" t="s">
         <v>249</v>
@@ -5840,7 +5874,7 @@
         <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M43" t="s">
         <v>244</v>
@@ -5851,7 +5885,7 @@
         <v>251</v>
       </c>
       <c r="B45" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M45" t="s">
         <v>252</v>
@@ -5862,7 +5896,7 @@
         <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M46" t="s">
         <v>254</v>
@@ -5873,7 +5907,7 @@
         <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M47" t="s">
         <v>256</v>
@@ -5884,7 +5918,7 @@
         <v>257</v>
       </c>
       <c r="B51" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s">
         <v>134</v>
@@ -5895,7 +5929,7 @@
         <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M52" t="s">
         <v>259</v>
@@ -5906,7 +5940,7 @@
         <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M53" t="s">
         <v>261</v>
@@ -5917,7 +5951,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="M55" t="s">
         <v>135</v>
@@ -5928,10 +5962,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5939,10 +5973,10 @@
         <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5950,7 +5984,7 @@
         <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M61" t="s">
         <v>264</v>
@@ -5961,7 +5995,7 @@
         <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M62" t="s">
         <v>264</v>
@@ -5972,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="M64" t="s">
         <v>136</v>
@@ -5983,21 +6017,21 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M65" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B66" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="M66" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6005,7 +6039,7 @@
         <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s">
         <v>137</v>
@@ -6016,7 +6050,7 @@
         <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M71" t="s">
         <v>268</v>
@@ -6027,7 +6061,7 @@
         <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M72" t="s">
         <v>268</v>
@@ -6038,10 +6072,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="M74" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6049,7 +6083,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="M75" t="s">
         <v>138</v>
@@ -6060,7 +6094,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="M76" t="s">
         <v>139</v>
@@ -6071,7 +6105,7 @@
         <v>270</v>
       </c>
       <c r="B80" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M80" t="s">
         <v>140</v>
@@ -6082,10 +6116,10 @@
         <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M81" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6093,10 +6127,10 @@
         <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M82" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6104,7 +6138,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M84" t="s">
         <v>141</v>
@@ -6112,13 +6146,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B85" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="M85" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6126,7 +6160,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M86" t="s">
         <v>142</v>
@@ -6137,7 +6171,7 @@
         <v>273</v>
       </c>
       <c r="B90" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M90" t="s">
         <v>143</v>
@@ -6148,7 +6182,7 @@
         <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M91" t="s">
         <v>275</v>
@@ -6159,7 +6193,7 @@
         <v>276</v>
       </c>
       <c r="B92" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M92" t="s">
         <v>277</v>
@@ -6170,7 +6204,7 @@
         <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="M94" t="s">
         <v>144</v>
@@ -6181,7 +6215,7 @@
         <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="M95" t="s">
         <v>145</v>
@@ -6192,10 +6226,10 @@
         <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M96" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -6203,7 +6237,7 @@
         <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M100" t="s">
         <v>146</v>
@@ -6214,10 +6248,10 @@
         <v>279</v>
       </c>
       <c r="B101" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M101" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -6225,7 +6259,7 @@
         <v>280</v>
       </c>
       <c r="B102" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M102" t="s">
         <v>256</v>
@@ -6236,7 +6270,7 @@
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="M104" t="s">
         <v>133</v>
@@ -6247,7 +6281,7 @@
         <v>281</v>
       </c>
       <c r="B108" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M108" t="s">
         <v>147</v>
@@ -6258,7 +6292,7 @@
         <v>282</v>
       </c>
       <c r="B109" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M109" t="s">
         <v>283</v>
@@ -6269,7 +6303,7 @@
         <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M110" t="s">
         <v>283</v>
@@ -6280,7 +6314,7 @@
         <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="M112" t="s">
         <v>148</v>
@@ -6291,7 +6325,7 @@
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M113" t="s">
         <v>149</v>
@@ -6302,7 +6336,7 @@
         <v>285</v>
       </c>
       <c r="B117" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M117" t="s">
         <v>150</v>
@@ -6313,7 +6347,7 @@
         <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M118" t="s">
         <v>287</v>
@@ -6324,7 +6358,7 @@
         <v>288</v>
       </c>
       <c r="B119" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M119" t="s">
         <v>287</v>
@@ -6335,7 +6369,7 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M121" t="s">
         <v>151</v>
@@ -6346,7 +6380,7 @@
         <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M122" t="s">
         <v>152</v>
@@ -6357,7 +6391,7 @@
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M123" t="s">
         <v>153</v>
@@ -6368,7 +6402,7 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M124" t="s">
         <v>154</v>
@@ -6379,7 +6413,7 @@
         <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M125" t="s">
         <v>155</v>
@@ -6387,10 +6421,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B129" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M129" t="s">
         <v>156</v>
@@ -6401,7 +6435,7 @@
         <v>321</v>
       </c>
       <c r="B131" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M131" t="s">
         <v>322</v>
@@ -6412,7 +6446,7 @@
         <v>323</v>
       </c>
       <c r="B132" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M132" t="s">
         <v>324</v>
@@ -6423,7 +6457,7 @@
         <v>325</v>
       </c>
       <c r="B133" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M133" t="s">
         <v>326</v>
@@ -6434,7 +6468,7 @@
         <v>327</v>
       </c>
       <c r="B135" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M135" t="s">
         <v>328</v>
@@ -6445,7 +6479,7 @@
         <v>329</v>
       </c>
       <c r="B136" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M136" t="s">
         <v>324</v>
@@ -6456,7 +6490,7 @@
         <v>330</v>
       </c>
       <c r="B137" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M137" t="s">
         <v>326</v>
@@ -6464,13 +6498,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B139" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="M139" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,7 +6512,7 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="M140" t="s">
         <v>157</v>
@@ -6486,10 +6520,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B144" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M144" t="s">
         <v>158</v>
@@ -6497,10 +6531,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B145" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M145" t="s">
         <v>391</v>
@@ -6508,10 +6542,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B146" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M146" t="s">
         <v>391</v>
@@ -6519,13 +6553,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6537,10 +6571,10 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="M149" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,10 +6582,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M150" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6559,10 +6593,10 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="M151" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6570,21 +6604,21 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M152" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B153" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="M153" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6592,18 +6626,18 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="M154" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B158" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M158" t="s">
         <v>159</v>
@@ -6614,7 +6648,7 @@
         <v>364</v>
       </c>
       <c r="B160" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M160" t="s">
         <v>365</v>
@@ -6625,7 +6659,7 @@
         <v>366</v>
       </c>
       <c r="B161" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M161" t="s">
         <v>367</v>
@@ -6636,7 +6670,7 @@
         <v>368</v>
       </c>
       <c r="B162" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M162" t="s">
         <v>367</v>
@@ -6647,7 +6681,7 @@
         <v>369</v>
       </c>
       <c r="B164" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M164" t="s">
         <v>370</v>
@@ -6658,7 +6692,7 @@
         <v>371</v>
       </c>
       <c r="B165" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M165" t="s">
         <v>367</v>
@@ -6669,7 +6703,7 @@
         <v>372</v>
       </c>
       <c r="B166" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M166" t="s">
         <v>367</v>
@@ -6680,10 +6714,10 @@
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="M168" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -6691,7 +6725,7 @@
         <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M169" t="s">
         <v>160</v>
@@ -6699,57 +6733,57 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B170" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="M170" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B171" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="M171" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M172" t="s">
         <v>1375</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1377</v>
-      </c>
-      <c r="M172" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M173" t="s">
         <v>1376</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1378</v>
-      </c>
-      <c r="M173" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B175" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="M175" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6791,7 @@
         <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M179" t="s">
         <v>161</v>
@@ -6768,7 +6802,7 @@
         <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M180" t="s">
         <v>224</v>
@@ -6779,7 +6813,7 @@
         <v>225</v>
       </c>
       <c r="B181" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M181" t="s">
         <v>224</v>
@@ -6790,10 +6824,10 @@
         <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M183" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -6801,10 +6835,10 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M184" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -6812,7 +6846,7 @@
         <v>360</v>
       </c>
       <c r="B188" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M188" t="s">
         <v>162</v>
@@ -6823,7 +6857,7 @@
         <v>361</v>
       </c>
       <c r="B189" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M189" t="s">
         <v>362</v>
@@ -6834,7 +6868,7 @@
         <v>363</v>
       </c>
       <c r="B190" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M190" t="s">
         <v>362</v>
@@ -6845,7 +6879,7 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M192" t="s">
         <v>163</v>
@@ -6856,7 +6890,7 @@
         <v>28</v>
       </c>
       <c r="B193" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M193" t="s">
         <v>164</v>
@@ -6867,7 +6901,7 @@
         <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M197" t="s">
         <v>165</v>
@@ -6878,7 +6912,7 @@
         <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M198" t="s">
         <v>343</v>
@@ -6889,7 +6923,7 @@
         <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M199" t="s">
         <v>343</v>
@@ -6900,7 +6934,7 @@
         <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="M200" t="s">
         <v>397</v>
@@ -6911,7 +6945,7 @@
         <v>345</v>
       </c>
       <c r="B202" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M202" t="s">
         <v>346</v>
@@ -6922,7 +6956,7 @@
         <v>347</v>
       </c>
       <c r="B203" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M203" t="s">
         <v>348</v>
@@ -6933,7 +6967,7 @@
         <v>349</v>
       </c>
       <c r="B204" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M204" t="s">
         <v>348</v>
@@ -6944,10 +6978,10 @@
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="M206" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -6955,10 +6989,10 @@
         <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M207" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -6966,10 +7000,10 @@
         <v>31</v>
       </c>
       <c r="B208" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M208" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -6977,21 +7011,21 @@
         <v>38</v>
       </c>
       <c r="B209" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M209" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B210" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="M210" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,10 +7033,10 @@
         <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M212" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -7010,10 +7044,10 @@
         <v>33</v>
       </c>
       <c r="B213" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M213" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -7021,7 +7055,7 @@
         <v>34</v>
       </c>
       <c r="B214" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M214" t="s">
         <v>166</v>
@@ -7032,7 +7066,7 @@
         <v>35</v>
       </c>
       <c r="B215" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M215" t="s">
         <v>167</v>
@@ -7043,7 +7077,7 @@
         <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M216" t="s">
         <v>168</v>
@@ -7054,10 +7088,10 @@
         <v>37</v>
       </c>
       <c r="B217" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="M217" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -7065,7 +7099,7 @@
         <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M221" t="s">
         <v>169</v>
@@ -7076,10 +7110,10 @@
         <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M222" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -7087,10 +7121,10 @@
         <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M223" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -7098,7 +7132,7 @@
         <v>44</v>
       </c>
       <c r="B225" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M225" t="s">
         <v>170</v>
@@ -7109,7 +7143,7 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M229" t="s">
         <v>171</v>
@@ -7120,10 +7154,10 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="M230" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -7131,21 +7165,21 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="M231" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B233" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="M233" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -7153,7 +7187,7 @@
         <v>229</v>
       </c>
       <c r="B237" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M237" t="s">
         <v>172</v>
@@ -7164,7 +7198,7 @@
         <v>230</v>
       </c>
       <c r="B238" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M238" t="s">
         <v>231</v>
@@ -7175,7 +7209,7 @@
         <v>232</v>
       </c>
       <c r="B239" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M239" t="s">
         <v>231</v>
@@ -7183,35 +7217,35 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B241" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="M241" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B242" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="M242" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B243" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="M243" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -7219,7 +7253,7 @@
         <v>233</v>
       </c>
       <c r="B247" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M247" t="s">
         <v>173</v>
@@ -7230,7 +7264,7 @@
         <v>234</v>
       </c>
       <c r="B248" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M248" t="s">
         <v>235</v>
@@ -7241,7 +7275,7 @@
         <v>236</v>
       </c>
       <c r="B249" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M249" t="s">
         <v>237</v>
@@ -7252,10 +7286,10 @@
         <v>45</v>
       </c>
       <c r="B251" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="M251" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -7263,7 +7297,7 @@
         <v>46</v>
       </c>
       <c r="B252" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M252" t="s">
         <v>160</v>
@@ -7274,32 +7308,32 @@
         <v>47</v>
       </c>
       <c r="B253" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M253" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B254" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="M254" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B256" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M256" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -7307,7 +7341,7 @@
         <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M260" t="s">
         <v>174</v>
@@ -7318,7 +7352,7 @@
         <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M261" t="s">
         <v>240</v>
@@ -7329,7 +7363,7 @@
         <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M262" t="s">
         <v>240</v>
@@ -7340,7 +7374,7 @@
         <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="M264" t="s">
         <v>175</v>
@@ -7351,7 +7385,7 @@
         <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M265" t="s">
         <v>176</v>
@@ -7362,7 +7396,7 @@
         <v>50</v>
       </c>
       <c r="B266" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="M266" t="s">
         <v>177</v>
@@ -7373,10 +7407,10 @@
         <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="M267" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -7384,7 +7418,7 @@
         <v>289</v>
       </c>
       <c r="B271" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M271" t="s">
         <v>178</v>
@@ -7395,7 +7429,7 @@
         <v>290</v>
       </c>
       <c r="B272" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M272" t="s">
         <v>291</v>
@@ -7406,7 +7440,7 @@
         <v>292</v>
       </c>
       <c r="B273" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M273" t="s">
         <v>293</v>
@@ -7417,7 +7451,7 @@
         <v>52</v>
       </c>
       <c r="B275" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M275" t="s">
         <v>179</v>
@@ -7428,7 +7462,7 @@
         <v>53</v>
       </c>
       <c r="B276" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M276" t="s">
         <v>180</v>
@@ -7439,7 +7473,7 @@
         <v>54</v>
       </c>
       <c r="B277" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M277" t="s">
         <v>181</v>
@@ -7450,10 +7484,10 @@
         <v>55</v>
       </c>
       <c r="B278" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M278" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -7461,87 +7495,87 @@
         <v>56</v>
       </c>
       <c r="B279" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M279" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B281" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M281" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B282" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M282" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B283" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M283" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B284" t="s">
         <v>238</v>
       </c>
       <c r="M284" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>655</v>
+      </c>
+      <c r="B285" t="s">
         <v>659</v>
       </c>
-      <c r="B285" t="s">
-        <v>663</v>
-      </c>
       <c r="M285" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B286" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="M286" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B287" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="M287" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -7549,7 +7583,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M291" t="s">
         <v>182</v>
@@ -7560,7 +7594,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M292" t="s">
         <v>296</v>
@@ -7571,7 +7605,7 @@
         <v>297</v>
       </c>
       <c r="B293" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M293" t="s">
         <v>298</v>
@@ -7582,7 +7616,7 @@
         <v>57</v>
       </c>
       <c r="B295" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="M295" t="s">
         <v>183</v>
@@ -7593,7 +7627,7 @@
         <v>58</v>
       </c>
       <c r="B296" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M296" t="s">
         <v>184</v>
@@ -7604,10 +7638,10 @@
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="M297" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -7615,7 +7649,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M301" t="s">
         <v>185</v>
@@ -7626,7 +7660,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M302" t="s">
         <v>301</v>
@@ -7637,7 +7671,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M303" t="s">
         <v>303</v>
@@ -7645,21 +7679,21 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B305" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M305" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B306" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M306" t="s">
         <v>186</v>
@@ -7667,24 +7701,24 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B307" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M307" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B308" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M308" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -7692,10 +7726,10 @@
         <v>60</v>
       </c>
       <c r="B309" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M309" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -7703,32 +7737,32 @@
         <v>61</v>
       </c>
       <c r="B310" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M310" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B311" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="M311" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B313" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="M313" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -7736,7 +7770,7 @@
         <v>307</v>
       </c>
       <c r="B317" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M317" t="s">
         <v>187</v>
@@ -7747,7 +7781,7 @@
         <v>308</v>
       </c>
       <c r="B318" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M318" t="s">
         <v>309</v>
@@ -7758,7 +7792,7 @@
         <v>310</v>
       </c>
       <c r="B319" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M319" t="s">
         <v>311</v>
@@ -7769,10 +7803,10 @@
         <v>62</v>
       </c>
       <c r="B321" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M321" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -7780,7 +7814,7 @@
         <v>63</v>
       </c>
       <c r="B322" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="M322" t="s">
         <v>188</v>
@@ -7791,7 +7825,7 @@
         <v>312</v>
       </c>
       <c r="B326" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M326" t="s">
         <v>189</v>
@@ -7802,7 +7836,7 @@
         <v>313</v>
       </c>
       <c r="B327" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M327" t="s">
         <v>314</v>
@@ -7813,7 +7847,7 @@
         <v>315</v>
       </c>
       <c r="B328" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M328" t="s">
         <v>314</v>
@@ -7821,21 +7855,21 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B330" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="M330" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B331" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M331" t="s">
         <v>190</v>
@@ -7843,24 +7877,24 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>615</v>
+      </c>
+      <c r="B332" t="s">
         <v>619</v>
       </c>
-      <c r="B332" t="s">
-        <v>623</v>
-      </c>
       <c r="M332" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>616</v>
+      </c>
+      <c r="B333" t="s">
         <v>620</v>
       </c>
-      <c r="B333" t="s">
-        <v>624</v>
-      </c>
       <c r="M333" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -7868,7 +7902,7 @@
         <v>65</v>
       </c>
       <c r="B334" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="M334" t="s">
         <v>191</v>
@@ -7879,7 +7913,7 @@
         <v>64</v>
       </c>
       <c r="B335" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="M335" t="s">
         <v>192</v>
@@ -7887,17 +7921,17 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,7 +7939,7 @@
         <v>316</v>
       </c>
       <c r="B339" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M339" t="s">
         <v>193</v>
@@ -7916,7 +7950,7 @@
         <v>317</v>
       </c>
       <c r="B340" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M340" t="s">
         <v>318</v>
@@ -7927,7 +7961,7 @@
         <v>319</v>
       </c>
       <c r="B341" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M341" t="s">
         <v>320</v>
@@ -7938,7 +7972,7 @@
         <v>66</v>
       </c>
       <c r="B343" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="M343" t="s">
         <v>194</v>
@@ -7949,10 +7983,10 @@
         <v>67</v>
       </c>
       <c r="B344" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="M344" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -7960,10 +7994,10 @@
         <v>68</v>
       </c>
       <c r="B345" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M345" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -7971,7 +8005,7 @@
         <v>331</v>
       </c>
       <c r="B349" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M349" t="s">
         <v>195</v>
@@ -7982,7 +8016,7 @@
         <v>332</v>
       </c>
       <c r="B350" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M350" t="s">
         <v>333</v>
@@ -7993,7 +8027,7 @@
         <v>334</v>
       </c>
       <c r="B351" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M351" t="s">
         <v>335</v>
@@ -8004,7 +8038,7 @@
         <v>69</v>
       </c>
       <c r="B353" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="M353" t="s">
         <v>196</v>
@@ -8015,7 +8049,7 @@
         <v>70</v>
       </c>
       <c r="B354" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="M354" t="s">
         <v>197</v>
@@ -8023,35 +8057,35 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B355" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="M355" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B356" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="M356" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B357" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="M357" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -8059,7 +8093,7 @@
         <v>336</v>
       </c>
       <c r="B361" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M361" t="s">
         <v>198</v>
@@ -8070,7 +8104,7 @@
         <v>337</v>
       </c>
       <c r="B362" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M362" t="s">
         <v>338</v>
@@ -8081,7 +8115,7 @@
         <v>339</v>
       </c>
       <c r="B363" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M363" t="s">
         <v>340</v>
@@ -8092,7 +8126,7 @@
         <v>71</v>
       </c>
       <c r="B365" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M365" t="s">
         <v>199</v>
@@ -8103,7 +8137,7 @@
         <v>72</v>
       </c>
       <c r="B366" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M366" t="s">
         <v>200</v>
@@ -8114,7 +8148,7 @@
         <v>73</v>
       </c>
       <c r="B367" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M367" t="s">
         <v>201</v>
@@ -8125,7 +8159,7 @@
         <v>350</v>
       </c>
       <c r="B371" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M371" t="s">
         <v>202</v>
@@ -8136,7 +8170,7 @@
         <v>351</v>
       </c>
       <c r="B372" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M372" t="s">
         <v>352</v>
@@ -8147,7 +8181,7 @@
         <v>353</v>
       </c>
       <c r="B373" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M373" t="s">
         <v>354</v>
@@ -8158,7 +8192,7 @@
         <v>74</v>
       </c>
       <c r="B375" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M375" t="s">
         <v>203</v>
@@ -8169,7 +8203,7 @@
         <v>75</v>
       </c>
       <c r="B376" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M376" t="s">
         <v>204</v>
@@ -8180,10 +8214,10 @@
         <v>76</v>
       </c>
       <c r="B377" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M377" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -8191,10 +8225,10 @@
         <v>77</v>
       </c>
       <c r="B378" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M378" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -8202,10 +8236,10 @@
         <v>355</v>
       </c>
       <c r="B382" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M382" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -8213,7 +8247,7 @@
         <v>356</v>
       </c>
       <c r="B383" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M383" t="s">
         <v>357</v>
@@ -8224,7 +8258,7 @@
         <v>358</v>
       </c>
       <c r="B384" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M384" t="s">
         <v>359</v>
@@ -8235,10 +8269,10 @@
         <v>84</v>
       </c>
       <c r="B386" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="M386" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -8246,7 +8280,7 @@
         <v>85</v>
       </c>
       <c r="B387" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M387" t="s">
         <v>205</v>
@@ -8257,10 +8291,10 @@
         <v>86</v>
       </c>
       <c r="B388" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M388" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -8268,21 +8302,21 @@
         <v>87</v>
       </c>
       <c r="B389" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="M389" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="B391" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="M391" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
@@ -8290,7 +8324,7 @@
         <v>373</v>
       </c>
       <c r="B395" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M395" t="s">
         <v>206</v>
@@ -8301,7 +8335,7 @@
         <v>374</v>
       </c>
       <c r="B396" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M396" t="s">
         <v>375</v>
@@ -8312,7 +8346,7 @@
         <v>376</v>
       </c>
       <c r="B397" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M397" t="s">
         <v>375</v>
@@ -8323,7 +8357,7 @@
         <v>88</v>
       </c>
       <c r="B399" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M399" t="s">
         <v>207</v>
@@ -8334,1787 +8368,1861 @@
         <v>89</v>
       </c>
       <c r="B400" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M400" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>377</v>
-      </c>
-      <c r="B405" t="s">
-        <v>523</v>
-      </c>
-      <c r="M405" t="s">
-        <v>209</v>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M401" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B406" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="M406" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>378</v>
+      </c>
+      <c r="B407" t="s">
+        <v>569</v>
+      </c>
+      <c r="M407" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>380</v>
       </c>
-      <c r="B407" t="s">
-        <v>573</v>
-      </c>
-      <c r="M407" t="s">
+      <c r="B408" t="s">
+        <v>570</v>
+      </c>
+      <c r="M408" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>90</v>
-      </c>
-      <c r="B409" t="s">
-        <v>726</v>
-      </c>
-      <c r="M409" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B410" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="M410" t="s">
-        <v>674</v>
+        <v>210</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B411" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M411" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B412" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="M412" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B413" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="M413" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1358</v>
+        <v>94</v>
       </c>
       <c r="B414" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
       <c r="M414" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>827</v>
-      </c>
-      <c r="B418" t="s">
-        <v>830</v>
-      </c>
-      <c r="M418" t="s">
-        <v>829</v>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M415" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1262</v>
+        <v>823</v>
       </c>
       <c r="B419" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="M419" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="B420" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M420" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M424" t="s">
-        <v>1053</v>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B421" t="s">
+        <v>827</v>
+      </c>
+      <c r="M421" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B425" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="M425" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B426" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="M426" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M428" t="s">
-        <v>1051</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M427" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B429" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="M429" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B430" t="s">
-        <v>713</v>
+        <v>1046</v>
       </c>
       <c r="M430" t="s">
-        <v>674</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B431" t="s">
-        <v>1072</v>
+        <v>709</v>
       </c>
       <c r="M431" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B433" t="s">
-        <v>895</v>
-      </c>
-      <c r="M433" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M437" t="s">
-        <v>1245</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M432" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B434" t="s">
+        <v>891</v>
+      </c>
+      <c r="M434" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B438" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="M438" t="s">
-        <v>1087</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B439" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="M439" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M441" t="s">
-        <v>1055</v>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B442" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M442" t="s">
-        <v>1409</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B443" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="M443" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M445" t="s">
-        <v>1481</v>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M444" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B446" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M446" t="s">
-        <v>1084</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B447" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="M447" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B448" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="M448" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1430</v>
-      </c>
-      <c r="M452" t="s">
-        <v>1463</v>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M449" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="B453" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="M453" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="B454" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="M454" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="M455" s="4" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M455" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1558</v>
+        <v>1552</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>1572</v>
       </c>
       <c r="M456" s="4" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1526</v>
-      </c>
-      <c r="M458" t="s">
-        <v>1576</v>
+    <row r="457" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M457" s="4" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B459" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="M459" t="s">
-        <v>1467</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="B460" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="M460" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="B461" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="M461" t="s">
-        <v>1535</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B462" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M462" t="s">
         <v>1530</v>
       </c>
-      <c r="M462" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1432</v>
-      </c>
-      <c r="M466" t="s">
-        <v>1464</v>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M463" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="B467" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="M467" t="s">
-        <v>1488</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="B468" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="M468" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B469" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="M469" s="4" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1437</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M469" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1445</v>
-      </c>
-      <c r="M472" t="s">
-        <v>1506</v>
+        <v>1550</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M470" s="4" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="B473" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="M473" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M475" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B474" t="s">
         <v>1442</v>
       </c>
-      <c r="B479" t="s">
-        <v>1434</v>
-      </c>
-      <c r="M479" t="s">
-        <v>1465</v>
+      <c r="M474" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M476" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="B480" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="M480" t="s">
-        <v>1489</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="B481" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="M481" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M482" s="4" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M482" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1553</v>
+        <v>1547</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>1574</v>
       </c>
       <c r="M483" s="4" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M485" t="s">
-        <v>1490</v>
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M484" s="4" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B486" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="M486" t="s">
-        <v>1536</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B487" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="M487" t="s">
-        <v>1491</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="B488" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="M488" t="s">
-        <v>1538</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="B489" t="s">
-        <v>1447</v>
+        <v>1529</v>
       </c>
       <c r="M489" t="s">
-        <v>1505</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B490" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="M490" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1258</v>
-      </c>
-      <c r="M494" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>382</v>
-      </c>
-      <c r="B498" t="s">
-        <v>574</v>
-      </c>
-      <c r="M498" t="s">
-        <v>383</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M491" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M495" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B499" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M499" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B500" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M500" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>387</v>
-      </c>
-      <c r="B504" t="s">
-        <v>576</v>
-      </c>
-      <c r="M504" t="s">
-        <v>630</v>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>386</v>
+      </c>
+      <c r="B501" t="s">
+        <v>572</v>
+      </c>
+      <c r="M501" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B505" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M505" t="s">
-        <v>389</v>
+        <v>626</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B506" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M506" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M510" t="s">
-        <v>1370</v>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>390</v>
+      </c>
+      <c r="B507" t="s">
+        <v>574</v>
+      </c>
+      <c r="M507" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B511" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="M511" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B512" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="M512" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>100</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M514" t="s">
-        <v>687</v>
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M513" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B515" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="M515" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B516" t="s">
-        <v>524</v>
+        <v>1023</v>
       </c>
       <c r="M516" t="s">
-        <v>211</v>
+        <v>684</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B517" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M517" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>983</v>
+        <v>103</v>
       </c>
       <c r="B518" t="s">
-        <v>985</v>
+        <v>522</v>
       </c>
       <c r="M518" t="s">
-        <v>984</v>
+        <v>212</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1410</v>
+        <v>979</v>
       </c>
       <c r="B519" t="s">
-        <v>1411</v>
+        <v>981</v>
       </c>
       <c r="M519" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>878</v>
-      </c>
-      <c r="B521" t="s">
-        <v>881</v>
-      </c>
-      <c r="M521" t="s">
-        <v>884</v>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M520" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B522" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="M522" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B523" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M523" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>639</v>
+        <v>876</v>
       </c>
       <c r="B524" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="M524" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B525" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="M525" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B526" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M526" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>891</v>
-      </c>
-      <c r="B528" t="s">
-        <v>892</v>
-      </c>
-      <c r="M528" t="s">
-        <v>893</v>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>636</v>
+      </c>
+      <c r="B527" t="s">
+        <v>883</v>
+      </c>
+      <c r="M527" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B529" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="M529" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1111</v>
-      </c>
-      <c r="M531" t="s">
-        <v>1112</v>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>890</v>
+      </c>
+      <c r="B530" t="s">
+        <v>891</v>
+      </c>
+      <c r="M530" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="B532" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="M532" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B533" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="M533" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>642</v>
+        <v>1095</v>
       </c>
       <c r="B534" t="s">
-        <v>638</v>
+        <v>1097</v>
       </c>
       <c r="M534" t="s">
-        <v>643</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1539</v>
+        <v>638</v>
       </c>
       <c r="B535" t="s">
-        <v>1540</v>
+        <v>634</v>
       </c>
       <c r="M535" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>213</v>
-      </c>
-      <c r="B539" t="s">
-        <v>526</v>
-      </c>
-      <c r="M539" t="s">
-        <v>215</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M536" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>213</v>
+      </c>
+      <c r="B540" t="s">
+        <v>523</v>
+      </c>
+      <c r="M540" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
         <v>214</v>
       </c>
-      <c r="B540" t="s">
-        <v>527</v>
-      </c>
-      <c r="M540" t="s">
+      <c r="B541" t="s">
+        <v>524</v>
+      </c>
+      <c r="M541" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>217</v>
-      </c>
-      <c r="B542" t="s">
-        <v>528</v>
-      </c>
-      <c r="M542" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B543" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M543" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>218</v>
+      </c>
+      <c r="B544" t="s">
+        <v>526</v>
+      </c>
+      <c r="M544" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
         <v>219</v>
       </c>
-      <c r="B544" t="s">
-        <v>530</v>
-      </c>
-      <c r="M544" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="B545" t="s">
+        <v>527</v>
+      </c>
+      <c r="M545" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
         <v>220</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B547" t="s">
         <v>221</v>
       </c>
-      <c r="M546" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1269</v>
-      </c>
-      <c r="M548" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>405</v>
-      </c>
-      <c r="B550" t="s">
-        <v>598</v>
-      </c>
-      <c r="M550" t="s">
-        <v>402</v>
+      <c r="M547" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M549" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B551" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M551" t="s">
-        <v>403</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B552" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M552" t="s">
-        <v>1486</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B553" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M553" t="s">
-        <v>404</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>409</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C554" s="1"/>
-      <c r="D554" s="1"/>
-      <c r="E554" s="1"/>
-      <c r="F554" s="1"/>
-      <c r="G554" s="1"/>
-      <c r="H554" s="1"/>
-      <c r="I554" s="1"/>
-      <c r="J554" s="1"/>
-      <c r="K554" s="1"/>
-      <c r="L554" s="1"/>
-      <c r="M554" s="1" t="s">
-        <v>1487</v>
+        <v>405</v>
+      </c>
+      <c r="B554" t="s">
+        <v>598</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>406</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
+      <c r="E555" s="1"/>
+      <c r="F555" s="1"/>
+      <c r="G555" s="1"/>
+      <c r="H555" s="1"/>
+      <c r="I555" s="1"/>
+      <c r="J555" s="1"/>
+      <c r="K555" s="1"/>
+      <c r="L555" s="1"/>
+      <c r="M555" s="1" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>416</v>
-      </c>
-      <c r="B556" t="s">
-        <v>410</v>
-      </c>
-      <c r="M556" t="s">
-        <v>410</v>
+        <v>1580</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
+      <c r="E556" s="1"/>
+      <c r="F556" s="1"/>
+      <c r="G556" s="1"/>
+      <c r="H556" s="1"/>
+      <c r="I556" s="1"/>
+      <c r="J556" s="1"/>
+      <c r="K556" s="1"/>
+      <c r="L556" s="1"/>
+      <c r="M556" s="1" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>748</v>
-      </c>
-      <c r="B557" t="s">
-        <v>750</v>
-      </c>
-      <c r="M557" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>749</v>
-      </c>
-      <c r="B558" t="s">
-        <v>751</v>
-      </c>
-      <c r="M558" t="s">
-        <v>753</v>
+        <v>1581</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+      <c r="E557" s="1"/>
+      <c r="F557" s="1"/>
+      <c r="G557" s="1"/>
+      <c r="H557" s="1"/>
+      <c r="I557" s="1"/>
+      <c r="J557" s="1"/>
+      <c r="K557" s="1"/>
+      <c r="L557" s="1"/>
+      <c r="M557" s="1" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B559" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="M559" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="B560" t="s">
-        <v>447</v>
+        <v>746</v>
       </c>
       <c r="M560" t="s">
-        <v>412</v>
+        <v>748</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="B561" t="s">
-        <v>448</v>
+        <v>747</v>
       </c>
       <c r="M561" t="s">
-        <v>413</v>
+        <v>749</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B562" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M562" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B563" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M563" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1074</v>
+        <v>415</v>
       </c>
       <c r="B564" t="s">
-        <v>1075</v>
+        <v>445</v>
       </c>
       <c r="M564" t="s">
-        <v>1077</v>
+        <v>410</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1568</v>
+        <v>416</v>
       </c>
       <c r="B565" t="s">
-        <v>1569</v>
+        <v>446</v>
       </c>
       <c r="M565" t="s">
-        <v>1570</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>417</v>
+      </c>
+      <c r="B566" t="s">
+        <v>447</v>
+      </c>
+      <c r="M566" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>832</v>
+        <v>1070</v>
       </c>
       <c r="B567" t="s">
-        <v>839</v>
+        <v>1071</v>
       </c>
       <c r="M567" t="s">
-        <v>846</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>833</v>
+        <v>1563</v>
       </c>
       <c r="B568" t="s">
-        <v>840</v>
+        <v>1564</v>
       </c>
       <c r="M568" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>834</v>
-      </c>
-      <c r="B569" t="s">
-        <v>841</v>
-      </c>
-      <c r="M569" t="s">
-        <v>848</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>828</v>
+      </c>
+      <c r="B570" t="s">
         <v>835</v>
       </c>
-      <c r="B570" t="s">
+      <c r="M570" t="s">
         <v>842</v>
-      </c>
-      <c r="M570" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>829</v>
+      </c>
+      <c r="B571" t="s">
         <v>836</v>
       </c>
-      <c r="B571" t="s">
+      <c r="M571" t="s">
         <v>843</v>
-      </c>
-      <c r="M571" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>830</v>
+      </c>
+      <c r="B572" t="s">
         <v>837</v>
       </c>
-      <c r="B572" t="s">
+      <c r="M572" t="s">
         <v>844</v>
-      </c>
-      <c r="M572" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>831</v>
+      </c>
+      <c r="B573" t="s">
         <v>838</v>
       </c>
-      <c r="B573" t="s">
+      <c r="M573" t="s">
         <v>845</v>
-      </c>
-      <c r="M573" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1079</v>
+        <v>832</v>
       </c>
       <c r="B574" t="s">
-        <v>1076</v>
+        <v>839</v>
       </c>
       <c r="M574" t="s">
-        <v>1078</v>
+        <v>846</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1572</v>
+        <v>833</v>
       </c>
       <c r="B575" t="s">
-        <v>1573</v>
+        <v>840</v>
       </c>
       <c r="M575" t="s">
-        <v>1571</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>834</v>
+      </c>
+      <c r="B576" t="s">
+        <v>841</v>
+      </c>
+      <c r="M576" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>853</v>
+        <v>1075</v>
       </c>
       <c r="B577" t="s">
-        <v>1545</v>
+        <v>1072</v>
       </c>
       <c r="M577" t="s">
-        <v>1548</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>854</v>
+        <v>1567</v>
       </c>
       <c r="B578" t="s">
-        <v>1549</v>
+        <v>1568</v>
       </c>
       <c r="M578" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1550</v>
-      </c>
-      <c r="M579" t="s">
-        <v>1551</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1510</v>
+        <v>849</v>
       </c>
       <c r="B580" t="s">
-        <v>1511</v>
+        <v>1540</v>
       </c>
       <c r="M580" t="s">
-        <v>1514</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>850</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M583" t="s">
         <v>1509</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1512</v>
-      </c>
-      <c r="M581" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>422</v>
+        <v>1504</v>
       </c>
       <c r="B584" t="s">
-        <v>451</v>
+        <v>1507</v>
       </c>
       <c r="M584" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>423</v>
-      </c>
-      <c r="B585" t="s">
-        <v>427</v>
-      </c>
-      <c r="M585" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>424</v>
-      </c>
-      <c r="B586" t="s">
-        <v>426</v>
-      </c>
-      <c r="M586" t="s">
-        <v>445</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>858</v>
+        <v>419</v>
       </c>
       <c r="B587" t="s">
-        <v>859</v>
+        <v>448</v>
       </c>
       <c r="M587" t="s">
-        <v>860</v>
+        <v>742</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>861</v>
+        <v>420</v>
       </c>
       <c r="B588" t="s">
-        <v>862</v>
+        <v>424</v>
       </c>
       <c r="M588" t="s">
-        <v>863</v>
+        <v>441</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>864</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C589" s="3"/>
-      <c r="D589" s="3"/>
-      <c r="E589" s="3"/>
-      <c r="F589" s="3"/>
-      <c r="G589" s="3"/>
-      <c r="H589" s="3"/>
-      <c r="I589" s="3"/>
-      <c r="J589" s="3"/>
-      <c r="K589" s="3"/>
-      <c r="L589" s="3"/>
-      <c r="M589" s="2" t="s">
-        <v>866</v>
+        <v>421</v>
+      </c>
+      <c r="B589" t="s">
+        <v>423</v>
+      </c>
+      <c r="M589" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>976</v>
-      </c>
-      <c r="B590" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C590" s="3"/>
-      <c r="D590" s="3"/>
-      <c r="E590" s="3"/>
-      <c r="F590" s="3"/>
-      <c r="G590" s="3"/>
-      <c r="H590" s="3"/>
-      <c r="I590" s="3"/>
-      <c r="J590" s="3"/>
-      <c r="K590" s="3"/>
-      <c r="L590" s="3"/>
-      <c r="M590" s="2" t="s">
-        <v>978</v>
+        <v>854</v>
+      </c>
+      <c r="B590" t="s">
+        <v>855</v>
+      </c>
+      <c r="M590" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C591" s="3"/>
-      <c r="D591" s="3"/>
-      <c r="E591" s="3"/>
-      <c r="F591" s="3"/>
-      <c r="G591" s="3"/>
-      <c r="H591" s="3"/>
-      <c r="I591" s="3"/>
-      <c r="J591" s="3"/>
-      <c r="K591" s="3"/>
-      <c r="L591" s="3"/>
-      <c r="M591" s="2" t="s">
-        <v>1309</v>
+        <v>857</v>
+      </c>
+      <c r="B591" t="s">
+        <v>858</v>
+      </c>
+      <c r="M591" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>860</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C592" s="3"/>
+      <c r="D592" s="3"/>
+      <c r="E592" s="3"/>
+      <c r="F592" s="3"/>
+      <c r="G592" s="3"/>
+      <c r="H592" s="3"/>
+      <c r="I592" s="3"/>
+      <c r="J592" s="3"/>
+      <c r="K592" s="3"/>
+      <c r="L592" s="3"/>
+      <c r="M592" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>972</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+      <c r="F593" s="3"/>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+      <c r="I593" s="3"/>
+      <c r="J593" s="3"/>
+      <c r="K593" s="3"/>
+      <c r="L593" s="3"/>
+      <c r="M593" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C594" s="3"/>
+      <c r="D594" s="3"/>
+      <c r="E594" s="3"/>
+      <c r="F594" s="3"/>
+      <c r="G594" s="3"/>
+      <c r="H594" s="3"/>
+      <c r="I594" s="3"/>
+      <c r="J594" s="3"/>
+      <c r="K594" s="3"/>
+      <c r="L594" s="3"/>
+      <c r="M594" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+      <c r="E595" s="3"/>
+      <c r="F595" s="3"/>
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+      <c r="I595" s="3"/>
+      <c r="J595" s="3"/>
+      <c r="K595" s="3"/>
+      <c r="L595" s="3"/>
+      <c r="M595" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>422</v>
+      </c>
+      <c r="B596" t="s">
+        <v>743</v>
+      </c>
+      <c r="M596" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>429</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="M598" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B592" t="s">
-        <v>747</v>
-      </c>
-      <c r="M592" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="594" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>432</v>
-      </c>
-      <c r="B594" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="M594" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="595" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>433</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="M595" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="596" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>434</v>
-      </c>
-      <c r="B596" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="M596" s="4" t="s">
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>435</v>
-      </c>
-      <c r="B597" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="M597" s="4" t="s">
+      <c r="B599" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="M599" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B598" s="4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M598" s="4" t="s">
-        <v>1517</v>
+      <c r="B600" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="M600" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>607</v>
-      </c>
-      <c r="B601" t="s">
-        <v>437</v>
-      </c>
-      <c r="M601" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="M601" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>608</v>
-      </c>
-      <c r="B602" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M602" s="4" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>434</v>
+      </c>
+      <c r="M605" t="s">
         <v>438</v>
-      </c>
-      <c r="M602" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>609</v>
-      </c>
-      <c r="B603" t="s">
-        <v>439</v>
-      </c>
-      <c r="M603" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1544</v>
-      </c>
-      <c r="M604" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>646</v>
+        <v>435</v>
       </c>
       <c r="M606" t="s">
-        <v>647</v>
+        <v>437</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>637</v>
+        <v>436</v>
       </c>
       <c r="M607" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>650</v>
-      </c>
-      <c r="B609" t="s">
-        <v>651</v>
-      </c>
-      <c r="M609" t="s">
-        <v>652</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M608" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>630</v>
+      </c>
+      <c r="B610" t="s">
+        <v>642</v>
+      </c>
+      <c r="M610" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>755</v>
+        <v>631</v>
       </c>
       <c r="B611" t="s">
-        <v>756</v>
+        <v>633</v>
       </c>
       <c r="M611" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>875</v>
-      </c>
-      <c r="B612" t="s">
-        <v>876</v>
-      </c>
-      <c r="M612" t="s">
-        <v>877</v>
+        <v>640</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>759</v>
+        <v>646</v>
       </c>
       <c r="B613" t="s">
-        <v>757</v>
+        <v>647</v>
       </c>
       <c r="M613" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>762</v>
-      </c>
-      <c r="B614" t="s">
-        <v>757</v>
-      </c>
-      <c r="M614" t="s">
-        <v>763</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B615" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="M615" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="617" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>871</v>
+      </c>
+      <c r="B616" t="s">
+        <v>872</v>
+      </c>
+      <c r="M616" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>768</v>
-      </c>
-      <c r="B617" s="4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="M617" s="4" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="618" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="B617" t="s">
+        <v>753</v>
+      </c>
+      <c r="M617" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>769</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="M618" s="4" t="s">
-        <v>1452</v>
+        <v>758</v>
+      </c>
+      <c r="B618" t="s">
+        <v>753</v>
+      </c>
+      <c r="M618" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B619" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="M619" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="621" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1095</v>
+        <v>764</v>
       </c>
       <c r="B621" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M621" s="4" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>765</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M622" s="4" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>766</v>
+      </c>
+      <c r="B623" t="s">
+        <v>768</v>
+      </c>
+      <c r="M623" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M625" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M626" s="4" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B627" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="M621" s="4" t="s">
+      <c r="M627" s="4" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+    <row r="628" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M628" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M629" s="4" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
         <v>1089</v>
       </c>
-      <c r="B622" s="4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="M622" s="4" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="623" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B623" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M623" s="4" t="s">
+      <c r="B630" s="4" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="624" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B624" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M624" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="625" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B625" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M625" s="4" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="626" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B626" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="M626" s="4" t="s">
-        <v>1458</v>
+      <c r="M630" s="4" t="s">
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -10189,486 +10297,486 @@
     </row>
     <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="360" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -10743,376 +10851,376 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B2" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="M2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B4" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="M4" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B5" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="M5" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B6" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="M7" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B8" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="M8" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B9" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="M9" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B10" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B11" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="M11" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B12" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B13" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="M13" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="M14" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B15" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="M15" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B16" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="M16" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B17" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="M17" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B18" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B19" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="M19" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B20" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B21" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B22" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="M22" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B23" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B24" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B25" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="M25" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="M27" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="M28" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B29" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="M29" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B30" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="M31" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="M32" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="M33" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="M34" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="M35" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
   </sheetData>
@@ -11185,218 +11293,218 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B8" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B9" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B10" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B12" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B14" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B15" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B16" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B18" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B20" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B21" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B24" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B25" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B27" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B28" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -11470,175 +11578,175 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="M2" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="M3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="M4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="M5" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="M6" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="M7" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="M8" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="M9" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="M10" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="M11" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="M12" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="M13" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="M14" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="M15" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="M16" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="M17" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     